--- a/Invoices/Invoices.xlsx
+++ b/Invoices/Invoices.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Putz 101" sheetId="1" r:id="rId1"/>
+    <sheet name="Putz 102 APS" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -18,15 +19,120 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+  <si>
+    <t>Sr. No</t>
+  </si>
+  <si>
+    <t>PO NO.</t>
+  </si>
+  <si>
+    <t>Part No.</t>
+  </si>
+  <si>
+    <t>Item Description</t>
+  </si>
+  <si>
+    <t>Qty</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>CGST 9%</t>
+  </si>
+  <si>
+    <t>SGST 9%</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>151315311 (30-03-2023)</t>
+  </si>
+  <si>
+    <t>615863</t>
+  </si>
+  <si>
+    <t>Control Room Spike Board</t>
+  </si>
+  <si>
+    <t>151306716 (13-03-2023)</t>
+  </si>
+  <si>
+    <t>Monochrome laserjet printer Brother H2321 (Serial Number - E73793B3N265962, E73793B3N265958, E73793B3N265944, E73793B3N265955, E73793B3N265936)</t>
+  </si>
+  <si>
+    <t>151308917 (16-03-2023) (APS)</t>
+  </si>
+  <si>
+    <t>INDUSTRIAL BELL_225mm</t>
+  </si>
+  <si>
+    <t>Cement Hop. Bellow_Silic_dia 205x400mm</t>
+  </si>
+  <si>
+    <t>Screw Conveyor Bellow_Dia174x500mm</t>
+  </si>
+  <si>
+    <t>151311194 (21-03-2023) 151315311 (30-03-2023)</t>
+  </si>
+  <si>
+    <t>Screw Conveyor Bellow_Dia 224x500mm</t>
+  </si>
+  <si>
+    <t>Bellow_Butterfly-Valve_31 0x400mm</t>
+  </si>
+  <si>
+    <t>Screw conv. Bellow_Dia278 x500lg_MT3.0</t>
+  </si>
+  <si>
+    <t>616039</t>
+  </si>
+  <si>
+    <t>Discharge Chute Bellow_Dia 500x240mm</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +143,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -45,12 +151,73 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -331,12 +498,455 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" customWidth="1"/>
+    <col min="3" max="3" width="7.88671875" customWidth="1"/>
+    <col min="4" max="4" width="40.88671875" customWidth="1"/>
+    <col min="5" max="5" width="5.21875" customWidth="1"/>
+    <col min="6" max="6" width="6.44140625" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="1">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1">
+        <v>600</v>
+      </c>
+      <c r="G2" s="1">
+        <f>E2*F2</f>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="7">
+        <v>719381</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="1">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1">
+        <v>9999</v>
+      </c>
+      <c r="G3" s="1">
+        <f t="shared" ref="G3:G5" si="0">E3*F3</f>
+        <v>49995</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="5">
+        <v>616026</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="1">
+        <v>6</v>
+      </c>
+      <c r="F4" s="1">
+        <v>5614</v>
+      </c>
+      <c r="G4" s="1">
+        <f t="shared" si="0"/>
+        <v>33684</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="5">
+        <v>615181</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2</v>
+      </c>
+      <c r="F5" s="1">
+        <v>2400</v>
+      </c>
+      <c r="G5" s="1">
+        <f t="shared" si="0"/>
+        <v>4800</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="2">
+        <f>SUM(G2:G5)</f>
+        <v>91479</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="2">
+        <f>G6*9%</f>
+        <v>8233.11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="2">
+        <f>G6*9%</f>
+        <v>8233.11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="2">
+        <f>SUM(G6:G8)</f>
+        <v>107945.22</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="A9:F9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6.88671875" customWidth="1"/>
+    <col min="2" max="2" width="19.44140625" customWidth="1"/>
+    <col min="4" max="4" width="27.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="5">
+        <v>615181</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="1">
+        <v>10</v>
+      </c>
+      <c r="F2" s="1">
+        <v>2400</v>
+      </c>
+      <c r="G2" s="1">
+        <f>E2*F2</f>
+        <v>24000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="9">
+        <v>630059</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="1">
+        <v>10</v>
+      </c>
+      <c r="F3" s="1">
+        <v>4048</v>
+      </c>
+      <c r="G3" s="1">
+        <f t="shared" ref="G3:G7" si="0">E3*F3</f>
+        <v>40480</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="5">
+        <v>615698</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="1">
+        <v>19</v>
+      </c>
+      <c r="F4" s="1">
+        <v>4831</v>
+      </c>
+      <c r="G4" s="1">
+        <f t="shared" si="0"/>
+        <v>91789</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="4">
+        <v>632215</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2</v>
+      </c>
+      <c r="F5" s="1">
+        <v>5738</v>
+      </c>
+      <c r="G5" s="1">
+        <f t="shared" si="0"/>
+        <v>11476</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="5">
+        <v>663093</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2</v>
+      </c>
+      <c r="F6" s="1">
+        <v>6615</v>
+      </c>
+      <c r="G6" s="1">
+        <f t="shared" si="0"/>
+        <v>13230</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="1">
+        <v>10</v>
+      </c>
+      <c r="F7" s="1">
+        <v>6521</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="shared" si="0"/>
+        <v>65210</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="3">
+        <f>SUM(G2:G7)</f>
+        <v>246185</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="3">
+        <f>G8*9%</f>
+        <v>22156.649999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="3">
+        <f>G8*9%</f>
+        <v>22156.649999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="3">
+        <f>SUM(G8:G10)</f>
+        <v>290498.30000000005</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A11:F11"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Invoices/Invoices.xlsx
+++ b/Invoices/Invoices.xlsx
@@ -4,11 +4,15 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Putz 101" sheetId="1" r:id="rId1"/>
     <sheet name="Putz 102 APS" sheetId="2" r:id="rId2"/>
+    <sheet name="Putz 103 APS" sheetId="3" r:id="rId3"/>
+    <sheet name="Putz 104" sheetId="4" r:id="rId4"/>
+    <sheet name="Putz 105" sheetId="5" r:id="rId5"/>
+    <sheet name="Marfremiot 106" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="42">
   <si>
     <t>Sr. No</t>
   </si>
@@ -95,13 +99,64 @@
   </si>
   <si>
     <t>Discharge Chute Bellow_Dia 500x240mm</t>
+  </si>
+  <si>
+    <t>151308917 16-03-2023) (APS)</t>
+  </si>
+  <si>
+    <t>151320915 (12-04-2023)</t>
+  </si>
+  <si>
+    <t>Water Bellow_Canvas_ID 10 0mm</t>
+  </si>
+  <si>
+    <t>151322392 (15-04-2023)</t>
+  </si>
+  <si>
+    <t>PC UPS (Serial Number - 242204546126, 242204546127, 242204546128, 242204546129, 242204546118, 242204546119, 242204546120, 242204546121, 242204546134, 242204546135)</t>
+  </si>
+  <si>
+    <t>151314791 (29-03-2023)</t>
+  </si>
+  <si>
+    <t>687254</t>
+  </si>
+  <si>
+    <t>BEARING_TAKE UP HOUSING_UCT210</t>
+  </si>
+  <si>
+    <t>151314792 (29-03-2023)</t>
+  </si>
+  <si>
+    <t>695947</t>
+  </si>
+  <si>
+    <t>ROD END 20MM</t>
+  </si>
+  <si>
+    <t>SR NO</t>
+  </si>
+  <si>
+    <t>ITEM DESCRIPTION</t>
+  </si>
+  <si>
+    <t>QTY</t>
+  </si>
+  <si>
+    <t>PRICE</t>
+  </si>
+  <si>
+    <t>AMOUNT</t>
+  </si>
+  <si>
+    <t>1100VA Microtek UPS with Exide Solar Battery 150 Ah</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -134,6 +189,21 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -143,7 +213,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -179,11 +249,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -216,6 +310,30 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -500,8 +618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -635,56 +753,56 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
       <c r="G6" s="2">
         <f>SUM(G2:G5)</f>
         <v>91479</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
       <c r="G7" s="2">
         <f>G6*9%</f>
         <v>8233.11</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
       <c r="G8" s="2">
         <f>G6*9%</f>
         <v>8233.11</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
       <c r="G9" s="2">
         <f>SUM(G6:G8)</f>
         <v>107945.22</v>
@@ -885,56 +1003,56 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
       <c r="G8" s="3">
         <f>SUM(G2:G7)</f>
         <v>246185</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
       <c r="G9" s="3">
         <f>G8*9%</f>
         <v>22156.649999999998</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
       <c r="G10" s="3">
         <f>G8*9%</f>
         <v>22156.649999999998</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
       <c r="G11" s="3">
         <f>SUM(G8:G10)</f>
         <v>290498.30000000005</v>
@@ -949,4 +1067,673 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="7" customWidth="1"/>
+    <col min="2" max="2" width="12.21875" customWidth="1"/>
+    <col min="4" max="4" width="26.5546875" customWidth="1"/>
+    <col min="7" max="7" width="6.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="52.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="5">
+        <v>615698</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>4831</v>
+      </c>
+      <c r="G2" s="1">
+        <f>E2*F2</f>
+        <v>4831</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="11">
+        <f>SUM(G2)</f>
+        <v>4831</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="11">
+        <f>G3*9%</f>
+        <v>434.78999999999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="11">
+        <f>G3*9%</f>
+        <v>434.78999999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="11">
+        <f>SUM(G3:G5)</f>
+        <v>5700.58</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A6:F6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="7.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" customWidth="1"/>
+    <col min="4" max="4" width="44.77734375" customWidth="1"/>
+    <col min="5" max="5" width="5.88671875" customWidth="1"/>
+    <col min="6" max="6" width="6.6640625" customWidth="1"/>
+    <col min="7" max="7" width="9.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="5">
+        <v>615698</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="1">
+        <v>10</v>
+      </c>
+      <c r="F2" s="1">
+        <v>4831</v>
+      </c>
+      <c r="G2" s="1">
+        <f>E2*F2</f>
+        <v>48310</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="1">
+        <v>15</v>
+      </c>
+      <c r="F3" s="1">
+        <v>600</v>
+      </c>
+      <c r="G3" s="1">
+        <f t="shared" ref="G3:G8" si="0">E3*F3</f>
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="5">
+        <v>616026</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="1">
+        <v>9</v>
+      </c>
+      <c r="F4" s="1">
+        <v>5614</v>
+      </c>
+      <c r="G4" s="1">
+        <f t="shared" si="0"/>
+        <v>50526</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="1">
+        <v>5</v>
+      </c>
+      <c r="F5" s="1">
+        <v>6521</v>
+      </c>
+      <c r="G5" s="1">
+        <f t="shared" si="0"/>
+        <v>32605</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="5">
+        <v>630059</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="1">
+        <v>20</v>
+      </c>
+      <c r="F6" s="1">
+        <v>4048</v>
+      </c>
+      <c r="G6" s="1">
+        <f t="shared" si="0"/>
+        <v>80960</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="5">
+        <v>728488</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="1">
+        <v>30.5</v>
+      </c>
+      <c r="F7" s="1">
+        <v>100</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="shared" si="0"/>
+        <v>3050</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="4">
+        <v>724214</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="1">
+        <v>10</v>
+      </c>
+      <c r="F8" s="1">
+        <v>2490</v>
+      </c>
+      <c r="G8" s="1">
+        <f t="shared" si="0"/>
+        <v>24900</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="11">
+        <f>SUM(G2:G8)</f>
+        <v>249351</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="11">
+        <f>G9*9%</f>
+        <v>22441.59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="11">
+        <f>G9*9%</f>
+        <v>22441.59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="11">
+        <f>SUM(G9:G11)</f>
+        <v>294234.18000000005</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A12:F12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="19.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="1">
+        <v>40</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1908</v>
+      </c>
+      <c r="G2" s="1">
+        <f>E2*F2</f>
+        <v>76320</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="1">
+        <v>100</v>
+      </c>
+      <c r="F3" s="1">
+        <v>565</v>
+      </c>
+      <c r="G3" s="1">
+        <f t="shared" ref="G3" si="0">E3*F3</f>
+        <v>56500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="12">
+        <f>SUM(G2:G3)</f>
+        <v>132820</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="12">
+        <f>G4*9%</f>
+        <v>11953.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="12">
+        <f>G4*9%</f>
+        <v>11953.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="12">
+        <f>SUM(G4:G6)</f>
+        <v>156727.59999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A7:F7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6.77734375" customWidth="1"/>
+    <col min="2" max="2" width="22" customWidth="1"/>
+    <col min="3" max="3" width="5.5546875" customWidth="1"/>
+    <col min="4" max="4" width="6.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="15">
+        <v>1</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="16">
+        <v>1</v>
+      </c>
+      <c r="D2" s="16">
+        <v>18560</v>
+      </c>
+      <c r="E2" s="16">
+        <f>C2*D2</f>
+        <v>18560</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="19">
+        <f>SUM(E2)</f>
+        <v>18560</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="19">
+        <f>E3*9%</f>
+        <v>1670.3999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="19">
+        <f>E3*9%</f>
+        <v>1670.3999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="19">
+        <f>SUM(E3:E5)</f>
+        <v>21900.800000000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A6:D6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Invoices/Invoices.xlsx
+++ b/Invoices/Invoices.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Putz 101" sheetId="1" r:id="rId1"/>
@@ -13,6 +13,8 @@
     <sheet name="Putz 104" sheetId="4" r:id="rId4"/>
     <sheet name="Putz 105" sheetId="5" r:id="rId5"/>
     <sheet name="Marfremiot 106" sheetId="6" r:id="rId6"/>
+    <sheet name="Putz 107" sheetId="7" r:id="rId7"/>
+    <sheet name="Putz 108" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="43">
   <si>
     <t>Sr. No</t>
   </si>
@@ -150,6 +152,9 @@
   </si>
   <si>
     <t>1100VA Microtek UPS with Exide Solar Battery 150 Ah</t>
+  </si>
+  <si>
+    <t>Monochrome laserjet printer Brother H2321 (Serial Number -  E73793B3N270821, E73793B3N270823, E73793B3N270826, E73793B3N270833, E73793B3N270836, E73793B3N270840, E73793B3N270842, E73793B3N270844, E73793B3N270853, E73793B3N270867)</t>
   </si>
 </sst>
 </file>
@@ -277,7 +282,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -327,13 +332,19 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -753,56 +764,56 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
       <c r="G6" s="2">
         <f>SUM(G2:G5)</f>
         <v>91479</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
       <c r="G7" s="2">
         <f>G6*9%</f>
         <v>8233.11</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
       <c r="G8" s="2">
         <f>G6*9%</f>
         <v>8233.11</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
       <c r="G9" s="2">
         <f>SUM(G6:G8)</f>
         <v>107945.22</v>
@@ -1003,56 +1014,56 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
       <c r="G8" s="3">
         <f>SUM(G2:G7)</f>
         <v>246185</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
       <c r="G9" s="3">
         <f>G8*9%</f>
         <v>22156.649999999998</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
       <c r="G10" s="3">
         <f>G8*9%</f>
         <v>22156.649999999998</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
       <c r="G11" s="3">
         <f>SUM(G8:G10)</f>
         <v>290498.30000000005</v>
@@ -1133,56 +1144,56 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
       <c r="G3" s="11">
         <f>SUM(G2)</f>
         <v>4831</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
       <c r="G4" s="11">
         <f>G3*9%</f>
         <v>434.78999999999996</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
       <c r="G5" s="11">
         <f>G3*9%</f>
         <v>434.78999999999996</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
       <c r="G6" s="11">
         <f>SUM(G3:G5)</f>
         <v>5700.58</v>
@@ -1410,56 +1421,56 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
       <c r="G9" s="11">
         <f>SUM(G2:G8)</f>
         <v>249351</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
       <c r="G10" s="11">
         <f>G9*9%</f>
         <v>22441.59</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
       <c r="G11" s="11">
         <f>G9*9%</f>
         <v>22441.59</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
       <c r="G12" s="11">
         <f>SUM(G9:G11)</f>
         <v>294234.18000000005</v>
@@ -1481,7 +1492,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection sqref="A1:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1562,56 +1573,56 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
       <c r="G4" s="12">
         <f>SUM(G2:G3)</f>
         <v>132820</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
       <c r="G5" s="12">
         <f>G4*9%</f>
         <v>11953.8</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
       <c r="G6" s="12">
         <f>G4*9%</f>
         <v>11953.8</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
       <c r="G7" s="12">
         <f>SUM(G4:G6)</f>
         <v>156727.59999999998</v>
@@ -1632,8 +1643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1680,49 +1691,49 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="19">
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="17">
         <f>SUM(E2)</f>
         <v>18560</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="19">
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="17">
         <f>E3*9%</f>
         <v>1670.3999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="19">
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="17">
         <f>E3*9%</f>
         <v>1670.3999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="19">
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="17">
         <f>SUM(E3:E5)</f>
         <v>21900.800000000003</v>
       </c>
@@ -1736,4 +1747,291 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="5.88671875" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" customWidth="1"/>
+    <col min="4" max="4" width="33.88671875" customWidth="1"/>
+    <col min="5" max="5" width="6.33203125" customWidth="1"/>
+    <col min="6" max="6" width="6" customWidth="1"/>
+    <col min="7" max="7" width="7.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="50.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="5">
+        <v>615181</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="1">
+        <v>12</v>
+      </c>
+      <c r="F2" s="1">
+        <v>2400</v>
+      </c>
+      <c r="G2" s="1">
+        <f>E2*F2</f>
+        <v>28800</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="97.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="4">
+        <v>719381</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="1">
+        <v>10</v>
+      </c>
+      <c r="F3" s="1">
+        <v>9999</v>
+      </c>
+      <c r="G3" s="1">
+        <f t="shared" ref="G3" si="0">E3*F3</f>
+        <v>99990</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="13">
+        <f>SUM(G2:G3)</f>
+        <v>128790</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="13">
+        <f>G4*9%</f>
+        <v>11591.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="13">
+        <f>G4*9%</f>
+        <v>11591.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="13">
+        <f>SUM(G4:G6)</f>
+        <v>151972.20000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A7:F7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="12.44140625" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+    <col min="5" max="5" width="6.21875" customWidth="1"/>
+    <col min="6" max="6" width="6.88671875" customWidth="1"/>
+    <col min="7" max="7" width="6.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="5">
+        <v>616026</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>5614</v>
+      </c>
+      <c r="G2" s="1">
+        <f>E2*F2</f>
+        <v>5614</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="18">
+        <f>SUM(G2)</f>
+        <v>5614</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="18">
+        <f>G3*9%</f>
+        <v>505.26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="18">
+        <f>G3*9%</f>
+        <v>505.26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="18">
+        <f>SUM(G3:G5)</f>
+        <v>6624.52</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A6:F6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Invoices/Invoices.xlsx
+++ b/Invoices/Invoices.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="45">
   <si>
     <t>Sr. No</t>
   </si>
@@ -155,6 +155,12 @@
   </si>
   <si>
     <t>Monochrome laserjet printer Brother H2321 (Serial Number -  E73793B3N270821, E73793B3N270823, E73793B3N270826, E73793B3N270833, E73793B3N270836, E73793B3N270840, E73793B3N270842, E73793B3N270844, E73793B3N270853, E73793B3N270867)</t>
+  </si>
+  <si>
+    <t>151322710 (17-04-2023)</t>
+  </si>
+  <si>
+    <t>151322391 (15-04-2023)</t>
   </si>
 </sst>
 </file>
@@ -627,6 +633,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -833,6 +842,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1082,6 +1094,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1212,6 +1227,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1489,10 +1507,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G7"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1907,19 +1928,20 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="6.5546875" customWidth="1"/>
     <col min="2" max="2" width="12.44140625" customWidth="1"/>
-    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+    <col min="4" max="4" width="35.6640625" customWidth="1"/>
     <col min="5" max="5" width="6.21875" customWidth="1"/>
     <col min="6" max="6" width="6.88671875" customWidth="1"/>
-    <col min="7" max="7" width="6.33203125" customWidth="1"/>
+    <col min="7" max="7" width="8.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -1950,42 +1972,52 @@
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="5">
-        <v>616026</v>
+        <v>43</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E2" s="1">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="F2" s="1">
-        <v>5614</v>
+        <v>6521</v>
       </c>
       <c r="G2" s="1">
-        <f>E2*F2</f>
-        <v>5614</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="18">
-        <f>SUM(G2)</f>
-        <v>5614</v>
+        <f t="shared" ref="G2:G3" si="0">E2*F2</f>
+        <v>110857</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="4">
+        <v>632215</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="1">
+        <v>15</v>
+      </c>
+      <c r="F3" s="1">
+        <v>5738</v>
+      </c>
+      <c r="G3" s="1">
+        <f t="shared" si="0"/>
+        <v>86070</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="19"/>
       <c r="C4" s="19"/>
@@ -1993,13 +2025,13 @@
       <c r="E4" s="19"/>
       <c r="F4" s="19"/>
       <c r="G4" s="18">
-        <f>G3*9%</f>
-        <v>505.26</v>
+        <f>SUM(G2:G3)</f>
+        <v>196927</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" s="19"/>
       <c r="C5" s="19"/>
@@ -2007,13 +2039,13 @@
       <c r="E5" s="19"/>
       <c r="F5" s="19"/>
       <c r="G5" s="18">
-        <f>G3*9%</f>
-        <v>505.26</v>
+        <f>G4*9%</f>
+        <v>17723.43</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" s="19"/>
       <c r="C6" s="19"/>
@@ -2021,16 +2053,30 @@
       <c r="E6" s="19"/>
       <c r="F6" s="19"/>
       <c r="G6" s="18">
-        <f>SUM(G3:G5)</f>
-        <v>6624.52</v>
+        <f>G4*9%</f>
+        <v>17723.43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="18">
+        <f>SUM(G4:G6)</f>
+        <v>232373.86</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A3:F3"/>
     <mergeCell ref="A4:F4"/>
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A7:F7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Invoices/Invoices.xlsx
+++ b/Invoices/Invoices.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="3" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Putz 101" sheetId="1" r:id="rId1"/>
@@ -15,6 +15,9 @@
     <sheet name="Marfremiot 106" sheetId="6" r:id="rId6"/>
     <sheet name="Putz 107" sheetId="7" r:id="rId7"/>
     <sheet name="Putz 108" sheetId="8" r:id="rId8"/>
+    <sheet name="Putz 109" sheetId="9" r:id="rId9"/>
+    <sheet name="Putz 110 APS" sheetId="10" r:id="rId10"/>
+    <sheet name="Putz 111" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="47">
   <si>
     <t>Sr. No</t>
   </si>
@@ -161,6 +164,12 @@
   </si>
   <si>
     <t>151322391 (15-04-2023)</t>
+  </si>
+  <si>
+    <t>151326603 (26-04-2023) (APS)</t>
+  </si>
+  <si>
+    <t>151328170 (02-05-2023)</t>
   </si>
 </sst>
 </file>
@@ -288,7 +297,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -339,6 +348,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -773,56 +788,56 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
       <c r="G6" s="2">
         <f>SUM(G2:G5)</f>
         <v>91479</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
       <c r="G7" s="2">
         <f>G6*9%</f>
         <v>8233.11</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
       <c r="G8" s="2">
         <f>G6*9%</f>
         <v>8233.11</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
       <c r="G9" s="2">
         <f>SUM(G6:G8)</f>
         <v>107945.22</v>
@@ -837,6 +852,291 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" customWidth="1"/>
+    <col min="4" max="4" width="26.21875" customWidth="1"/>
+    <col min="5" max="5" width="4.77734375" customWidth="1"/>
+    <col min="6" max="6" width="6.77734375" customWidth="1"/>
+    <col min="7" max="7" width="7.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="5">
+        <v>616026</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="1">
+        <v>15</v>
+      </c>
+      <c r="F2" s="1">
+        <v>5614</v>
+      </c>
+      <c r="G2" s="1">
+        <f t="shared" ref="G2:G3" si="0">E2*F2</f>
+        <v>84210</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="4">
+        <v>632215</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="1">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1">
+        <v>5738</v>
+      </c>
+      <c r="G3" s="1">
+        <f t="shared" si="0"/>
+        <v>28690</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="19">
+        <f>SUM(G2:G3)</f>
+        <v>112900</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="19">
+        <f>G4*9%</f>
+        <v>10161</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="19">
+        <f>G4*9%</f>
+        <v>10161</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="19">
+        <f>SUM(G4:G6)</f>
+        <v>133222</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A7:F7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="5">
+        <v>616026</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>5614</v>
+      </c>
+      <c r="G2" s="1">
+        <f t="shared" ref="G2" si="0">E2*F2</f>
+        <v>5614</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="20">
+        <f>SUM(G2)</f>
+        <v>5614</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="20">
+        <f>G3*9%</f>
+        <v>505.26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="20">
+        <f>G3*9%</f>
+        <v>505.26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="20">
+        <f>SUM(G3:G5)</f>
+        <v>6624.52</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A6:F6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -1026,56 +1326,56 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
       <c r="G8" s="3">
         <f>SUM(G2:G7)</f>
         <v>246185</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
       <c r="G9" s="3">
         <f>G8*9%</f>
         <v>22156.649999999998</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
       <c r="G10" s="3">
         <f>G8*9%</f>
         <v>22156.649999999998</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
       <c r="G11" s="3">
         <f>SUM(G8:G10)</f>
         <v>290498.30000000005</v>
@@ -1159,56 +1459,56 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
       <c r="G3" s="11">
         <f>SUM(G2)</f>
         <v>4831</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
       <c r="G4" s="11">
         <f>G3*9%</f>
         <v>434.78999999999996</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
       <c r="G5" s="11">
         <f>G3*9%</f>
         <v>434.78999999999996</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
       <c r="G6" s="11">
         <f>SUM(G3:G5)</f>
         <v>5700.58</v>
@@ -1439,56 +1739,56 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
       <c r="G9" s="11">
         <f>SUM(G2:G8)</f>
         <v>249351</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
       <c r="G10" s="11">
         <f>G9*9%</f>
         <v>22441.59</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
       <c r="G11" s="11">
         <f>G9*9%</f>
         <v>22441.59</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
       <c r="G12" s="11">
         <f>SUM(G9:G11)</f>
         <v>294234.18000000005</v>
@@ -1594,56 +1894,56 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
       <c r="G4" s="12">
         <f>SUM(G2:G3)</f>
         <v>132820</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
       <c r="G5" s="12">
         <f>G4*9%</f>
         <v>11953.8</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
       <c r="G6" s="12">
         <f>G4*9%</f>
         <v>11953.8</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
       <c r="G7" s="12">
         <f>SUM(G4:G6)</f>
         <v>156727.59999999998</v>
@@ -1712,48 +2012,48 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
       <c r="E3" s="17">
         <f>SUM(E2)</f>
         <v>18560</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
       <c r="E4" s="17">
         <f>E3*9%</f>
         <v>1670.3999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
       <c r="E5" s="17">
         <f>E3*9%</f>
         <v>1670.3999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
       <c r="E6" s="17">
         <f>SUM(E3:E5)</f>
         <v>21900.800000000003</v>
@@ -1860,56 +2160,56 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
       <c r="G4" s="13">
         <f>SUM(G2:G3)</f>
         <v>128790</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
       <c r="G5" s="13">
         <f>G4*9%</f>
         <v>11591.1</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
       <c r="G6" s="13">
         <f>G4*9%</f>
         <v>11591.1</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
       <c r="G7" s="13">
         <f>SUM(G4:G6)</f>
         <v>151972.20000000001</v>
@@ -1930,8 +2230,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2016,56 +2316,56 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
       <c r="G4" s="18">
         <f>SUM(G2:G3)</f>
         <v>196927</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
       <c r="G5" s="18">
         <f>G4*9%</f>
         <v>17723.43</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
       <c r="G6" s="18">
         <f>G4*9%</f>
         <v>17723.43</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
       <c r="G7" s="18">
         <f>SUM(G4:G6)</f>
         <v>232373.86</v>
@@ -2080,4 +2380,183 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6.44140625" customWidth="1"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="4" max="4" width="22.109375" customWidth="1"/>
+    <col min="5" max="6" width="6.6640625" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="5">
+        <v>616026</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="1">
+        <v>20</v>
+      </c>
+      <c r="F2" s="1">
+        <v>5614</v>
+      </c>
+      <c r="G2" s="1">
+        <f t="shared" ref="G2:G4" si="0">E2*F2</f>
+        <v>112280</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="1">
+        <v>3</v>
+      </c>
+      <c r="F3" s="1">
+        <v>6521</v>
+      </c>
+      <c r="G3" s="1">
+        <f t="shared" si="0"/>
+        <v>19563</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="1">
+        <v>30</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1908</v>
+      </c>
+      <c r="G4" s="1">
+        <f t="shared" si="0"/>
+        <v>57240</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="19">
+        <f>SUM(G2:G4)</f>
+        <v>189083</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="19">
+        <f>G5*9%</f>
+        <v>17017.47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="19">
+        <f>G5*9%</f>
+        <v>17017.47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="19">
+        <f>SUM(G5:G7)</f>
+        <v>223117.94</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="A8:F8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Invoices/Invoices.xlsx
+++ b/Invoices/Invoices.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="3" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="3" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Putz 101" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="48">
   <si>
     <t>Sr. No</t>
   </si>
@@ -170,6 +170,9 @@
   </si>
   <si>
     <t>151328170 (02-05-2023)</t>
+  </si>
+  <si>
+    <t>Rollling bearing NUKR47</t>
   </si>
 </sst>
 </file>
@@ -857,23 +860,23 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" customWidth="1"/>
     <col min="4" max="4" width="26.21875" customWidth="1"/>
     <col min="5" max="5" width="4.77734375" customWidth="1"/>
     <col min="6" max="6" width="6.77734375" customWidth="1"/>
     <col min="7" max="7" width="7.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -916,7 +919,7 @@
         <v>5614</v>
       </c>
       <c r="G2" s="1">
-        <f t="shared" ref="G2:G3" si="0">E2*F2</f>
+        <f t="shared" ref="G2:G4" si="0">E2*F2</f>
         <v>84210</v>
       </c>
     </row>
@@ -944,23 +947,33 @@
         <v>28690</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="19">
-        <f>SUM(G2:G3)</f>
-        <v>112900</v>
+    <row r="4" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="5">
+        <v>668330</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2</v>
+      </c>
+      <c r="F4" s="1">
+        <v>6000</v>
+      </c>
+      <c r="G4" s="1">
+        <f t="shared" si="0"/>
+        <v>12000</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" s="21"/>
       <c r="C5" s="21"/>
@@ -968,13 +981,13 @@
       <c r="E5" s="21"/>
       <c r="F5" s="21"/>
       <c r="G5" s="19">
-        <f>G4*9%</f>
-        <v>10161</v>
+        <f>SUM(G2:G4)</f>
+        <v>124900</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" s="21"/>
       <c r="C6" s="21"/>
@@ -982,13 +995,13 @@
       <c r="E6" s="21"/>
       <c r="F6" s="21"/>
       <c r="G6" s="19">
-        <f>G4*9%</f>
-        <v>10161</v>
+        <f>G5*9%</f>
+        <v>11241</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" s="21"/>
       <c r="C7" s="21"/>
@@ -996,16 +1009,30 @@
       <c r="E7" s="21"/>
       <c r="F7" s="21"/>
       <c r="G7" s="19">
-        <f>SUM(G4:G6)</f>
-        <v>133222</v>
+        <f>G5*9%</f>
+        <v>11241</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="19">
+        <f>SUM(G5:G7)</f>
+        <v>147382</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A4:F4"/>
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="A6:F6"/>
     <mergeCell ref="A7:F7"/>
+    <mergeCell ref="A8:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1015,15 +1042,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
     <col min="2" max="2" width="11.6640625" customWidth="1"/>
-    <col min="4" max="4" width="16.33203125" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" customWidth="1"/>
+    <col min="7" max="7" width="6.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -1049,7 +1077,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2386,8 +2414,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Invoices/Invoices.xlsx
+++ b/Invoices/Invoices.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="3" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="6" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="Putz 101" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,10 @@
     <sheet name="Putz 109" sheetId="9" r:id="rId9"/>
     <sheet name="Putz 110 APS" sheetId="10" r:id="rId10"/>
     <sheet name="Putz 111" sheetId="11" r:id="rId11"/>
+    <sheet name="Putz 112" sheetId="12" r:id="rId12"/>
+    <sheet name="Putz 113 APS" sheetId="13" r:id="rId13"/>
+    <sheet name="Putz 114 APS" sheetId="14" r:id="rId14"/>
+    <sheet name="Putz 115" sheetId="15" r:id="rId15"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="54">
   <si>
     <t>Sr. No</t>
   </si>
@@ -173,6 +177,24 @@
   </si>
   <si>
     <t>Rollling bearing NUKR47</t>
+  </si>
+  <si>
+    <t>151332240 (11-05-2023)</t>
+  </si>
+  <si>
+    <t>Computer Screen 19", HDMI Cable, 4GB RAM (Serial Number - U5HL3BBK, U5HL3BAM, U5HL3B9H, U5HL3B8F)</t>
+  </si>
+  <si>
+    <t>151330034 (05-05-2023) (APS)</t>
+  </si>
+  <si>
+    <t>Limit switch_Magnetic_1.4 -10mm</t>
+  </si>
+  <si>
+    <t>151330961 (09-05-2023)</t>
+  </si>
+  <si>
+    <t>APS - 151330034 (05-05-2023)</t>
   </si>
 </sst>
 </file>
@@ -300,7 +322,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -351,6 +373,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -791,56 +819,56 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
       <c r="G6" s="2">
         <f>SUM(G2:G5)</f>
         <v>91479</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
       <c r="G7" s="2">
         <f>G6*9%</f>
         <v>8233.11</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
       <c r="G8" s="2">
         <f>G6*9%</f>
         <v>8233.11</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
       <c r="G9" s="2">
         <f>SUM(G6:G8)</f>
         <v>107945.22</v>
@@ -972,56 +1000,56 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
       <c r="G5" s="19">
         <f>SUM(G2:G4)</f>
         <v>124900</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
       <c r="G6" s="19">
         <f>G5*9%</f>
         <v>11241</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
       <c r="G7" s="19">
         <f>G5*9%</f>
         <v>11241</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
       <c r="G8" s="19">
         <f>SUM(G5:G7)</f>
         <v>147382</v>
@@ -1042,8 +1070,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1102,59 +1130,680 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
       <c r="G3" s="20">
         <f>SUM(G2)</f>
         <v>5614</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
       <c r="G4" s="20">
         <f>G3*9%</f>
         <v>505.26</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
       <c r="G5" s="20">
         <f>G3*9%</f>
         <v>505.26</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
       <c r="G6" s="20">
         <f>SUM(G3:G5)</f>
         <v>6624.52</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A6:F6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="7.33203125" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" customWidth="1"/>
+    <col min="4" max="4" width="35" customWidth="1"/>
+    <col min="5" max="5" width="5.88671875" customWidth="1"/>
+    <col min="6" max="6" width="6.33203125" customWidth="1"/>
+    <col min="7" max="7" width="8" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="5">
+        <v>615181</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>2400</v>
+      </c>
+      <c r="G2" s="1">
+        <f t="shared" ref="G2:G3" si="0">E2*F2</f>
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="4">
+        <v>681149</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="1">
+        <v>4</v>
+      </c>
+      <c r="F3" s="1">
+        <v>9703</v>
+      </c>
+      <c r="G3" s="1">
+        <f t="shared" si="0"/>
+        <v>38812</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="21">
+        <f>SUM(G2:G3)</f>
+        <v>41212</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="21">
+        <f>G4*9%</f>
+        <v>3709.08</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="21">
+        <f>G4*9%</f>
+        <v>3709.08</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="21">
+        <f>SUM(G4:G6)</f>
+        <v>48630.16</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A7:F7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="7.21875" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" customWidth="1"/>
+    <col min="4" max="4" width="25.21875" customWidth="1"/>
+    <col min="5" max="5" width="5.6640625" customWidth="1"/>
+    <col min="6" max="6" width="6.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="52.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="5">
+        <v>615181</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="1">
+        <v>10</v>
+      </c>
+      <c r="F2" s="1">
+        <v>2400</v>
+      </c>
+      <c r="G2" s="1">
+        <f t="shared" ref="G2" si="0">E2*F2</f>
+        <v>24000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="21">
+        <f>SUM(G2)</f>
+        <v>24000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="21">
+        <f>G3*9%</f>
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="21">
+        <f>G3*9%</f>
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="21">
+        <f>SUM(G3:G5)</f>
+        <v>28320</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A6:F6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6.44140625" customWidth="1"/>
+    <col min="2" max="2" width="26.77734375" customWidth="1"/>
+    <col min="4" max="4" width="28.44140625" customWidth="1"/>
+    <col min="5" max="5" width="4" customWidth="1"/>
+    <col min="7" max="7" width="8.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="5">
+        <v>616026</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="1">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1">
+        <v>5614</v>
+      </c>
+      <c r="G2" s="1">
+        <f>E2*F2</f>
+        <v>44912</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="5">
+        <v>630059</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="1">
+        <v>7</v>
+      </c>
+      <c r="F3" s="1">
+        <v>4048</v>
+      </c>
+      <c r="G3" s="1">
+        <f t="shared" ref="G3:G5" si="0">E3*F3</f>
+        <v>28336</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="4">
+        <v>632215</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="1">
+        <v>5</v>
+      </c>
+      <c r="F4" s="1">
+        <v>5738</v>
+      </c>
+      <c r="G4" s="1">
+        <f t="shared" si="0"/>
+        <v>28690</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="4">
+        <v>687349</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" s="1">
+        <v>25</v>
+      </c>
+      <c r="F5" s="1">
+        <v>8463</v>
+      </c>
+      <c r="G5" s="1">
+        <f t="shared" si="0"/>
+        <v>211575</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="22">
+        <f>SUM(G2:G5)</f>
+        <v>313513</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="22">
+        <f>G6*9%</f>
+        <v>28216.17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="22">
+        <f>G6*9%</f>
+        <v>28216.17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="22">
+        <f>SUM(G6:G8)</f>
+        <v>369945.33999999997</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="A9:F9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6.44140625" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" customWidth="1"/>
+    <col min="4" max="4" width="15.77734375" customWidth="1"/>
+    <col min="5" max="5" width="6.33203125" customWidth="1"/>
+    <col min="6" max="6" width="6.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="1">
+        <v>130</v>
+      </c>
+      <c r="F2" s="1">
+        <v>565</v>
+      </c>
+      <c r="G2" s="1">
+        <f>E2*F2</f>
+        <v>73450</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="22">
+        <f>SUM(G2)</f>
+        <v>73450</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="22">
+        <f>G3*9%</f>
+        <v>6610.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="22">
+        <f>G3*9%</f>
+        <v>6610.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="22">
+        <f>SUM(G3:G5)</f>
+        <v>86671</v>
       </c>
     </row>
   </sheetData>
@@ -1354,56 +2003,56 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
       <c r="G8" s="3">
         <f>SUM(G2:G7)</f>
         <v>246185</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
       <c r="G9" s="3">
         <f>G8*9%</f>
         <v>22156.649999999998</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
       <c r="G10" s="3">
         <f>G8*9%</f>
         <v>22156.649999999998</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
       <c r="G11" s="3">
         <f>SUM(G8:G10)</f>
         <v>290498.30000000005</v>
@@ -1428,7 +2077,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1487,56 +2136,56 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
       <c r="G3" s="11">
         <f>SUM(G2)</f>
         <v>4831</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
       <c r="G4" s="11">
         <f>G3*9%</f>
         <v>434.78999999999996</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
       <c r="G5" s="11">
         <f>G3*9%</f>
         <v>434.78999999999996</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
       <c r="G6" s="11">
         <f>SUM(G3:G5)</f>
         <v>5700.58</v>
@@ -1767,56 +2416,56 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
       <c r="G9" s="11">
         <f>SUM(G2:G8)</f>
         <v>249351</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
       <c r="G10" s="11">
         <f>G9*9%</f>
         <v>22441.59</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
       <c r="G11" s="11">
         <f>G9*9%</f>
         <v>22441.59</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
       <c r="G12" s="11">
         <f>SUM(G9:G11)</f>
         <v>294234.18000000005</v>
@@ -1922,56 +2571,56 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
       <c r="G4" s="12">
         <f>SUM(G2:G3)</f>
         <v>132820</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
       <c r="G5" s="12">
         <f>G4*9%</f>
         <v>11953.8</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
       <c r="G6" s="12">
         <f>G4*9%</f>
         <v>11953.8</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
       <c r="G7" s="12">
         <f>SUM(G4:G6)</f>
         <v>156727.59999999998</v>
@@ -2040,48 +2689,48 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
       <c r="E3" s="17">
         <f>SUM(E2)</f>
         <v>18560</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
       <c r="E4" s="17">
         <f>E3*9%</f>
         <v>1670.3999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
       <c r="E5" s="17">
         <f>E3*9%</f>
         <v>1670.3999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
       <c r="E6" s="17">
         <f>SUM(E3:E5)</f>
         <v>21900.800000000003</v>
@@ -2100,10 +2749,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2188,56 +2840,56 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
       <c r="G4" s="13">
         <f>SUM(G2:G3)</f>
         <v>128790</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
       <c r="G5" s="13">
         <f>G4*9%</f>
         <v>11591.1</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
       <c r="G6" s="13">
         <f>G4*9%</f>
         <v>11591.1</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
       <c r="G7" s="13">
         <f>SUM(G4:G6)</f>
         <v>151972.20000000001</v>
@@ -2256,10 +2908,13 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G7"/>
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2344,56 +2999,56 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
       <c r="G4" s="18">
         <f>SUM(G2:G3)</f>
         <v>196927</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
       <c r="G5" s="18">
         <f>G4*9%</f>
         <v>17723.43</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
       <c r="G6" s="18">
         <f>G4*9%</f>
         <v>17723.43</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
       <c r="G7" s="18">
         <f>SUM(G4:G6)</f>
         <v>232373.86</v>
@@ -2523,56 +3178,56 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
       <c r="G5" s="19">
         <f>SUM(G2:G4)</f>
         <v>189083</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
       <c r="G6" s="19">
         <f>G5*9%</f>
         <v>17017.47</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
       <c r="G7" s="19">
         <f>G5*9%</f>
         <v>17017.47</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
       <c r="G8" s="19">
         <f>SUM(G5:G7)</f>
         <v>223117.94</v>

--- a/Invoices/Invoices.xlsx
+++ b/Invoices/Invoices.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="6" activeTab="14"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="9" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="Putz 101" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,8 @@
     <sheet name="Putz 113 APS" sheetId="13" r:id="rId13"/>
     <sheet name="Putz 114 APS" sheetId="14" r:id="rId14"/>
     <sheet name="Putz 115" sheetId="15" r:id="rId15"/>
+    <sheet name="Putz 116" sheetId="16" r:id="rId16"/>
+    <sheet name="Putz 117 APS" sheetId="17" r:id="rId17"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="62">
   <si>
     <t>Sr. No</t>
   </si>
@@ -195,6 +197,30 @@
   </si>
   <si>
     <t>APS - 151330034 (05-05-2023)</t>
+  </si>
+  <si>
+    <t>151280693 (13-01-2023)</t>
+  </si>
+  <si>
+    <t>Dell PC (Serial Number - (CPU - FFHPBX3, GFHPBX3, DFHPBX3, 5FHPBX3, 8FHPBX3, JDHPBX3, BFHPBX3, 3FHPBX3, 4FHPBX3, 1FHPBX3, GDHPBX3, 9FHPBX3, HDHPBX3, 6FHPBX3) (Monitor - BSL29V3, BPR19V3, BSH09V3, BSM29V3, BPTZ8V3, BSK29V3, BSS09V3, BSJ19V3, BSM09V3, BSL19V3, BSL09V3, BPT09V3, BPT29V3, BSP19V3)</t>
+  </si>
+  <si>
+    <t>Dell PC (Serial Number - (CPU - CFHPBX3, 7FHPBX3, 2FHPBX3) (Monitor - BSP09V3, BST19V3, BPS29V3)</t>
+  </si>
+  <si>
+    <t>BELLOW F. water hopper MT 1.0 IBC</t>
+  </si>
+  <si>
+    <t>151332508 (12-05-2023)</t>
+  </si>
+  <si>
+    <t>Monochrome laserjet printer Brother H2321 (Serial Number - E73793D3N304145, E73793D3N304156, E73793D3N304161, E73793D3N304163, E73793D3N304164, E73793D3N304166, E73793D3N304182, E73793D3N304198, E73793D3N304200, E73793D3N304206)</t>
+  </si>
+  <si>
+    <t>APS - 151308917 (16-03-2023) APS - 151283046 (18-01-2023)</t>
+  </si>
+  <si>
+    <t>APS - 151326492 (26-04-2023)</t>
   </si>
 </sst>
 </file>
@@ -322,7 +348,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -388,6 +414,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -819,56 +851,56 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
       <c r="G6" s="2">
         <f>SUM(G2:G5)</f>
         <v>91479</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
       <c r="G7" s="2">
         <f>G6*9%</f>
         <v>8233.11</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
       <c r="G8" s="2">
         <f>G6*9%</f>
         <v>8233.11</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
       <c r="G9" s="2">
         <f>SUM(G6:G8)</f>
         <v>107945.22</v>
@@ -888,10 +920,13 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1000,56 +1035,56 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
       <c r="G5" s="19">
         <f>SUM(G2:G4)</f>
         <v>124900</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
       <c r="G6" s="19">
         <f>G5*9%</f>
         <v>11241</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
       <c r="G7" s="19">
         <f>G5*9%</f>
         <v>11241</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
       <c r="G8" s="19">
         <f>SUM(G5:G7)</f>
         <v>147382</v>
@@ -1130,56 +1165,56 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
       <c r="G3" s="20">
         <f>SUM(G2)</f>
         <v>5614</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
       <c r="G4" s="20">
         <f>G3*9%</f>
         <v>505.26</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
       <c r="G5" s="20">
         <f>G3*9%</f>
         <v>505.26</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
       <c r="G6" s="20">
         <f>SUM(G3:G5)</f>
         <v>6624.52</v>
@@ -1286,56 +1321,56 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
       <c r="G4" s="21">
         <f>SUM(G2:G3)</f>
         <v>41212</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
       <c r="G5" s="21">
         <f>G4*9%</f>
         <v>3709.08</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
       <c r="G6" s="21">
         <f>G4*9%</f>
         <v>3709.08</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
       <c r="G7" s="21">
         <f>SUM(G4:G6)</f>
         <v>48630.16</v>
@@ -1357,7 +1392,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection sqref="A1:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1417,56 +1452,56 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
       <c r="G3" s="21">
         <f>SUM(G2)</f>
         <v>24000</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
       <c r="G4" s="21">
         <f>G3*9%</f>
         <v>2160</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
       <c r="G5" s="21">
         <f>G3*9%</f>
         <v>2160</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
       <c r="G6" s="21">
         <f>SUM(G3:G5)</f>
         <v>28320</v>
@@ -1620,56 +1655,56 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
       <c r="G6" s="22">
         <f>SUM(G2:G5)</f>
         <v>313513</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
       <c r="G7" s="22">
         <f>G6*9%</f>
         <v>28216.17</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
       <c r="G8" s="22">
         <f>G6*9%</f>
         <v>28216.17</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
       <c r="G9" s="22">
         <f>SUM(G6:G8)</f>
         <v>369945.33999999997</v>
@@ -1690,8 +1725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1751,56 +1786,56 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
       <c r="G3" s="22">
         <f>SUM(G2)</f>
         <v>73450</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
       <c r="G4" s="22">
         <f>G3*9%</f>
         <v>6610.5</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
       <c r="G5" s="22">
         <f>G3*9%</f>
         <v>6610.5</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
       <c r="G6" s="22">
         <f>SUM(G3:G5)</f>
         <v>86671</v>
@@ -1812,6 +1847,386 @@
     <mergeCell ref="A4:F4"/>
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="A6:F6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6.88671875" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" customWidth="1"/>
+    <col min="4" max="4" width="44.21875" customWidth="1"/>
+    <col min="5" max="5" width="5.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="113.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="10">
+        <v>719031</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="1">
+        <v>14</v>
+      </c>
+      <c r="F2" s="1">
+        <v>45000</v>
+      </c>
+      <c r="G2" s="1">
+        <f t="shared" ref="G2:G3" si="0">E2*F2</f>
+        <v>630000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="4">
+        <v>719381</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" s="1">
+        <v>10</v>
+      </c>
+      <c r="F3" s="1">
+        <v>9999</v>
+      </c>
+      <c r="G3" s="1">
+        <f t="shared" si="0"/>
+        <v>99990</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="23">
+        <f>SUM(G2:G3)</f>
+        <v>729990</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="23">
+        <f>G4*9%</f>
+        <v>65699.099999999991</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="23">
+        <f>G4*9%</f>
+        <v>65699.099999999991</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="23">
+        <f>SUM(G4:G6)</f>
+        <v>861388.2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A7:F7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="15.21875" customWidth="1"/>
+    <col min="4" max="4" width="37" customWidth="1"/>
+    <col min="5" max="5" width="4.88671875" customWidth="1"/>
+    <col min="7" max="7" width="8.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="10">
+        <v>719031</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="1">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1">
+        <v>45000</v>
+      </c>
+      <c r="G2" s="1">
+        <f t="shared" ref="G2:G6" si="0">E2*F2</f>
+        <v>135000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="5">
+        <v>616026</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2</v>
+      </c>
+      <c r="F3" s="1">
+        <v>5614</v>
+      </c>
+      <c r="G3" s="1">
+        <f t="shared" si="0"/>
+        <v>11228</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="5">
+        <v>630059</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="1">
+        <v>7</v>
+      </c>
+      <c r="F4" s="1">
+        <v>4048</v>
+      </c>
+      <c r="G4" s="1">
+        <f t="shared" si="0"/>
+        <v>28336</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="5">
+        <v>663093</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="1">
+        <v>10</v>
+      </c>
+      <c r="F5" s="1">
+        <v>6615</v>
+      </c>
+      <c r="G5" s="1">
+        <f t="shared" si="0"/>
+        <v>66150</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="5">
+        <v>716663</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" s="1">
+        <v>3</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1896</v>
+      </c>
+      <c r="G6" s="1">
+        <f t="shared" si="0"/>
+        <v>5688</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="23">
+        <f>SUM(G2:G6)</f>
+        <v>246402</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="23">
+        <f>G7*9%</f>
+        <v>22176.18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="23">
+        <f>G7*9%</f>
+        <v>22176.18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="23">
+        <f>SUM(G7:G9)</f>
+        <v>290754.36</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A10:F10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2003,56 +2418,56 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
       <c r="G8" s="3">
         <f>SUM(G2:G7)</f>
         <v>246185</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
       <c r="G9" s="3">
         <f>G8*9%</f>
         <v>22156.649999999998</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
       <c r="G10" s="3">
         <f>G8*9%</f>
         <v>22156.649999999998</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="23" t="s">
+      <c r="A11" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="23"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
       <c r="G11" s="3">
         <f>SUM(G8:G10)</f>
         <v>290498.30000000005</v>
@@ -2136,56 +2551,56 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
       <c r="G3" s="11">
         <f>SUM(G2)</f>
         <v>4831</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
       <c r="G4" s="11">
         <f>G3*9%</f>
         <v>434.78999999999996</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
       <c r="G5" s="11">
         <f>G3*9%</f>
         <v>434.78999999999996</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
       <c r="G6" s="11">
         <f>SUM(G3:G5)</f>
         <v>5700.58</v>
@@ -2416,56 +2831,56 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
       <c r="G9" s="11">
         <f>SUM(G2:G8)</f>
         <v>249351</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
       <c r="G10" s="11">
         <f>G9*9%</f>
         <v>22441.59</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="23" t="s">
+      <c r="A11" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="23"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
       <c r="G11" s="11">
         <f>G9*9%</f>
         <v>22441.59</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="23" t="s">
+      <c r="A12" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
       <c r="G12" s="11">
         <f>SUM(G9:G11)</f>
         <v>294234.18000000005</v>
@@ -2571,56 +2986,56 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
       <c r="G4" s="12">
         <f>SUM(G2:G3)</f>
         <v>132820</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
       <c r="G5" s="12">
         <f>G4*9%</f>
         <v>11953.8</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
       <c r="G6" s="12">
         <f>G4*9%</f>
         <v>11953.8</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
       <c r="G7" s="12">
         <f>SUM(G4:G6)</f>
         <v>156727.59999999998</v>
@@ -2689,48 +3104,48 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
       <c r="E3" s="17">
         <f>SUM(E2)</f>
         <v>18560</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
       <c r="E4" s="17">
         <f>E3*9%</f>
         <v>1670.3999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
       <c r="E5" s="17">
         <f>E3*9%</f>
         <v>1670.3999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
       <c r="E6" s="17">
         <f>SUM(E3:E5)</f>
         <v>21900.800000000003</v>
@@ -2840,56 +3255,56 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
       <c r="G4" s="13">
         <f>SUM(G2:G3)</f>
         <v>128790</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
       <c r="G5" s="13">
         <f>G4*9%</f>
         <v>11591.1</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
       <c r="G6" s="13">
         <f>G4*9%</f>
         <v>11591.1</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
       <c r="G7" s="13">
         <f>SUM(G4:G6)</f>
         <v>151972.20000000001</v>
@@ -2999,56 +3414,56 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
       <c r="G4" s="18">
         <f>SUM(G2:G3)</f>
         <v>196927</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
       <c r="G5" s="18">
         <f>G4*9%</f>
         <v>17723.43</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
       <c r="G6" s="18">
         <f>G4*9%</f>
         <v>17723.43</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
       <c r="G7" s="18">
         <f>SUM(G4:G6)</f>
         <v>232373.86</v>
@@ -3178,56 +3593,56 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
       <c r="G5" s="19">
         <f>SUM(G2:G4)</f>
         <v>189083</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
       <c r="G6" s="19">
         <f>G5*9%</f>
         <v>17017.47</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
       <c r="G7" s="19">
         <f>G5*9%</f>
         <v>17017.47</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
       <c r="G8" s="19">
         <f>SUM(G5:G7)</f>
         <v>223117.94</v>

--- a/Invoices/Invoices.xlsx
+++ b/Invoices/Invoices.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="9" activeTab="16"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="11" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="Putz 101" sheetId="1" r:id="rId1"/>
@@ -24,6 +24,8 @@
     <sheet name="Putz 115" sheetId="15" r:id="rId15"/>
     <sheet name="Putz 116" sheetId="16" r:id="rId16"/>
     <sheet name="Putz 117 APS" sheetId="17" r:id="rId17"/>
+    <sheet name="Putz 118" sheetId="18" r:id="rId18"/>
+    <sheet name="Putz 119 APS" sheetId="19" r:id="rId19"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="64">
   <si>
     <t>Sr. No</t>
   </si>
@@ -221,6 +223,12 @@
   </si>
   <si>
     <t>APS - 151326492 (26-04-2023)</t>
+  </si>
+  <si>
+    <t>151335926 (24-05-2023)</t>
+  </si>
+  <si>
+    <t>APS 151326603 (24-04-2023)</t>
   </si>
 </sst>
 </file>
@@ -348,7 +356,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -420,6 +428,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -851,56 +862,56 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
       <c r="G6" s="2">
         <f>SUM(G2:G5)</f>
         <v>91479</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
       <c r="G7" s="2">
         <f>G6*9%</f>
         <v>8233.11</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
       <c r="G8" s="2">
         <f>G6*9%</f>
         <v>8233.11</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
       <c r="G9" s="2">
         <f>SUM(G6:G8)</f>
         <v>107945.22</v>
@@ -1035,56 +1046,56 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
       <c r="G5" s="19">
         <f>SUM(G2:G4)</f>
         <v>124900</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
       <c r="G6" s="19">
         <f>G5*9%</f>
         <v>11241</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
       <c r="G7" s="19">
         <f>G5*9%</f>
         <v>11241</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
       <c r="G8" s="19">
         <f>SUM(G5:G7)</f>
         <v>147382</v>
@@ -1165,56 +1176,56 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
       <c r="G3" s="20">
         <f>SUM(G2)</f>
         <v>5614</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
       <c r="G4" s="20">
         <f>G3*9%</f>
         <v>505.26</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
       <c r="G5" s="20">
         <f>G3*9%</f>
         <v>505.26</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
       <c r="G6" s="20">
         <f>SUM(G3:G5)</f>
         <v>6624.52</v>
@@ -1321,56 +1332,56 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
       <c r="G4" s="21">
         <f>SUM(G2:G3)</f>
         <v>41212</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
       <c r="G5" s="21">
         <f>G4*9%</f>
         <v>3709.08</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
       <c r="G6" s="21">
         <f>G4*9%</f>
         <v>3709.08</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
       <c r="G7" s="21">
         <f>SUM(G4:G6)</f>
         <v>48630.16</v>
@@ -1452,56 +1463,56 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
       <c r="G3" s="21">
         <f>SUM(G2)</f>
         <v>24000</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
       <c r="G4" s="21">
         <f>G3*9%</f>
         <v>2160</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
       <c r="G5" s="21">
         <f>G3*9%</f>
         <v>2160</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
       <c r="G6" s="21">
         <f>SUM(G3:G5)</f>
         <v>28320</v>
@@ -1655,56 +1666,56 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
       <c r="G6" s="22">
         <f>SUM(G2:G5)</f>
         <v>313513</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
       <c r="G7" s="22">
         <f>G6*9%</f>
         <v>28216.17</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
       <c r="G8" s="22">
         <f>G6*9%</f>
         <v>28216.17</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
       <c r="G9" s="22">
         <f>SUM(G6:G8)</f>
         <v>369945.33999999997</v>
@@ -1786,56 +1797,56 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
       <c r="G3" s="22">
         <f>SUM(G2)</f>
         <v>73450</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
       <c r="G4" s="22">
         <f>G3*9%</f>
         <v>6610.5</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
       <c r="G5" s="22">
         <f>G3*9%</f>
         <v>6610.5</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
       <c r="G6" s="22">
         <f>SUM(G3:G5)</f>
         <v>86671</v>
@@ -1857,7 +1868,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection sqref="A1:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1940,56 +1951,56 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
       <c r="G4" s="23">
         <f>SUM(G2:G3)</f>
         <v>729990</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
       <c r="G5" s="23">
         <f>G4*9%</f>
         <v>65699.099999999991</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
       <c r="G6" s="23">
         <f>G4*9%</f>
         <v>65699.099999999991</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
       <c r="G7" s="23">
         <f>SUM(G4:G6)</f>
         <v>861388.2</v>
@@ -2010,8 +2021,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2069,7 +2080,7 @@
         <v>135000</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2093,7 +2104,7 @@
         <v>11228</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2117,7 +2128,7 @@
         <v>28336</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -2141,7 +2152,7 @@
         <v>66150</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2166,56 +2177,56 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
       <c r="G7" s="23">
         <f>SUM(G2:G6)</f>
         <v>246402</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
       <c r="G8" s="23">
         <f>G7*9%</f>
         <v>22176.18</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
       <c r="G9" s="23">
         <f>G7*9%</f>
         <v>22176.18</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
       <c r="G10" s="23">
         <f>SUM(G7:G9)</f>
         <v>290754.36</v>
@@ -2227,6 +2238,313 @@
     <mergeCell ref="A8:F8"/>
     <mergeCell ref="A9:F9"/>
     <mergeCell ref="A10:F10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6.44140625" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" customWidth="1"/>
+    <col min="4" max="4" width="16.5546875" customWidth="1"/>
+    <col min="5" max="5" width="6.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="25" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="1">
+        <v>50</v>
+      </c>
+      <c r="F2" s="1">
+        <v>600</v>
+      </c>
+      <c r="G2" s="1">
+        <f t="shared" ref="G2:G4" si="0">E2*F2</f>
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="5">
+        <v>668330</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" s="1">
+        <v>54</v>
+      </c>
+      <c r="F3" s="1">
+        <v>6000</v>
+      </c>
+      <c r="G3" s="1">
+        <f t="shared" si="0"/>
+        <v>324000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="1">
+        <v>70</v>
+      </c>
+      <c r="F4" s="1">
+        <v>565</v>
+      </c>
+      <c r="G4" s="1">
+        <f t="shared" si="0"/>
+        <v>39550</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="25">
+        <f>SUM(G2:G4)</f>
+        <v>393550</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="25">
+        <f>G5*9%</f>
+        <v>35419.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="25">
+        <f>G5*9%</f>
+        <v>35419.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="25">
+        <f>SUM(G5:G7)</f>
+        <v>464389</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="A8:F8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="7.33203125" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="25" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="5">
+        <v>668330</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="1">
+        <v>7</v>
+      </c>
+      <c r="F2" s="1">
+        <v>6000</v>
+      </c>
+      <c r="G2" s="1">
+        <f t="shared" ref="G2" si="0">E2*F2</f>
+        <v>42000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="25">
+        <f>SUM(G2:G2)</f>
+        <v>42000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="25">
+        <f>G3*9%</f>
+        <v>3780</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="25">
+        <f>G3*9%</f>
+        <v>3780</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="25">
+        <f>SUM(G3:G5)</f>
+        <v>49560</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A6:F6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2418,56 +2736,56 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
       <c r="G8" s="3">
         <f>SUM(G2:G7)</f>
         <v>246185</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
       <c r="G9" s="3">
         <f>G8*9%</f>
         <v>22156.649999999998</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
       <c r="G10" s="3">
         <f>G8*9%</f>
         <v>22156.649999999998</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
       <c r="G11" s="3">
         <f>SUM(G8:G10)</f>
         <v>290498.30000000005</v>
@@ -2551,56 +2869,56 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
       <c r="G3" s="11">
         <f>SUM(G2)</f>
         <v>4831</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
       <c r="G4" s="11">
         <f>G3*9%</f>
         <v>434.78999999999996</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
       <c r="G5" s="11">
         <f>G3*9%</f>
         <v>434.78999999999996</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
       <c r="G6" s="11">
         <f>SUM(G3:G5)</f>
         <v>5700.58</v>
@@ -2831,56 +3149,56 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
       <c r="G9" s="11">
         <f>SUM(G2:G8)</f>
         <v>249351</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
       <c r="G10" s="11">
         <f>G9*9%</f>
         <v>22441.59</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
       <c r="G11" s="11">
         <f>G9*9%</f>
         <v>22441.59</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
       <c r="G12" s="11">
         <f>SUM(G9:G11)</f>
         <v>294234.18000000005</v>
@@ -2986,56 +3304,56 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
       <c r="G4" s="12">
         <f>SUM(G2:G3)</f>
         <v>132820</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
       <c r="G5" s="12">
         <f>G4*9%</f>
         <v>11953.8</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
       <c r="G6" s="12">
         <f>G4*9%</f>
         <v>11953.8</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
       <c r="G7" s="12">
         <f>SUM(G4:G6)</f>
         <v>156727.59999999998</v>
@@ -3104,48 +3422,48 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
       <c r="E3" s="17">
         <f>SUM(E2)</f>
         <v>18560</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
       <c r="E4" s="17">
         <f>E3*9%</f>
         <v>1670.3999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="27"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
       <c r="E5" s="17">
         <f>E3*9%</f>
         <v>1670.3999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
       <c r="E6" s="17">
         <f>SUM(E3:E5)</f>
         <v>21900.800000000003</v>
@@ -3255,56 +3573,56 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
       <c r="G4" s="13">
         <f>SUM(G2:G3)</f>
         <v>128790</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
       <c r="G5" s="13">
         <f>G4*9%</f>
         <v>11591.1</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
       <c r="G6" s="13">
         <f>G4*9%</f>
         <v>11591.1</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
       <c r="G7" s="13">
         <f>SUM(G4:G6)</f>
         <v>151972.20000000001</v>
@@ -3414,56 +3732,56 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
       <c r="G4" s="18">
         <f>SUM(G2:G3)</f>
         <v>196927</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
       <c r="G5" s="18">
         <f>G4*9%</f>
         <v>17723.43</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
       <c r="G6" s="18">
         <f>G4*9%</f>
         <v>17723.43</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
       <c r="G7" s="18">
         <f>SUM(G4:G6)</f>
         <v>232373.86</v>
@@ -3593,56 +3911,56 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
       <c r="G5" s="19">
         <f>SUM(G2:G4)</f>
         <v>189083</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
       <c r="G6" s="19">
         <f>G5*9%</f>
         <v>17017.47</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
       <c r="G7" s="19">
         <f>G5*9%</f>
         <v>17017.47</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
       <c r="G8" s="19">
         <f>SUM(G5:G7)</f>
         <v>223117.94</v>

--- a/Invoices/Invoices.xlsx
+++ b/Invoices/Invoices.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="11" activeTab="17"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="12" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="Putz 101" sheetId="1" r:id="rId1"/>
@@ -1534,7 +1534,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2248,7 +2248,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2306,7 +2306,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2426,7 +2426,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Invoices/Invoices.xlsx
+++ b/Invoices/Invoices.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="12" activeTab="17"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="13" activeTab="19"/>
   </bookViews>
   <sheets>
     <sheet name="Putz 101" sheetId="1" r:id="rId1"/>
@@ -26,6 +26,8 @@
     <sheet name="Putz 117 APS" sheetId="17" r:id="rId17"/>
     <sheet name="Putz 118" sheetId="18" r:id="rId18"/>
     <sheet name="Putz 119 APS" sheetId="19" r:id="rId19"/>
+    <sheet name="Putz 120" sheetId="20" r:id="rId20"/>
+    <sheet name="Putz 121 APS" sheetId="21" r:id="rId21"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="68">
   <si>
     <t>Sr. No</t>
   </si>
@@ -228,7 +230,19 @@
     <t>151335926 (24-05-2023)</t>
   </si>
   <si>
-    <t>APS 151326603 (24-04-2023)</t>
+    <t>151302474 (02-03-2023) 151335926 (24-05-2023)</t>
+  </si>
+  <si>
+    <t>Water Bellow_BP60_Dia 170x300mm</t>
+  </si>
+  <si>
+    <t>APS - 151326603 (24-04-2023)</t>
+  </si>
+  <si>
+    <t>APS - 151338133 (31-05-2023)</t>
+  </si>
+  <si>
+    <t>Cement Bellow_Dia330x200 lg_MT3.0</t>
   </si>
 </sst>
 </file>
@@ -356,7 +370,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -428,6 +442,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -862,56 +885,56 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
       <c r="G6" s="2">
         <f>SUM(G2:G5)</f>
         <v>91479</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
       <c r="G7" s="2">
         <f>G6*9%</f>
         <v>8233.11</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
       <c r="G8" s="2">
         <f>G6*9%</f>
         <v>8233.11</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
       <c r="G9" s="2">
         <f>SUM(G6:G8)</f>
         <v>107945.22</v>
@@ -1046,56 +1069,56 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="26"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
       <c r="G5" s="19">
         <f>SUM(G2:G4)</f>
         <v>124900</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
       <c r="G6" s="19">
         <f>G5*9%</f>
         <v>11241</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
       <c r="G7" s="19">
         <f>G5*9%</f>
         <v>11241</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
       <c r="G8" s="19">
         <f>SUM(G5:G7)</f>
         <v>147382</v>
@@ -1176,56 +1199,56 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
       <c r="G3" s="20">
         <f>SUM(G2)</f>
         <v>5614</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
       <c r="G4" s="20">
         <f>G3*9%</f>
         <v>505.26</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="26"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
       <c r="G5" s="20">
         <f>G3*9%</f>
         <v>505.26</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
       <c r="G6" s="20">
         <f>SUM(G3:G5)</f>
         <v>6624.52</v>
@@ -1332,56 +1355,56 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
       <c r="G4" s="21">
         <f>SUM(G2:G3)</f>
         <v>41212</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="26"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
       <c r="G5" s="21">
         <f>G4*9%</f>
         <v>3709.08</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
       <c r="G6" s="21">
         <f>G4*9%</f>
         <v>3709.08</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
       <c r="G7" s="21">
         <f>SUM(G4:G6)</f>
         <v>48630.16</v>
@@ -1463,56 +1486,56 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
       <c r="G3" s="21">
         <f>SUM(G2)</f>
         <v>24000</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
       <c r="G4" s="21">
         <f>G3*9%</f>
         <v>2160</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="26"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
       <c r="G5" s="21">
         <f>G3*9%</f>
         <v>2160</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
       <c r="G6" s="21">
         <f>SUM(G3:G5)</f>
         <v>28320</v>
@@ -1666,56 +1689,56 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
       <c r="G6" s="22">
         <f>SUM(G2:G5)</f>
         <v>313513</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
       <c r="G7" s="22">
         <f>G6*9%</f>
         <v>28216.17</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
       <c r="G8" s="22">
         <f>G6*9%</f>
         <v>28216.17</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
       <c r="G9" s="22">
         <f>SUM(G6:G8)</f>
         <v>369945.33999999997</v>
@@ -1797,56 +1820,56 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
       <c r="G3" s="22">
         <f>SUM(G2)</f>
         <v>73450</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
       <c r="G4" s="22">
         <f>G3*9%</f>
         <v>6610.5</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="26"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
       <c r="G5" s="22">
         <f>G3*9%</f>
         <v>6610.5</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
       <c r="G6" s="22">
         <f>SUM(G3:G5)</f>
         <v>86671</v>
@@ -1951,56 +1974,56 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
       <c r="G4" s="23">
         <f>SUM(G2:G3)</f>
         <v>729990</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="26"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
       <c r="G5" s="23">
         <f>G4*9%</f>
         <v>65699.099999999991</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
       <c r="G6" s="23">
         <f>G4*9%</f>
         <v>65699.099999999991</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
       <c r="G7" s="23">
         <f>SUM(G4:G6)</f>
         <v>861388.2</v>
@@ -2177,56 +2200,56 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
       <c r="G7" s="23">
         <f>SUM(G2:G6)</f>
         <v>246402</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
       <c r="G8" s="23">
         <f>G7*9%</f>
         <v>22176.18</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
       <c r="G9" s="23">
         <f>G7*9%</f>
         <v>22176.18</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="26"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
       <c r="G10" s="23">
         <f>SUM(G7:G9)</f>
         <v>290754.36</v>
@@ -2245,44 +2268,48 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.44140625" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" customWidth="1"/>
-    <col min="4" max="4" width="16.5546875" customWidth="1"/>
-    <col min="5" max="5" width="6.44140625" customWidth="1"/>
+    <col min="1" max="1" width="6.44140625" style="26" customWidth="1"/>
+    <col min="2" max="2" width="21.5546875" style="26" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="26"/>
+    <col min="4" max="4" width="29.21875" style="26" customWidth="1"/>
+    <col min="5" max="5" width="6.44140625" style="26" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="26"/>
+    <col min="7" max="7" width="7.77734375" style="26" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="26"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="25" t="s">
+      <c r="B1" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="27" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2302,11 +2329,11 @@
         <v>600</v>
       </c>
       <c r="G2" s="1">
-        <f t="shared" ref="G2:G4" si="0">E2*F2</f>
+        <f t="shared" ref="G2:G9" si="0">E2*F2</f>
         <v>30000</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2330,7 +2357,7 @@
         <v>324000</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2354,68 +2381,188 @@
         <v>39550</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="26" t="s">
+    <row r="5" spans="1:7" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="5">
+        <v>630059</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="1">
+        <v>19</v>
+      </c>
+      <c r="F5" s="1">
+        <v>4048</v>
+      </c>
+      <c r="G5" s="1">
+        <f t="shared" si="0"/>
+        <v>76912</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="4">
+        <v>646872</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" s="1">
+        <v>10</v>
+      </c>
+      <c r="F6" s="1">
+        <v>3555</v>
+      </c>
+      <c r="G6" s="1">
+        <f t="shared" si="0"/>
+        <v>35550</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B5" s="26"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="25">
-        <f>SUM(G2:G4)</f>
-        <v>393550</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="26" t="s">
+      <c r="B7" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="1">
+        <v>13</v>
+      </c>
+      <c r="F7" s="1">
+        <v>6521</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="shared" si="0"/>
+        <v>84773</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="25">
-        <f>G5*9%</f>
-        <v>35419.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="26" t="s">
+      <c r="B8" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="5">
+        <v>615698</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="1">
+        <v>10</v>
+      </c>
+      <c r="F8" s="1">
+        <v>4831</v>
+      </c>
+      <c r="G8" s="1">
+        <f t="shared" si="0"/>
+        <v>48310</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="25">
-        <f>G5*9%</f>
-        <v>35419.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="26" t="s">
+      <c r="B9" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="1">
+        <v>50</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1908</v>
+      </c>
+      <c r="G9" s="1">
+        <f t="shared" si="0"/>
+        <v>95400</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="27">
+        <f>SUM(G2:G9)</f>
+        <v>734495</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="29"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="27">
+        <f>G10*9%</f>
+        <v>66104.55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="27">
+        <f>G10*9%</f>
+        <v>66104.55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="25">
-        <f>SUM(G5:G7)</f>
-        <v>464389</v>
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="27">
+        <f>SUM(G10:G12)</f>
+        <v>866704.10000000009</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="A13:F13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2423,17 +2570,18 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.33203125" customWidth="1"/>
     <col min="2" max="2" width="12.109375" customWidth="1"/>
-    <col min="4" max="4" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="27.6640625" customWidth="1"/>
+    <col min="7" max="7" width="6.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.3">
@@ -2464,7 +2612,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C2" s="5">
         <v>668330</v>
@@ -2479,72 +2627,144 @@
         <v>6000</v>
       </c>
       <c r="G2" s="1">
-        <f t="shared" ref="G2" si="0">E2*F2</f>
+        <f t="shared" ref="G2:G5" si="0">E2*F2</f>
         <v>42000</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="26" t="s">
+    <row r="3" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="5">
+        <v>616026</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="1">
+        <v>4</v>
+      </c>
+      <c r="F3" s="1">
+        <v>5614</v>
+      </c>
+      <c r="G3" s="1">
+        <f t="shared" si="0"/>
+        <v>22456</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="5">
+        <v>630059</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>4048</v>
+      </c>
+      <c r="G4" s="1">
+        <f t="shared" si="0"/>
+        <v>4048</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="5">
+        <v>615181</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>2400</v>
+      </c>
+      <c r="G5" s="1">
+        <f t="shared" si="0"/>
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="25">
-        <f>SUM(G2:G2)</f>
-        <v>42000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="26" t="s">
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="25">
+        <f>SUM(G2:G5)</f>
+        <v>70904</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="25">
-        <f>G3*9%</f>
-        <v>3780</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="26" t="s">
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="25">
+        <f>G6*9%</f>
+        <v>6381.36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="26"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="25">
-        <f>G3*9%</f>
-        <v>3780</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="26" t="s">
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="25">
+        <f>G6*9%</f>
+        <v>6381.36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="25">
-        <f>SUM(G3:G5)</f>
-        <v>49560</v>
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="25">
+        <f>SUM(G6:G8)</f>
+        <v>83666.720000000001</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A5:F5"/>
     <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="A9:F9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2736,56 +2956,56 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
       <c r="G8" s="3">
         <f>SUM(G2:G7)</f>
         <v>246185</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
       <c r="G9" s="3">
         <f>G8*9%</f>
         <v>22156.649999999998</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="26"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
       <c r="G10" s="3">
         <f>G8*9%</f>
         <v>22156.649999999998</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="26" t="s">
+      <c r="A11" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="26"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
       <c r="G11" s="3">
         <f>SUM(G8:G10)</f>
         <v>290498.30000000005</v>
@@ -2797,6 +3017,317 @@
     <mergeCell ref="A9:F9"/>
     <mergeCell ref="A10:F10"/>
     <mergeCell ref="A11:F11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="3" max="3" width="10.109375" customWidth="1"/>
+    <col min="4" max="4" width="26.77734375" customWidth="1"/>
+    <col min="5" max="5" width="5.88671875" customWidth="1"/>
+    <col min="7" max="7" width="8.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="28" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="1">
+        <v>17</v>
+      </c>
+      <c r="F2" s="1">
+        <v>6521</v>
+      </c>
+      <c r="G2" s="1">
+        <f t="shared" ref="G2:G3" si="0">E2*F2</f>
+        <v>110857</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="5">
+        <v>630059</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="1">
+        <v>35</v>
+      </c>
+      <c r="F3" s="1">
+        <v>4048</v>
+      </c>
+      <c r="G3" s="1">
+        <f t="shared" si="0"/>
+        <v>141680</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="28">
+        <f>SUM(G2:G3)</f>
+        <v>252537</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="28">
+        <f>G4*9%</f>
+        <v>22728.329999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="28">
+        <f>G4*9%</f>
+        <v>22728.329999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="28">
+        <f>SUM(G4:G6)</f>
+        <v>297993.66000000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A7:F7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="7.109375" customWidth="1"/>
+    <col min="2" max="2" width="17.21875" customWidth="1"/>
+    <col min="4" max="4" width="31.44140625" customWidth="1"/>
+    <col min="5" max="5" width="5.6640625" customWidth="1"/>
+    <col min="6" max="6" width="7.44140625" customWidth="1"/>
+    <col min="7" max="7" width="9.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="28" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="5">
+        <v>616026</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="1">
+        <v>10</v>
+      </c>
+      <c r="F2" s="1">
+        <v>5614</v>
+      </c>
+      <c r="G2" s="1">
+        <f t="shared" ref="G2:G3" si="0">E2*F2</f>
+        <v>56140</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="5">
+        <v>663092</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="E3" s="1">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1">
+        <v>5130</v>
+      </c>
+      <c r="G3" s="1">
+        <f t="shared" si="0"/>
+        <v>25650</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="28">
+        <f>SUM(G2:G3)</f>
+        <v>81790</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="28">
+        <f>G4*9%</f>
+        <v>7361.0999999999995</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="28">
+        <f>G4*9%</f>
+        <v>7361.0999999999995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="28">
+        <f>SUM(G4:G6)</f>
+        <v>96512.200000000012</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A7:F7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2869,56 +3400,56 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
       <c r="G3" s="11">
         <f>SUM(G2)</f>
         <v>4831</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
       <c r="G4" s="11">
         <f>G3*9%</f>
         <v>434.78999999999996</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="26"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
       <c r="G5" s="11">
         <f>G3*9%</f>
         <v>434.78999999999996</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
       <c r="G6" s="11">
         <f>SUM(G3:G5)</f>
         <v>5700.58</v>
@@ -3052,7 +3583,7 @@
         <v>50526</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -3149,56 +3680,56 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
       <c r="G9" s="11">
         <f>SUM(G2:G8)</f>
         <v>249351</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="26"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
       <c r="G10" s="11">
         <f>G9*9%</f>
         <v>22441.59</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="26" t="s">
+      <c r="A11" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="26"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
       <c r="G11" s="11">
         <f>G9*9%</f>
         <v>22441.59</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="26" t="s">
+      <c r="A12" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="26"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
       <c r="G12" s="11">
         <f>SUM(G9:G11)</f>
         <v>294234.18000000005</v>
@@ -3304,56 +3835,56 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
       <c r="G4" s="12">
         <f>SUM(G2:G3)</f>
         <v>132820</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="26"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
       <c r="G5" s="12">
         <f>G4*9%</f>
         <v>11953.8</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
       <c r="G6" s="12">
         <f>G4*9%</f>
         <v>11953.8</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
       <c r="G7" s="12">
         <f>SUM(G4:G6)</f>
         <v>156727.59999999998</v>
@@ -3422,48 +3953,48 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
       <c r="E3" s="17">
         <f>SUM(E2)</f>
         <v>18560</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
       <c r="E4" s="17">
         <f>E3*9%</f>
         <v>1670.3999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
       <c r="E5" s="17">
         <f>E3*9%</f>
         <v>1670.3999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
       <c r="E6" s="17">
         <f>SUM(E3:E5)</f>
         <v>21900.800000000003</v>
@@ -3573,56 +4104,56 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
       <c r="G4" s="13">
         <f>SUM(G2:G3)</f>
         <v>128790</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="26"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
       <c r="G5" s="13">
         <f>G4*9%</f>
         <v>11591.1</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
       <c r="G6" s="13">
         <f>G4*9%</f>
         <v>11591.1</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
       <c r="G7" s="13">
         <f>SUM(G4:G6)</f>
         <v>151972.20000000001</v>
@@ -3732,56 +4263,56 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
       <c r="G4" s="18">
         <f>SUM(G2:G3)</f>
         <v>196927</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="26"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
       <c r="G5" s="18">
         <f>G4*9%</f>
         <v>17723.43</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
       <c r="G6" s="18">
         <f>G4*9%</f>
         <v>17723.43</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
       <c r="G7" s="18">
         <f>SUM(G4:G6)</f>
         <v>232373.86</v>
@@ -3911,56 +4442,56 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="26"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
       <c r="G5" s="19">
         <f>SUM(G2:G4)</f>
         <v>189083</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
       <c r="G6" s="19">
         <f>G5*9%</f>
         <v>17017.47</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
       <c r="G7" s="19">
         <f>G5*9%</f>
         <v>17017.47</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
       <c r="G8" s="19">
         <f>SUM(G5:G7)</f>
         <v>223117.94</v>

--- a/Invoices/Invoices.xlsx
+++ b/Invoices/Invoices.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="13" activeTab="19"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="14" activeTab="21"/>
   </bookViews>
   <sheets>
     <sheet name="Putz 101" sheetId="1" r:id="rId1"/>
@@ -28,6 +28,7 @@
     <sheet name="Putz 119 APS" sheetId="19" r:id="rId19"/>
     <sheet name="Putz 120" sheetId="20" r:id="rId20"/>
     <sheet name="Putz 121 APS" sheetId="21" r:id="rId21"/>
+    <sheet name="Putz 122 APS" sheetId="22" r:id="rId22"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="75">
   <si>
     <t>Sr. No</t>
   </si>
@@ -243,6 +244,27 @@
   </si>
   <si>
     <t>Cement Bellow_Dia330x200 lg_MT3.0</t>
+  </si>
+  <si>
+    <t>APS - 151341902 (10-06-2023)</t>
+  </si>
+  <si>
+    <t>Water Bellow_Dia173x200 l g_MT3.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">151342468 (13-06-2023) </t>
+  </si>
+  <si>
+    <t>Computer Screen 19" (Serial Number - V90BP9YX), HDMI Cable, 4GB RAM</t>
+  </si>
+  <si>
+    <t>Batch PC Monitor (Serial Number - U5HL3B9F, V90BEHPK, V90BEL6R)</t>
+  </si>
+  <si>
+    <t>APS - 151343138 (14-06-2023)</t>
+  </si>
+  <si>
+    <t>PC UPS (Serial Number - 242204546136, 242204546137, 242204546133)</t>
   </si>
 </sst>
 </file>
@@ -370,7 +392,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -459,10 +481,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -885,56 +913,56 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
       <c r="G6" s="2">
         <f>SUM(G2:G5)</f>
         <v>91479</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
       <c r="G7" s="2">
         <f>G6*9%</f>
         <v>8233.11</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
       <c r="G8" s="2">
         <f>G6*9%</f>
         <v>8233.11</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="29" t="s">
+      <c r="A9" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
       <c r="G9" s="2">
         <f>SUM(G6:G8)</f>
         <v>107945.22</v>
@@ -1069,56 +1097,56 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
       <c r="G5" s="19">
         <f>SUM(G2:G4)</f>
         <v>124900</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
       <c r="G6" s="19">
         <f>G5*9%</f>
         <v>11241</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
       <c r="G7" s="19">
         <f>G5*9%</f>
         <v>11241</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
       <c r="G8" s="19">
         <f>SUM(G5:G7)</f>
         <v>147382</v>
@@ -1137,6 +1165,9 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1199,56 +1230,56 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
       <c r="G3" s="20">
         <f>SUM(G2)</f>
         <v>5614</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
       <c r="G4" s="20">
         <f>G3*9%</f>
         <v>505.26</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
       <c r="G5" s="20">
         <f>G3*9%</f>
         <v>505.26</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
       <c r="G6" s="20">
         <f>SUM(G3:G5)</f>
         <v>6624.52</v>
@@ -1267,10 +1298,13 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1355,56 +1389,56 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
       <c r="G4" s="21">
         <f>SUM(G2:G3)</f>
         <v>41212</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
       <c r="G5" s="21">
         <f>G4*9%</f>
         <v>3709.08</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
       <c r="G6" s="21">
         <f>G4*9%</f>
         <v>3709.08</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
       <c r="G7" s="21">
         <f>SUM(G4:G6)</f>
         <v>48630.16</v>
@@ -1423,6 +1457,9 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1486,56 +1523,56 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
       <c r="G3" s="21">
         <f>SUM(G2)</f>
         <v>24000</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
       <c r="G4" s="21">
         <f>G3*9%</f>
         <v>2160</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
       <c r="G5" s="21">
         <f>G3*9%</f>
         <v>2160</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
       <c r="G6" s="21">
         <f>SUM(G3:G5)</f>
         <v>28320</v>
@@ -1689,56 +1726,56 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
       <c r="G6" s="22">
         <f>SUM(G2:G5)</f>
         <v>313513</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
       <c r="G7" s="22">
         <f>G6*9%</f>
         <v>28216.17</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
       <c r="G8" s="22">
         <f>G6*9%</f>
         <v>28216.17</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="29" t="s">
+      <c r="A9" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
       <c r="G9" s="22">
         <f>SUM(G6:G8)</f>
         <v>369945.33999999997</v>
@@ -1757,6 +1794,9 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1820,56 +1860,56 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
       <c r="G3" s="22">
         <f>SUM(G2)</f>
         <v>73450</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
       <c r="G4" s="22">
         <f>G3*9%</f>
         <v>6610.5</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
       <c r="G5" s="22">
         <f>G3*9%</f>
         <v>6610.5</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
       <c r="G6" s="22">
         <f>SUM(G3:G5)</f>
         <v>86671</v>
@@ -1974,56 +2014,56 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
       <c r="G4" s="23">
         <f>SUM(G2:G3)</f>
         <v>729990</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
       <c r="G5" s="23">
         <f>G4*9%</f>
         <v>65699.099999999991</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
       <c r="G6" s="23">
         <f>G4*9%</f>
         <v>65699.099999999991</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
       <c r="G7" s="23">
         <f>SUM(G4:G6)</f>
         <v>861388.2</v>
@@ -2042,6 +2082,9 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2200,56 +2243,56 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
       <c r="G7" s="23">
         <f>SUM(G2:G6)</f>
         <v>246402</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
       <c r="G8" s="23">
         <f>G7*9%</f>
         <v>22176.18</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="29" t="s">
+      <c r="A9" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
       <c r="G9" s="23">
         <f>G7*9%</f>
         <v>22176.18</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
       <c r="G10" s="23">
         <f>SUM(G7:G9)</f>
         <v>290754.36</v>
@@ -2502,56 +2545,56 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
       <c r="G10" s="27">
         <f>SUM(G2:G9)</f>
         <v>734495</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
       <c r="G11" s="27">
         <f>G10*9%</f>
         <v>66104.55</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="29" t="s">
+      <c r="A12" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="29"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
       <c r="G12" s="27">
         <f>G10*9%</f>
         <v>66104.55</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="29" t="s">
+      <c r="A13" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="29"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
       <c r="G13" s="27">
         <f>SUM(G10:G12)</f>
         <v>866704.10000000009</v>
@@ -2704,56 +2747,56 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
       <c r="G6" s="25">
         <f>SUM(G2:G5)</f>
         <v>70904</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
       <c r="G7" s="25">
         <f>G6*9%</f>
         <v>6381.36</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
       <c r="G8" s="25">
         <f>G6*9%</f>
         <v>6381.36</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="29" t="s">
+      <c r="A9" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
       <c r="G9" s="25">
         <f>SUM(G6:G8)</f>
         <v>83666.720000000001</v>
@@ -2956,56 +2999,56 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
       <c r="G8" s="3">
         <f>SUM(G2:G7)</f>
         <v>246185</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="29" t="s">
+      <c r="A9" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
       <c r="G9" s="3">
         <f>G8*9%</f>
         <v>22156.649999999998</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
       <c r="G10" s="3">
         <f>G8*9%</f>
         <v>22156.649999999998</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
       <c r="G11" s="3">
         <f>SUM(G8:G10)</f>
         <v>290498.30000000005</v>
@@ -3024,17 +3067,18 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="6.44140625" customWidth="1"/>
     <col min="2" max="2" width="12.6640625" customWidth="1"/>
     <col min="3" max="3" width="10.109375" customWidth="1"/>
-    <col min="4" max="4" width="26.77734375" customWidth="1"/>
+    <col min="4" max="4" width="34.109375" customWidth="1"/>
     <col min="5" max="5" width="5.88671875" customWidth="1"/>
     <col min="7" max="7" width="8.77734375" customWidth="1"/>
   </cols>
@@ -3082,7 +3126,7 @@
         <v>6521</v>
       </c>
       <c r="G2" s="1">
-        <f t="shared" ref="G2:G3" si="0">E2*F2</f>
+        <f t="shared" ref="G2:G4" si="0">E2*F2</f>
         <v>110857</v>
       </c>
     </row>
@@ -3110,68 +3154,92 @@
         <v>141680</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="29" t="s">
+    <row r="4" spans="1:7" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="4">
+        <v>681149</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>9703</v>
+      </c>
+      <c r="G4" s="1">
+        <f t="shared" si="0"/>
+        <v>9703</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="28">
-        <f>SUM(G2:G3)</f>
-        <v>252537</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="29" t="s">
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="28">
+        <f>SUM(G2:G4)</f>
+        <v>262240</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="28">
-        <f>G4*9%</f>
-        <v>22728.329999999998</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="29" t="s">
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="28">
+        <f>G5*9%</f>
+        <v>23601.599999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="28">
-        <f>G4*9%</f>
-        <v>22728.329999999998</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="29" t="s">
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="28">
+        <f>G5*9%</f>
+        <v>23601.599999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="28">
-        <f>SUM(G4:G6)</f>
-        <v>297993.66000000003</v>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="28">
+        <f>SUM(G5:G7)</f>
+        <v>309443.19999999995</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A4:F4"/>
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="A6:F6"/>
     <mergeCell ref="A7:F7"/>
+    <mergeCell ref="A8:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3179,20 +3247,20 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.109375" customWidth="1"/>
-    <col min="2" max="2" width="17.21875" customWidth="1"/>
-    <col min="4" max="4" width="31.44140625" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" customWidth="1"/>
+    <col min="4" max="4" width="38.33203125" customWidth="1"/>
     <col min="5" max="5" width="5.6640625" customWidth="1"/>
-    <col min="6" max="6" width="7.44140625" customWidth="1"/>
-    <col min="7" max="7" width="9.88671875" customWidth="1"/>
+    <col min="6" max="6" width="6" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -3232,14 +3300,14 @@
         <v>20</v>
       </c>
       <c r="E2" s="1">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F2" s="1">
         <v>5614</v>
       </c>
       <c r="G2" s="1">
-        <f t="shared" ref="G2:G3" si="0">E2*F2</f>
-        <v>56140</v>
+        <f t="shared" ref="G2:G8" si="0">E2*F2</f>
+        <v>89824</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -3256,78 +3324,327 @@
         <v>67</v>
       </c>
       <c r="E3" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F3" s="1">
         <v>5130</v>
       </c>
       <c r="G3" s="1">
         <f t="shared" si="0"/>
-        <v>25650</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="29" t="s">
+        <v>51300</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="5">
+        <v>615181</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="1">
+        <v>14</v>
+      </c>
+      <c r="F4" s="1">
+        <v>2400</v>
+      </c>
+      <c r="G4" s="1">
+        <f t="shared" si="0"/>
+        <v>33600</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="10">
+        <v>720138</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="E5" s="1">
+        <v>3</v>
+      </c>
+      <c r="F5" s="1">
+        <v>6800</v>
+      </c>
+      <c r="G5" s="1">
+        <f t="shared" si="0"/>
+        <v>20400</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="5">
+        <v>630059</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="1">
+        <v>10</v>
+      </c>
+      <c r="F6" s="1">
+        <v>4048</v>
+      </c>
+      <c r="G6" s="1">
+        <f t="shared" si="0"/>
+        <v>40480</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="28">
-        <f>SUM(G2:G3)</f>
-        <v>81790</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="29" t="s">
+      <c r="B7" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="1">
+        <v>8</v>
+      </c>
+      <c r="F7" s="1">
+        <v>6521</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="shared" si="0"/>
+        <v>52168</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="28">
-        <f>G4*9%</f>
-        <v>7361.0999999999995</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="29" t="s">
+      <c r="B8" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" s="5">
+        <v>663091</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" s="1">
+        <v>10</v>
+      </c>
+      <c r="F8" s="1">
+        <v>3510</v>
+      </c>
+      <c r="G8" s="1">
+        <f t="shared" si="0"/>
+        <v>35100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="28">
+        <f>SUM(G2:G8)</f>
+        <v>322872</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="28">
+        <f>G9*9%</f>
+        <v>29058.48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="28">
-        <f>G4*9%</f>
-        <v>7361.0999999999995</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="29" t="s">
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="28">
+        <f>G9*9%</f>
+        <v>29058.48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="28">
-        <f>SUM(G4:G6)</f>
-        <v>96512.200000000012</v>
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="28">
+        <f>SUM(G9:G11)</f>
+        <v>380988.95999999996</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A12:F12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6.5546875" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" customWidth="1"/>
+    <col min="4" max="4" width="32.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="4">
+        <v>724214</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2" s="33">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1">
+        <v>2490</v>
+      </c>
+      <c r="G2" s="1">
+        <f t="shared" ref="G2" si="0">E2*F2</f>
+        <v>7470</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="29">
+        <f>SUM(G2:G2)</f>
+        <v>7470</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="29">
+        <f>G3*9%</f>
+        <v>672.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="29">
+        <f>G3*9%</f>
+        <v>672.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="29">
+        <f>SUM(G3:G5)</f>
+        <v>8814.6</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A3:F3"/>
     <mergeCell ref="A4:F4"/>
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A7:F7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3400,56 +3717,56 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
       <c r="G3" s="11">
         <f>SUM(G2)</f>
         <v>4831</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
       <c r="G4" s="11">
         <f>G3*9%</f>
         <v>434.78999999999996</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
       <c r="G5" s="11">
         <f>G3*9%</f>
         <v>434.78999999999996</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
       <c r="G6" s="11">
         <f>SUM(G3:G5)</f>
         <v>5700.58</v>
@@ -3680,56 +3997,56 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="29" t="s">
+      <c r="A9" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
       <c r="G9" s="11">
         <f>SUM(G2:G8)</f>
         <v>249351</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
       <c r="G10" s="11">
         <f>G9*9%</f>
         <v>22441.59</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
       <c r="G11" s="11">
         <f>G9*9%</f>
         <v>22441.59</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="29" t="s">
+      <c r="A12" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="29"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
       <c r="G12" s="11">
         <f>SUM(G9:G11)</f>
         <v>294234.18000000005</v>
@@ -3835,56 +4152,56 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
       <c r="G4" s="12">
         <f>SUM(G2:G3)</f>
         <v>132820</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
       <c r="G5" s="12">
         <f>G4*9%</f>
         <v>11953.8</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
       <c r="G6" s="12">
         <f>G4*9%</f>
         <v>11953.8</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
       <c r="G7" s="12">
         <f>SUM(G4:G6)</f>
         <v>156727.59999999998</v>
@@ -3953,48 +4270,48 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
       <c r="E3" s="17">
         <f>SUM(E2)</f>
         <v>18560</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
       <c r="E4" s="17">
         <f>E3*9%</f>
         <v>1670.3999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
       <c r="E5" s="17">
         <f>E3*9%</f>
         <v>1670.3999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
       <c r="E6" s="17">
         <f>SUM(E3:E5)</f>
         <v>21900.800000000003</v>
@@ -4104,56 +4421,56 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
       <c r="G4" s="13">
         <f>SUM(G2:G3)</f>
         <v>128790</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
       <c r="G5" s="13">
         <f>G4*9%</f>
         <v>11591.1</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
       <c r="G6" s="13">
         <f>G4*9%</f>
         <v>11591.1</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
       <c r="G7" s="13">
         <f>SUM(G4:G6)</f>
         <v>151972.20000000001</v>
@@ -4263,56 +4580,56 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
       <c r="G4" s="18">
         <f>SUM(G2:G3)</f>
         <v>196927</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
       <c r="G5" s="18">
         <f>G4*9%</f>
         <v>17723.43</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
       <c r="G6" s="18">
         <f>G4*9%</f>
         <v>17723.43</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
       <c r="G7" s="18">
         <f>SUM(G4:G6)</f>
         <v>232373.86</v>
@@ -4442,56 +4759,56 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
       <c r="G5" s="19">
         <f>SUM(G2:G4)</f>
         <v>189083</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
       <c r="G6" s="19">
         <f>G5*9%</f>
         <v>17017.47</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
       <c r="G7" s="19">
         <f>G5*9%</f>
         <v>17017.47</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
       <c r="G8" s="19">
         <f>SUM(G5:G7)</f>
         <v>223117.94</v>

--- a/Invoices/Invoices.xlsx
+++ b/Invoices/Invoices.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="14" activeTab="21"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="15" activeTab="22"/>
   </bookViews>
   <sheets>
     <sheet name="Putz 101" sheetId="1" r:id="rId1"/>
@@ -29,6 +29,7 @@
     <sheet name="Putz 120" sheetId="20" r:id="rId20"/>
     <sheet name="Putz 121 APS" sheetId="21" r:id="rId21"/>
     <sheet name="Putz 122 APS" sheetId="22" r:id="rId22"/>
+    <sheet name="Putz 123" sheetId="23" r:id="rId23"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="76">
   <si>
     <t>Sr. No</t>
   </si>
@@ -265,6 +266,9 @@
   </si>
   <si>
     <t>PC UPS (Serial Number - 242204546136, 242204546137, 242204546133)</t>
+  </si>
+  <si>
+    <t>151342469 (18-06-2023)</t>
   </si>
 </sst>
 </file>
@@ -392,7 +396,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -484,13 +488,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -913,56 +920,56 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
       <c r="G6" s="2">
         <f>SUM(G2:G5)</f>
         <v>91479</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="30"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
       <c r="G7" s="2">
         <f>G6*9%</f>
         <v>8233.11</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="30"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
       <c r="G8" s="2">
         <f>G6*9%</f>
         <v>8233.11</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="30"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
       <c r="G9" s="2">
         <f>SUM(G6:G8)</f>
         <v>107945.22</v>
@@ -1097,56 +1104,56 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
       <c r="G5" s="19">
         <f>SUM(G2:G4)</f>
         <v>124900</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
       <c r="G6" s="19">
         <f>G5*9%</f>
         <v>11241</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="30"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
       <c r="G7" s="19">
         <f>G5*9%</f>
         <v>11241</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="30"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
       <c r="G8" s="19">
         <f>SUM(G5:G7)</f>
         <v>147382</v>
@@ -1230,56 +1237,56 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
       <c r="G3" s="20">
         <f>SUM(G2)</f>
         <v>5614</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
       <c r="G4" s="20">
         <f>G3*9%</f>
         <v>505.26</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
       <c r="G5" s="20">
         <f>G3*9%</f>
         <v>505.26</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
       <c r="G6" s="20">
         <f>SUM(G3:G5)</f>
         <v>6624.52</v>
@@ -1389,56 +1396,56 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
       <c r="G4" s="21">
         <f>SUM(G2:G3)</f>
         <v>41212</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
       <c r="G5" s="21">
         <f>G4*9%</f>
         <v>3709.08</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
       <c r="G6" s="21">
         <f>G4*9%</f>
         <v>3709.08</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="30"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
       <c r="G7" s="21">
         <f>SUM(G4:G6)</f>
         <v>48630.16</v>
@@ -1523,56 +1530,56 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
       <c r="G3" s="21">
         <f>SUM(G2)</f>
         <v>24000</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
       <c r="G4" s="21">
         <f>G3*9%</f>
         <v>2160</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
       <c r="G5" s="21">
         <f>G3*9%</f>
         <v>2160</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
       <c r="G6" s="21">
         <f>SUM(G3:G5)</f>
         <v>28320</v>
@@ -1726,56 +1733,56 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
       <c r="G6" s="22">
         <f>SUM(G2:G5)</f>
         <v>313513</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="30"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
       <c r="G7" s="22">
         <f>G6*9%</f>
         <v>28216.17</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="30"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
       <c r="G8" s="22">
         <f>G6*9%</f>
         <v>28216.17</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="30"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
       <c r="G9" s="22">
         <f>SUM(G6:G8)</f>
         <v>369945.33999999997</v>
@@ -1860,56 +1867,56 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
       <c r="G3" s="22">
         <f>SUM(G2)</f>
         <v>73450</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
       <c r="G4" s="22">
         <f>G3*9%</f>
         <v>6610.5</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
       <c r="G5" s="22">
         <f>G3*9%</f>
         <v>6610.5</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
       <c r="G6" s="22">
         <f>SUM(G3:G5)</f>
         <v>86671</v>
@@ -2014,56 +2021,56 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
       <c r="G4" s="23">
         <f>SUM(G2:G3)</f>
         <v>729990</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
       <c r="G5" s="23">
         <f>G4*9%</f>
         <v>65699.099999999991</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
       <c r="G6" s="23">
         <f>G4*9%</f>
         <v>65699.099999999991</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="30"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
       <c r="G7" s="23">
         <f>SUM(G4:G6)</f>
         <v>861388.2</v>
@@ -2243,56 +2250,56 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="30"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
       <c r="G7" s="23">
         <f>SUM(G2:G6)</f>
         <v>246402</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="30"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
       <c r="G8" s="23">
         <f>G7*9%</f>
         <v>22176.18</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="30"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
       <c r="G9" s="23">
         <f>G7*9%</f>
         <v>22176.18</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="30"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
       <c r="G10" s="23">
         <f>SUM(G7:G9)</f>
         <v>290754.36</v>
@@ -2545,56 +2552,56 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="30"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
       <c r="G10" s="27">
         <f>SUM(G2:G9)</f>
         <v>734495</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="30" t="s">
+      <c r="A11" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="30"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
       <c r="G11" s="27">
         <f>G10*9%</f>
         <v>66104.55</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="30" t="s">
+      <c r="A12" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="30"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
       <c r="G12" s="27">
         <f>G10*9%</f>
         <v>66104.55</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="30" t="s">
+      <c r="A13" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="30"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
       <c r="G13" s="27">
         <f>SUM(G10:G12)</f>
         <v>866704.10000000009</v>
@@ -2747,56 +2754,56 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
       <c r="G6" s="25">
         <f>SUM(G2:G5)</f>
         <v>70904</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="30"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
       <c r="G7" s="25">
         <f>G6*9%</f>
         <v>6381.36</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="30"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
       <c r="G8" s="25">
         <f>G6*9%</f>
         <v>6381.36</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="30"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
       <c r="G9" s="25">
         <f>SUM(G6:G8)</f>
         <v>83666.720000000001</v>
@@ -2999,56 +3006,56 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="30"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
       <c r="G8" s="3">
         <f>SUM(G2:G7)</f>
         <v>246185</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="30"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
       <c r="G9" s="3">
         <f>G8*9%</f>
         <v>22156.649999999998</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="30"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
       <c r="G10" s="3">
         <f>G8*9%</f>
         <v>22156.649999999998</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="30" t="s">
+      <c r="A11" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="30"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
       <c r="G11" s="3">
         <f>SUM(G8:G10)</f>
         <v>290498.30000000005</v>
@@ -3070,7 +3077,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G8"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3179,56 +3186,56 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
       <c r="G5" s="28">
         <f>SUM(G2:G4)</f>
         <v>262240</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
       <c r="G6" s="28">
         <f>G5*9%</f>
         <v>23601.599999999999</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="30"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
       <c r="G7" s="28">
         <f>G5*9%</f>
         <v>23601.599999999999</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="30"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
       <c r="G8" s="28">
         <f>SUM(G5:G7)</f>
         <v>309443.19999999995</v>
@@ -3455,56 +3462,56 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="30"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
       <c r="G9" s="28">
         <f>SUM(G2:G8)</f>
         <v>322872</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="30"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
       <c r="G10" s="28">
         <f>G9*9%</f>
         <v>29058.48</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="30" t="s">
+      <c r="A11" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="30"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
       <c r="G11" s="28">
         <f>G9*9%</f>
         <v>29058.48</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="30" t="s">
+      <c r="A12" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="30"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
       <c r="G12" s="28">
         <f>SUM(G9:G11)</f>
         <v>380988.95999999996</v>
@@ -3523,17 +3530,19 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.5546875" customWidth="1"/>
     <col min="2" max="2" width="12.109375" customWidth="1"/>
-    <col min="4" max="4" width="32.5546875" customWidth="1"/>
+    <col min="4" max="4" width="26.44140625" customWidth="1"/>
+    <col min="5" max="5" width="5.109375" customWidth="1"/>
+    <col min="7" max="7" width="8.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -3559,84 +3568,286 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="7">
         <v>724214</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="E2" s="33">
+      <c r="E2" s="31">
         <v>3</v>
       </c>
       <c r="F2" s="1">
         <v>2490</v>
       </c>
       <c r="G2" s="1">
+        <f t="shared" ref="G2:G5" si="0">E2*F2</f>
+        <v>7470</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="31">
+        <v>12</v>
+      </c>
+      <c r="F3" s="1">
+        <v>6521</v>
+      </c>
+      <c r="G3" s="1">
+        <f t="shared" si="0"/>
+        <v>78252</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="5">
+        <v>630059</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="31">
+        <v>10</v>
+      </c>
+      <c r="F4" s="1">
+        <v>4048</v>
+      </c>
+      <c r="G4" s="1">
+        <f t="shared" si="0"/>
+        <v>40480</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="4">
+        <v>646872</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5" s="31">
+        <v>10</v>
+      </c>
+      <c r="F5" s="1">
+        <v>3555</v>
+      </c>
+      <c r="G5" s="1">
+        <f t="shared" si="0"/>
+        <v>35550</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="29">
+        <f>SUM(G2:G5)</f>
+        <v>161752</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="29">
+        <f>G6*9%</f>
+        <v>14557.68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="29">
+        <f>G6*9%</f>
+        <v>14557.68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="29">
+        <f>SUM(G6:G8)</f>
+        <v>190867.36</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="A9:F9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="7.33203125" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" customWidth="1"/>
+    <col min="4" max="4" width="22.33203125" customWidth="1"/>
+    <col min="7" max="7" width="7.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="30" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="5">
+        <v>716663</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" s="1">
+        <v>10</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1896</v>
+      </c>
+      <c r="G2" s="1">
         <f t="shared" ref="G2" si="0">E2*F2</f>
-        <v>7470</v>
+        <v>18960</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="29">
-        <f>SUM(G2:G2)</f>
-        <v>7470</v>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="30">
+        <f>SUM(G2)</f>
+        <v>18960</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="29">
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="30">
         <f>G3*9%</f>
-        <v>672.3</v>
+        <v>1706.3999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="29">
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="30">
         <f>G3*9%</f>
-        <v>672.3</v>
+        <v>1706.3999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="29">
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="30">
         <f>SUM(G3:G5)</f>
-        <v>8814.6</v>
+        <v>22372.800000000003</v>
       </c>
     </row>
   </sheetData>
@@ -3717,56 +3928,56 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
       <c r="G3" s="11">
         <f>SUM(G2)</f>
         <v>4831</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
       <c r="G4" s="11">
         <f>G3*9%</f>
         <v>434.78999999999996</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
       <c r="G5" s="11">
         <f>G3*9%</f>
         <v>434.78999999999996</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
       <c r="G6" s="11">
         <f>SUM(G3:G5)</f>
         <v>5700.58</v>
@@ -3997,56 +4208,56 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="30"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
       <c r="G9" s="11">
         <f>SUM(G2:G8)</f>
         <v>249351</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="30"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
       <c r="G10" s="11">
         <f>G9*9%</f>
         <v>22441.59</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="30" t="s">
+      <c r="A11" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="30"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
       <c r="G11" s="11">
         <f>G9*9%</f>
         <v>22441.59</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="30" t="s">
+      <c r="A12" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="30"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
       <c r="G12" s="11">
         <f>SUM(G9:G11)</f>
         <v>294234.18000000005</v>
@@ -4152,56 +4363,56 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
       <c r="G4" s="12">
         <f>SUM(G2:G3)</f>
         <v>132820</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
       <c r="G5" s="12">
         <f>G4*9%</f>
         <v>11953.8</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
       <c r="G6" s="12">
         <f>G4*9%</f>
         <v>11953.8</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="30"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
       <c r="G7" s="12">
         <f>SUM(G4:G6)</f>
         <v>156727.59999999998</v>
@@ -4270,48 +4481,48 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
       <c r="E3" s="17">
         <f>SUM(E2)</f>
         <v>18560</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
       <c r="E4" s="17">
         <f>E3*9%</f>
         <v>1670.3999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
       <c r="E5" s="17">
         <f>E3*9%</f>
         <v>1670.3999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
       <c r="E6" s="17">
         <f>SUM(E3:E5)</f>
         <v>21900.800000000003</v>
@@ -4421,56 +4632,56 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
       <c r="G4" s="13">
         <f>SUM(G2:G3)</f>
         <v>128790</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
       <c r="G5" s="13">
         <f>G4*9%</f>
         <v>11591.1</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
       <c r="G6" s="13">
         <f>G4*9%</f>
         <v>11591.1</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="30"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
       <c r="G7" s="13">
         <f>SUM(G4:G6)</f>
         <v>151972.20000000001</v>
@@ -4580,56 +4791,56 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
       <c r="G4" s="18">
         <f>SUM(G2:G3)</f>
         <v>196927</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
       <c r="G5" s="18">
         <f>G4*9%</f>
         <v>17723.43</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
       <c r="G6" s="18">
         <f>G4*9%</f>
         <v>17723.43</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="30"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
       <c r="G7" s="18">
         <f>SUM(G4:G6)</f>
         <v>232373.86</v>
@@ -4759,56 +4970,56 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
       <c r="G5" s="19">
         <f>SUM(G2:G4)</f>
         <v>189083</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
       <c r="G6" s="19">
         <f>G5*9%</f>
         <v>17017.47</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="30"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
       <c r="G7" s="19">
         <f>G5*9%</f>
         <v>17017.47</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="30"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
       <c r="G8" s="19">
         <f>SUM(G5:G7)</f>
         <v>223117.94</v>

--- a/Invoices/Invoices.xlsx
+++ b/Invoices/Invoices.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="15" activeTab="22"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="16" activeTab="23"/>
   </bookViews>
   <sheets>
     <sheet name="Putz 101" sheetId="1" r:id="rId1"/>
@@ -30,6 +30,7 @@
     <sheet name="Putz 121 APS" sheetId="21" r:id="rId21"/>
     <sheet name="Putz 122 APS" sheetId="22" r:id="rId22"/>
     <sheet name="Putz 123" sheetId="23" r:id="rId23"/>
+    <sheet name="Putz 124 APS" sheetId="24" r:id="rId24"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="76">
   <si>
     <t>Sr. No</t>
   </si>
@@ -396,7 +397,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -489,6 +490,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -920,56 +924,56 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
       <c r="G6" s="2">
         <f>SUM(G2:G5)</f>
         <v>91479</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
       <c r="G7" s="2">
         <f>G6*9%</f>
         <v>8233.11</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="32"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
       <c r="G8" s="2">
         <f>G6*9%</f>
         <v>8233.11</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
       <c r="G9" s="2">
         <f>SUM(G6:G8)</f>
         <v>107945.22</v>
@@ -1104,56 +1108,56 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
       <c r="G5" s="19">
         <f>SUM(G2:G4)</f>
         <v>124900</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
       <c r="G6" s="19">
         <f>G5*9%</f>
         <v>11241</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
       <c r="G7" s="19">
         <f>G5*9%</f>
         <v>11241</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="32"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
       <c r="G8" s="19">
         <f>SUM(G5:G7)</f>
         <v>147382</v>
@@ -1237,56 +1241,56 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
       <c r="G3" s="20">
         <f>SUM(G2)</f>
         <v>5614</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
       <c r="G4" s="20">
         <f>G3*9%</f>
         <v>505.26</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
       <c r="G5" s="20">
         <f>G3*9%</f>
         <v>505.26</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
       <c r="G6" s="20">
         <f>SUM(G3:G5)</f>
         <v>6624.52</v>
@@ -1396,56 +1400,56 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
       <c r="G4" s="21">
         <f>SUM(G2:G3)</f>
         <v>41212</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
       <c r="G5" s="21">
         <f>G4*9%</f>
         <v>3709.08</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
       <c r="G6" s="21">
         <f>G4*9%</f>
         <v>3709.08</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
       <c r="G7" s="21">
         <f>SUM(G4:G6)</f>
         <v>48630.16</v>
@@ -1530,56 +1534,56 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
       <c r="G3" s="21">
         <f>SUM(G2)</f>
         <v>24000</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
       <c r="G4" s="21">
         <f>G3*9%</f>
         <v>2160</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
       <c r="G5" s="21">
         <f>G3*9%</f>
         <v>2160</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
       <c r="G6" s="21">
         <f>SUM(G3:G5)</f>
         <v>28320</v>
@@ -1733,56 +1737,56 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
       <c r="G6" s="22">
         <f>SUM(G2:G5)</f>
         <v>313513</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
       <c r="G7" s="22">
         <f>G6*9%</f>
         <v>28216.17</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="32"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
       <c r="G8" s="22">
         <f>G6*9%</f>
         <v>28216.17</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
       <c r="G9" s="22">
         <f>SUM(G6:G8)</f>
         <v>369945.33999999997</v>
@@ -1867,56 +1871,56 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
       <c r="G3" s="22">
         <f>SUM(G2)</f>
         <v>73450</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
       <c r="G4" s="22">
         <f>G3*9%</f>
         <v>6610.5</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
       <c r="G5" s="22">
         <f>G3*9%</f>
         <v>6610.5</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
       <c r="G6" s="22">
         <f>SUM(G3:G5)</f>
         <v>86671</v>
@@ -2021,56 +2025,56 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
       <c r="G4" s="23">
         <f>SUM(G2:G3)</f>
         <v>729990</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
       <c r="G5" s="23">
         <f>G4*9%</f>
         <v>65699.099999999991</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
       <c r="G6" s="23">
         <f>G4*9%</f>
         <v>65699.099999999991</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
       <c r="G7" s="23">
         <f>SUM(G4:G6)</f>
         <v>861388.2</v>
@@ -2250,56 +2254,56 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
       <c r="G7" s="23">
         <f>SUM(G2:G6)</f>
         <v>246402</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="32"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
       <c r="G8" s="23">
         <f>G7*9%</f>
         <v>22176.18</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
       <c r="G9" s="23">
         <f>G7*9%</f>
         <v>22176.18</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="32" t="s">
+      <c r="A10" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="32"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
       <c r="G10" s="23">
         <f>SUM(G7:G9)</f>
         <v>290754.36</v>
@@ -2552,56 +2556,56 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="32" t="s">
+      <c r="A10" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="32"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
       <c r="G10" s="27">
         <f>SUM(G2:G9)</f>
         <v>734495</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="32" t="s">
+      <c r="A11" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
       <c r="G11" s="27">
         <f>G10*9%</f>
         <v>66104.55</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="32" t="s">
+      <c r="A12" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="32"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
       <c r="G12" s="27">
         <f>G10*9%</f>
         <v>66104.55</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="32" t="s">
+      <c r="A13" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="32"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
       <c r="G13" s="27">
         <f>SUM(G10:G12)</f>
         <v>866704.10000000009</v>
@@ -2754,56 +2758,56 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
       <c r="G6" s="25">
         <f>SUM(G2:G5)</f>
         <v>70904</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
       <c r="G7" s="25">
         <f>G6*9%</f>
         <v>6381.36</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="32"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
       <c r="G8" s="25">
         <f>G6*9%</f>
         <v>6381.36</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
       <c r="G9" s="25">
         <f>SUM(G6:G8)</f>
         <v>83666.720000000001</v>
@@ -3006,56 +3010,56 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="32"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
       <c r="G8" s="3">
         <f>SUM(G2:G7)</f>
         <v>246185</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
       <c r="G9" s="3">
         <f>G8*9%</f>
         <v>22156.649999999998</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="32" t="s">
+      <c r="A10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="32"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
       <c r="G10" s="3">
         <f>G8*9%</f>
         <v>22156.649999999998</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="32" t="s">
+      <c r="A11" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
       <c r="G11" s="3">
         <f>SUM(G8:G10)</f>
         <v>290498.30000000005</v>
@@ -3077,7 +3081,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection sqref="A1:G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3186,56 +3190,56 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
       <c r="G5" s="28">
         <f>SUM(G2:G4)</f>
         <v>262240</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
       <c r="G6" s="28">
         <f>G5*9%</f>
         <v>23601.599999999999</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
       <c r="G7" s="28">
         <f>G5*9%</f>
         <v>23601.599999999999</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="32"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
       <c r="G8" s="28">
         <f>SUM(G5:G7)</f>
         <v>309443.19999999995</v>
@@ -3462,56 +3466,56 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
       <c r="G9" s="28">
         <f>SUM(G2:G8)</f>
         <v>322872</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="32" t="s">
+      <c r="A10" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="32"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
       <c r="G10" s="28">
         <f>G9*9%</f>
         <v>29058.48</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="32" t="s">
+      <c r="A11" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
       <c r="G11" s="28">
         <f>G9*9%</f>
         <v>29058.48</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="32" t="s">
+      <c r="A12" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="32"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
       <c r="G12" s="28">
         <f>SUM(G9:G11)</f>
         <v>380988.95999999996</v>
@@ -3665,56 +3669,56 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
       <c r="G6" s="29">
         <f>SUM(G2:G5)</f>
         <v>161752</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
       <c r="G7" s="29">
         <f>G6*9%</f>
         <v>14557.68</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="32"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
       <c r="G8" s="29">
         <f>G6*9%</f>
         <v>14557.68</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
       <c r="G9" s="29">
         <f>SUM(G6:G8)</f>
         <v>190867.36</v>
@@ -3735,7 +3739,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
@@ -3795,59 +3799,190 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
       <c r="G3" s="30">
         <f>SUM(G2)</f>
         <v>18960</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
       <c r="G4" s="30">
         <f>G3*9%</f>
         <v>1706.3999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
       <c r="G5" s="30">
         <f>G3*9%</f>
         <v>1706.3999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
       <c r="G6" s="30">
         <f>SUM(G3:G5)</f>
         <v>22372.800000000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A6:F6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6.44140625" customWidth="1"/>
+    <col min="2" max="2" width="16.21875" customWidth="1"/>
+    <col min="4" max="4" width="18.109375" customWidth="1"/>
+    <col min="5" max="5" width="5.5546875" customWidth="1"/>
+    <col min="7" max="7" width="9.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="32" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="4">
+        <v>632215</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="1">
+        <v>15</v>
+      </c>
+      <c r="F2" s="1">
+        <v>5738</v>
+      </c>
+      <c r="G2" s="1">
+        <f t="shared" ref="G2" si="0">E2*F2</f>
+        <v>86070</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="32">
+        <f>SUM(G2)</f>
+        <v>86070</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="32">
+        <f>G3*9%</f>
+        <v>7746.2999999999993</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="32">
+        <f>G3*9%</f>
+        <v>7746.2999999999993</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="32">
+        <f>SUM(G3:G5)</f>
+        <v>101562.6</v>
       </c>
     </row>
   </sheetData>
@@ -3928,56 +4063,56 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
       <c r="G3" s="11">
         <f>SUM(G2)</f>
         <v>4831</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
       <c r="G4" s="11">
         <f>G3*9%</f>
         <v>434.78999999999996</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
       <c r="G5" s="11">
         <f>G3*9%</f>
         <v>434.78999999999996</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
       <c r="G6" s="11">
         <f>SUM(G3:G5)</f>
         <v>5700.58</v>
@@ -4208,56 +4343,56 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
       <c r="G9" s="11">
         <f>SUM(G2:G8)</f>
         <v>249351</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="32" t="s">
+      <c r="A10" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="32"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
       <c r="G10" s="11">
         <f>G9*9%</f>
         <v>22441.59</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="32" t="s">
+      <c r="A11" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
       <c r="G11" s="11">
         <f>G9*9%</f>
         <v>22441.59</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="32" t="s">
+      <c r="A12" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="32"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
       <c r="G12" s="11">
         <f>SUM(G9:G11)</f>
         <v>294234.18000000005</v>
@@ -4363,56 +4498,56 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
       <c r="G4" s="12">
         <f>SUM(G2:G3)</f>
         <v>132820</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
       <c r="G5" s="12">
         <f>G4*9%</f>
         <v>11953.8</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
       <c r="G6" s="12">
         <f>G4*9%</f>
         <v>11953.8</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
       <c r="G7" s="12">
         <f>SUM(G4:G6)</f>
         <v>156727.59999999998</v>
@@ -4481,48 +4616,48 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
       <c r="E3" s="17">
         <f>SUM(E2)</f>
         <v>18560</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
       <c r="E4" s="17">
         <f>E3*9%</f>
         <v>1670.3999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
       <c r="E5" s="17">
         <f>E3*9%</f>
         <v>1670.3999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
       <c r="E6" s="17">
         <f>SUM(E3:E5)</f>
         <v>21900.800000000003</v>
@@ -4632,56 +4767,56 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
       <c r="G4" s="13">
         <f>SUM(G2:G3)</f>
         <v>128790</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
       <c r="G5" s="13">
         <f>G4*9%</f>
         <v>11591.1</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
       <c r="G6" s="13">
         <f>G4*9%</f>
         <v>11591.1</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
       <c r="G7" s="13">
         <f>SUM(G4:G6)</f>
         <v>151972.20000000001</v>
@@ -4791,56 +4926,56 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
       <c r="G4" s="18">
         <f>SUM(G2:G3)</f>
         <v>196927</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
       <c r="G5" s="18">
         <f>G4*9%</f>
         <v>17723.43</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
       <c r="G6" s="18">
         <f>G4*9%</f>
         <v>17723.43</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
       <c r="G7" s="18">
         <f>SUM(G4:G6)</f>
         <v>232373.86</v>
@@ -4970,56 +5105,56 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
       <c r="G5" s="19">
         <f>SUM(G2:G4)</f>
         <v>189083</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
       <c r="G6" s="19">
         <f>G5*9%</f>
         <v>17017.47</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
       <c r="G7" s="19">
         <f>G5*9%</f>
         <v>17017.47</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="32"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
       <c r="G8" s="19">
         <f>SUM(G5:G7)</f>
         <v>223117.94</v>

--- a/Invoices/Invoices.xlsx
+++ b/Invoices/Invoices.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="16" activeTab="23"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Putz 101" sheetId="1" r:id="rId1"/>
@@ -1939,10 +1939,13 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G7"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2322,6 +2325,9 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2624,6 +2630,9 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3078,10 +3087,13 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G8"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3258,6 +3270,9 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3534,6 +3549,9 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3737,6 +3755,9 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3867,9 +3888,12 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
@@ -4994,10 +5018,13 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Invoices/Invoices.xlsx
+++ b/Invoices/Invoices.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="16" activeTab="23"/>
   </bookViews>
   <sheets>
     <sheet name="Putz 101" sheetId="1" r:id="rId1"/>
@@ -3893,8 +3893,8 @@
   </sheetPr>
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5023,8 +5023,8 @@
   </sheetPr>
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Invoices/Invoices.xlsx
+++ b/Invoices/Invoices.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="16" activeTab="23"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="18" activeTab="25"/>
   </bookViews>
   <sheets>
     <sheet name="Putz 101" sheetId="1" r:id="rId1"/>
@@ -31,6 +31,8 @@
     <sheet name="Putz 122 APS" sheetId="22" r:id="rId22"/>
     <sheet name="Putz 123" sheetId="23" r:id="rId23"/>
     <sheet name="Putz 124 APS" sheetId="24" r:id="rId24"/>
+    <sheet name="Puts 201" sheetId="25" r:id="rId25"/>
+    <sheet name="Putz 202 APS" sheetId="26" r:id="rId26"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -42,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="80">
   <si>
     <t>Sr. No</t>
   </si>
@@ -270,6 +272,18 @@
   </si>
   <si>
     <t>151342469 (18-06-2023)</t>
+  </si>
+  <si>
+    <t>151351014 (07-07-2023)</t>
+  </si>
+  <si>
+    <t>151352102 (11-07-2023)</t>
+  </si>
+  <si>
+    <t>APS - 151353543 (14-07-2023)</t>
+  </si>
+  <si>
+    <t>Computer Screen 19"(Serial Number - ), HDMI Cable, 4GB RAM</t>
   </si>
 </sst>
 </file>
@@ -397,7 +411,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -490,6 +504,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -924,56 +947,56 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
       <c r="G6" s="2">
         <f>SUM(G2:G5)</f>
         <v>91479</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="33"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
       <c r="G7" s="2">
         <f>G6*9%</f>
         <v>8233.11</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="33" t="s">
+      <c r="A8" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="33"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
       <c r="G8" s="2">
         <f>G6*9%</f>
         <v>8233.11</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="33"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
       <c r="G9" s="2">
         <f>SUM(G6:G8)</f>
         <v>107945.22</v>
@@ -1108,56 +1131,56 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
       <c r="G5" s="19">
         <f>SUM(G2:G4)</f>
         <v>124900</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
       <c r="G6" s="19">
         <f>G5*9%</f>
         <v>11241</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="33"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
       <c r="G7" s="19">
         <f>G5*9%</f>
         <v>11241</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="33" t="s">
+      <c r="A8" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="33"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
       <c r="G8" s="19">
         <f>SUM(G5:G7)</f>
         <v>147382</v>
@@ -1241,56 +1264,56 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
       <c r="G3" s="20">
         <f>SUM(G2)</f>
         <v>5614</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
       <c r="G4" s="20">
         <f>G3*9%</f>
         <v>505.26</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
       <c r="G5" s="20">
         <f>G3*9%</f>
         <v>505.26</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
       <c r="G6" s="20">
         <f>SUM(G3:G5)</f>
         <v>6624.52</v>
@@ -1400,56 +1423,56 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
       <c r="G4" s="21">
         <f>SUM(G2:G3)</f>
         <v>41212</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
       <c r="G5" s="21">
         <f>G4*9%</f>
         <v>3709.08</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
       <c r="G6" s="21">
         <f>G4*9%</f>
         <v>3709.08</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="33"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
       <c r="G7" s="21">
         <f>SUM(G4:G6)</f>
         <v>48630.16</v>
@@ -1534,56 +1557,56 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
       <c r="G3" s="21">
         <f>SUM(G2)</f>
         <v>24000</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
       <c r="G4" s="21">
         <f>G3*9%</f>
         <v>2160</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
       <c r="G5" s="21">
         <f>G3*9%</f>
         <v>2160</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
       <c r="G6" s="21">
         <f>SUM(G3:G5)</f>
         <v>28320</v>
@@ -1737,56 +1760,56 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
       <c r="G6" s="22">
         <f>SUM(G2:G5)</f>
         <v>313513</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="33"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
       <c r="G7" s="22">
         <f>G6*9%</f>
         <v>28216.17</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="33" t="s">
+      <c r="A8" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="33"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
       <c r="G8" s="22">
         <f>G6*9%</f>
         <v>28216.17</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="33"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
       <c r="G9" s="22">
         <f>SUM(G6:G8)</f>
         <v>369945.33999999997</v>
@@ -1871,56 +1894,56 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
       <c r="G3" s="22">
         <f>SUM(G2)</f>
         <v>73450</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
       <c r="G4" s="22">
         <f>G3*9%</f>
         <v>6610.5</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
       <c r="G5" s="22">
         <f>G3*9%</f>
         <v>6610.5</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
       <c r="G6" s="22">
         <f>SUM(G3:G5)</f>
         <v>86671</v>
@@ -2028,56 +2051,56 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
       <c r="G4" s="23">
         <f>SUM(G2:G3)</f>
         <v>729990</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
       <c r="G5" s="23">
         <f>G4*9%</f>
         <v>65699.099999999991</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
       <c r="G6" s="23">
         <f>G4*9%</f>
         <v>65699.099999999991</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="33"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
       <c r="G7" s="23">
         <f>SUM(G4:G6)</f>
         <v>861388.2</v>
@@ -2257,56 +2280,56 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="33"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
       <c r="G7" s="23">
         <f>SUM(G2:G6)</f>
         <v>246402</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="33" t="s">
+      <c r="A8" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="33"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
       <c r="G8" s="23">
         <f>G7*9%</f>
         <v>22176.18</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="33"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
       <c r="G9" s="23">
         <f>G7*9%</f>
         <v>22176.18</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="33" t="s">
+      <c r="A10" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="33"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
       <c r="G10" s="23">
         <f>SUM(G7:G9)</f>
         <v>290754.36</v>
@@ -2562,56 +2585,56 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="33" t="s">
+      <c r="A10" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="33"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
       <c r="G10" s="27">
         <f>SUM(G2:G9)</f>
         <v>734495</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="33" t="s">
+      <c r="A11" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="33"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
       <c r="G11" s="27">
         <f>G10*9%</f>
         <v>66104.55</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="33" t="s">
+      <c r="A12" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="33"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
       <c r="G12" s="27">
         <f>G10*9%</f>
         <v>66104.55</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="33" t="s">
+      <c r="A13" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="33"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
       <c r="G13" s="27">
         <f>SUM(G10:G12)</f>
         <v>866704.10000000009</v>
@@ -2767,56 +2790,56 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
       <c r="G6" s="25">
         <f>SUM(G2:G5)</f>
         <v>70904</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="33"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
       <c r="G7" s="25">
         <f>G6*9%</f>
         <v>6381.36</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="33" t="s">
+      <c r="A8" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="33"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
       <c r="G8" s="25">
         <f>G6*9%</f>
         <v>6381.36</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="33"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
       <c r="G9" s="25">
         <f>SUM(G6:G8)</f>
         <v>83666.720000000001</v>
@@ -3019,56 +3042,56 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="33" t="s">
+      <c r="A8" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="33"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
       <c r="G8" s="3">
         <f>SUM(G2:G7)</f>
         <v>246185</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="33"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
       <c r="G9" s="3">
         <f>G8*9%</f>
         <v>22156.649999999998</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="33" t="s">
+      <c r="A10" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="33"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
       <c r="G10" s="3">
         <f>G8*9%</f>
         <v>22156.649999999998</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="33" t="s">
+      <c r="A11" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="33"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
       <c r="G11" s="3">
         <f>SUM(G8:G10)</f>
         <v>290498.30000000005</v>
@@ -3202,56 +3225,56 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
       <c r="G5" s="28">
         <f>SUM(G2:G4)</f>
         <v>262240</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
       <c r="G6" s="28">
         <f>G5*9%</f>
         <v>23601.599999999999</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="33"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
       <c r="G7" s="28">
         <f>G5*9%</f>
         <v>23601.599999999999</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="33" t="s">
+      <c r="A8" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="33"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
       <c r="G8" s="28">
         <f>SUM(G5:G7)</f>
         <v>309443.19999999995</v>
@@ -3481,56 +3504,56 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="33"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
       <c r="G9" s="28">
         <f>SUM(G2:G8)</f>
         <v>322872</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="33" t="s">
+      <c r="A10" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="33"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
       <c r="G10" s="28">
         <f>G9*9%</f>
         <v>29058.48</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="33" t="s">
+      <c r="A11" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="33"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
       <c r="G11" s="28">
         <f>G9*9%</f>
         <v>29058.48</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="33" t="s">
+      <c r="A12" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="33"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
       <c r="G12" s="28">
         <f>SUM(G9:G11)</f>
         <v>380988.95999999996</v>
@@ -3687,56 +3710,56 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
       <c r="G6" s="29">
         <f>SUM(G2:G5)</f>
         <v>161752</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="33"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
       <c r="G7" s="29">
         <f>G6*9%</f>
         <v>14557.68</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="33" t="s">
+      <c r="A8" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="33"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
       <c r="G8" s="29">
         <f>G6*9%</f>
         <v>14557.68</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="33"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
       <c r="G9" s="29">
         <f>SUM(G6:G8)</f>
         <v>190867.36</v>
@@ -3761,7 +3784,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+      <selection sqref="A1:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3820,56 +3843,56 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
       <c r="G3" s="30">
         <f>SUM(G2)</f>
         <v>18960</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
       <c r="G4" s="30">
         <f>G3*9%</f>
         <v>1706.3999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
       <c r="G5" s="30">
         <f>G3*9%</f>
         <v>1706.3999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
       <c r="G6" s="30">
         <f>SUM(G3:G5)</f>
         <v>22372.800000000003</v>
@@ -3893,8 +3916,8 @@
   </sheetPr>
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3954,59 +3977,345 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
       <c r="G3" s="32">
         <f>SUM(G2)</f>
         <v>86070</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
       <c r="G4" s="32">
         <f>G3*9%</f>
         <v>7746.2999999999993</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
       <c r="G5" s="32">
         <f>G3*9%</f>
         <v>7746.2999999999993</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
       <c r="G6" s="32">
         <f>SUM(G3:G5)</f>
         <v>101562.6</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A6:F6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6.21875" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" customWidth="1"/>
+    <col min="4" max="4" width="20.44140625" customWidth="1"/>
+    <col min="5" max="5" width="4.88671875" customWidth="1"/>
+    <col min="6" max="6" width="6.5546875" customWidth="1"/>
+    <col min="7" max="7" width="6.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="33" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="34">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="9">
+        <v>616026</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="1">
+        <v>10</v>
+      </c>
+      <c r="F2" s="1">
+        <v>5614</v>
+      </c>
+      <c r="G2" s="1">
+        <f t="shared" ref="G2:G3" si="0">E2*F2</f>
+        <v>56140</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" s="4">
+        <v>632215</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="1">
+        <v>10</v>
+      </c>
+      <c r="F3" s="1">
+        <v>5738</v>
+      </c>
+      <c r="G3" s="1">
+        <f t="shared" si="0"/>
+        <v>57380</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="33">
+        <f>SUM(G2:G3)</f>
+        <v>113520</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="33">
+        <f>G4*9%</f>
+        <v>10216.799999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="33">
+        <f>G4*9%</f>
+        <v>10216.799999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="36"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="33">
+        <f>SUM(G4:G6)</f>
+        <v>133953.60000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A7:F7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="15.77734375" customWidth="1"/>
+    <col min="4" max="4" width="36.109375" customWidth="1"/>
+    <col min="5" max="5" width="5.44140625" customWidth="1"/>
+    <col min="6" max="6" width="6.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="35" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="34">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="4">
+        <v>681149</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E2" s="1">
+        <v>2</v>
+      </c>
+      <c r="F2" s="1">
+        <v>9703</v>
+      </c>
+      <c r="G2" s="1">
+        <f t="shared" ref="G2" si="0">E2*F2</f>
+        <v>19406</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="35">
+        <f>SUM(G2)</f>
+        <v>19406</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="35">
+        <f>G3*9%</f>
+        <v>1746.54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="35">
+        <f>G3*9%</f>
+        <v>1746.54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="35">
+        <f>SUM(G3:G5)</f>
+        <v>22899.08</v>
       </c>
     </row>
   </sheetData>
@@ -4087,56 +4396,56 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
       <c r="G3" s="11">
         <f>SUM(G2)</f>
         <v>4831</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
       <c r="G4" s="11">
         <f>G3*9%</f>
         <v>434.78999999999996</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
       <c r="G5" s="11">
         <f>G3*9%</f>
         <v>434.78999999999996</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
       <c r="G6" s="11">
         <f>SUM(G3:G5)</f>
         <v>5700.58</v>
@@ -4367,56 +4676,56 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="33"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
       <c r="G9" s="11">
         <f>SUM(G2:G8)</f>
         <v>249351</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="33" t="s">
+      <c r="A10" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="33"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
       <c r="G10" s="11">
         <f>G9*9%</f>
         <v>22441.59</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="33" t="s">
+      <c r="A11" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="33"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
       <c r="G11" s="11">
         <f>G9*9%</f>
         <v>22441.59</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="33" t="s">
+      <c r="A12" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="33"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
       <c r="G12" s="11">
         <f>SUM(G9:G11)</f>
         <v>294234.18000000005</v>
@@ -4522,56 +4831,56 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
       <c r="G4" s="12">
         <f>SUM(G2:G3)</f>
         <v>132820</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
       <c r="G5" s="12">
         <f>G4*9%</f>
         <v>11953.8</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
       <c r="G6" s="12">
         <f>G4*9%</f>
         <v>11953.8</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="33"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
       <c r="G7" s="12">
         <f>SUM(G4:G6)</f>
         <v>156727.59999999998</v>
@@ -4640,48 +4949,48 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
       <c r="E3" s="17">
         <f>SUM(E2)</f>
         <v>18560</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
       <c r="E4" s="17">
         <f>E3*9%</f>
         <v>1670.3999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
       <c r="E5" s="17">
         <f>E3*9%</f>
         <v>1670.3999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
       <c r="E6" s="17">
         <f>SUM(E3:E5)</f>
         <v>21900.800000000003</v>
@@ -4791,56 +5100,56 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
       <c r="G4" s="13">
         <f>SUM(G2:G3)</f>
         <v>128790</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
       <c r="G5" s="13">
         <f>G4*9%</f>
         <v>11591.1</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
       <c r="G6" s="13">
         <f>G4*9%</f>
         <v>11591.1</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="33"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
       <c r="G7" s="13">
         <f>SUM(G4:G6)</f>
         <v>151972.20000000001</v>
@@ -4950,56 +5259,56 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
       <c r="G4" s="18">
         <f>SUM(G2:G3)</f>
         <v>196927</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
       <c r="G5" s="18">
         <f>G4*9%</f>
         <v>17723.43</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
       <c r="G6" s="18">
         <f>G4*9%</f>
         <v>17723.43</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="33"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
       <c r="G7" s="18">
         <f>SUM(G4:G6)</f>
         <v>232373.86</v>
@@ -5132,56 +5441,56 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
       <c r="G5" s="19">
         <f>SUM(G2:G4)</f>
         <v>189083</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
       <c r="G6" s="19">
         <f>G5*9%</f>
         <v>17017.47</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="33"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
       <c r="G7" s="19">
         <f>G5*9%</f>
         <v>17017.47</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="33" t="s">
+      <c r="A8" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="33"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
       <c r="G8" s="19">
         <f>SUM(G5:G7)</f>
         <v>223117.94</v>

--- a/Invoices/Invoices.xlsx
+++ b/Invoices/Invoices.xlsx
@@ -283,7 +283,7 @@
     <t>APS - 151353543 (14-07-2023)</t>
   </si>
   <si>
-    <t>Computer Screen 19"(Serial Number - ), HDMI Cable, 4GB RAM</t>
+    <t>Computer Screen 19"(Serial Number - V90BP47X, V90BP9Z2), HDMI Cable, 4GB RAM</t>
   </si>
 </sst>
 </file>
@@ -4204,15 +4204,17 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.77734375" customWidth="1"/>
-    <col min="4" max="4" width="36.109375" customWidth="1"/>
+    <col min="1" max="1" width="6.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" customWidth="1"/>
+    <col min="4" max="4" width="30.21875" customWidth="1"/>
     <col min="5" max="5" width="5.44140625" customWidth="1"/>
     <col min="6" max="6" width="6.33203125" customWidth="1"/>
+    <col min="7" max="7" width="6.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -4238,7 +4240,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="34">
         <v>1</v>
       </c>

--- a/Invoices/Invoices.xlsx
+++ b/Invoices/Invoices.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="18" activeTab="25"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="18" activeTab="24"/>
   </bookViews>
   <sheets>
     <sheet name="Putz 101" sheetId="1" r:id="rId1"/>
@@ -4047,8 +4047,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4203,7 +4203,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>

--- a/Invoices/Invoices.xlsx
+++ b/Invoices/Invoices.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="18" activeTab="24"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="18" activeTab="25"/>
   </bookViews>
   <sheets>
     <sheet name="Putz 101" sheetId="1" r:id="rId1"/>
@@ -4047,8 +4047,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4203,7 +4203,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>

--- a/Invoices/Invoices.xlsx
+++ b/Invoices/Invoices.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="18" activeTab="25"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="19" activeTab="26"/>
   </bookViews>
   <sheets>
     <sheet name="Putz 101" sheetId="1" r:id="rId1"/>
@@ -33,6 +33,7 @@
     <sheet name="Putz 124 APS" sheetId="24" r:id="rId24"/>
     <sheet name="Puts 201" sheetId="25" r:id="rId25"/>
     <sheet name="Putz 202 APS" sheetId="26" r:id="rId26"/>
+    <sheet name="Putz 203" sheetId="27" r:id="rId27"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="80">
   <si>
     <t>Sr. No</t>
   </si>
@@ -411,7 +412,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -513,6 +514,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -947,56 +951,56 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
+      <c r="A6" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
       <c r="G6" s="2">
         <f>SUM(G2:G5)</f>
         <v>91479</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="36"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
       <c r="G7" s="2">
         <f>G6*9%</f>
         <v>8233.11</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="36" t="s">
+      <c r="A8" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="36"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
       <c r="G8" s="2">
         <f>G6*9%</f>
         <v>8233.11</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="36" t="s">
+      <c r="A9" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="36"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
       <c r="G9" s="2">
         <f>SUM(G6:G8)</f>
         <v>107945.22</v>
@@ -1131,56 +1135,56 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
+      <c r="A5" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
       <c r="G5" s="19">
         <f>SUM(G2:G4)</f>
         <v>124900</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
       <c r="G6" s="19">
         <f>G5*9%</f>
         <v>11241</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="36"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
       <c r="G7" s="19">
         <f>G5*9%</f>
         <v>11241</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="36" t="s">
+      <c r="A8" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="36"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
       <c r="G8" s="19">
         <f>SUM(G5:G7)</f>
         <v>147382</v>
@@ -1264,56 +1268,56 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
+      <c r="A3" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
       <c r="G3" s="20">
         <f>SUM(G2)</f>
         <v>5614</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
       <c r="G4" s="20">
         <f>G3*9%</f>
         <v>505.26</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
       <c r="G5" s="20">
         <f>G3*9%</f>
         <v>505.26</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
       <c r="G6" s="20">
         <f>SUM(G3:G5)</f>
         <v>6624.52</v>
@@ -1423,56 +1427,56 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
+      <c r="A4" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
       <c r="G4" s="21">
         <f>SUM(G2:G3)</f>
         <v>41212</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
       <c r="G5" s="21">
         <f>G4*9%</f>
         <v>3709.08</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
       <c r="G6" s="21">
         <f>G4*9%</f>
         <v>3709.08</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="36"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
       <c r="G7" s="21">
         <f>SUM(G4:G6)</f>
         <v>48630.16</v>
@@ -1557,56 +1561,56 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
+      <c r="A3" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
       <c r="G3" s="21">
         <f>SUM(G2)</f>
         <v>24000</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
       <c r="G4" s="21">
         <f>G3*9%</f>
         <v>2160</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
       <c r="G5" s="21">
         <f>G3*9%</f>
         <v>2160</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
       <c r="G6" s="21">
         <f>SUM(G3:G5)</f>
         <v>28320</v>
@@ -1760,56 +1764,56 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
+      <c r="A6" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
       <c r="G6" s="22">
         <f>SUM(G2:G5)</f>
         <v>313513</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="36"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
       <c r="G7" s="22">
         <f>G6*9%</f>
         <v>28216.17</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="36" t="s">
+      <c r="A8" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="36"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
       <c r="G8" s="22">
         <f>G6*9%</f>
         <v>28216.17</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="36" t="s">
+      <c r="A9" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="36"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
       <c r="G9" s="22">
         <f>SUM(G6:G8)</f>
         <v>369945.33999999997</v>
@@ -1894,56 +1898,56 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
+      <c r="A3" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
       <c r="G3" s="22">
         <f>SUM(G2)</f>
         <v>73450</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
       <c r="G4" s="22">
         <f>G3*9%</f>
         <v>6610.5</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
       <c r="G5" s="22">
         <f>G3*9%</f>
         <v>6610.5</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
       <c r="G6" s="22">
         <f>SUM(G3:G5)</f>
         <v>86671</v>
@@ -2051,56 +2055,56 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
+      <c r="A4" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
       <c r="G4" s="23">
         <f>SUM(G2:G3)</f>
         <v>729990</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
       <c r="G5" s="23">
         <f>G4*9%</f>
         <v>65699.099999999991</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
       <c r="G6" s="23">
         <f>G4*9%</f>
         <v>65699.099999999991</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="36"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
       <c r="G7" s="23">
         <f>SUM(G4:G6)</f>
         <v>861388.2</v>
@@ -2280,56 +2284,56 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="36"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
+      <c r="A7" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
       <c r="G7" s="23">
         <f>SUM(G2:G6)</f>
         <v>246402</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="36" t="s">
+      <c r="A8" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="36"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
       <c r="G8" s="23">
         <f>G7*9%</f>
         <v>22176.18</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="36" t="s">
+      <c r="A9" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="36"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
       <c r="G9" s="23">
         <f>G7*9%</f>
         <v>22176.18</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="36" t="s">
+      <c r="A10" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="36"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
       <c r="G10" s="23">
         <f>SUM(G7:G9)</f>
         <v>290754.36</v>
@@ -2585,56 +2589,56 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="36"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
+      <c r="A10" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="37"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
       <c r="G10" s="27">
         <f>SUM(G2:G9)</f>
         <v>734495</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="36" t="s">
+      <c r="A11" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="36"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
       <c r="G11" s="27">
         <f>G10*9%</f>
         <v>66104.55</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="36" t="s">
+      <c r="A12" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="36"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
       <c r="G12" s="27">
         <f>G10*9%</f>
         <v>66104.55</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="36" t="s">
+      <c r="A13" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="36"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
       <c r="G13" s="27">
         <f>SUM(G10:G12)</f>
         <v>866704.10000000009</v>
@@ -2790,56 +2794,56 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
+      <c r="A6" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
       <c r="G6" s="25">
         <f>SUM(G2:G5)</f>
         <v>70904</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="36"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
       <c r="G7" s="25">
         <f>G6*9%</f>
         <v>6381.36</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="36" t="s">
+      <c r="A8" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="36"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
       <c r="G8" s="25">
         <f>G6*9%</f>
         <v>6381.36</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="36" t="s">
+      <c r="A9" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="36"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
       <c r="G9" s="25">
         <f>SUM(G6:G8)</f>
         <v>83666.720000000001</v>
@@ -3042,56 +3046,56 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="36"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
+      <c r="A8" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="37"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
       <c r="G8" s="3">
         <f>SUM(G2:G7)</f>
         <v>246185</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="36" t="s">
+      <c r="A9" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="36"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
       <c r="G9" s="3">
         <f>G8*9%</f>
         <v>22156.649999999998</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="36" t="s">
+      <c r="A10" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="36"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
       <c r="G10" s="3">
         <f>G8*9%</f>
         <v>22156.649999999998</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="36" t="s">
+      <c r="A11" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="36"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
       <c r="G11" s="3">
         <f>SUM(G8:G10)</f>
         <v>290498.30000000005</v>
@@ -3225,56 +3229,56 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
+      <c r="A5" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
       <c r="G5" s="28">
         <f>SUM(G2:G4)</f>
         <v>262240</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
       <c r="G6" s="28">
         <f>G5*9%</f>
         <v>23601.599999999999</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="36"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
       <c r="G7" s="28">
         <f>G5*9%</f>
         <v>23601.599999999999</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="36" t="s">
+      <c r="A8" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="36"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
       <c r="G8" s="28">
         <f>SUM(G5:G7)</f>
         <v>309443.19999999995</v>
@@ -3504,56 +3508,56 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="36"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
+      <c r="A9" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="37"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
       <c r="G9" s="28">
         <f>SUM(G2:G8)</f>
         <v>322872</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="36" t="s">
+      <c r="A10" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="36"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
       <c r="G10" s="28">
         <f>G9*9%</f>
         <v>29058.48</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="36" t="s">
+      <c r="A11" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="36"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
       <c r="G11" s="28">
         <f>G9*9%</f>
         <v>29058.48</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="36" t="s">
+      <c r="A12" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="36"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
       <c r="G12" s="28">
         <f>SUM(G9:G11)</f>
         <v>380988.95999999996</v>
@@ -3710,56 +3714,56 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
+      <c r="A6" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
       <c r="G6" s="29">
         <f>SUM(G2:G5)</f>
         <v>161752</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="36"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
       <c r="G7" s="29">
         <f>G6*9%</f>
         <v>14557.68</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="36" t="s">
+      <c r="A8" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="36"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
       <c r="G8" s="29">
         <f>G6*9%</f>
         <v>14557.68</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="36" t="s">
+      <c r="A9" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="36"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
       <c r="G9" s="29">
         <f>SUM(G6:G8)</f>
         <v>190867.36</v>
@@ -3843,56 +3847,56 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
+      <c r="A3" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
       <c r="G3" s="30">
         <f>SUM(G2)</f>
         <v>18960</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
       <c r="G4" s="30">
         <f>G3*9%</f>
         <v>1706.3999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
       <c r="G5" s="30">
         <f>G3*9%</f>
         <v>1706.3999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
       <c r="G6" s="30">
         <f>SUM(G3:G5)</f>
         <v>22372.800000000003</v>
@@ -3977,56 +3981,56 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
+      <c r="A3" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
       <c r="G3" s="32">
         <f>SUM(G2)</f>
         <v>86070</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
       <c r="G4" s="32">
         <f>G3*9%</f>
         <v>7746.2999999999993</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
       <c r="G5" s="32">
         <f>G3*9%</f>
         <v>7746.2999999999993</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
       <c r="G6" s="32">
         <f>SUM(G3:G5)</f>
         <v>101562.6</v>
@@ -4133,56 +4137,56 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
+      <c r="A4" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
       <c r="G4" s="33">
         <f>SUM(G2:G3)</f>
         <v>113520</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
       <c r="G5" s="33">
         <f>G4*9%</f>
         <v>10216.799999999999</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
       <c r="G6" s="33">
         <f>G4*9%</f>
         <v>10216.799999999999</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="36"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
       <c r="G7" s="33">
         <f>SUM(G4:G6)</f>
         <v>133953.60000000001</v>
@@ -4203,8 +4207,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4265,56 +4269,56 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
+      <c r="A3" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
       <c r="G3" s="35">
         <f>SUM(G2)</f>
         <v>19406</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
       <c r="G4" s="35">
         <f>G3*9%</f>
         <v>1746.54</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
       <c r="G5" s="35">
         <f>G3*9%</f>
         <v>1746.54</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
       <c r="G6" s="35">
         <f>SUM(G3:G5)</f>
         <v>22899.08</v>
@@ -4326,6 +4330,222 @@
     <mergeCell ref="A4:F4"/>
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="A6:F6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="12.109375" customWidth="1"/>
+    <col min="4" max="4" width="17.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="36" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="34">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1">
+        <f t="shared" ref="G2:G9" si="0">E2*F2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="34">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="34">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="34">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="34">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="34">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="34">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="34">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="37"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="36">
+        <f>SUM(G2:G9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="37"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="36">
+        <f>G10*9%</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="37"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="36">
+        <f>G10*9%</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="37"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="36">
+        <f>SUM(G10:G12)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="A13:F13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4398,56 +4618,56 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
+      <c r="A3" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
       <c r="G3" s="11">
         <f>SUM(G2)</f>
         <v>4831</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
       <c r="G4" s="11">
         <f>G3*9%</f>
         <v>434.78999999999996</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
       <c r="G5" s="11">
         <f>G3*9%</f>
         <v>434.78999999999996</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
       <c r="G6" s="11">
         <f>SUM(G3:G5)</f>
         <v>5700.58</v>
@@ -4678,56 +4898,56 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="36"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
+      <c r="A9" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="37"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
       <c r="G9" s="11">
         <f>SUM(G2:G8)</f>
         <v>249351</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="36" t="s">
+      <c r="A10" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="36"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
       <c r="G10" s="11">
         <f>G9*9%</f>
         <v>22441.59</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="36" t="s">
+      <c r="A11" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="36"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
       <c r="G11" s="11">
         <f>G9*9%</f>
         <v>22441.59</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="36" t="s">
+      <c r="A12" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="36"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
       <c r="G12" s="11">
         <f>SUM(G9:G11)</f>
         <v>294234.18000000005</v>
@@ -4833,56 +5053,56 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
+      <c r="A4" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
       <c r="G4" s="12">
         <f>SUM(G2:G3)</f>
         <v>132820</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
       <c r="G5" s="12">
         <f>G4*9%</f>
         <v>11953.8</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
       <c r="G6" s="12">
         <f>G4*9%</f>
         <v>11953.8</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="36"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
       <c r="G7" s="12">
         <f>SUM(G4:G6)</f>
         <v>156727.59999999998</v>
@@ -4951,48 +5171,48 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
+      <c r="A3" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
       <c r="E3" s="17">
         <f>SUM(E2)</f>
         <v>18560</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
       <c r="E4" s="17">
         <f>E3*9%</f>
         <v>1670.3999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="38"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
       <c r="E5" s="17">
         <f>E3*9%</f>
         <v>1670.3999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
       <c r="E6" s="17">
         <f>SUM(E3:E5)</f>
         <v>21900.800000000003</v>
@@ -5102,56 +5322,56 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
+      <c r="A4" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
       <c r="G4" s="13">
         <f>SUM(G2:G3)</f>
         <v>128790</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
       <c r="G5" s="13">
         <f>G4*9%</f>
         <v>11591.1</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
       <c r="G6" s="13">
         <f>G4*9%</f>
         <v>11591.1</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="36"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
       <c r="G7" s="13">
         <f>SUM(G4:G6)</f>
         <v>151972.20000000001</v>
@@ -5261,56 +5481,56 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
+      <c r="A4" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
       <c r="G4" s="18">
         <f>SUM(G2:G3)</f>
         <v>196927</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
       <c r="G5" s="18">
         <f>G4*9%</f>
         <v>17723.43</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
       <c r="G6" s="18">
         <f>G4*9%</f>
         <v>17723.43</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="36"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
       <c r="G7" s="18">
         <f>SUM(G4:G6)</f>
         <v>232373.86</v>
@@ -5443,56 +5663,56 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
+      <c r="A5" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
       <c r="G5" s="19">
         <f>SUM(G2:G4)</f>
         <v>189083</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
       <c r="G6" s="19">
         <f>G5*9%</f>
         <v>17017.47</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="36"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
       <c r="G7" s="19">
         <f>G5*9%</f>
         <v>17017.47</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="36" t="s">
+      <c r="A8" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="36"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
       <c r="G8" s="19">
         <f>SUM(G5:G7)</f>
         <v>223117.94</v>

--- a/Invoices/Invoices.xlsx
+++ b/Invoices/Invoices.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="83">
   <si>
     <t>Sr. No</t>
   </si>
@@ -285,13 +285,22 @@
   </si>
   <si>
     <t>Computer Screen 19"(Serial Number - V90BP47X, V90BP9Z2), HDMI Cable, 4GB RAM</t>
+  </si>
+  <si>
+    <t>151357107 (25-07-2023)</t>
+  </si>
+  <si>
+    <t>151355463 (20-07-2023)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cement_Dust_BP60_Dia 150 flexible</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -338,6 +347,20 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial  "/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial  "/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial  "/>
     </font>
   </fonts>
   <fills count="2">
@@ -412,7 +435,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -529,6 +552,21 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -820,7 +858,7 @@
       <selection sqref="A1:G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="6.109375" customWidth="1"/>
     <col min="2" max="2" width="12.5546875" customWidth="1"/>
@@ -831,7 +869,7 @@
     <col min="7" max="7" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="19.8" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -854,7 +892,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="26.4">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -878,7 +916,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="53.4" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -902,7 +940,7 @@
         <v>49995</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="53.4" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -926,7 +964,7 @@
         <v>33684</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="40.200000000000003" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -950,7 +988,7 @@
         <v>4800</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7">
       <c r="A6" s="37" t="s">
         <v>6</v>
       </c>
@@ -964,7 +1002,7 @@
         <v>91479</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7">
       <c r="A7" s="37" t="s">
         <v>7</v>
       </c>
@@ -978,7 +1016,7 @@
         <v>8233.11</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7">
       <c r="A8" s="37" t="s">
         <v>8</v>
       </c>
@@ -992,7 +1030,7 @@
         <v>8233.11</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="14.4" customHeight="1">
       <c r="A9" s="37" t="s">
         <v>9</v>
       </c>
@@ -1029,7 +1067,7 @@
       <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="6.109375" customWidth="1"/>
     <col min="2" max="2" width="16.6640625" customWidth="1"/>
@@ -1039,7 +1077,7 @@
     <col min="7" max="7" width="7.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="18" customHeight="1">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -1062,7 +1100,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="42" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1086,7 +1124,7 @@
         <v>84210</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="39" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1110,7 +1148,7 @@
         <v>28690</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="39" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1134,7 +1172,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7">
       <c r="A5" s="37" t="s">
         <v>6</v>
       </c>
@@ -1148,7 +1186,7 @@
         <v>124900</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7">
       <c r="A6" s="37" t="s">
         <v>7</v>
       </c>
@@ -1162,7 +1200,7 @@
         <v>11241</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7">
       <c r="A7" s="37" t="s">
         <v>8</v>
       </c>
@@ -1176,7 +1214,7 @@
         <v>11241</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7">
       <c r="A8" s="37" t="s">
         <v>9</v>
       </c>
@@ -1212,7 +1250,7 @@
       <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
     <col min="2" max="2" width="11.6640625" customWidth="1"/>
@@ -1220,7 +1258,7 @@
     <col min="7" max="7" width="6.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="22.2" customHeight="1">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
@@ -1243,7 +1281,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="36" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1267,7 +1305,7 @@
         <v>5614</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="37" t="s">
         <v>6</v>
       </c>
@@ -1281,7 +1319,7 @@
         <v>5614</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7">
       <c r="A4" s="37" t="s">
         <v>7</v>
       </c>
@@ -1295,7 +1333,7 @@
         <v>505.26</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7">
       <c r="A5" s="37" t="s">
         <v>8</v>
       </c>
@@ -1309,7 +1347,7 @@
         <v>505.26</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7">
       <c r="A6" s="37" t="s">
         <v>9</v>
       </c>
@@ -1345,7 +1383,7 @@
       <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="7.33203125" customWidth="1"/>
     <col min="2" max="2" width="12.44140625" customWidth="1"/>
@@ -1355,7 +1393,7 @@
     <col min="7" max="7" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="22.8" customHeight="1">
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
@@ -1378,7 +1416,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="30.6" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1402,7 +1440,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="46.2" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1426,7 +1464,7 @@
         <v>38812</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7">
       <c r="A4" s="37" t="s">
         <v>6</v>
       </c>
@@ -1440,7 +1478,7 @@
         <v>41212</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7">
       <c r="A5" s="37" t="s">
         <v>7</v>
       </c>
@@ -1454,7 +1492,7 @@
         <v>3709.08</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7">
       <c r="A6" s="37" t="s">
         <v>8</v>
       </c>
@@ -1468,7 +1506,7 @@
         <v>3709.08</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7">
       <c r="A7" s="37" t="s">
         <v>9</v>
       </c>
@@ -1504,7 +1542,7 @@
       <selection sqref="A1:G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="7.21875" customWidth="1"/>
     <col min="2" max="2" width="11.88671875" customWidth="1"/>
@@ -1513,7 +1551,7 @@
     <col min="6" max="6" width="6.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="16.2" customHeight="1">
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
@@ -1536,7 +1574,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="52.8">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1560,7 +1598,7 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="37" t="s">
         <v>6</v>
       </c>
@@ -1574,7 +1612,7 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7">
       <c r="A4" s="37" t="s">
         <v>7</v>
       </c>
@@ -1588,7 +1626,7 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7">
       <c r="A5" s="37" t="s">
         <v>8</v>
       </c>
@@ -1602,7 +1640,7 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7">
       <c r="A6" s="37" t="s">
         <v>9</v>
       </c>
@@ -1635,7 +1673,7 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="6.44140625" customWidth="1"/>
     <col min="2" max="2" width="26.77734375" customWidth="1"/>
@@ -1644,7 +1682,7 @@
     <col min="7" max="7" width="8.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="28.8" customHeight="1">
       <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
@@ -1667,7 +1705,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="32.4" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1691,7 +1729,7 @@
         <v>44912</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="38.4" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1715,7 +1753,7 @@
         <v>28336</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="33.6" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1739,7 +1777,7 @@
         <v>28690</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="31.2" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1763,7 +1801,7 @@
         <v>211575</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7">
       <c r="A6" s="37" t="s">
         <v>6</v>
       </c>
@@ -1777,7 +1815,7 @@
         <v>313513</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7">
       <c r="A7" s="37" t="s">
         <v>7</v>
       </c>
@@ -1791,7 +1829,7 @@
         <v>28216.17</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7">
       <c r="A8" s="37" t="s">
         <v>8</v>
       </c>
@@ -1805,7 +1843,7 @@
         <v>28216.17</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7">
       <c r="A9" s="37" t="s">
         <v>9</v>
       </c>
@@ -1841,7 +1879,7 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="6.44140625" customWidth="1"/>
     <col min="2" max="2" width="12.44140625" customWidth="1"/>
@@ -1850,7 +1888,7 @@
     <col min="6" max="6" width="6.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="20.399999999999999" customHeight="1">
       <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
@@ -1873,7 +1911,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="39.6">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1897,7 +1935,7 @@
         <v>73450</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="37" t="s">
         <v>6</v>
       </c>
@@ -1911,7 +1949,7 @@
         <v>73450</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7">
       <c r="A4" s="37" t="s">
         <v>7</v>
       </c>
@@ -1925,7 +1963,7 @@
         <v>6610.5</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7">
       <c r="A5" s="37" t="s">
         <v>8</v>
       </c>
@@ -1939,7 +1977,7 @@
         <v>6610.5</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7">
       <c r="A6" s="37" t="s">
         <v>9</v>
       </c>
@@ -1975,7 +2013,7 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="6.88671875" customWidth="1"/>
     <col min="2" max="2" width="12.33203125" customWidth="1"/>
@@ -1983,7 +2021,7 @@
     <col min="5" max="5" width="5.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="18.600000000000001" customHeight="1">
       <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
@@ -2006,7 +2044,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="113.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="113.4" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2030,7 +2068,7 @@
         <v>630000</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="86.4" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2054,7 +2092,7 @@
         <v>99990</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7">
       <c r="A4" s="37" t="s">
         <v>6</v>
       </c>
@@ -2068,7 +2106,7 @@
         <v>729990</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7">
       <c r="A5" s="37" t="s">
         <v>7</v>
       </c>
@@ -2082,7 +2120,7 @@
         <v>65699.099999999991</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7">
       <c r="A6" s="37" t="s">
         <v>8</v>
       </c>
@@ -2096,7 +2134,7 @@
         <v>65699.099999999991</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7">
       <c r="A7" s="37" t="s">
         <v>9</v>
       </c>
@@ -2132,7 +2170,7 @@
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="15.21875" customWidth="1"/>
     <col min="4" max="4" width="37" customWidth="1"/>
@@ -2140,7 +2178,7 @@
     <col min="7" max="7" width="8.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="22.8" customHeight="1">
       <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
@@ -2163,7 +2201,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="58.2" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2187,7 +2225,7 @@
         <v>135000</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="33" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2211,7 +2249,7 @@
         <v>11228</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="30.6" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2235,7 +2273,7 @@
         <v>28336</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="32.4" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -2259,7 +2297,7 @@
         <v>66150</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="32.4" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2283,7 +2321,7 @@
         <v>5688</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7">
       <c r="A7" s="37" t="s">
         <v>6</v>
       </c>
@@ -2297,7 +2335,7 @@
         <v>246402</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7">
       <c r="A8" s="37" t="s">
         <v>7</v>
       </c>
@@ -2311,7 +2349,7 @@
         <v>22176.18</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7">
       <c r="A9" s="37" t="s">
         <v>8</v>
       </c>
@@ -2325,7 +2363,7 @@
         <v>22176.18</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7">
       <c r="A10" s="37" t="s">
         <v>9</v>
       </c>
@@ -2361,7 +2399,7 @@
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="6.44140625" style="26" customWidth="1"/>
     <col min="2" max="2" width="21.5546875" style="26" customWidth="1"/>
@@ -2373,7 +2411,7 @@
     <col min="8" max="16384" width="8.88671875" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="22.2" customHeight="1">
       <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
@@ -2396,7 +2434,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="25.2" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2420,7 +2458,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="21.6" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2444,7 +2482,7 @@
         <v>324000</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="24" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2468,7 +2506,7 @@
         <v>39550</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="28.2" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -2492,7 +2530,7 @@
         <v>76912</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="25.2" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2516,7 +2554,7 @@
         <v>35550</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="27.6" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -2540,7 +2578,7 @@
         <v>84773</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="30.6" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -2564,7 +2602,7 @@
         <v>48310</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="30.6" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -2588,7 +2626,7 @@
         <v>95400</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7">
       <c r="A10" s="37" t="s">
         <v>6</v>
       </c>
@@ -2602,7 +2640,7 @@
         <v>734495</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7">
       <c r="A11" s="37" t="s">
         <v>7</v>
       </c>
@@ -2616,7 +2654,7 @@
         <v>66104.55</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7">
       <c r="A12" s="37" t="s">
         <v>8</v>
       </c>
@@ -2630,7 +2668,7 @@
         <v>66104.55</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7">
       <c r="A13" s="37" t="s">
         <v>9</v>
       </c>
@@ -2666,7 +2704,7 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="7.33203125" customWidth="1"/>
     <col min="2" max="2" width="12.109375" customWidth="1"/>
@@ -2674,7 +2712,7 @@
     <col min="7" max="7" width="6.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="24" customHeight="1">
       <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
@@ -2697,7 +2735,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="41.4" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2721,7 +2759,7 @@
         <v>42000</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="41.4" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2745,7 +2783,7 @@
         <v>22456</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="41.4" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2769,7 +2807,7 @@
         <v>4048</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="41.4" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -2793,7 +2831,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7">
       <c r="A6" s="37" t="s">
         <v>6</v>
       </c>
@@ -2807,7 +2845,7 @@
         <v>70904</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7">
       <c r="A7" s="37" t="s">
         <v>7</v>
       </c>
@@ -2821,7 +2859,7 @@
         <v>6381.36</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7">
       <c r="A8" s="37" t="s">
         <v>8</v>
       </c>
@@ -2835,7 +2873,7 @@
         <v>6381.36</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7">
       <c r="A9" s="37" t="s">
         <v>9</v>
       </c>
@@ -2871,14 +2909,14 @@
       <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="6.88671875" customWidth="1"/>
     <col min="2" max="2" width="19.44140625" customWidth="1"/>
     <col min="4" max="4" width="27.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="21.6" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2901,7 +2939,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="30" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2925,7 +2963,7 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="34.200000000000003" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2949,7 +2987,7 @@
         <v>40480</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="34.200000000000003" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2973,7 +3011,7 @@
         <v>91789</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="26.4">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -2997,7 +3035,7 @@
         <v>11476</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="26.4">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -3021,7 +3059,7 @@
         <v>13230</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="26.4">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -3045,7 +3083,7 @@
         <v>65210</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7">
       <c r="A8" s="37" t="s">
         <v>6</v>
       </c>
@@ -3059,7 +3097,7 @@
         <v>246185</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7">
       <c r="A9" s="37" t="s">
         <v>7</v>
       </c>
@@ -3073,7 +3111,7 @@
         <v>22156.649999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7">
       <c r="A10" s="37" t="s">
         <v>8</v>
       </c>
@@ -3087,7 +3125,7 @@
         <v>22156.649999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7">
       <c r="A11" s="37" t="s">
         <v>9</v>
       </c>
@@ -3123,7 +3161,7 @@
       <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="6.44140625" customWidth="1"/>
     <col min="2" max="2" width="12.6640625" customWidth="1"/>
@@ -3133,7 +3171,7 @@
     <col min="7" max="7" width="8.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="17.399999999999999" customHeight="1">
       <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
@@ -3156,7 +3194,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="29.4" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -3180,7 +3218,7 @@
         <v>110857</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="31.8" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -3204,7 +3242,7 @@
         <v>141680</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="37.200000000000003" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -3228,7 +3266,7 @@
         <v>9703</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7">
       <c r="A5" s="37" t="s">
         <v>6</v>
       </c>
@@ -3242,7 +3280,7 @@
         <v>262240</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7">
       <c r="A6" s="37" t="s">
         <v>7</v>
       </c>
@@ -3256,7 +3294,7 @@
         <v>23601.599999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7">
       <c r="A7" s="37" t="s">
         <v>8</v>
       </c>
@@ -3270,7 +3308,7 @@
         <v>23601.599999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7">
       <c r="A8" s="37" t="s">
         <v>9</v>
       </c>
@@ -3306,7 +3344,7 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="7.109375" customWidth="1"/>
     <col min="2" max="2" width="18.33203125" customWidth="1"/>
@@ -3316,7 +3354,7 @@
     <col min="7" max="7" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="17.399999999999999" customHeight="1">
       <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
@@ -3339,7 +3377,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="30" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -3363,7 +3401,7 @@
         <v>89824</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="31.2" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -3387,7 +3425,7 @@
         <v>51300</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="31.2" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -3411,7 +3449,7 @@
         <v>33600</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="42" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -3435,7 +3473,7 @@
         <v>20400</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="26.4" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -3459,7 +3497,7 @@
         <v>40480</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="31.2" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -3483,7 +3521,7 @@
         <v>52168</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="36" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -3507,7 +3545,7 @@
         <v>35100</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7">
       <c r="A9" s="37" t="s">
         <v>6</v>
       </c>
@@ -3521,7 +3559,7 @@
         <v>322872</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7">
       <c r="A10" s="37" t="s">
         <v>7</v>
       </c>
@@ -3535,7 +3573,7 @@
         <v>29058.48</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7">
       <c r="A11" s="37" t="s">
         <v>8</v>
       </c>
@@ -3549,7 +3587,7 @@
         <v>29058.48</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7">
       <c r="A12" s="37" t="s">
         <v>9</v>
       </c>
@@ -3585,7 +3623,7 @@
       <selection sqref="A1:G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="6.5546875" customWidth="1"/>
     <col min="2" max="2" width="12.109375" customWidth="1"/>
@@ -3594,7 +3632,7 @@
     <col min="7" max="7" width="8.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="22.2" customHeight="1">
       <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
@@ -3617,7 +3655,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="40.799999999999997" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -3641,7 +3679,7 @@
         <v>7470</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="47.4" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -3665,7 +3703,7 @@
         <v>78252</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="47.4" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -3689,7 +3727,7 @@
         <v>40480</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="47.4" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -3713,7 +3751,7 @@
         <v>35550</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7">
       <c r="A6" s="37" t="s">
         <v>6</v>
       </c>
@@ -3727,7 +3765,7 @@
         <v>161752</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7">
       <c r="A7" s="37" t="s">
         <v>7</v>
       </c>
@@ -3741,7 +3779,7 @@
         <v>14557.68</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7">
       <c r="A8" s="37" t="s">
         <v>8</v>
       </c>
@@ -3755,7 +3793,7 @@
         <v>14557.68</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7">
       <c r="A9" s="37" t="s">
         <v>9</v>
       </c>
@@ -3791,7 +3829,7 @@
       <selection sqref="A1:G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="7.33203125" customWidth="1"/>
     <col min="2" max="2" width="12.33203125" customWidth="1"/>
@@ -3799,7 +3837,7 @@
     <col min="7" max="7" width="7.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="23.4" customHeight="1">
       <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
@@ -3822,7 +3860,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="36.6" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -3846,7 +3884,7 @@
         <v>18960</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="37" t="s">
         <v>6</v>
       </c>
@@ -3860,7 +3898,7 @@
         <v>18960</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7">
       <c r="A4" s="37" t="s">
         <v>7</v>
       </c>
@@ -3874,7 +3912,7 @@
         <v>1706.3999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7">
       <c r="A5" s="37" t="s">
         <v>8</v>
       </c>
@@ -3888,7 +3926,7 @@
         <v>1706.3999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7">
       <c r="A6" s="37" t="s">
         <v>9</v>
       </c>
@@ -3924,7 +3962,7 @@
       <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="6.44140625" customWidth="1"/>
     <col min="2" max="2" width="16.21875" customWidth="1"/>
@@ -3933,7 +3971,7 @@
     <col min="7" max="7" width="9.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="21.6" customHeight="1">
       <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
@@ -3956,7 +3994,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="39" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -3980,7 +4018,7 @@
         <v>86070</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="37" t="s">
         <v>6</v>
       </c>
@@ -3994,7 +4032,7 @@
         <v>86070</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7">
       <c r="A4" s="37" t="s">
         <v>7</v>
       </c>
@@ -4008,7 +4046,7 @@
         <v>7746.2999999999993</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7">
       <c r="A5" s="37" t="s">
         <v>8</v>
       </c>
@@ -4022,7 +4060,7 @@
         <v>7746.2999999999993</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7">
       <c r="A6" s="37" t="s">
         <v>9</v>
       </c>
@@ -4055,7 +4093,7 @@
       <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="6.21875" customWidth="1"/>
     <col min="2" max="2" width="11.44140625" customWidth="1"/>
@@ -4065,7 +4103,7 @@
     <col min="7" max="7" width="6.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="19.2" customHeight="1">
       <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
@@ -4088,7 +4126,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="36" customHeight="1">
       <c r="A2" s="34">
         <v>1</v>
       </c>
@@ -4112,7 +4150,7 @@
         <v>56140</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="36" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -4136,7 +4174,7 @@
         <v>57380</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7">
       <c r="A4" s="37" t="s">
         <v>6</v>
       </c>
@@ -4150,7 +4188,7 @@
         <v>113520</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7">
       <c r="A5" s="37" t="s">
         <v>7</v>
       </c>
@@ -4164,7 +4202,7 @@
         <v>10216.799999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7">
       <c r="A6" s="37" t="s">
         <v>8</v>
       </c>
@@ -4178,7 +4216,7 @@
         <v>10216.799999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7">
       <c r="A7" s="37" t="s">
         <v>9</v>
       </c>
@@ -4211,7 +4249,7 @@
       <selection sqref="A1:G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="6.6640625" customWidth="1"/>
     <col min="2" max="2" width="12.44140625" customWidth="1"/>
@@ -4221,7 +4259,7 @@
     <col min="7" max="7" width="6.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
@@ -4244,7 +4282,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="51.6" customHeight="1">
       <c r="A2" s="34">
         <v>1</v>
       </c>
@@ -4268,7 +4306,7 @@
         <v>19406</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="37" t="s">
         <v>6</v>
       </c>
@@ -4282,7 +4320,7 @@
         <v>19406</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7">
       <c r="A4" s="37" t="s">
         <v>7</v>
       </c>
@@ -4296,7 +4334,7 @@
         <v>1746.54</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7">
       <c r="A5" s="37" t="s">
         <v>8</v>
       </c>
@@ -4310,7 +4348,7 @@
         <v>1746.54</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7">
       <c r="A6" s="37" t="s">
         <v>9</v>
       </c>
@@ -4337,19 +4375,22 @@
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="12.109375" customWidth="1"/>
-    <col min="4" max="4" width="17.5546875" customWidth="1"/>
+    <col min="1" max="1" width="6.6640625" customWidth="1"/>
+    <col min="2" max="2" width="21.21875" customWidth="1"/>
+    <col min="4" max="4" width="36.21875" customWidth="1"/>
+    <col min="5" max="5" width="5.5546875" customWidth="1"/>
+    <col min="6" max="6" width="7.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="19.2" customHeight="1">
       <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
@@ -4372,121 +4413,181 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="32.4" customHeight="1">
       <c r="A2" s="34">
         <v>1</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
+      <c r="B2" s="40" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="41">
+        <v>615698</v>
+      </c>
+      <c r="D2" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="1">
+        <v>10</v>
+      </c>
+      <c r="F2" s="1">
+        <v>4831</v>
+      </c>
       <c r="G2" s="1">
-        <f t="shared" ref="G2:G9" si="0">E2*F2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+        <f t="shared" ref="G2:G7" si="0">E2*F2</f>
+        <v>48310</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="26.4">
       <c r="A3" s="34">
         <v>2</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
+      <c r="B3" s="42" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" s="43">
+        <v>616026</v>
+      </c>
+      <c r="D3" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="1">
+        <v>10</v>
+      </c>
+      <c r="F3" s="1">
+        <v>5614</v>
+      </c>
       <c r="G3" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <v>56140</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="26.4">
       <c r="A4" s="34">
         <v>3</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+      <c r="B4" s="44" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" s="41">
+        <v>630059</v>
+      </c>
+      <c r="D4" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="1">
+        <v>10</v>
+      </c>
+      <c r="F4" s="1">
+        <v>4048</v>
+      </c>
       <c r="G4" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+        <v>40480</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="26.4">
       <c r="A5" s="34">
         <v>4</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+      <c r="B5" s="40" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" s="44">
+        <v>632215</v>
+      </c>
+      <c r="D5" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="1">
+        <v>10</v>
+      </c>
+      <c r="F5" s="1">
+        <v>5738</v>
+      </c>
       <c r="G5" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+        <v>57380</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="26.4">
       <c r="A6" s="34">
         <v>5</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+      <c r="B6" s="40" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" s="41">
+        <v>716663</v>
+      </c>
+      <c r="D6" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" s="1">
+        <v>10</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1896</v>
+      </c>
       <c r="G6" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+        <v>18960</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="26.4">
       <c r="A7" s="34">
         <v>6</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+      <c r="B7" s="40" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" s="44">
+        <v>635656</v>
+      </c>
+      <c r="D7" s="41" t="s">
+        <v>82</v>
+      </c>
+      <c r="E7" s="1">
+        <v>30</v>
+      </c>
+      <c r="F7" s="1">
+        <v>2818</v>
+      </c>
       <c r="G7" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="34">
+        <v>84540</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="37"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="36">
+        <f>SUM(G2:G7)</f>
+        <v>305810</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="34">
+      <c r="B9" s="37"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="36">
+        <f>G8*9%</f>
+        <v>27522.899999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="37" t="s">
         <v>8</v>
-      </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="37" t="s">
-        <v>6</v>
       </c>
       <c r="B10" s="37"/>
       <c r="C10" s="37"/>
@@ -4494,13 +4595,13 @@
       <c r="E10" s="37"/>
       <c r="F10" s="37"/>
       <c r="G10" s="36">
-        <f>SUM(G2:G9)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+        <f>G8*9%</f>
+        <v>27522.899999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="37" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B11" s="37"/>
       <c r="C11" s="37"/>
@@ -4508,44 +4609,16 @@
       <c r="E11" s="37"/>
       <c r="F11" s="37"/>
       <c r="G11" s="36">
-        <f>G10*9%</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="37"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="36">
-        <f>G10*9%</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="37"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="36">
-        <f>SUM(G10:G12)</f>
-        <v>0</v>
+        <f>SUM(G8:G10)</f>
+        <v>360855.80000000005</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="A9:F9"/>
     <mergeCell ref="A10:F10"/>
     <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="A13:F13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4562,7 +4635,7 @@
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="7" customWidth="1"/>
     <col min="2" max="2" width="12.21875" customWidth="1"/>
@@ -4570,7 +4643,7 @@
     <col min="7" max="7" width="6.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="17.399999999999999" customHeight="1">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -4593,7 +4666,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="52.8">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -4617,7 +4690,7 @@
         <v>4831</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="37" t="s">
         <v>6</v>
       </c>
@@ -4631,7 +4704,7 @@
         <v>4831</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7">
       <c r="A4" s="37" t="s">
         <v>7</v>
       </c>
@@ -4645,7 +4718,7 @@
         <v>434.78999999999996</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7">
       <c r="A5" s="37" t="s">
         <v>8</v>
       </c>
@@ -4659,7 +4732,7 @@
         <v>434.78999999999996</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7">
       <c r="A6" s="37" t="s">
         <v>9</v>
       </c>
@@ -4695,7 +4768,7 @@
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="7.6640625" customWidth="1"/>
     <col min="2" max="2" width="12.5546875" customWidth="1"/>
@@ -4706,7 +4779,7 @@
     <col min="7" max="7" width="9.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="18" customHeight="1">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -4729,7 +4802,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="39.6">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -4753,7 +4826,7 @@
         <v>48310</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="39.6">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -4777,7 +4850,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="39.6">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -4801,7 +4874,7 @@
         <v>50526</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="26.4">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -4825,7 +4898,7 @@
         <v>32605</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="26.4">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -4849,7 +4922,7 @@
         <v>80960</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="26.4">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -4873,7 +4946,7 @@
         <v>3050</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="52.8" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -4897,7 +4970,7 @@
         <v>24900</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7">
       <c r="A9" s="37" t="s">
         <v>6</v>
       </c>
@@ -4911,7 +4984,7 @@
         <v>249351</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7">
       <c r="A10" s="37" t="s">
         <v>7</v>
       </c>
@@ -4925,7 +4998,7 @@
         <v>22441.59</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7">
       <c r="A11" s="37" t="s">
         <v>8</v>
       </c>
@@ -4939,7 +5012,7 @@
         <v>22441.59</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7">
       <c r="A12" s="37" t="s">
         <v>9</v>
       </c>
@@ -4975,13 +5048,13 @@
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="19.33203125" customWidth="1"/>
     <col min="4" max="4" width="16.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="43.2">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -5004,7 +5077,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="48.6" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -5028,7 +5101,7 @@
         <v>76320</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="39.6">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -5052,7 +5125,7 @@
         <v>56500</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7">
       <c r="A4" s="37" t="s">
         <v>6</v>
       </c>
@@ -5066,7 +5139,7 @@
         <v>132820</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7">
       <c r="A5" s="37" t="s">
         <v>7</v>
       </c>
@@ -5080,7 +5153,7 @@
         <v>11953.8</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7">
       <c r="A6" s="37" t="s">
         <v>8</v>
       </c>
@@ -5094,7 +5167,7 @@
         <v>11953.8</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7">
       <c r="A7" s="37" t="s">
         <v>9</v>
       </c>
@@ -5127,7 +5200,7 @@
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="6.77734375" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
@@ -5135,7 +5208,7 @@
     <col min="4" max="4" width="6.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="15.6" customHeight="1">
       <c r="A1" s="14" t="s">
         <v>36</v>
       </c>
@@ -5152,7 +5225,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="38.4" customHeight="1">
       <c r="A2" s="15">
         <v>1</v>
       </c>
@@ -5170,7 +5243,7 @@
         <v>18560</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3" s="38" t="s">
         <v>6</v>
       </c>
@@ -5182,7 +5255,7 @@
         <v>18560</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5">
       <c r="A4" s="38" t="s">
         <v>7</v>
       </c>
@@ -5194,7 +5267,7 @@
         <v>1670.3999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5">
       <c r="A5" s="38" t="s">
         <v>8</v>
       </c>
@@ -5206,7 +5279,7 @@
         <v>1670.3999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5">
       <c r="A6" s="38" t="s">
         <v>9</v>
       </c>
@@ -5240,7 +5313,7 @@
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="5.88671875" customWidth="1"/>
     <col min="2" max="2" width="11.5546875" customWidth="1"/>
@@ -5250,7 +5323,7 @@
     <col min="7" max="7" width="7.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="19.8" customHeight="1">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -5273,7 +5346,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="50.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="50.4" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -5297,7 +5370,7 @@
         <v>28800</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="97.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="97.8" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -5321,7 +5394,7 @@
         <v>99990</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7">
       <c r="A4" s="37" t="s">
         <v>6</v>
       </c>
@@ -5335,7 +5408,7 @@
         <v>128790</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7">
       <c r="A5" s="37" t="s">
         <v>7</v>
       </c>
@@ -5349,7 +5422,7 @@
         <v>11591.1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7">
       <c r="A6" s="37" t="s">
         <v>8</v>
       </c>
@@ -5363,7 +5436,7 @@
         <v>11591.1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7">
       <c r="A7" s="37" t="s">
         <v>9</v>
       </c>
@@ -5399,7 +5472,7 @@
       <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="6.5546875" customWidth="1"/>
     <col min="2" max="2" width="12.44140625" customWidth="1"/>
@@ -5409,7 +5482,7 @@
     <col min="7" max="7" width="8.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="25.8" customHeight="1">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -5432,7 +5505,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="28.2" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -5456,7 +5529,7 @@
         <v>110857</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="28.2" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -5480,7 +5553,7 @@
         <v>86070</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7">
       <c r="A4" s="37" t="s">
         <v>6</v>
       </c>
@@ -5494,7 +5567,7 @@
         <v>196927</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7">
       <c r="A5" s="37" t="s">
         <v>7</v>
       </c>
@@ -5508,7 +5581,7 @@
         <v>17723.43</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7">
       <c r="A6" s="37" t="s">
         <v>8</v>
       </c>
@@ -5522,7 +5595,7 @@
         <v>17723.43</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7">
       <c r="A7" s="37" t="s">
         <v>9</v>
       </c>
@@ -5558,7 +5631,7 @@
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="6.44140625" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
@@ -5567,7 +5640,7 @@
     <col min="7" max="7" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="19.8" customHeight="1">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -5590,7 +5663,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="37.799999999999997" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -5614,7 +5687,7 @@
         <v>112280</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="33" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -5638,7 +5711,7 @@
         <v>19563</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="41.4" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -5662,7 +5735,7 @@
         <v>57240</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7">
       <c r="A5" s="37" t="s">
         <v>6</v>
       </c>
@@ -5676,7 +5749,7 @@
         <v>189083</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7">
       <c r="A6" s="37" t="s">
         <v>7</v>
       </c>
@@ -5690,7 +5763,7 @@
         <v>17017.47</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7">
       <c r="A7" s="37" t="s">
         <v>8</v>
       </c>
@@ -5704,7 +5777,7 @@
         <v>17017.47</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7">
       <c r="A8" s="37" t="s">
         <v>9</v>
       </c>

--- a/Invoices/Invoices.xlsx
+++ b/Invoices/Invoices.xlsx
@@ -545,15 +545,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -567,6 +558,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -989,56 +989,56 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
       <c r="G6" s="2">
         <f>SUM(G2:G5)</f>
         <v>91479</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
       <c r="G7" s="2">
         <f>G6*9%</f>
         <v>8233.11</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="37" t="s">
+      <c r="A8" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
       <c r="G8" s="2">
         <f>G6*9%</f>
         <v>8233.11</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="14.4" customHeight="1">
-      <c r="A9" s="37" t="s">
+      <c r="A9" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
       <c r="G9" s="2">
         <f>SUM(G6:G8)</f>
         <v>107945.22</v>
@@ -1173,56 +1173,56 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
       <c r="G5" s="19">
         <f>SUM(G2:G4)</f>
         <v>124900</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
       <c r="G6" s="19">
         <f>G5*9%</f>
         <v>11241</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
       <c r="G7" s="19">
         <f>G5*9%</f>
         <v>11241</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="37" t="s">
+      <c r="A8" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
       <c r="G8" s="19">
         <f>SUM(G5:G7)</f>
         <v>147382</v>
@@ -1306,56 +1306,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
       <c r="G3" s="20">
         <f>SUM(G2)</f>
         <v>5614</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
       <c r="G4" s="20">
         <f>G3*9%</f>
         <v>505.26</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
       <c r="G5" s="20">
         <f>G3*9%</f>
         <v>505.26</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
       <c r="G6" s="20">
         <f>SUM(G3:G5)</f>
         <v>6624.52</v>
@@ -1465,56 +1465,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
       <c r="G4" s="21">
         <f>SUM(G2:G3)</f>
         <v>41212</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
       <c r="G5" s="21">
         <f>G4*9%</f>
         <v>3709.08</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
       <c r="G6" s="21">
         <f>G4*9%</f>
         <v>3709.08</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
       <c r="G7" s="21">
         <f>SUM(G4:G6)</f>
         <v>48630.16</v>
@@ -1574,7 +1574,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="52.8">
+    <row r="2" spans="1:7" ht="39.6">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1599,56 +1599,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
       <c r="G3" s="21">
         <f>SUM(G2)</f>
         <v>24000</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
       <c r="G4" s="21">
         <f>G3*9%</f>
         <v>2160</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
       <c r="G5" s="21">
         <f>G3*9%</f>
         <v>2160</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
       <c r="G6" s="21">
         <f>SUM(G3:G5)</f>
         <v>28320</v>
@@ -1802,56 +1802,56 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
       <c r="G6" s="22">
         <f>SUM(G2:G5)</f>
         <v>313513</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
       <c r="G7" s="22">
         <f>G6*9%</f>
         <v>28216.17</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="37" t="s">
+      <c r="A8" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
       <c r="G8" s="22">
         <f>G6*9%</f>
         <v>28216.17</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="37" t="s">
+      <c r="A9" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
       <c r="G9" s="22">
         <f>SUM(G6:G8)</f>
         <v>369945.33999999997</v>
@@ -1911,7 +1911,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="39.6">
+    <row r="2" spans="1:7" ht="26.4">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1936,56 +1936,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
       <c r="G3" s="22">
         <f>SUM(G2)</f>
         <v>73450</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
       <c r="G4" s="22">
         <f>G3*9%</f>
         <v>6610.5</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
       <c r="G5" s="22">
         <f>G3*9%</f>
         <v>6610.5</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
       <c r="G6" s="22">
         <f>SUM(G3:G5)</f>
         <v>86671</v>
@@ -2093,56 +2093,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
       <c r="G4" s="23">
         <f>SUM(G2:G3)</f>
         <v>729990</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
       <c r="G5" s="23">
         <f>G4*9%</f>
         <v>65699.099999999991</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
       <c r="G6" s="23">
         <f>G4*9%</f>
         <v>65699.099999999991</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
       <c r="G7" s="23">
         <f>SUM(G4:G6)</f>
         <v>861388.2</v>
@@ -2322,56 +2322,56 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
       <c r="G7" s="23">
         <f>SUM(G2:G6)</f>
         <v>246402</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="37" t="s">
+      <c r="A8" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
       <c r="G8" s="23">
         <f>G7*9%</f>
         <v>22176.18</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="37" t="s">
+      <c r="A9" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
       <c r="G9" s="23">
         <f>G7*9%</f>
         <v>22176.18</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="37" t="s">
+      <c r="A10" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="37"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
       <c r="G10" s="23">
         <f>SUM(G7:G9)</f>
         <v>290754.36</v>
@@ -2627,56 +2627,56 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="37" t="s">
+      <c r="A10" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="37"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
       <c r="G10" s="27">
         <f>SUM(G2:G9)</f>
         <v>734495</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="37" t="s">
+      <c r="A11" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
       <c r="G11" s="27">
         <f>G10*9%</f>
         <v>66104.55</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="37" t="s">
+      <c r="A12" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="37"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="37"/>
+      <c r="B12" s="42"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
       <c r="G12" s="27">
         <f>G10*9%</f>
         <v>66104.55</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="37" t="s">
+      <c r="A13" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="37"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
       <c r="G13" s="27">
         <f>SUM(G10:G12)</f>
         <v>866704.10000000009</v>
@@ -2832,56 +2832,56 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
       <c r="G6" s="25">
         <f>SUM(G2:G5)</f>
         <v>70904</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
       <c r="G7" s="25">
         <f>G6*9%</f>
         <v>6381.36</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="37" t="s">
+      <c r="A8" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
       <c r="G8" s="25">
         <f>G6*9%</f>
         <v>6381.36</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="37" t="s">
+      <c r="A9" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
       <c r="G9" s="25">
         <f>SUM(G6:G8)</f>
         <v>83666.720000000001</v>
@@ -3084,56 +3084,56 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="37" t="s">
+      <c r="A8" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
       <c r="G8" s="3">
         <f>SUM(G2:G7)</f>
         <v>246185</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="37" t="s">
+      <c r="A9" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
       <c r="G9" s="3">
         <f>G8*9%</f>
         <v>22156.649999999998</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="37" t="s">
+      <c r="A10" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="37"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
       <c r="G10" s="3">
         <f>G8*9%</f>
         <v>22156.649999999998</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="37" t="s">
+      <c r="A11" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
       <c r="G11" s="3">
         <f>SUM(G8:G10)</f>
         <v>290498.30000000005</v>
@@ -3267,56 +3267,56 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
       <c r="G5" s="28">
         <f>SUM(G2:G4)</f>
         <v>262240</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
       <c r="G6" s="28">
         <f>G5*9%</f>
         <v>23601.599999999999</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
       <c r="G7" s="28">
         <f>G5*9%</f>
         <v>23601.599999999999</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="37" t="s">
+      <c r="A8" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
       <c r="G8" s="28">
         <f>SUM(G5:G7)</f>
         <v>309443.19999999995</v>
@@ -3546,56 +3546,56 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="37" t="s">
+      <c r="A9" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
       <c r="G9" s="28">
         <f>SUM(G2:G8)</f>
         <v>322872</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="37" t="s">
+      <c r="A10" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="37"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
       <c r="G10" s="28">
         <f>G9*9%</f>
         <v>29058.48</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="37" t="s">
+      <c r="A11" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
       <c r="G11" s="28">
         <f>G9*9%</f>
         <v>29058.48</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="37" t="s">
+      <c r="A12" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="37"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="37"/>
+      <c r="B12" s="42"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
       <c r="G12" s="28">
         <f>SUM(G9:G11)</f>
         <v>380988.95999999996</v>
@@ -3752,56 +3752,56 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
       <c r="G6" s="29">
         <f>SUM(G2:G5)</f>
         <v>161752</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
       <c r="G7" s="29">
         <f>G6*9%</f>
         <v>14557.68</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="37" t="s">
+      <c r="A8" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
       <c r="G8" s="29">
         <f>G6*9%</f>
         <v>14557.68</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="37" t="s">
+      <c r="A9" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
       <c r="G9" s="29">
         <f>SUM(G6:G8)</f>
         <v>190867.36</v>
@@ -3885,56 +3885,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
       <c r="G3" s="30">
         <f>SUM(G2)</f>
         <v>18960</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
       <c r="G4" s="30">
         <f>G3*9%</f>
         <v>1706.3999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
       <c r="G5" s="30">
         <f>G3*9%</f>
         <v>1706.3999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
       <c r="G6" s="30">
         <f>SUM(G3:G5)</f>
         <v>22372.800000000003</v>
@@ -4019,56 +4019,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
       <c r="G3" s="32">
         <f>SUM(G2)</f>
         <v>86070</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
       <c r="G4" s="32">
         <f>G3*9%</f>
         <v>7746.2999999999993</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
       <c r="G5" s="32">
         <f>G3*9%</f>
         <v>7746.2999999999993</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
       <c r="G6" s="32">
         <f>SUM(G3:G5)</f>
         <v>101562.6</v>
@@ -4175,56 +4175,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
       <c r="G4" s="33">
         <f>SUM(G2:G3)</f>
         <v>113520</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
       <c r="G5" s="33">
         <f>G4*9%</f>
         <v>10216.799999999999</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
       <c r="G6" s="33">
         <f>G4*9%</f>
         <v>10216.799999999999</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
       <c r="G7" s="33">
         <f>SUM(G4:G6)</f>
         <v>133953.60000000001</v>
@@ -4307,56 +4307,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
       <c r="G3" s="35">
         <f>SUM(G2)</f>
         <v>19406</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
       <c r="G4" s="35">
         <f>G3*9%</f>
         <v>1746.54</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
       <c r="G5" s="35">
         <f>G3*9%</f>
         <v>1746.54</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
       <c r="G6" s="35">
         <f>SUM(G3:G5)</f>
         <v>22899.08</v>
@@ -4378,7 +4378,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4417,13 +4417,13 @@
       <c r="A2" s="34">
         <v>1</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="41">
+      <c r="C2" s="38">
         <v>615698</v>
       </c>
-      <c r="D2" s="41" t="s">
+      <c r="D2" s="38" t="s">
         <v>18</v>
       </c>
       <c r="E2" s="1">
@@ -4441,13 +4441,13 @@
       <c r="A3" s="34">
         <v>2</v>
       </c>
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="C3" s="43">
+      <c r="C3" s="40">
         <v>616026</v>
       </c>
-      <c r="D3" s="43" t="s">
+      <c r="D3" s="40" t="s">
         <v>20</v>
       </c>
       <c r="E3" s="1">
@@ -4465,13 +4465,13 @@
       <c r="A4" s="34">
         <v>3</v>
       </c>
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="41" t="s">
         <v>80</v>
       </c>
-      <c r="C4" s="41">
+      <c r="C4" s="38">
         <v>630059</v>
       </c>
-      <c r="D4" s="41" t="s">
+      <c r="D4" s="38" t="s">
         <v>17</v>
       </c>
       <c r="E4" s="1">
@@ -4489,13 +4489,13 @@
       <c r="A5" s="34">
         <v>4</v>
       </c>
-      <c r="B5" s="40" t="s">
+      <c r="B5" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="C5" s="44">
+      <c r="C5" s="41">
         <v>632215</v>
       </c>
-      <c r="D5" s="44" t="s">
+      <c r="D5" s="41" t="s">
         <v>21</v>
       </c>
       <c r="E5" s="1">
@@ -4513,13 +4513,13 @@
       <c r="A6" s="34">
         <v>5</v>
       </c>
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="C6" s="41">
+      <c r="C6" s="38">
         <v>716663</v>
       </c>
-      <c r="D6" s="41" t="s">
+      <c r="D6" s="38" t="s">
         <v>57</v>
       </c>
       <c r="E6" s="1">
@@ -4537,13 +4537,13 @@
       <c r="A7" s="34">
         <v>6</v>
       </c>
-      <c r="B7" s="40" t="s">
+      <c r="B7" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="C7" s="44">
+      <c r="C7" s="41">
         <v>635656</v>
       </c>
-      <c r="D7" s="41" t="s">
+      <c r="D7" s="38" t="s">
         <v>82</v>
       </c>
       <c r="E7" s="1">
@@ -4558,56 +4558,56 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="37" t="s">
+      <c r="A8" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
       <c r="G8" s="36">
         <f>SUM(G2:G7)</f>
         <v>305810</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="37" t="s">
+      <c r="A9" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
       <c r="G9" s="36">
         <f>G8*9%</f>
         <v>27522.899999999998</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="37" t="s">
+      <c r="A10" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="37"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
       <c r="G10" s="36">
         <f>G8*9%</f>
         <v>27522.899999999998</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="37" t="s">
+      <c r="A11" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
       <c r="G11" s="36">
         <f>SUM(G8:G10)</f>
         <v>360855.80000000005</v>
@@ -4666,7 +4666,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="52.8">
+    <row r="2" spans="1:7" ht="39.6">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -4691,56 +4691,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
       <c r="G3" s="11">
         <f>SUM(G2)</f>
         <v>4831</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
       <c r="G4" s="11">
         <f>G3*9%</f>
         <v>434.78999999999996</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
       <c r="G5" s="11">
         <f>G3*9%</f>
         <v>434.78999999999996</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
       <c r="G6" s="11">
         <f>SUM(G3:G5)</f>
         <v>5700.58</v>
@@ -4802,7 +4802,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="39.6">
+    <row r="2" spans="1:7" ht="26.4">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -4826,7 +4826,7 @@
         <v>48310</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="39.6">
+    <row r="3" spans="1:7" ht="26.4">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -4850,7 +4850,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="39.6">
+    <row r="4" spans="1:7" ht="26.4">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -4971,56 +4971,56 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="37" t="s">
+      <c r="A9" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
       <c r="G9" s="11">
         <f>SUM(G2:G8)</f>
         <v>249351</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="37" t="s">
+      <c r="A10" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="37"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
       <c r="G10" s="11">
         <f>G9*9%</f>
         <v>22441.59</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="37" t="s">
+      <c r="A11" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
       <c r="G11" s="11">
         <f>G9*9%</f>
         <v>22441.59</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="37" t="s">
+      <c r="A12" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="37"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="37"/>
+      <c r="B12" s="42"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
       <c r="G12" s="11">
         <f>SUM(G9:G11)</f>
         <v>294234.18000000005</v>
@@ -5054,7 +5054,7 @@
     <col min="4" max="4" width="16.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="43.2">
+    <row r="1" spans="1:7">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -5101,7 +5101,7 @@
         <v>76320</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="39.6">
+    <row r="3" spans="1:7" ht="26.4">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -5126,56 +5126,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
       <c r="G4" s="12">
         <f>SUM(G2:G3)</f>
         <v>132820</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
       <c r="G5" s="12">
         <f>G4*9%</f>
         <v>11953.8</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
       <c r="G6" s="12">
         <f>G4*9%</f>
         <v>11953.8</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
       <c r="G7" s="12">
         <f>SUM(G4:G6)</f>
         <v>156727.59999999998</v>
@@ -5244,48 +5244,48 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
       <c r="E3" s="17">
         <f>SUM(E2)</f>
         <v>18560</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
       <c r="E4" s="17">
         <f>E3*9%</f>
         <v>1670.3999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
       <c r="E5" s="17">
         <f>E3*9%</f>
         <v>1670.3999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
       <c r="E6" s="17">
         <f>SUM(E3:E5)</f>
         <v>21900.800000000003</v>
@@ -5395,56 +5395,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
       <c r="G4" s="13">
         <f>SUM(G2:G3)</f>
         <v>128790</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
       <c r="G5" s="13">
         <f>G4*9%</f>
         <v>11591.1</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
       <c r="G6" s="13">
         <f>G4*9%</f>
         <v>11591.1</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
       <c r="G7" s="13">
         <f>SUM(G4:G6)</f>
         <v>151972.20000000001</v>
@@ -5554,56 +5554,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
       <c r="G4" s="18">
         <f>SUM(G2:G3)</f>
         <v>196927</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
       <c r="G5" s="18">
         <f>G4*9%</f>
         <v>17723.43</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
       <c r="G6" s="18">
         <f>G4*9%</f>
         <v>17723.43</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
       <c r="G7" s="18">
         <f>SUM(G4:G6)</f>
         <v>232373.86</v>
@@ -5736,56 +5736,56 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
       <c r="G5" s="19">
         <f>SUM(G2:G4)</f>
         <v>189083</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
       <c r="G6" s="19">
         <f>G5*9%</f>
         <v>17017.47</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
       <c r="G7" s="19">
         <f>G5*9%</f>
         <v>17017.47</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="37" t="s">
+      <c r="A8" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
       <c r="G8" s="19">
         <f>SUM(G5:G7)</f>
         <v>223117.94</v>

--- a/Invoices/Invoices.xlsx
+++ b/Invoices/Invoices.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="19" activeTab="26"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="20" activeTab="27"/>
   </bookViews>
   <sheets>
     <sheet name="Putz 101" sheetId="1" r:id="rId1"/>
@@ -34,6 +34,7 @@
     <sheet name="Puts 201" sheetId="25" r:id="rId25"/>
     <sheet name="Putz 202 APS" sheetId="26" r:id="rId26"/>
     <sheet name="Putz 203" sheetId="27" r:id="rId27"/>
+    <sheet name="Putz 204" sheetId="28" r:id="rId28"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="83">
   <si>
     <t>Sr. No</t>
   </si>
@@ -435,7 +436,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -558,6 +559,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -989,56 +993,56 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
+      <c r="A6" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
       <c r="G6" s="2">
         <f>SUM(G2:G5)</f>
         <v>91479</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="42" t="s">
+      <c r="A7" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="42"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
       <c r="G7" s="2">
         <f>G6*9%</f>
         <v>8233.11</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="42" t="s">
+      <c r="A8" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
       <c r="G8" s="2">
         <f>G6*9%</f>
         <v>8233.11</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="14.4" customHeight="1">
-      <c r="A9" s="42" t="s">
+      <c r="A9" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="42"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
       <c r="G9" s="2">
         <f>SUM(G6:G8)</f>
         <v>107945.22</v>
@@ -1173,56 +1177,56 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="42"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
+      <c r="A5" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="43"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
       <c r="G5" s="19">
         <f>SUM(G2:G4)</f>
         <v>124900</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
       <c r="G6" s="19">
         <f>G5*9%</f>
         <v>11241</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="42" t="s">
+      <c r="A7" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="42"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
       <c r="G7" s="19">
         <f>G5*9%</f>
         <v>11241</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="42" t="s">
+      <c r="A8" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
       <c r="G8" s="19">
         <f>SUM(G5:G7)</f>
         <v>147382</v>
@@ -1306,56 +1310,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
+      <c r="A3" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
       <c r="G3" s="20">
         <f>SUM(G2)</f>
         <v>5614</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
       <c r="G4" s="20">
         <f>G3*9%</f>
         <v>505.26</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="42" t="s">
+      <c r="A5" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="42"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
       <c r="G5" s="20">
         <f>G3*9%</f>
         <v>505.26</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
       <c r="G6" s="20">
         <f>SUM(G3:G5)</f>
         <v>6624.52</v>
@@ -1465,56 +1469,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
+      <c r="A4" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
       <c r="G4" s="21">
         <f>SUM(G2:G3)</f>
         <v>41212</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="42" t="s">
+      <c r="A5" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="42"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
       <c r="G5" s="21">
         <f>G4*9%</f>
         <v>3709.08</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
       <c r="G6" s="21">
         <f>G4*9%</f>
         <v>3709.08</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="42" t="s">
+      <c r="A7" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="42"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
       <c r="G7" s="21">
         <f>SUM(G4:G6)</f>
         <v>48630.16</v>
@@ -1599,56 +1603,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
+      <c r="A3" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
       <c r="G3" s="21">
         <f>SUM(G2)</f>
         <v>24000</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
       <c r="G4" s="21">
         <f>G3*9%</f>
         <v>2160</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="42" t="s">
+      <c r="A5" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="42"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
       <c r="G5" s="21">
         <f>G3*9%</f>
         <v>2160</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
       <c r="G6" s="21">
         <f>SUM(G3:G5)</f>
         <v>28320</v>
@@ -1802,56 +1806,56 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
+      <c r="A6" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
       <c r="G6" s="22">
         <f>SUM(G2:G5)</f>
         <v>313513</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="42" t="s">
+      <c r="A7" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="42"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
       <c r="G7" s="22">
         <f>G6*9%</f>
         <v>28216.17</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="42" t="s">
+      <c r="A8" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
       <c r="G8" s="22">
         <f>G6*9%</f>
         <v>28216.17</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="42" t="s">
+      <c r="A9" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="42"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
       <c r="G9" s="22">
         <f>SUM(G6:G8)</f>
         <v>369945.33999999997</v>
@@ -1936,56 +1940,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
+      <c r="A3" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
       <c r="G3" s="22">
         <f>SUM(G2)</f>
         <v>73450</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
       <c r="G4" s="22">
         <f>G3*9%</f>
         <v>6610.5</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="42" t="s">
+      <c r="A5" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="42"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
       <c r="G5" s="22">
         <f>G3*9%</f>
         <v>6610.5</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
       <c r="G6" s="22">
         <f>SUM(G3:G5)</f>
         <v>86671</v>
@@ -2093,56 +2097,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
+      <c r="A4" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
       <c r="G4" s="23">
         <f>SUM(G2:G3)</f>
         <v>729990</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="42" t="s">
+      <c r="A5" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="42"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
       <c r="G5" s="23">
         <f>G4*9%</f>
         <v>65699.099999999991</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
       <c r="G6" s="23">
         <f>G4*9%</f>
         <v>65699.099999999991</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="42" t="s">
+      <c r="A7" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="42"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
       <c r="G7" s="23">
         <f>SUM(G4:G6)</f>
         <v>861388.2</v>
@@ -2322,56 +2326,56 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="42"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
+      <c r="A7" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="43"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
       <c r="G7" s="23">
         <f>SUM(G2:G6)</f>
         <v>246402</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="42" t="s">
+      <c r="A8" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
       <c r="G8" s="23">
         <f>G7*9%</f>
         <v>22176.18</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="42" t="s">
+      <c r="A9" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="42"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
       <c r="G9" s="23">
         <f>G7*9%</f>
         <v>22176.18</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="42" t="s">
+      <c r="A10" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="42"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
       <c r="G10" s="23">
         <f>SUM(G7:G9)</f>
         <v>290754.36</v>
@@ -2627,56 +2631,56 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="42"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
+      <c r="A10" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="43"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
       <c r="G10" s="27">
         <f>SUM(G2:G9)</f>
         <v>734495</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="42" t="s">
+      <c r="A11" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="42"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
       <c r="G11" s="27">
         <f>G10*9%</f>
         <v>66104.55</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="42" t="s">
+      <c r="A12" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="42"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="42"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
       <c r="G12" s="27">
         <f>G10*9%</f>
         <v>66104.55</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="42" t="s">
+      <c r="A13" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="42"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
       <c r="G13" s="27">
         <f>SUM(G10:G12)</f>
         <v>866704.10000000009</v>
@@ -2832,56 +2836,56 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
+      <c r="A6" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
       <c r="G6" s="25">
         <f>SUM(G2:G5)</f>
         <v>70904</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="42" t="s">
+      <c r="A7" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="42"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
       <c r="G7" s="25">
         <f>G6*9%</f>
         <v>6381.36</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="42" t="s">
+      <c r="A8" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
       <c r="G8" s="25">
         <f>G6*9%</f>
         <v>6381.36</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="42" t="s">
+      <c r="A9" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="42"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
       <c r="G9" s="25">
         <f>SUM(G6:G8)</f>
         <v>83666.720000000001</v>
@@ -3084,56 +3088,56 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
+      <c r="A8" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="43"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
       <c r="G8" s="3">
         <f>SUM(G2:G7)</f>
         <v>246185</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="42" t="s">
+      <c r="A9" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="42"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
       <c r="G9" s="3">
         <f>G8*9%</f>
         <v>22156.649999999998</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="42" t="s">
+      <c r="A10" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="42"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
       <c r="G10" s="3">
         <f>G8*9%</f>
         <v>22156.649999999998</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="42" t="s">
+      <c r="A11" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="42"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
       <c r="G11" s="3">
         <f>SUM(G8:G10)</f>
         <v>290498.30000000005</v>
@@ -3267,56 +3271,56 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="42"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
+      <c r="A5" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="43"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
       <c r="G5" s="28">
         <f>SUM(G2:G4)</f>
         <v>262240</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
       <c r="G6" s="28">
         <f>G5*9%</f>
         <v>23601.599999999999</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="42" t="s">
+      <c r="A7" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="42"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
       <c r="G7" s="28">
         <f>G5*9%</f>
         <v>23601.599999999999</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="42" t="s">
+      <c r="A8" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
       <c r="G8" s="28">
         <f>SUM(G5:G7)</f>
         <v>309443.19999999995</v>
@@ -3546,56 +3550,56 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="42"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
+      <c r="A9" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="43"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
       <c r="G9" s="28">
         <f>SUM(G2:G8)</f>
         <v>322872</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="42" t="s">
+      <c r="A10" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="42"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
       <c r="G10" s="28">
         <f>G9*9%</f>
         <v>29058.48</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="42" t="s">
+      <c r="A11" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="42"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
       <c r="G11" s="28">
         <f>G9*9%</f>
         <v>29058.48</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="42" t="s">
+      <c r="A12" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="42"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="42"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
       <c r="G12" s="28">
         <f>SUM(G9:G11)</f>
         <v>380988.95999999996</v>
@@ -3752,56 +3756,56 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
+      <c r="A6" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
       <c r="G6" s="29">
         <f>SUM(G2:G5)</f>
         <v>161752</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="42" t="s">
+      <c r="A7" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="42"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
       <c r="G7" s="29">
         <f>G6*9%</f>
         <v>14557.68</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="42" t="s">
+      <c r="A8" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
       <c r="G8" s="29">
         <f>G6*9%</f>
         <v>14557.68</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="42" t="s">
+      <c r="A9" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="42"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
       <c r="G9" s="29">
         <f>SUM(G6:G8)</f>
         <v>190867.36</v>
@@ -3885,56 +3889,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
+      <c r="A3" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
       <c r="G3" s="30">
         <f>SUM(G2)</f>
         <v>18960</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
       <c r="G4" s="30">
         <f>G3*9%</f>
         <v>1706.3999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="42" t="s">
+      <c r="A5" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="42"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
       <c r="G5" s="30">
         <f>G3*9%</f>
         <v>1706.3999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
       <c r="G6" s="30">
         <f>SUM(G3:G5)</f>
         <v>22372.800000000003</v>
@@ -4019,56 +4023,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
+      <c r="A3" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
       <c r="G3" s="32">
         <f>SUM(G2)</f>
         <v>86070</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
       <c r="G4" s="32">
         <f>G3*9%</f>
         <v>7746.2999999999993</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="42" t="s">
+      <c r="A5" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="42"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
       <c r="G5" s="32">
         <f>G3*9%</f>
         <v>7746.2999999999993</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
       <c r="G6" s="32">
         <f>SUM(G3:G5)</f>
         <v>101562.6</v>
@@ -4090,7 +4094,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection sqref="A1:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4175,56 +4179,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
+      <c r="A4" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
       <c r="G4" s="33">
         <f>SUM(G2:G3)</f>
         <v>113520</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="42" t="s">
+      <c r="A5" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="42"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
       <c r="G5" s="33">
         <f>G4*9%</f>
         <v>10216.799999999999</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
       <c r="G6" s="33">
         <f>G4*9%</f>
         <v>10216.799999999999</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="42" t="s">
+      <c r="A7" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="42"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
       <c r="G7" s="33">
         <f>SUM(G4:G6)</f>
         <v>133953.60000000001</v>
@@ -4307,56 +4311,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
+      <c r="A3" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
       <c r="G3" s="35">
         <f>SUM(G2)</f>
         <v>19406</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
       <c r="G4" s="35">
         <f>G3*9%</f>
         <v>1746.54</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="42" t="s">
+      <c r="A5" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="42"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
       <c r="G5" s="35">
         <f>G3*9%</f>
         <v>1746.54</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
       <c r="G6" s="35">
         <f>SUM(G3:G5)</f>
         <v>22899.08</v>
@@ -4377,8 +4381,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4558,56 +4562,56 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
+      <c r="A8" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="43"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
       <c r="G8" s="36">
         <f>SUM(G2:G7)</f>
         <v>305810</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="42" t="s">
+      <c r="A9" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="42"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
       <c r="G9" s="36">
         <f>G8*9%</f>
         <v>27522.899999999998</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="42" t="s">
+      <c r="A10" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="42"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
       <c r="G10" s="36">
         <f>G8*9%</f>
         <v>27522.899999999998</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="42" t="s">
+      <c r="A11" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="42"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
       <c r="G11" s="36">
         <f>SUM(G8:G10)</f>
         <v>360855.80000000005</v>
@@ -4619,6 +4623,183 @@
     <mergeCell ref="A9:F9"/>
     <mergeCell ref="A10:F10"/>
     <mergeCell ref="A11:F11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="6.5546875" customWidth="1"/>
+    <col min="2" max="2" width="23.21875" customWidth="1"/>
+    <col min="4" max="4" width="27.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="22.2" customHeight="1">
+      <c r="A1" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="42" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="24" customHeight="1">
+      <c r="A2" s="34">
+        <v>1</v>
+      </c>
+      <c r="B2" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="38">
+        <v>615181</v>
+      </c>
+      <c r="D2" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="1">
+        <v>16</v>
+      </c>
+      <c r="F2" s="1">
+        <v>2400</v>
+      </c>
+      <c r="G2" s="1">
+        <f t="shared" ref="G2:G4" si="0">E2*F2</f>
+        <v>38400</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="28.8" customHeight="1">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="1">
+        <v>20</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1908</v>
+      </c>
+      <c r="G3" s="1">
+        <f t="shared" si="0"/>
+        <v>38160</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="21" customHeight="1">
+      <c r="A4" s="34">
+        <v>3</v>
+      </c>
+      <c r="B4" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="1">
+        <v>140</v>
+      </c>
+      <c r="F4" s="1">
+        <v>565</v>
+      </c>
+      <c r="G4" s="1">
+        <f t="shared" si="0"/>
+        <v>79100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="43"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="42">
+        <f>SUM(G2:G4)</f>
+        <v>155660</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="42">
+        <f>G5*9%</f>
+        <v>14009.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="43"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="42">
+        <f>G5*9%</f>
+        <v>14009.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="43"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="42">
+        <f>SUM(G5:G7)</f>
+        <v>183678.8</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="A8:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4691,56 +4872,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
+      <c r="A3" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
       <c r="G3" s="11">
         <f>SUM(G2)</f>
         <v>4831</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
       <c r="G4" s="11">
         <f>G3*9%</f>
         <v>434.78999999999996</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="42" t="s">
+      <c r="A5" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="42"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
       <c r="G5" s="11">
         <f>G3*9%</f>
         <v>434.78999999999996</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
       <c r="G6" s="11">
         <f>SUM(G3:G5)</f>
         <v>5700.58</v>
@@ -4971,56 +5152,56 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="42"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
+      <c r="A9" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="43"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
       <c r="G9" s="11">
         <f>SUM(G2:G8)</f>
         <v>249351</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="42" t="s">
+      <c r="A10" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="42"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
       <c r="G10" s="11">
         <f>G9*9%</f>
         <v>22441.59</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="42" t="s">
+      <c r="A11" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="42"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
       <c r="G11" s="11">
         <f>G9*9%</f>
         <v>22441.59</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="42" t="s">
+      <c r="A12" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="42"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="42"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
       <c r="G12" s="11">
         <f>SUM(G9:G11)</f>
         <v>294234.18000000005</v>
@@ -5126,56 +5307,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
+      <c r="A4" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
       <c r="G4" s="12">
         <f>SUM(G2:G3)</f>
         <v>132820</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="42" t="s">
+      <c r="A5" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="42"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
       <c r="G5" s="12">
         <f>G4*9%</f>
         <v>11953.8</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
       <c r="G6" s="12">
         <f>G4*9%</f>
         <v>11953.8</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="42" t="s">
+      <c r="A7" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="42"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
       <c r="G7" s="12">
         <f>SUM(G4:G6)</f>
         <v>156727.59999999998</v>
@@ -5244,48 +5425,48 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
+      <c r="A3" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
       <c r="E3" s="17">
         <f>SUM(E2)</f>
         <v>18560</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
       <c r="E4" s="17">
         <f>E3*9%</f>
         <v>1670.3999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="43" t="s">
+      <c r="A5" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="44"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
       <c r="E5" s="17">
         <f>E3*9%</f>
         <v>1670.3999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
       <c r="E6" s="17">
         <f>SUM(E3:E5)</f>
         <v>21900.800000000003</v>
@@ -5395,56 +5576,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
+      <c r="A4" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
       <c r="G4" s="13">
         <f>SUM(G2:G3)</f>
         <v>128790</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="42" t="s">
+      <c r="A5" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="42"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
       <c r="G5" s="13">
         <f>G4*9%</f>
         <v>11591.1</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
       <c r="G6" s="13">
         <f>G4*9%</f>
         <v>11591.1</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="42" t="s">
+      <c r="A7" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="42"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
       <c r="G7" s="13">
         <f>SUM(G4:G6)</f>
         <v>151972.20000000001</v>
@@ -5554,56 +5735,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
+      <c r="A4" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
       <c r="G4" s="18">
         <f>SUM(G2:G3)</f>
         <v>196927</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="42" t="s">
+      <c r="A5" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="42"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
       <c r="G5" s="18">
         <f>G4*9%</f>
         <v>17723.43</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
       <c r="G6" s="18">
         <f>G4*9%</f>
         <v>17723.43</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="42" t="s">
+      <c r="A7" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="42"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
       <c r="G7" s="18">
         <f>SUM(G4:G6)</f>
         <v>232373.86</v>
@@ -5736,56 +5917,56 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="42"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
+      <c r="A5" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="43"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
       <c r="G5" s="19">
         <f>SUM(G2:G4)</f>
         <v>189083</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
       <c r="G6" s="19">
         <f>G5*9%</f>
         <v>17017.47</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="42" t="s">
+      <c r="A7" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="42"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
       <c r="G7" s="19">
         <f>G5*9%</f>
         <v>17017.47</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="42" t="s">
+      <c r="A8" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
       <c r="G8" s="19">
         <f>SUM(G5:G7)</f>
         <v>223117.94</v>

--- a/Invoices/Invoices.xlsx
+++ b/Invoices/Invoices.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="20" activeTab="27"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="22" activeTab="29"/>
   </bookViews>
   <sheets>
     <sheet name="Putz 101" sheetId="1" r:id="rId1"/>
@@ -35,6 +35,8 @@
     <sheet name="Putz 202 APS" sheetId="26" r:id="rId26"/>
     <sheet name="Putz 203" sheetId="27" r:id="rId27"/>
     <sheet name="Putz 204" sheetId="28" r:id="rId28"/>
+    <sheet name="Putz 205" sheetId="29" r:id="rId29"/>
+    <sheet name="Putz 206 APS" sheetId="30" r:id="rId30"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -46,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="85">
   <si>
     <t>Sr. No</t>
   </si>
@@ -295,6 +297,12 @@
   </si>
   <si>
     <t xml:space="preserve"> Cement_Dust_BP60_Dia 150 flexible</t>
+  </si>
+  <si>
+    <t>APS - 151362001 (08-08-2023)</t>
+  </si>
+  <si>
+    <t>151362092 (08-08-2023)</t>
   </si>
 </sst>
 </file>
@@ -436,7 +444,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -559,6 +567,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -993,56 +1004,56 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="43"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
+      <c r="A6" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
       <c r="G6" s="2">
         <f>SUM(G2:G5)</f>
         <v>91479</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="43"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
       <c r="G7" s="2">
         <f>G6*9%</f>
         <v>8233.11</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="43" t="s">
+      <c r="A8" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="43"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
       <c r="G8" s="2">
         <f>G6*9%</f>
         <v>8233.11</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="14.4" customHeight="1">
-      <c r="A9" s="43" t="s">
+      <c r="A9" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="43"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
       <c r="G9" s="2">
         <f>SUM(G6:G8)</f>
         <v>107945.22</v>
@@ -1177,56 +1188,56 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="43"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
+      <c r="A5" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
       <c r="G5" s="19">
         <f>SUM(G2:G4)</f>
         <v>124900</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="43"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
       <c r="G6" s="19">
         <f>G5*9%</f>
         <v>11241</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="43"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
       <c r="G7" s="19">
         <f>G5*9%</f>
         <v>11241</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="43" t="s">
+      <c r="A8" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="43"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
       <c r="G8" s="19">
         <f>SUM(G5:G7)</f>
         <v>147382</v>
@@ -1310,56 +1321,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
+      <c r="A3" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
       <c r="G3" s="20">
         <f>SUM(G2)</f>
         <v>5614</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
       <c r="G4" s="20">
         <f>G3*9%</f>
         <v>505.26</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="43" t="s">
+      <c r="A5" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="43"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
       <c r="G5" s="20">
         <f>G3*9%</f>
         <v>505.26</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="43"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
       <c r="G6" s="20">
         <f>SUM(G3:G5)</f>
         <v>6624.52</v>
@@ -1469,56 +1480,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
+      <c r="A4" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
       <c r="G4" s="21">
         <f>SUM(G2:G3)</f>
         <v>41212</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="43" t="s">
+      <c r="A5" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="43"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
       <c r="G5" s="21">
         <f>G4*9%</f>
         <v>3709.08</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="43"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
       <c r="G6" s="21">
         <f>G4*9%</f>
         <v>3709.08</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="43"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
       <c r="G7" s="21">
         <f>SUM(G4:G6)</f>
         <v>48630.16</v>
@@ -1603,56 +1614,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
+      <c r="A3" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
       <c r="G3" s="21">
         <f>SUM(G2)</f>
         <v>24000</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
       <c r="G4" s="21">
         <f>G3*9%</f>
         <v>2160</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="43" t="s">
+      <c r="A5" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="43"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
       <c r="G5" s="21">
         <f>G3*9%</f>
         <v>2160</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="43"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
       <c r="G6" s="21">
         <f>SUM(G3:G5)</f>
         <v>28320</v>
@@ -1806,56 +1817,56 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="43"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
+      <c r="A6" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
       <c r="G6" s="22">
         <f>SUM(G2:G5)</f>
         <v>313513</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="43"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
       <c r="G7" s="22">
         <f>G6*9%</f>
         <v>28216.17</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="43" t="s">
+      <c r="A8" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="43"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
       <c r="G8" s="22">
         <f>G6*9%</f>
         <v>28216.17</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="43" t="s">
+      <c r="A9" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="43"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
       <c r="G9" s="22">
         <f>SUM(G6:G8)</f>
         <v>369945.33999999997</v>
@@ -1940,56 +1951,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
+      <c r="A3" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
       <c r="G3" s="22">
         <f>SUM(G2)</f>
         <v>73450</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
       <c r="G4" s="22">
         <f>G3*9%</f>
         <v>6610.5</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="43" t="s">
+      <c r="A5" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="43"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
       <c r="G5" s="22">
         <f>G3*9%</f>
         <v>6610.5</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="43"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
       <c r="G6" s="22">
         <f>SUM(G3:G5)</f>
         <v>86671</v>
@@ -2097,56 +2108,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
+      <c r="A4" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
       <c r="G4" s="23">
         <f>SUM(G2:G3)</f>
         <v>729990</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="43" t="s">
+      <c r="A5" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="43"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
       <c r="G5" s="23">
         <f>G4*9%</f>
         <v>65699.099999999991</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="43"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
       <c r="G6" s="23">
         <f>G4*9%</f>
         <v>65699.099999999991</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="43"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
       <c r="G7" s="23">
         <f>SUM(G4:G6)</f>
         <v>861388.2</v>
@@ -2326,56 +2337,56 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="43"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
+      <c r="A7" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
       <c r="G7" s="23">
         <f>SUM(G2:G6)</f>
         <v>246402</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="43" t="s">
+      <c r="A8" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="43"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
       <c r="G8" s="23">
         <f>G7*9%</f>
         <v>22176.18</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="43" t="s">
+      <c r="A9" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="43"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
       <c r="G9" s="23">
         <f>G7*9%</f>
         <v>22176.18</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="43" t="s">
+      <c r="A10" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="43"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
       <c r="G10" s="23">
         <f>SUM(G7:G9)</f>
         <v>290754.36</v>
@@ -2631,56 +2642,56 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="43"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
+      <c r="A10" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="44"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
       <c r="G10" s="27">
         <f>SUM(G2:G9)</f>
         <v>734495</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="43" t="s">
+      <c r="A11" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="43"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
       <c r="G11" s="27">
         <f>G10*9%</f>
         <v>66104.55</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="43" t="s">
+      <c r="A12" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="43"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
       <c r="G12" s="27">
         <f>G10*9%</f>
         <v>66104.55</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="43" t="s">
+      <c r="A13" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="43"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
       <c r="G13" s="27">
         <f>SUM(G10:G12)</f>
         <v>866704.10000000009</v>
@@ -2836,56 +2847,56 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="43"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
+      <c r="A6" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
       <c r="G6" s="25">
         <f>SUM(G2:G5)</f>
         <v>70904</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="43"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
       <c r="G7" s="25">
         <f>G6*9%</f>
         <v>6381.36</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="43" t="s">
+      <c r="A8" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="43"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
       <c r="G8" s="25">
         <f>G6*9%</f>
         <v>6381.36</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="43" t="s">
+      <c r="A9" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="43"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
       <c r="G9" s="25">
         <f>SUM(G6:G8)</f>
         <v>83666.720000000001</v>
@@ -3088,56 +3099,56 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="43"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
+      <c r="A8" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="44"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
       <c r="G8" s="3">
         <f>SUM(G2:G7)</f>
         <v>246185</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="43" t="s">
+      <c r="A9" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="43"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
       <c r="G9" s="3">
         <f>G8*9%</f>
         <v>22156.649999999998</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="43" t="s">
+      <c r="A10" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="43"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
       <c r="G10" s="3">
         <f>G8*9%</f>
         <v>22156.649999999998</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="43" t="s">
+      <c r="A11" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="43"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
       <c r="G11" s="3">
         <f>SUM(G8:G10)</f>
         <v>290498.30000000005</v>
@@ -3271,56 +3282,56 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="43"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
+      <c r="A5" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
       <c r="G5" s="28">
         <f>SUM(G2:G4)</f>
         <v>262240</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="43"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
       <c r="G6" s="28">
         <f>G5*9%</f>
         <v>23601.599999999999</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="43"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
       <c r="G7" s="28">
         <f>G5*9%</f>
         <v>23601.599999999999</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="43" t="s">
+      <c r="A8" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="43"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
       <c r="G8" s="28">
         <f>SUM(G5:G7)</f>
         <v>309443.19999999995</v>
@@ -3550,56 +3561,56 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="43"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
+      <c r="A9" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="44"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
       <c r="G9" s="28">
         <f>SUM(G2:G8)</f>
         <v>322872</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="43" t="s">
+      <c r="A10" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="43"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
       <c r="G10" s="28">
         <f>G9*9%</f>
         <v>29058.48</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="43" t="s">
+      <c r="A11" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="43"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
       <c r="G11" s="28">
         <f>G9*9%</f>
         <v>29058.48</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="43" t="s">
+      <c r="A12" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="43"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
       <c r="G12" s="28">
         <f>SUM(G9:G11)</f>
         <v>380988.95999999996</v>
@@ -3756,56 +3767,56 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="43"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
+      <c r="A6" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
       <c r="G6" s="29">
         <f>SUM(G2:G5)</f>
         <v>161752</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="43"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
       <c r="G7" s="29">
         <f>G6*9%</f>
         <v>14557.68</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="43" t="s">
+      <c r="A8" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="43"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
       <c r="G8" s="29">
         <f>G6*9%</f>
         <v>14557.68</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="43" t="s">
+      <c r="A9" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="43"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
       <c r="G9" s="29">
         <f>SUM(G6:G8)</f>
         <v>190867.36</v>
@@ -3889,56 +3900,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
+      <c r="A3" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
       <c r="G3" s="30">
         <f>SUM(G2)</f>
         <v>18960</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
       <c r="G4" s="30">
         <f>G3*9%</f>
         <v>1706.3999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="43" t="s">
+      <c r="A5" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="43"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
       <c r="G5" s="30">
         <f>G3*9%</f>
         <v>1706.3999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="43"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
       <c r="G6" s="30">
         <f>SUM(G3:G5)</f>
         <v>22372.800000000003</v>
@@ -4023,56 +4034,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
+      <c r="A3" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
       <c r="G3" s="32">
         <f>SUM(G2)</f>
         <v>86070</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
       <c r="G4" s="32">
         <f>G3*9%</f>
         <v>7746.2999999999993</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="43" t="s">
+      <c r="A5" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="43"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
       <c r="G5" s="32">
         <f>G3*9%</f>
         <v>7746.2999999999993</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="43"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
       <c r="G6" s="32">
         <f>SUM(G3:G5)</f>
         <v>101562.6</v>
@@ -4179,56 +4190,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
+      <c r="A4" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
       <c r="G4" s="33">
         <f>SUM(G2:G3)</f>
         <v>113520</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="43" t="s">
+      <c r="A5" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="43"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
       <c r="G5" s="33">
         <f>G4*9%</f>
         <v>10216.799999999999</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="43"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
       <c r="G6" s="33">
         <f>G4*9%</f>
         <v>10216.799999999999</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="43"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
       <c r="G7" s="33">
         <f>SUM(G4:G6)</f>
         <v>133953.60000000001</v>
@@ -4311,56 +4322,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
+      <c r="A3" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
       <c r="G3" s="35">
         <f>SUM(G2)</f>
         <v>19406</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
       <c r="G4" s="35">
         <f>G3*9%</f>
         <v>1746.54</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="43" t="s">
+      <c r="A5" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="43"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
       <c r="G5" s="35">
         <f>G3*9%</f>
         <v>1746.54</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="43"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
       <c r="G6" s="35">
         <f>SUM(G3:G5)</f>
         <v>22899.08</v>
@@ -4562,56 +4573,56 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="43"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
+      <c r="A8" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="44"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
       <c r="G8" s="36">
         <f>SUM(G2:G7)</f>
         <v>305810</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="43" t="s">
+      <c r="A9" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="43"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
       <c r="G9" s="36">
         <f>G8*9%</f>
         <v>27522.899999999998</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="43" t="s">
+      <c r="A10" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="43"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
       <c r="G10" s="36">
         <f>G8*9%</f>
         <v>27522.899999999998</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="43" t="s">
+      <c r="A11" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="43"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
       <c r="G11" s="36">
         <f>SUM(G8:G10)</f>
         <v>360855.80000000005</v>
@@ -4632,8 +4643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4739,56 +4750,56 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="43"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
+      <c r="A5" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
       <c r="G5" s="42">
         <f>SUM(G2:G4)</f>
         <v>155660</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="43"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
       <c r="G6" s="42">
         <f>G5*9%</f>
         <v>14009.4</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="43"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
       <c r="G7" s="42">
         <f>G5*9%</f>
         <v>14009.4</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="43" t="s">
+      <c r="A8" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="43"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
       <c r="G8" s="42">
         <f>SUM(G5:G7)</f>
         <v>183678.8</v>
@@ -4800,6 +4811,159 @@
     <mergeCell ref="A6:F6"/>
     <mergeCell ref="A7:F7"/>
     <mergeCell ref="A8:F8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="6.21875" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="4" max="4" width="21.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="21.6" customHeight="1">
+      <c r="A1" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="43" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="37.799999999999997" customHeight="1">
+      <c r="A2" s="34">
+        <v>1</v>
+      </c>
+      <c r="B2" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="38">
+        <v>615181</v>
+      </c>
+      <c r="D2" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="1">
+        <v>14</v>
+      </c>
+      <c r="F2" s="1">
+        <v>2400</v>
+      </c>
+      <c r="G2" s="1">
+        <f t="shared" ref="G2:G3" si="0">E2*F2</f>
+        <v>33600</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="43.8" customHeight="1">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" s="10">
+        <v>616026</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="1">
+        <v>10</v>
+      </c>
+      <c r="F3" s="1">
+        <v>5614</v>
+      </c>
+      <c r="G3" s="1">
+        <f t="shared" si="0"/>
+        <v>56140</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="43">
+        <f>SUM(G2:G3)</f>
+        <v>89740</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="43">
+        <f>G4*9%</f>
+        <v>8076.5999999999995</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="43">
+        <f>G4*9%</f>
+        <v>8076.5999999999995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="43">
+        <f>SUM(G4:G6)</f>
+        <v>105893.20000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A7:F7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4872,59 +5036,188 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
+      <c r="A3" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
       <c r="G3" s="11">
         <f>SUM(G2)</f>
         <v>4831</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
       <c r="G4" s="11">
         <f>G3*9%</f>
         <v>434.78999999999996</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="43" t="s">
+      <c r="A5" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="43"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
       <c r="G5" s="11">
         <f>G3*9%</f>
         <v>434.78999999999996</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="43"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
       <c r="G6" s="11">
         <f>SUM(G3:G5)</f>
         <v>5700.58</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A6:F6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="7.44140625" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" customWidth="1"/>
+    <col min="4" max="4" width="21.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="29.4" customHeight="1">
+      <c r="A1" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="43" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="42.6" customHeight="1">
+      <c r="A2" s="34">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" s="10">
+        <v>616026</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="1">
+        <v>10</v>
+      </c>
+      <c r="F2" s="1">
+        <v>5614</v>
+      </c>
+      <c r="G2" s="1">
+        <f t="shared" ref="G2" si="0">E2*F2</f>
+        <v>56140</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="43">
+        <f>SUM(G2)</f>
+        <v>56140</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="43">
+        <f>G3*9%</f>
+        <v>5052.5999999999995</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="43">
+        <f>G3*9%</f>
+        <v>5052.5999999999995</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="43">
+        <f>SUM(G3:G5)</f>
+        <v>66245.2</v>
       </c>
     </row>
   </sheetData>
@@ -5152,56 +5445,56 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="43"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
+      <c r="A9" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="44"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
       <c r="G9" s="11">
         <f>SUM(G2:G8)</f>
         <v>249351</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="43" t="s">
+      <c r="A10" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="43"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
       <c r="G10" s="11">
         <f>G9*9%</f>
         <v>22441.59</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="43" t="s">
+      <c r="A11" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="43"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
       <c r="G11" s="11">
         <f>G9*9%</f>
         <v>22441.59</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="43" t="s">
+      <c r="A12" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="43"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
       <c r="G12" s="11">
         <f>SUM(G9:G11)</f>
         <v>294234.18000000005</v>
@@ -5307,56 +5600,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
+      <c r="A4" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
       <c r="G4" s="12">
         <f>SUM(G2:G3)</f>
         <v>132820</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="43" t="s">
+      <c r="A5" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="43"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
       <c r="G5" s="12">
         <f>G4*9%</f>
         <v>11953.8</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="43"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
       <c r="G6" s="12">
         <f>G4*9%</f>
         <v>11953.8</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="43"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
       <c r="G7" s="12">
         <f>SUM(G4:G6)</f>
         <v>156727.59999999998</v>
@@ -5425,48 +5718,48 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="44" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
+      <c r="A3" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
       <c r="E3" s="17">
         <f>SUM(E2)</f>
         <v>18560</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
       <c r="E4" s="17">
         <f>E3*9%</f>
         <v>1670.3999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="45"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
       <c r="E5" s="17">
         <f>E3*9%</f>
         <v>1670.3999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="45"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
       <c r="E6" s="17">
         <f>SUM(E3:E5)</f>
         <v>21900.800000000003</v>
@@ -5576,56 +5869,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
+      <c r="A4" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
       <c r="G4" s="13">
         <f>SUM(G2:G3)</f>
         <v>128790</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="43" t="s">
+      <c r="A5" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="43"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
       <c r="G5" s="13">
         <f>G4*9%</f>
         <v>11591.1</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="43"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
       <c r="G6" s="13">
         <f>G4*9%</f>
         <v>11591.1</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="43"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
       <c r="G7" s="13">
         <f>SUM(G4:G6)</f>
         <v>151972.20000000001</v>
@@ -5735,56 +6028,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
+      <c r="A4" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
       <c r="G4" s="18">
         <f>SUM(G2:G3)</f>
         <v>196927</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="43" t="s">
+      <c r="A5" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="43"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
       <c r="G5" s="18">
         <f>G4*9%</f>
         <v>17723.43</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="43"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
       <c r="G6" s="18">
         <f>G4*9%</f>
         <v>17723.43</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="43"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
       <c r="G7" s="18">
         <f>SUM(G4:G6)</f>
         <v>232373.86</v>
@@ -5917,56 +6210,56 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="43"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
+      <c r="A5" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
       <c r="G5" s="19">
         <f>SUM(G2:G4)</f>
         <v>189083</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="43"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
       <c r="G6" s="19">
         <f>G5*9%</f>
         <v>17017.47</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="43"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
       <c r="G7" s="19">
         <f>G5*9%</f>
         <v>17017.47</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="43" t="s">
+      <c r="A8" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="43"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
       <c r="G8" s="19">
         <f>SUM(G5:G7)</f>
         <v>223117.94</v>

--- a/Invoices/Invoices.xlsx
+++ b/Invoices/Invoices.xlsx
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="85">
   <si>
     <t>Sr. No</t>
   </si>
@@ -444,7 +444,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -582,6 +582,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4818,10 +4821,10 @@
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G7"/>
+      <selection sqref="A1:G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4874,7 +4877,7 @@
         <v>2400</v>
       </c>
       <c r="G2" s="1">
-        <f t="shared" ref="G2:G3" si="0">E2*F2</f>
+        <f t="shared" ref="G2:G4" si="0">E2*F2</f>
         <v>33600</v>
       </c>
     </row>
@@ -4885,40 +4888,50 @@
       <c r="B3" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="47">
         <v>616026</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="34">
         <v>10</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="34">
         <v>5614</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="34">
         <f t="shared" si="0"/>
         <v>56140</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="44" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="43">
-        <f>SUM(G2:G3)</f>
-        <v>89740</v>
+    <row r="4" spans="1:7" ht="43.8" customHeight="1">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="1">
+        <v>10</v>
+      </c>
+      <c r="F4" s="1">
+        <v>565</v>
+      </c>
+      <c r="G4" s="1">
+        <f t="shared" si="0"/>
+        <v>5650</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="44" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" s="44"/>
       <c r="C5" s="44"/>
@@ -4926,13 +4939,13 @@
       <c r="E5" s="44"/>
       <c r="F5" s="44"/>
       <c r="G5" s="43">
-        <f>G4*9%</f>
-        <v>8076.5999999999995</v>
+        <f>SUM(G2:G4)</f>
+        <v>95390</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="44" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" s="44"/>
       <c r="C6" s="44"/>
@@ -4940,13 +4953,13 @@
       <c r="E6" s="44"/>
       <c r="F6" s="44"/>
       <c r="G6" s="43">
-        <f>G4*9%</f>
-        <v>8076.5999999999995</v>
+        <f>G5*9%</f>
+        <v>8585.1</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" s="44"/>
       <c r="C7" s="44"/>
@@ -4954,16 +4967,30 @@
       <c r="E7" s="44"/>
       <c r="F7" s="44"/>
       <c r="G7" s="43">
-        <f>SUM(G4:G6)</f>
-        <v>105893.20000000001</v>
+        <f>G5*9%</f>
+        <v>8585.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="44"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="43">
+        <f>SUM(G5:G7)</f>
+        <v>112560.20000000001</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A4:F4"/>
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="A6:F6"/>
     <mergeCell ref="A7:F7"/>
+    <mergeCell ref="A8:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5107,7 +5134,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G6"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/Invoices/Invoices.xlsx
+++ b/Invoices/Invoices.xlsx
@@ -37,6 +37,7 @@
     <sheet name="Putz 204" sheetId="28" r:id="rId28"/>
     <sheet name="Putz 205" sheetId="29" r:id="rId29"/>
     <sheet name="Putz 206 APS" sheetId="30" r:id="rId30"/>
+    <sheet name="Putz 207" sheetId="31" r:id="rId31"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -48,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="86">
   <si>
     <t>Sr. No</t>
   </si>
@@ -303,6 +304,9 @@
   </si>
   <si>
     <t>151362092 (08-08-2023)</t>
+  </si>
+  <si>
+    <t>151364604 (16-08-2023)</t>
   </si>
 </sst>
 </file>
@@ -444,7 +448,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -578,13 +582,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1007,56 +1014,56 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="44" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
+      <c r="A6" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
       <c r="G6" s="2">
         <f>SUM(G2:G5)</f>
         <v>91479</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="44" t="s">
+      <c r="A7" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="44"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
       <c r="G7" s="2">
         <f>G6*9%</f>
         <v>8233.11</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="44" t="s">
+      <c r="A8" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="44"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
       <c r="G8" s="2">
         <f>G6*9%</f>
         <v>8233.11</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="14.4" customHeight="1">
-      <c r="A9" s="44" t="s">
+      <c r="A9" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="44"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="44"/>
+      <c r="B9" s="46"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
       <c r="G9" s="2">
         <f>SUM(G6:G8)</f>
         <v>107945.22</v>
@@ -1191,56 +1198,56 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="44" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="44"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
+      <c r="A5" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="46"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
       <c r="G5" s="19">
         <f>SUM(G2:G4)</f>
         <v>124900</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
       <c r="G6" s="19">
         <f>G5*9%</f>
         <v>11241</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="44" t="s">
+      <c r="A7" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="44"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
       <c r="G7" s="19">
         <f>G5*9%</f>
         <v>11241</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="44" t="s">
+      <c r="A8" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="44"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
       <c r="G8" s="19">
         <f>SUM(G5:G7)</f>
         <v>147382</v>
@@ -1324,56 +1331,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="44" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
+      <c r="A3" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
       <c r="G3" s="20">
         <f>SUM(G2)</f>
         <v>5614</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
       <c r="G4" s="20">
         <f>G3*9%</f>
         <v>505.26</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="44"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
       <c r="G5" s="20">
         <f>G3*9%</f>
         <v>505.26</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
       <c r="G6" s="20">
         <f>SUM(G3:G5)</f>
         <v>6624.52</v>
@@ -1483,56 +1490,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="44" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
+      <c r="A4" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
       <c r="G4" s="21">
         <f>SUM(G2:G3)</f>
         <v>41212</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="44"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
       <c r="G5" s="21">
         <f>G4*9%</f>
         <v>3709.08</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
       <c r="G6" s="21">
         <f>G4*9%</f>
         <v>3709.08</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="44" t="s">
+      <c r="A7" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="44"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
       <c r="G7" s="21">
         <f>SUM(G4:G6)</f>
         <v>48630.16</v>
@@ -1617,56 +1624,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="44" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
+      <c r="A3" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
       <c r="G3" s="21">
         <f>SUM(G2)</f>
         <v>24000</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
       <c r="G4" s="21">
         <f>G3*9%</f>
         <v>2160</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="44"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
       <c r="G5" s="21">
         <f>G3*9%</f>
         <v>2160</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
       <c r="G6" s="21">
         <f>SUM(G3:G5)</f>
         <v>28320</v>
@@ -1820,56 +1827,56 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="44" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
+      <c r="A6" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
       <c r="G6" s="22">
         <f>SUM(G2:G5)</f>
         <v>313513</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="44" t="s">
+      <c r="A7" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="44"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
       <c r="G7" s="22">
         <f>G6*9%</f>
         <v>28216.17</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="44" t="s">
+      <c r="A8" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="44"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
       <c r="G8" s="22">
         <f>G6*9%</f>
         <v>28216.17</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="44" t="s">
+      <c r="A9" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="44"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="44"/>
+      <c r="B9" s="46"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
       <c r="G9" s="22">
         <f>SUM(G6:G8)</f>
         <v>369945.33999999997</v>
@@ -1954,56 +1961,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="44" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
+      <c r="A3" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
       <c r="G3" s="22">
         <f>SUM(G2)</f>
         <v>73450</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
       <c r="G4" s="22">
         <f>G3*9%</f>
         <v>6610.5</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="44"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
       <c r="G5" s="22">
         <f>G3*9%</f>
         <v>6610.5</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
       <c r="G6" s="22">
         <f>SUM(G3:G5)</f>
         <v>86671</v>
@@ -2111,56 +2118,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="44" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
+      <c r="A4" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
       <c r="G4" s="23">
         <f>SUM(G2:G3)</f>
         <v>729990</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="44"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
       <c r="G5" s="23">
         <f>G4*9%</f>
         <v>65699.099999999991</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
       <c r="G6" s="23">
         <f>G4*9%</f>
         <v>65699.099999999991</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="44" t="s">
+      <c r="A7" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="44"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
       <c r="G7" s="23">
         <f>SUM(G4:G6)</f>
         <v>861388.2</v>
@@ -2340,56 +2347,56 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="44" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="44"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
+      <c r="A7" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="46"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
       <c r="G7" s="23">
         <f>SUM(G2:G6)</f>
         <v>246402</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="44" t="s">
+      <c r="A8" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="44"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
       <c r="G8" s="23">
         <f>G7*9%</f>
         <v>22176.18</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="44" t="s">
+      <c r="A9" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="44"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="44"/>
+      <c r="B9" s="46"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
       <c r="G9" s="23">
         <f>G7*9%</f>
         <v>22176.18</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="44" t="s">
+      <c r="A10" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="44"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="44"/>
+      <c r="B10" s="46"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="46"/>
       <c r="G10" s="23">
         <f>SUM(G7:G9)</f>
         <v>290754.36</v>
@@ -2645,56 +2652,56 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="44" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="44"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="44"/>
+      <c r="A10" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="46"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="46"/>
       <c r="G10" s="27">
         <f>SUM(G2:G9)</f>
         <v>734495</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="44" t="s">
+      <c r="A11" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="44"/>
-      <c r="C11" s="44"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="44"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
       <c r="G11" s="27">
         <f>G10*9%</f>
         <v>66104.55</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="44" t="s">
+      <c r="A12" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="44"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="44"/>
+      <c r="B12" s="46"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
       <c r="G12" s="27">
         <f>G10*9%</f>
         <v>66104.55</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="44" t="s">
+      <c r="A13" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="44"/>
-      <c r="C13" s="44"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="44"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
       <c r="G13" s="27">
         <f>SUM(G10:G12)</f>
         <v>866704.10000000009</v>
@@ -2850,56 +2857,56 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="44" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
+      <c r="A6" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
       <c r="G6" s="25">
         <f>SUM(G2:G5)</f>
         <v>70904</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="44" t="s">
+      <c r="A7" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="44"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
       <c r="G7" s="25">
         <f>G6*9%</f>
         <v>6381.36</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="44" t="s">
+      <c r="A8" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="44"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
       <c r="G8" s="25">
         <f>G6*9%</f>
         <v>6381.36</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="44" t="s">
+      <c r="A9" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="44"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="44"/>
+      <c r="B9" s="46"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
       <c r="G9" s="25">
         <f>SUM(G6:G8)</f>
         <v>83666.720000000001</v>
@@ -3102,56 +3109,56 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="44" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="44"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
+      <c r="A8" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="46"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
       <c r="G8" s="3">
         <f>SUM(G2:G7)</f>
         <v>246185</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="44" t="s">
+      <c r="A9" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="44"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="44"/>
+      <c r="B9" s="46"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
       <c r="G9" s="3">
         <f>G8*9%</f>
         <v>22156.649999999998</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="44" t="s">
+      <c r="A10" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="44"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="44"/>
+      <c r="B10" s="46"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="46"/>
       <c r="G10" s="3">
         <f>G8*9%</f>
         <v>22156.649999999998</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="44" t="s">
+      <c r="A11" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="44"/>
-      <c r="C11" s="44"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="44"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
       <c r="G11" s="3">
         <f>SUM(G8:G10)</f>
         <v>290498.30000000005</v>
@@ -3285,56 +3292,56 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="44" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="44"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
+      <c r="A5" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="46"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
       <c r="G5" s="28">
         <f>SUM(G2:G4)</f>
         <v>262240</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
       <c r="G6" s="28">
         <f>G5*9%</f>
         <v>23601.599999999999</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="44" t="s">
+      <c r="A7" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="44"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
       <c r="G7" s="28">
         <f>G5*9%</f>
         <v>23601.599999999999</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="44" t="s">
+      <c r="A8" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="44"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
       <c r="G8" s="28">
         <f>SUM(G5:G7)</f>
         <v>309443.19999999995</v>
@@ -3564,56 +3571,56 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="44" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="44"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="44"/>
+      <c r="A9" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="46"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
       <c r="G9" s="28">
         <f>SUM(G2:G8)</f>
         <v>322872</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="44" t="s">
+      <c r="A10" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="44"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="44"/>
+      <c r="B10" s="46"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="46"/>
       <c r="G10" s="28">
         <f>G9*9%</f>
         <v>29058.48</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="44" t="s">
+      <c r="A11" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="44"/>
-      <c r="C11" s="44"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="44"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
       <c r="G11" s="28">
         <f>G9*9%</f>
         <v>29058.48</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="44" t="s">
+      <c r="A12" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="44"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="44"/>
+      <c r="B12" s="46"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
       <c r="G12" s="28">
         <f>SUM(G9:G11)</f>
         <v>380988.95999999996</v>
@@ -3770,56 +3777,56 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="44" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
+      <c r="A6" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
       <c r="G6" s="29">
         <f>SUM(G2:G5)</f>
         <v>161752</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="44" t="s">
+      <c r="A7" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="44"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
       <c r="G7" s="29">
         <f>G6*9%</f>
         <v>14557.68</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="44" t="s">
+      <c r="A8" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="44"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
       <c r="G8" s="29">
         <f>G6*9%</f>
         <v>14557.68</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="44" t="s">
+      <c r="A9" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="44"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="44"/>
+      <c r="B9" s="46"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
       <c r="G9" s="29">
         <f>SUM(G6:G8)</f>
         <v>190867.36</v>
@@ -3903,56 +3910,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="44" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
+      <c r="A3" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
       <c r="G3" s="30">
         <f>SUM(G2)</f>
         <v>18960</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
       <c r="G4" s="30">
         <f>G3*9%</f>
         <v>1706.3999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="44"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
       <c r="G5" s="30">
         <f>G3*9%</f>
         <v>1706.3999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
       <c r="G6" s="30">
         <f>SUM(G3:G5)</f>
         <v>22372.800000000003</v>
@@ -4037,56 +4044,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="44" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
+      <c r="A3" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
       <c r="G3" s="32">
         <f>SUM(G2)</f>
         <v>86070</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
       <c r="G4" s="32">
         <f>G3*9%</f>
         <v>7746.2999999999993</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="44"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
       <c r="G5" s="32">
         <f>G3*9%</f>
         <v>7746.2999999999993</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
       <c r="G6" s="32">
         <f>SUM(G3:G5)</f>
         <v>101562.6</v>
@@ -4193,56 +4200,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="44" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
+      <c r="A4" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
       <c r="G4" s="33">
         <f>SUM(G2:G3)</f>
         <v>113520</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="44"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
       <c r="G5" s="33">
         <f>G4*9%</f>
         <v>10216.799999999999</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
       <c r="G6" s="33">
         <f>G4*9%</f>
         <v>10216.799999999999</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="44" t="s">
+      <c r="A7" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="44"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
       <c r="G7" s="33">
         <f>SUM(G4:G6)</f>
         <v>133953.60000000001</v>
@@ -4325,56 +4332,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="44" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
+      <c r="A3" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
       <c r="G3" s="35">
         <f>SUM(G2)</f>
         <v>19406</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
       <c r="G4" s="35">
         <f>G3*9%</f>
         <v>1746.54</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="44"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
       <c r="G5" s="35">
         <f>G3*9%</f>
         <v>1746.54</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
       <c r="G6" s="35">
         <f>SUM(G3:G5)</f>
         <v>22899.08</v>
@@ -4393,6 +4400,9 @@
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4576,56 +4586,56 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="44" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="44"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
+      <c r="A8" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="46"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
       <c r="G8" s="36">
         <f>SUM(G2:G7)</f>
         <v>305810</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="44" t="s">
+      <c r="A9" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="44"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="44"/>
+      <c r="B9" s="46"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
       <c r="G9" s="36">
         <f>G8*9%</f>
         <v>27522.899999999998</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="44" t="s">
+      <c r="A10" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="44"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="44"/>
+      <c r="B10" s="46"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="46"/>
       <c r="G10" s="36">
         <f>G8*9%</f>
         <v>27522.899999999998</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="44" t="s">
+      <c r="A11" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="44"/>
-      <c r="C11" s="44"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="44"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
       <c r="G11" s="36">
         <f>SUM(G8:G10)</f>
         <v>360855.80000000005</v>
@@ -4644,6 +4654,9 @@
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4753,56 +4766,56 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="44" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="44"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
+      <c r="A5" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="46"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
       <c r="G5" s="42">
         <f>SUM(G2:G4)</f>
         <v>155660</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
       <c r="G6" s="42">
         <f>G5*9%</f>
         <v>14009.4</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="44" t="s">
+      <c r="A7" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="44"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
       <c r="G7" s="42">
         <f>G5*9%</f>
         <v>14009.4</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="44" t="s">
+      <c r="A8" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="44"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
       <c r="G8" s="42">
         <f>SUM(G5:G7)</f>
         <v>183678.8</v>
@@ -4888,10 +4901,10 @@
       <c r="B3" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="C3" s="47">
+      <c r="C3" s="45">
         <v>616026</v>
       </c>
-      <c r="D3" s="47" t="s">
+      <c r="D3" s="45" t="s">
         <v>20</v>
       </c>
       <c r="E3" s="34">
@@ -4930,56 +4943,56 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="44" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="44"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
+      <c r="A5" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="46"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
       <c r="G5" s="43">
         <f>SUM(G2:G4)</f>
         <v>95390</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
       <c r="G6" s="43">
         <f>G5*9%</f>
         <v>8585.1</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="44" t="s">
+      <c r="A7" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="44"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
       <c r="G7" s="43">
         <f>G5*9%</f>
         <v>8585.1</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="44" t="s">
+      <c r="A8" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="44"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
       <c r="G8" s="43">
         <f>SUM(G5:G7)</f>
         <v>112560.20000000001</v>
@@ -5063,56 +5076,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="44" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
+      <c r="A3" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
       <c r="G3" s="11">
         <f>SUM(G2)</f>
         <v>4831</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
       <c r="G4" s="11">
         <f>G3*9%</f>
         <v>434.78999999999996</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="44"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
       <c r="G5" s="11">
         <f>G3*9%</f>
         <v>434.78999999999996</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
       <c r="G6" s="11">
         <f>SUM(G3:G5)</f>
         <v>5700.58</v>
@@ -5131,10 +5144,13 @@
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5192,59 +5208,189 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="44" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
+      <c r="A3" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
       <c r="G3" s="43">
         <f>SUM(G2)</f>
         <v>56140</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
       <c r="G4" s="43">
         <f>G3*9%</f>
         <v>5052.5999999999995</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="44"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
       <c r="G5" s="43">
         <f>G3*9%</f>
         <v>5052.5999999999995</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
       <c r="G6" s="43">
         <f>SUM(G3:G5)</f>
         <v>66245.2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A6:F6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H18" sqref="H16:I18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="6.77734375" customWidth="1"/>
+    <col min="2" max="2" width="18.77734375" customWidth="1"/>
+    <col min="4" max="4" width="23.44140625" customWidth="1"/>
+    <col min="7" max="7" width="7.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="44" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="26.4">
+      <c r="A2" s="34">
+        <v>1</v>
+      </c>
+      <c r="B2" s="41" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" s="5">
+        <v>615698</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="1">
+        <v>10</v>
+      </c>
+      <c r="F2" s="1">
+        <v>4831</v>
+      </c>
+      <c r="G2" s="1">
+        <f t="shared" ref="G2" si="0">E2*F2</f>
+        <v>48310</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="44">
+        <f>SUM(G2)</f>
+        <v>48310</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="44">
+        <f>G3*9%</f>
+        <v>4347.8999999999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="46"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="44">
+        <f>G3*9%</f>
+        <v>4347.8999999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="44">
+        <f>SUM(G3:G5)</f>
+        <v>57005.8</v>
       </c>
     </row>
   </sheetData>
@@ -5472,56 +5618,56 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="44" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="44"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="44"/>
+      <c r="A9" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="46"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
       <c r="G9" s="11">
         <f>SUM(G2:G8)</f>
         <v>249351</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="44" t="s">
+      <c r="A10" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="44"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="44"/>
+      <c r="B10" s="46"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="46"/>
       <c r="G10" s="11">
         <f>G9*9%</f>
         <v>22441.59</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="44" t="s">
+      <c r="A11" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="44"/>
-      <c r="C11" s="44"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="44"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
       <c r="G11" s="11">
         <f>G9*9%</f>
         <v>22441.59</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="44" t="s">
+      <c r="A12" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="44"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="44"/>
+      <c r="B12" s="46"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
       <c r="G12" s="11">
         <f>SUM(G9:G11)</f>
         <v>294234.18000000005</v>
@@ -5627,56 +5773,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="44" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
+      <c r="A4" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
       <c r="G4" s="12">
         <f>SUM(G2:G3)</f>
         <v>132820</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="44"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
       <c r="G5" s="12">
         <f>G4*9%</f>
         <v>11953.8</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
       <c r="G6" s="12">
         <f>G4*9%</f>
         <v>11953.8</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="44" t="s">
+      <c r="A7" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="44"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
       <c r="G7" s="12">
         <f>SUM(G4:G6)</f>
         <v>156727.59999999998</v>
@@ -5745,48 +5891,48 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="45" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
+      <c r="A3" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
       <c r="E3" s="17">
         <f>SUM(E2)</f>
         <v>18560</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
       <c r="E4" s="17">
         <f>E3*9%</f>
         <v>1670.3999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="46"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
       <c r="E5" s="17">
         <f>E3*9%</f>
         <v>1670.3999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
       <c r="E6" s="17">
         <f>SUM(E3:E5)</f>
         <v>21900.800000000003</v>
@@ -5896,56 +6042,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="44" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
+      <c r="A4" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
       <c r="G4" s="13">
         <f>SUM(G2:G3)</f>
         <v>128790</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="44"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
       <c r="G5" s="13">
         <f>G4*9%</f>
         <v>11591.1</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
       <c r="G6" s="13">
         <f>G4*9%</f>
         <v>11591.1</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="44" t="s">
+      <c r="A7" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="44"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
       <c r="G7" s="13">
         <f>SUM(G4:G6)</f>
         <v>151972.20000000001</v>
@@ -6055,56 +6201,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="44" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
+      <c r="A4" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
       <c r="G4" s="18">
         <f>SUM(G2:G3)</f>
         <v>196927</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="44"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
       <c r="G5" s="18">
         <f>G4*9%</f>
         <v>17723.43</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
       <c r="G6" s="18">
         <f>G4*9%</f>
         <v>17723.43</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="44" t="s">
+      <c r="A7" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="44"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
       <c r="G7" s="18">
         <f>SUM(G4:G6)</f>
         <v>232373.86</v>
@@ -6237,56 +6383,56 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="44" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="44"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
+      <c r="A5" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="46"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
       <c r="G5" s="19">
         <f>SUM(G2:G4)</f>
         <v>189083</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
       <c r="G6" s="19">
         <f>G5*9%</f>
         <v>17017.47</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="44" t="s">
+      <c r="A7" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="44"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
       <c r="G7" s="19">
         <f>G5*9%</f>
         <v>17017.47</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="44" t="s">
+      <c r="A8" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="44"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
       <c r="G8" s="19">
         <f>SUM(G5:G7)</f>
         <v>223117.94</v>

--- a/Invoices/Invoices.xlsx
+++ b/Invoices/Invoices.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="22" activeTab="29"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="22" activeTab="26"/>
   </bookViews>
   <sheets>
     <sheet name="Putz 101" sheetId="1" r:id="rId1"/>
@@ -4112,6 +4112,9 @@
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4268,10 +4271,13 @@
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G6"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4405,8 +4411,8 @@
   </sheetPr>
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4837,7 +4843,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G8"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5149,8 +5155,8 @@
   </sheetPr>
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/Invoices/Invoices.xlsx
+++ b/Invoices/Invoices.xlsx
@@ -4412,7 +4412,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/Invoices/Invoices.xlsx
+++ b/Invoices/Invoices.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="22" activeTab="26"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="9" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Putz 101" sheetId="1" r:id="rId1"/>
@@ -38,6 +38,7 @@
     <sheet name="Putz 205" sheetId="29" r:id="rId29"/>
     <sheet name="Putz 206 APS" sheetId="30" r:id="rId30"/>
     <sheet name="Putz 207" sheetId="31" r:id="rId31"/>
+    <sheet name="Putz 208" sheetId="32" r:id="rId32"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -49,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="88">
   <si>
     <t>Sr. No</t>
   </si>
@@ -307,6 +308,12 @@
   </si>
   <si>
     <t>151364604 (16-08-2023)</t>
+  </si>
+  <si>
+    <t>151372120 (-6-09-2023)</t>
+  </si>
+  <si>
+    <t>151374413 (12-09-2023)</t>
   </si>
 </sst>
 </file>
@@ -448,7 +455,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -583,6 +590,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1014,56 +1027,56 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
+      <c r="A6" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
       <c r="G6" s="2">
         <f>SUM(G2:G5)</f>
         <v>91479</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="46" t="s">
+      <c r="A7" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="46"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
       <c r="G7" s="2">
         <f>G6*9%</f>
         <v>8233.11</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="46" t="s">
+      <c r="A8" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="46"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="48"/>
       <c r="G8" s="2">
         <f>G6*9%</f>
         <v>8233.11</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="14.4" customHeight="1">
-      <c r="A9" s="46" t="s">
+      <c r="A9" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="46"/>
-      <c r="C9" s="46"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="46"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="48"/>
       <c r="G9" s="2">
         <f>SUM(G6:G8)</f>
         <v>107945.22</v>
@@ -1198,56 +1211,56 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="46"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
+      <c r="A5" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="48"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
       <c r="G5" s="19">
         <f>SUM(G2:G4)</f>
         <v>124900</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
       <c r="G6" s="19">
         <f>G5*9%</f>
         <v>11241</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="46" t="s">
+      <c r="A7" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="46"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
       <c r="G7" s="19">
         <f>G5*9%</f>
         <v>11241</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="46" t="s">
+      <c r="A8" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="46"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="48"/>
       <c r="G8" s="19">
         <f>SUM(G5:G7)</f>
         <v>147382</v>
@@ -1331,56 +1344,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
+      <c r="A3" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
       <c r="G3" s="20">
         <f>SUM(G2)</f>
         <v>5614</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
       <c r="G4" s="20">
         <f>G3*9%</f>
         <v>505.26</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="46" t="s">
+      <c r="A5" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="46"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
       <c r="G5" s="20">
         <f>G3*9%</f>
         <v>505.26</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
       <c r="G6" s="20">
         <f>SUM(G3:G5)</f>
         <v>6624.52</v>
@@ -1490,56 +1503,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
+      <c r="A4" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="48"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
       <c r="G4" s="21">
         <f>SUM(G2:G3)</f>
         <v>41212</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="46" t="s">
+      <c r="A5" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="46"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
       <c r="G5" s="21">
         <f>G4*9%</f>
         <v>3709.08</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
       <c r="G6" s="21">
         <f>G4*9%</f>
         <v>3709.08</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="46" t="s">
+      <c r="A7" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="46"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
       <c r="G7" s="21">
         <f>SUM(G4:G6)</f>
         <v>48630.16</v>
@@ -1624,56 +1637,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
+      <c r="A3" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
       <c r="G3" s="21">
         <f>SUM(G2)</f>
         <v>24000</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
       <c r="G4" s="21">
         <f>G3*9%</f>
         <v>2160</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="46" t="s">
+      <c r="A5" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="46"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
       <c r="G5" s="21">
         <f>G3*9%</f>
         <v>2160</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
       <c r="G6" s="21">
         <f>SUM(G3:G5)</f>
         <v>28320</v>
@@ -1692,10 +1705,13 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1827,56 +1843,56 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
+      <c r="A6" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
       <c r="G6" s="22">
         <f>SUM(G2:G5)</f>
         <v>313513</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="46" t="s">
+      <c r="A7" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="46"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
       <c r="G7" s="22">
         <f>G6*9%</f>
         <v>28216.17</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="46" t="s">
+      <c r="A8" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="46"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="48"/>
       <c r="G8" s="22">
         <f>G6*9%</f>
         <v>28216.17</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="46" t="s">
+      <c r="A9" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="46"/>
-      <c r="C9" s="46"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="46"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="48"/>
       <c r="G9" s="22">
         <f>SUM(G6:G8)</f>
         <v>369945.33999999997</v>
@@ -1961,56 +1977,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
+      <c r="A3" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
       <c r="G3" s="22">
         <f>SUM(G2)</f>
         <v>73450</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
       <c r="G4" s="22">
         <f>G3*9%</f>
         <v>6610.5</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="46" t="s">
+      <c r="A5" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="46"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
       <c r="G5" s="22">
         <f>G3*9%</f>
         <v>6610.5</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
       <c r="G6" s="22">
         <f>SUM(G3:G5)</f>
         <v>86671</v>
@@ -2118,56 +2134,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
+      <c r="A4" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="48"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
       <c r="G4" s="23">
         <f>SUM(G2:G3)</f>
         <v>729990</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="46" t="s">
+      <c r="A5" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="46"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
       <c r="G5" s="23">
         <f>G4*9%</f>
         <v>65699.099999999991</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
       <c r="G6" s="23">
         <f>G4*9%</f>
         <v>65699.099999999991</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="46" t="s">
+      <c r="A7" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="46"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
       <c r="G7" s="23">
         <f>SUM(G4:G6)</f>
         <v>861388.2</v>
@@ -2347,56 +2363,56 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="46"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46"/>
+      <c r="A7" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="48"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
       <c r="G7" s="23">
         <f>SUM(G2:G6)</f>
         <v>246402</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="46" t="s">
+      <c r="A8" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="46"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="48"/>
       <c r="G8" s="23">
         <f>G7*9%</f>
         <v>22176.18</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="46" t="s">
+      <c r="A9" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="46"/>
-      <c r="C9" s="46"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="46"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="48"/>
       <c r="G9" s="23">
         <f>G7*9%</f>
         <v>22176.18</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="46" t="s">
+      <c r="A10" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="46"/>
-      <c r="C10" s="46"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="46"/>
-      <c r="F10" s="46"/>
+      <c r="B10" s="48"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="48"/>
       <c r="G10" s="23">
         <f>SUM(G7:G9)</f>
         <v>290754.36</v>
@@ -2652,56 +2668,56 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="46"/>
-      <c r="C10" s="46"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="46"/>
-      <c r="F10" s="46"/>
+      <c r="A10" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="48"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="48"/>
       <c r="G10" s="27">
         <f>SUM(G2:G9)</f>
         <v>734495</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="46" t="s">
+      <c r="A11" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="46"/>
-      <c r="C11" s="46"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="46"/>
+      <c r="B11" s="48"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="48"/>
       <c r="G11" s="27">
         <f>G10*9%</f>
         <v>66104.55</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="46" t="s">
+      <c r="A12" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="46"/>
-      <c r="C12" s="46"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="46"/>
+      <c r="B12" s="48"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="48"/>
       <c r="G12" s="27">
         <f>G10*9%</f>
         <v>66104.55</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="46" t="s">
+      <c r="A13" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="46"/>
-      <c r="C13" s="46"/>
-      <c r="D13" s="46"/>
-      <c r="E13" s="46"/>
-      <c r="F13" s="46"/>
+      <c r="B13" s="48"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="48"/>
       <c r="G13" s="27">
         <f>SUM(G10:G12)</f>
         <v>866704.10000000009</v>
@@ -2857,56 +2873,56 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
+      <c r="A6" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
       <c r="G6" s="25">
         <f>SUM(G2:G5)</f>
         <v>70904</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="46" t="s">
+      <c r="A7" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="46"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
       <c r="G7" s="25">
         <f>G6*9%</f>
         <v>6381.36</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="46" t="s">
+      <c r="A8" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="46"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="48"/>
       <c r="G8" s="25">
         <f>G6*9%</f>
         <v>6381.36</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="46" t="s">
+      <c r="A9" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="46"/>
-      <c r="C9" s="46"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="46"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="48"/>
       <c r="G9" s="25">
         <f>SUM(G6:G8)</f>
         <v>83666.720000000001</v>
@@ -3109,56 +3125,56 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="46"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
+      <c r="A8" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="48"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="48"/>
       <c r="G8" s="3">
         <f>SUM(G2:G7)</f>
         <v>246185</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="46" t="s">
+      <c r="A9" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="46"/>
-      <c r="C9" s="46"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="46"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="48"/>
       <c r="G9" s="3">
         <f>G8*9%</f>
         <v>22156.649999999998</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="46" t="s">
+      <c r="A10" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="46"/>
-      <c r="C10" s="46"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="46"/>
-      <c r="F10" s="46"/>
+      <c r="B10" s="48"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="48"/>
       <c r="G10" s="3">
         <f>G8*9%</f>
         <v>22156.649999999998</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="46" t="s">
+      <c r="A11" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="46"/>
-      <c r="C11" s="46"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="46"/>
+      <c r="B11" s="48"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="48"/>
       <c r="G11" s="3">
         <f>SUM(G8:G10)</f>
         <v>290498.30000000005</v>
@@ -3292,56 +3308,56 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="46"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
+      <c r="A5" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="48"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
       <c r="G5" s="28">
         <f>SUM(G2:G4)</f>
         <v>262240</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
       <c r="G6" s="28">
         <f>G5*9%</f>
         <v>23601.599999999999</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="46" t="s">
+      <c r="A7" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="46"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
       <c r="G7" s="28">
         <f>G5*9%</f>
         <v>23601.599999999999</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="46" t="s">
+      <c r="A8" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="46"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="48"/>
       <c r="G8" s="28">
         <f>SUM(G5:G7)</f>
         <v>309443.19999999995</v>
@@ -3571,56 +3587,56 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="46"/>
-      <c r="C9" s="46"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="46"/>
+      <c r="A9" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="48"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="48"/>
       <c r="G9" s="28">
         <f>SUM(G2:G8)</f>
         <v>322872</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="46" t="s">
+      <c r="A10" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="46"/>
-      <c r="C10" s="46"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="46"/>
-      <c r="F10" s="46"/>
+      <c r="B10" s="48"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="48"/>
       <c r="G10" s="28">
         <f>G9*9%</f>
         <v>29058.48</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="46" t="s">
+      <c r="A11" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="46"/>
-      <c r="C11" s="46"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="46"/>
+      <c r="B11" s="48"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="48"/>
       <c r="G11" s="28">
         <f>G9*9%</f>
         <v>29058.48</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="46" t="s">
+      <c r="A12" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="46"/>
-      <c r="C12" s="46"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="46"/>
+      <c r="B12" s="48"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="48"/>
       <c r="G12" s="28">
         <f>SUM(G9:G11)</f>
         <v>380988.95999999996</v>
@@ -3777,56 +3793,56 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
+      <c r="A6" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
       <c r="G6" s="29">
         <f>SUM(G2:G5)</f>
         <v>161752</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="46" t="s">
+      <c r="A7" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="46"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
       <c r="G7" s="29">
         <f>G6*9%</f>
         <v>14557.68</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="46" t="s">
+      <c r="A8" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="46"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="48"/>
       <c r="G8" s="29">
         <f>G6*9%</f>
         <v>14557.68</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="46" t="s">
+      <c r="A9" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="46"/>
-      <c r="C9" s="46"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="46"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="48"/>
       <c r="G9" s="29">
         <f>SUM(G6:G8)</f>
         <v>190867.36</v>
@@ -3910,56 +3926,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
+      <c r="A3" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
       <c r="G3" s="30">
         <f>SUM(G2)</f>
         <v>18960</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
       <c r="G4" s="30">
         <f>G3*9%</f>
         <v>1706.3999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="46" t="s">
+      <c r="A5" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="46"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
       <c r="G5" s="30">
         <f>G3*9%</f>
         <v>1706.3999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
       <c r="G6" s="30">
         <f>SUM(G3:G5)</f>
         <v>22372.800000000003</v>
@@ -4044,56 +4060,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
+      <c r="A3" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
       <c r="G3" s="32">
         <f>SUM(G2)</f>
         <v>86070</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
       <c r="G4" s="32">
         <f>G3*9%</f>
         <v>7746.2999999999993</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="46" t="s">
+      <c r="A5" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="46"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
       <c r="G5" s="32">
         <f>G3*9%</f>
         <v>7746.2999999999993</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
       <c r="G6" s="32">
         <f>SUM(G3:G5)</f>
         <v>101562.6</v>
@@ -4203,56 +4219,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
+      <c r="A4" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="48"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
       <c r="G4" s="33">
         <f>SUM(G2:G3)</f>
         <v>113520</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="46" t="s">
+      <c r="A5" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="46"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
       <c r="G5" s="33">
         <f>G4*9%</f>
         <v>10216.799999999999</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
       <c r="G6" s="33">
         <f>G4*9%</f>
         <v>10216.799999999999</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="46" t="s">
+      <c r="A7" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="46"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
       <c r="G7" s="33">
         <f>SUM(G4:G6)</f>
         <v>133953.60000000001</v>
@@ -4338,56 +4354,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
+      <c r="A3" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
       <c r="G3" s="35">
         <f>SUM(G2)</f>
         <v>19406</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
       <c r="G4" s="35">
         <f>G3*9%</f>
         <v>1746.54</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="46" t="s">
+      <c r="A5" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="46"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
       <c r="G5" s="35">
         <f>G3*9%</f>
         <v>1746.54</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
       <c r="G6" s="35">
         <f>SUM(G3:G5)</f>
         <v>22899.08</v>
@@ -4411,8 +4427,8 @@
   </sheetPr>
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4592,56 +4608,56 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="46"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
+      <c r="A8" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="48"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="48"/>
       <c r="G8" s="36">
         <f>SUM(G2:G7)</f>
         <v>305810</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="46" t="s">
+      <c r="A9" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="46"/>
-      <c r="C9" s="46"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="46"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="48"/>
       <c r="G9" s="36">
         <f>G8*9%</f>
         <v>27522.899999999998</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="46" t="s">
+      <c r="A10" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="46"/>
-      <c r="C10" s="46"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="46"/>
-      <c r="F10" s="46"/>
+      <c r="B10" s="48"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="48"/>
       <c r="G10" s="36">
         <f>G8*9%</f>
         <v>27522.899999999998</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="46" t="s">
+      <c r="A11" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="46"/>
-      <c r="C11" s="46"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="46"/>
+      <c r="B11" s="48"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="48"/>
       <c r="G11" s="36">
         <f>SUM(G8:G10)</f>
         <v>360855.80000000005</v>
@@ -4772,56 +4788,56 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="46"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
+      <c r="A5" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="48"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
       <c r="G5" s="42">
         <f>SUM(G2:G4)</f>
         <v>155660</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
       <c r="G6" s="42">
         <f>G5*9%</f>
         <v>14009.4</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="46" t="s">
+      <c r="A7" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="46"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
       <c r="G7" s="42">
         <f>G5*9%</f>
         <v>14009.4</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="46" t="s">
+      <c r="A8" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="46"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="48"/>
       <c r="G8" s="42">
         <f>SUM(G5:G7)</f>
         <v>183678.8</v>
@@ -4840,6 +4856,9 @@
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4949,56 +4968,56 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="46"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
+      <c r="A5" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="48"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
       <c r="G5" s="43">
         <f>SUM(G2:G4)</f>
         <v>95390</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
       <c r="G6" s="43">
         <f>G5*9%</f>
         <v>8585.1</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="46" t="s">
+      <c r="A7" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="46"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
       <c r="G7" s="43">
         <f>G5*9%</f>
         <v>8585.1</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="46" t="s">
+      <c r="A8" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="46"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="48"/>
       <c r="G8" s="43">
         <f>SUM(G5:G7)</f>
         <v>112560.20000000001</v>
@@ -5082,56 +5101,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
+      <c r="A3" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
       <c r="G3" s="11">
         <f>SUM(G2)</f>
         <v>4831</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
       <c r="G4" s="11">
         <f>G3*9%</f>
         <v>434.78999999999996</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="46" t="s">
+      <c r="A5" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="46"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
       <c r="G5" s="11">
         <f>G3*9%</f>
         <v>434.78999999999996</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
       <c r="G6" s="11">
         <f>SUM(G3:G5)</f>
         <v>5700.58</v>
@@ -5214,56 +5233,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
+      <c r="A3" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
       <c r="G3" s="43">
         <f>SUM(G2)</f>
         <v>56140</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
       <c r="G4" s="43">
         <f>G3*9%</f>
         <v>5052.5999999999995</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="46" t="s">
+      <c r="A5" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="46"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
       <c r="G5" s="43">
         <f>G3*9%</f>
         <v>5052.5999999999995</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
       <c r="G6" s="43">
         <f>SUM(G3:G5)</f>
         <v>66245.2</v>
@@ -5282,10 +5301,13 @@
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H16:I18"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5344,56 +5366,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
+      <c r="A3" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
       <c r="G3" s="44">
         <f>SUM(G2)</f>
         <v>48310</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
       <c r="G4" s="44">
         <f>G3*9%</f>
         <v>4347.8999999999996</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="46" t="s">
+      <c r="A5" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="46"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
       <c r="G5" s="44">
         <f>G3*9%</f>
         <v>4347.8999999999996</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
       <c r="G6" s="44">
         <f>SUM(G3:G5)</f>
         <v>57005.8</v>
@@ -5405,6 +5427,161 @@
     <mergeCell ref="A4:F4"/>
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="A6:F6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="26"/>
+    <col min="2" max="2" width="19.88671875" style="26" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="26"/>
+    <col min="4" max="4" width="40.21875" style="26" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="26"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="19.8" customHeight="1">
+      <c r="A1" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="46" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="26.4">
+      <c r="A2" s="34">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" s="5">
+        <v>663093</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="1">
+        <v>10</v>
+      </c>
+      <c r="F2" s="1">
+        <v>6615</v>
+      </c>
+      <c r="G2" s="1">
+        <f t="shared" ref="G2:G3" si="0">E2*F2</f>
+        <v>66150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="26.4">
+      <c r="A3" s="34">
+        <v>2</v>
+      </c>
+      <c r="B3" s="47" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" s="10">
+        <v>616026</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="1">
+        <v>10</v>
+      </c>
+      <c r="F3" s="1">
+        <v>5614</v>
+      </c>
+      <c r="G3" s="1">
+        <f t="shared" si="0"/>
+        <v>56140</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="48"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="46">
+        <f>SUM(G2:G3)</f>
+        <v>122290</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="48"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="46">
+        <f>G4*9%</f>
+        <v>11006.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="46">
+        <f>G4*9%</f>
+        <v>11006.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="48"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="46">
+        <f>SUM(G4:G6)</f>
+        <v>144302.20000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A7:F7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5624,56 +5801,56 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="46"/>
-      <c r="C9" s="46"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="46"/>
+      <c r="A9" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="48"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="48"/>
       <c r="G9" s="11">
         <f>SUM(G2:G8)</f>
         <v>249351</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="46" t="s">
+      <c r="A10" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="46"/>
-      <c r="C10" s="46"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="46"/>
-      <c r="F10" s="46"/>
+      <c r="B10" s="48"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="48"/>
       <c r="G10" s="11">
         <f>G9*9%</f>
         <v>22441.59</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="46" t="s">
+      <c r="A11" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="46"/>
-      <c r="C11" s="46"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="46"/>
+      <c r="B11" s="48"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="48"/>
       <c r="G11" s="11">
         <f>G9*9%</f>
         <v>22441.59</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="46" t="s">
+      <c r="A12" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="46"/>
-      <c r="C12" s="46"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="46"/>
+      <c r="B12" s="48"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="48"/>
       <c r="G12" s="11">
         <f>SUM(G9:G11)</f>
         <v>294234.18000000005</v>
@@ -5779,56 +5956,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
+      <c r="A4" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="48"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
       <c r="G4" s="12">
         <f>SUM(G2:G3)</f>
         <v>132820</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="46" t="s">
+      <c r="A5" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="46"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
       <c r="G5" s="12">
         <f>G4*9%</f>
         <v>11953.8</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
       <c r="G6" s="12">
         <f>G4*9%</f>
         <v>11953.8</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="46" t="s">
+      <c r="A7" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="46"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
       <c r="G7" s="12">
         <f>SUM(G4:G6)</f>
         <v>156727.59999999998</v>
@@ -5897,48 +6074,48 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="47" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
+      <c r="A3" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
       <c r="E3" s="17">
         <f>SUM(E2)</f>
         <v>18560</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
       <c r="E4" s="17">
         <f>E3*9%</f>
         <v>1670.3999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="47" t="s">
+      <c r="A5" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="48"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
       <c r="E5" s="17">
         <f>E3*9%</f>
         <v>1670.3999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
+      <c r="B6" s="50"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
       <c r="E6" s="17">
         <f>SUM(E3:E5)</f>
         <v>21900.800000000003</v>
@@ -6048,56 +6225,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
+      <c r="A4" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="48"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
       <c r="G4" s="13">
         <f>SUM(G2:G3)</f>
         <v>128790</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="46" t="s">
+      <c r="A5" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="46"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
       <c r="G5" s="13">
         <f>G4*9%</f>
         <v>11591.1</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
       <c r="G6" s="13">
         <f>G4*9%</f>
         <v>11591.1</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="46" t="s">
+      <c r="A7" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="46"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
       <c r="G7" s="13">
         <f>SUM(G4:G6)</f>
         <v>151972.20000000001</v>
@@ -6207,56 +6384,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
+      <c r="A4" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="48"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
       <c r="G4" s="18">
         <f>SUM(G2:G3)</f>
         <v>196927</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="46" t="s">
+      <c r="A5" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="46"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
       <c r="G5" s="18">
         <f>G4*9%</f>
         <v>17723.43</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
       <c r="G6" s="18">
         <f>G4*9%</f>
         <v>17723.43</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="46" t="s">
+      <c r="A7" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="46"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
       <c r="G7" s="18">
         <f>SUM(G4:G6)</f>
         <v>232373.86</v>
@@ -6389,56 +6566,56 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="46"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
+      <c r="A5" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="48"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
       <c r="G5" s="19">
         <f>SUM(G2:G4)</f>
         <v>189083</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
       <c r="G6" s="19">
         <f>G5*9%</f>
         <v>17017.47</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="46" t="s">
+      <c r="A7" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="46"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
       <c r="G7" s="19">
         <f>G5*9%</f>
         <v>17017.47</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="46" t="s">
+      <c r="A8" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="46"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="48"/>
       <c r="G8" s="19">
         <f>SUM(G5:G7)</f>
         <v>223117.94</v>

--- a/Invoices/Invoices.xlsx
+++ b/Invoices/Invoices.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="9" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="23" activeTab="31"/>
   </bookViews>
   <sheets>
     <sheet name="Putz 101" sheetId="1" r:id="rId1"/>
@@ -310,10 +310,10 @@
     <t>151364604 (16-08-2023)</t>
   </si>
   <si>
-    <t>151372120 (-6-09-2023)</t>
-  </si>
-  <si>
     <t>151374413 (12-09-2023)</t>
+  </si>
+  <si>
+    <t>151372120 (06-09-2023)</t>
   </si>
 </sst>
 </file>
@@ -1710,7 +1710,7 @@
   </sheetPr>
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
@@ -5436,8 +5436,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5477,7 +5477,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C2" s="5">
         <v>663093</v>
@@ -5501,7 +5501,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="47" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C3" s="10">
         <v>616026</v>

--- a/Invoices/Invoices.xlsx
+++ b/Invoices/Invoices.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="23" activeTab="31"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="25" activeTab="33"/>
   </bookViews>
   <sheets>
     <sheet name="Putz 101" sheetId="1" r:id="rId1"/>
@@ -39,6 +39,8 @@
     <sheet name="Putz 206 APS" sheetId="30" r:id="rId30"/>
     <sheet name="Putz 207" sheetId="31" r:id="rId31"/>
     <sheet name="Putz 208" sheetId="32" r:id="rId32"/>
+    <sheet name="Nerul 209" sheetId="33" r:id="rId33"/>
+    <sheet name="Putz 210" sheetId="34" r:id="rId34"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -50,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="126">
   <si>
     <t>Sr. No</t>
   </si>
@@ -314,13 +316,127 @@
   </si>
   <si>
     <t>151372120 (06-09-2023)</t>
+  </si>
+  <si>
+    <t>Active Components</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>4 TB WD Purple Surveillance Hard Disk</t>
+  </si>
+  <si>
+    <t>SUB TOTAL (1)</t>
+  </si>
+  <si>
+    <t>Passive Components</t>
+  </si>
+  <si>
+    <t>INSTALLATION TESTING COMMISSIONING for (1) and (2)</t>
+  </si>
+  <si>
+    <t>SUB TOTAL (2)</t>
+  </si>
+  <si>
+    <t>GRAND TOTAL</t>
+  </si>
+  <si>
+    <t>Outdoor 6U Rack IP 55</t>
+  </si>
+  <si>
+    <t>Wall Mount Rack 6U x 550 W x 450 D, with Standard accessories</t>
+  </si>
+  <si>
+    <t>12X 4 MP High Speed Dome Network Camera</t>
+  </si>
+  <si>
+    <t>2 MP Day &amp; Night Fixed Outdoor Bullet Network Camera</t>
+  </si>
+  <si>
+    <t>4 MP Day &amp; Night Varifocal Outdoor Bullet Network Camera</t>
+  </si>
+  <si>
+    <t>64CH 8 SATA RAID Network Video Recorder (NVR)</t>
+  </si>
+  <si>
+    <t>8-Ports 10/100/1000Mbps PoE + 2-Ports SFP 100/1000Mbps Smart Managed Switch, 65Watts</t>
+  </si>
+  <si>
+    <t>7 port Unmanged Switch with 4 x 10/100/1000 Base-T PoE+ Ports, 1 x 10/100/1000 Base-T Port &amp; 2 x 100/1000 Base-X SFP port.  -40°C~70°C (-40°F~158°F) Operating Temperature.</t>
+  </si>
+  <si>
+    <t>1000Base-LX Single Mode SFP transceiver. 10 Km. -40° to 85° C operating temperature.</t>
+  </si>
+  <si>
+    <t>32'' LED Display</t>
+  </si>
+  <si>
+    <t>Patch Panel  UTP Keystone- 24 Port- Unloaded (Cat 5e,Cat 6 &amp; Cat 6 A )</t>
+  </si>
+  <si>
+    <t>Jack Cat 6 Keystone UTP - White</t>
+  </si>
+  <si>
+    <t>Cabling with CAT 6 cable with casing, cabling, laying</t>
+  </si>
+  <si>
+    <t>UTP Modular Plugs Pack of 100</t>
+  </si>
+  <si>
+    <t>CAT6 UTP 24AWG PATCH CORD:1M,Plug 30U' Snagless</t>
+  </si>
+  <si>
+    <t>O. F.Cable 06F Outdoor - Armoured Unitube SM - HDPE Sheath (qty in meters) with pulling/laying arially</t>
+  </si>
+  <si>
+    <t>PATCH CORD LC-SC SM DUPLEX LENGTH- 1m</t>
+  </si>
+  <si>
+    <t>PIGTAIL SC SM SIMPLEX LENGTH- 1m</t>
+  </si>
+  <si>
+    <t>LIU 12 Port Rack Mount - Loaded (SC) SM</t>
+  </si>
+  <si>
+    <t>LIU 6 PORT Rack Mount - Loaded</t>
+  </si>
+  <si>
+    <t>Fiber Slicing</t>
+  </si>
+  <si>
+    <t>Advance Received</t>
+  </si>
+  <si>
+    <t>Balance to be paid</t>
+  </si>
+  <si>
+    <t>1000Base-LX Single-Mode, 10KM SFP Transceiver</t>
+  </si>
+  <si>
+    <t>GST 18%</t>
+  </si>
+  <si>
+    <t>151379615 (27-09-2023)</t>
+  </si>
+  <si>
+    <t>CSGT 9%</t>
+  </si>
+  <si>
+    <t>Advance Paid</t>
+  </si>
+  <si>
+    <t>Balance</t>
+  </si>
+  <si>
+    <t>TOTAL (1) + (2)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -382,6 +498,29 @@
       <color theme="1"/>
       <name val="Arial  "/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -391,7 +530,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -451,11 +590,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -598,6 +750,45 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -605,6 +796,27 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1027,56 +1239,56 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
       <c r="G6" s="2">
         <f>SUM(G2:G5)</f>
         <v>91479</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="48"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
+      <c r="B7" s="61"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
       <c r="G7" s="2">
         <f>G6*9%</f>
         <v>8233.11</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="48" t="s">
+      <c r="A8" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="48"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
+      <c r="B8" s="61"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="61"/>
       <c r="G8" s="2">
         <f>G6*9%</f>
         <v>8233.11</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="14.4" customHeight="1">
-      <c r="A9" s="48" t="s">
+      <c r="A9" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="48"/>
-      <c r="C9" s="48"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="48"/>
+      <c r="B9" s="61"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="61"/>
       <c r="G9" s="2">
         <f>SUM(G6:G8)</f>
         <v>107945.22</v>
@@ -1211,56 +1423,56 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="48"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
       <c r="G5" s="19">
         <f>SUM(G2:G4)</f>
         <v>124900</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
       <c r="G6" s="19">
         <f>G5*9%</f>
         <v>11241</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="48"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
+      <c r="B7" s="61"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
       <c r="G7" s="19">
         <f>G5*9%</f>
         <v>11241</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="48" t="s">
+      <c r="A8" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="48"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
+      <c r="B8" s="61"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="61"/>
       <c r="G8" s="19">
         <f>SUM(G5:G7)</f>
         <v>147382</v>
@@ -1344,56 +1556,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
       <c r="G3" s="20">
         <f>SUM(G2)</f>
         <v>5614</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
       <c r="G4" s="20">
         <f>G3*9%</f>
         <v>505.26</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="48"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
       <c r="G5" s="20">
         <f>G3*9%</f>
         <v>505.26</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
       <c r="G6" s="20">
         <f>SUM(G3:G5)</f>
         <v>6624.52</v>
@@ -1503,56 +1715,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
       <c r="G4" s="21">
         <f>SUM(G2:G3)</f>
         <v>41212</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="48"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
       <c r="G5" s="21">
         <f>G4*9%</f>
         <v>3709.08</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
       <c r="G6" s="21">
         <f>G4*9%</f>
         <v>3709.08</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="48"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
+      <c r="B7" s="61"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
       <c r="G7" s="21">
         <f>SUM(G4:G6)</f>
         <v>48630.16</v>
@@ -1637,56 +1849,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
       <c r="G3" s="21">
         <f>SUM(G2)</f>
         <v>24000</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
       <c r="G4" s="21">
         <f>G3*9%</f>
         <v>2160</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="48"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
       <c r="G5" s="21">
         <f>G3*9%</f>
         <v>2160</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
       <c r="G6" s="21">
         <f>SUM(G3:G5)</f>
         <v>28320</v>
@@ -1843,56 +2055,56 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
       <c r="G6" s="22">
         <f>SUM(G2:G5)</f>
         <v>313513</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="48"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
+      <c r="B7" s="61"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
       <c r="G7" s="22">
         <f>G6*9%</f>
         <v>28216.17</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="48" t="s">
+      <c r="A8" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="48"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
+      <c r="B8" s="61"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="61"/>
       <c r="G8" s="22">
         <f>G6*9%</f>
         <v>28216.17</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="48" t="s">
+      <c r="A9" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="48"/>
-      <c r="C9" s="48"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="48"/>
+      <c r="B9" s="61"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="61"/>
       <c r="G9" s="22">
         <f>SUM(G6:G8)</f>
         <v>369945.33999999997</v>
@@ -1977,56 +2189,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
       <c r="G3" s="22">
         <f>SUM(G2)</f>
         <v>73450</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
       <c r="G4" s="22">
         <f>G3*9%</f>
         <v>6610.5</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="48"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
       <c r="G5" s="22">
         <f>G3*9%</f>
         <v>6610.5</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
       <c r="G6" s="22">
         <f>SUM(G3:G5)</f>
         <v>86671</v>
@@ -2134,56 +2346,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
       <c r="G4" s="23">
         <f>SUM(G2:G3)</f>
         <v>729990</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="48"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
       <c r="G5" s="23">
         <f>G4*9%</f>
         <v>65699.099999999991</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
       <c r="G6" s="23">
         <f>G4*9%</f>
         <v>65699.099999999991</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="48"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
+      <c r="B7" s="61"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
       <c r="G7" s="23">
         <f>SUM(G4:G6)</f>
         <v>861388.2</v>
@@ -2363,56 +2575,56 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="48"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
+      <c r="B7" s="61"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
       <c r="G7" s="23">
         <f>SUM(G2:G6)</f>
         <v>246402</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="48" t="s">
+      <c r="A8" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="48"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
+      <c r="B8" s="61"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="61"/>
       <c r="G8" s="23">
         <f>G7*9%</f>
         <v>22176.18</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="48" t="s">
+      <c r="A9" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="48"/>
-      <c r="C9" s="48"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="48"/>
+      <c r="B9" s="61"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="61"/>
       <c r="G9" s="23">
         <f>G7*9%</f>
         <v>22176.18</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="48" t="s">
+      <c r="A10" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="48"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="48"/>
+      <c r="B10" s="61"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="61"/>
       <c r="G10" s="23">
         <f>SUM(G7:G9)</f>
         <v>290754.36</v>
@@ -2668,56 +2880,56 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="48" t="s">
+      <c r="A10" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="48"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="48"/>
+      <c r="B10" s="61"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="61"/>
       <c r="G10" s="27">
         <f>SUM(G2:G9)</f>
         <v>734495</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="48" t="s">
+      <c r="A11" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="48"/>
-      <c r="C11" s="48"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
+      <c r="B11" s="61"/>
+      <c r="C11" s="61"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="61"/>
       <c r="G11" s="27">
         <f>G10*9%</f>
         <v>66104.55</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="48" t="s">
+      <c r="A12" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="48"/>
-      <c r="C12" s="48"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
+      <c r="B12" s="61"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="61"/>
       <c r="G12" s="27">
         <f>G10*9%</f>
         <v>66104.55</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="48" t="s">
+      <c r="A13" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="48"/>
-      <c r="C13" s="48"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="48"/>
+      <c r="B13" s="61"/>
+      <c r="C13" s="61"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="61"/>
       <c r="G13" s="27">
         <f>SUM(G10:G12)</f>
         <v>866704.10000000009</v>
@@ -2873,56 +3085,56 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
       <c r="G6" s="25">
         <f>SUM(G2:G5)</f>
         <v>70904</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="48"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
+      <c r="B7" s="61"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
       <c r="G7" s="25">
         <f>G6*9%</f>
         <v>6381.36</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="48" t="s">
+      <c r="A8" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="48"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
+      <c r="B8" s="61"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="61"/>
       <c r="G8" s="25">
         <f>G6*9%</f>
         <v>6381.36</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="48" t="s">
+      <c r="A9" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="48"/>
-      <c r="C9" s="48"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="48"/>
+      <c r="B9" s="61"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="61"/>
       <c r="G9" s="25">
         <f>SUM(G6:G8)</f>
         <v>83666.720000000001</v>
@@ -3125,56 +3337,56 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="48" t="s">
+      <c r="A8" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="48"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
+      <c r="B8" s="61"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="61"/>
       <c r="G8" s="3">
         <f>SUM(G2:G7)</f>
         <v>246185</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="48" t="s">
+      <c r="A9" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="48"/>
-      <c r="C9" s="48"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="48"/>
+      <c r="B9" s="61"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="61"/>
       <c r="G9" s="3">
         <f>G8*9%</f>
         <v>22156.649999999998</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="48" t="s">
+      <c r="A10" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="48"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="48"/>
+      <c r="B10" s="61"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="61"/>
       <c r="G10" s="3">
         <f>G8*9%</f>
         <v>22156.649999999998</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="48" t="s">
+      <c r="A11" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="48"/>
-      <c r="C11" s="48"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
+      <c r="B11" s="61"/>
+      <c r="C11" s="61"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="61"/>
       <c r="G11" s="3">
         <f>SUM(G8:G10)</f>
         <v>290498.30000000005</v>
@@ -3308,56 +3520,56 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="48"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
       <c r="G5" s="28">
         <f>SUM(G2:G4)</f>
         <v>262240</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
       <c r="G6" s="28">
         <f>G5*9%</f>
         <v>23601.599999999999</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="48"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
+      <c r="B7" s="61"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
       <c r="G7" s="28">
         <f>G5*9%</f>
         <v>23601.599999999999</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="48" t="s">
+      <c r="A8" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="48"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
+      <c r="B8" s="61"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="61"/>
       <c r="G8" s="28">
         <f>SUM(G5:G7)</f>
         <v>309443.19999999995</v>
@@ -3587,56 +3799,56 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="48" t="s">
+      <c r="A9" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="48"/>
-      <c r="C9" s="48"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="48"/>
+      <c r="B9" s="61"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="61"/>
       <c r="G9" s="28">
         <f>SUM(G2:G8)</f>
         <v>322872</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="48" t="s">
+      <c r="A10" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="48"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="48"/>
+      <c r="B10" s="61"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="61"/>
       <c r="G10" s="28">
         <f>G9*9%</f>
         <v>29058.48</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="48" t="s">
+      <c r="A11" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="48"/>
-      <c r="C11" s="48"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
+      <c r="B11" s="61"/>
+      <c r="C11" s="61"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="61"/>
       <c r="G11" s="28">
         <f>G9*9%</f>
         <v>29058.48</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="48" t="s">
+      <c r="A12" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="48"/>
-      <c r="C12" s="48"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
+      <c r="B12" s="61"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="61"/>
       <c r="G12" s="28">
         <f>SUM(G9:G11)</f>
         <v>380988.95999999996</v>
@@ -3793,56 +4005,56 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
       <c r="G6" s="29">
         <f>SUM(G2:G5)</f>
         <v>161752</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="48"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
+      <c r="B7" s="61"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
       <c r="G7" s="29">
         <f>G6*9%</f>
         <v>14557.68</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="48" t="s">
+      <c r="A8" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="48"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
+      <c r="B8" s="61"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="61"/>
       <c r="G8" s="29">
         <f>G6*9%</f>
         <v>14557.68</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="48" t="s">
+      <c r="A9" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="48"/>
-      <c r="C9" s="48"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="48"/>
+      <c r="B9" s="61"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="61"/>
       <c r="G9" s="29">
         <f>SUM(G6:G8)</f>
         <v>190867.36</v>
@@ -3926,56 +4138,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
       <c r="G3" s="30">
         <f>SUM(G2)</f>
         <v>18960</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
       <c r="G4" s="30">
         <f>G3*9%</f>
         <v>1706.3999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="48"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
       <c r="G5" s="30">
         <f>G3*9%</f>
         <v>1706.3999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
       <c r="G6" s="30">
         <f>SUM(G3:G5)</f>
         <v>22372.800000000003</v>
@@ -4060,56 +4272,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
       <c r="G3" s="32">
         <f>SUM(G2)</f>
         <v>86070</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
       <c r="G4" s="32">
         <f>G3*9%</f>
         <v>7746.2999999999993</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="48"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
       <c r="G5" s="32">
         <f>G3*9%</f>
         <v>7746.2999999999993</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
       <c r="G6" s="32">
         <f>SUM(G3:G5)</f>
         <v>101562.6</v>
@@ -4219,56 +4431,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
       <c r="G4" s="33">
         <f>SUM(G2:G3)</f>
         <v>113520</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="48"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
       <c r="G5" s="33">
         <f>G4*9%</f>
         <v>10216.799999999999</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
       <c r="G6" s="33">
         <f>G4*9%</f>
         <v>10216.799999999999</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="48"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
+      <c r="B7" s="61"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
       <c r="G7" s="33">
         <f>SUM(G4:G6)</f>
         <v>133953.60000000001</v>
@@ -4354,56 +4566,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
       <c r="G3" s="35">
         <f>SUM(G2)</f>
         <v>19406</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
       <c r="G4" s="35">
         <f>G3*9%</f>
         <v>1746.54</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="48"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
       <c r="G5" s="35">
         <f>G3*9%</f>
         <v>1746.54</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
       <c r="G6" s="35">
         <f>SUM(G3:G5)</f>
         <v>22899.08</v>
@@ -4608,56 +4820,56 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="48" t="s">
+      <c r="A8" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="48"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
+      <c r="B8" s="61"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="61"/>
       <c r="G8" s="36">
         <f>SUM(G2:G7)</f>
         <v>305810</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="48" t="s">
+      <c r="A9" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="48"/>
-      <c r="C9" s="48"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="48"/>
+      <c r="B9" s="61"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="61"/>
       <c r="G9" s="36">
         <f>G8*9%</f>
         <v>27522.899999999998</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="48" t="s">
+      <c r="A10" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="48"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="48"/>
+      <c r="B10" s="61"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="61"/>
       <c r="G10" s="36">
         <f>G8*9%</f>
         <v>27522.899999999998</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="48" t="s">
+      <c r="A11" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="48"/>
-      <c r="C11" s="48"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
+      <c r="B11" s="61"/>
+      <c r="C11" s="61"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="61"/>
       <c r="G11" s="36">
         <f>SUM(G8:G10)</f>
         <v>360855.80000000005</v>
@@ -4788,56 +5000,56 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="48"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
       <c r="G5" s="42">
         <f>SUM(G2:G4)</f>
         <v>155660</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
       <c r="G6" s="42">
         <f>G5*9%</f>
         <v>14009.4</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="48"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
+      <c r="B7" s="61"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
       <c r="G7" s="42">
         <f>G5*9%</f>
         <v>14009.4</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="48" t="s">
+      <c r="A8" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="48"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
+      <c r="B8" s="61"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="61"/>
       <c r="G8" s="42">
         <f>SUM(G5:G7)</f>
         <v>183678.8</v>
@@ -4968,56 +5180,56 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="48"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
       <c r="G5" s="43">
         <f>SUM(G2:G4)</f>
         <v>95390</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
       <c r="G6" s="43">
         <f>G5*9%</f>
         <v>8585.1</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="48"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
+      <c r="B7" s="61"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
       <c r="G7" s="43">
         <f>G5*9%</f>
         <v>8585.1</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="48" t="s">
+      <c r="A8" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="48"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
+      <c r="B8" s="61"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="61"/>
       <c r="G8" s="43">
         <f>SUM(G5:G7)</f>
         <v>112560.20000000001</v>
@@ -5101,56 +5313,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
       <c r="G3" s="11">
         <f>SUM(G2)</f>
         <v>4831</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
       <c r="G4" s="11">
         <f>G3*9%</f>
         <v>434.78999999999996</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="48"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
       <c r="G5" s="11">
         <f>G3*9%</f>
         <v>434.78999999999996</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
       <c r="G6" s="11">
         <f>SUM(G3:G5)</f>
         <v>5700.58</v>
@@ -5233,56 +5445,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
       <c r="G3" s="43">
         <f>SUM(G2)</f>
         <v>56140</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
       <c r="G4" s="43">
         <f>G3*9%</f>
         <v>5052.5999999999995</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="48"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
       <c r="G5" s="43">
         <f>G3*9%</f>
         <v>5052.5999999999995</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
       <c r="G6" s="43">
         <f>SUM(G3:G5)</f>
         <v>66245.2</v>
@@ -5366,56 +5578,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
       <c r="G3" s="44">
         <f>SUM(G2)</f>
         <v>48310</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
       <c r="G4" s="44">
         <f>G3*9%</f>
         <v>4347.8999999999996</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="48"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
       <c r="G5" s="44">
         <f>G3*9%</f>
         <v>4347.8999999999996</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
       <c r="G6" s="44">
         <f>SUM(G3:G5)</f>
         <v>57005.8</v>
@@ -5436,8 +5648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5445,7 +5657,7 @@
     <col min="1" max="1" width="8.88671875" style="26"/>
     <col min="2" max="2" width="19.88671875" style="26" customWidth="1"/>
     <col min="3" max="3" width="8.88671875" style="26"/>
-    <col min="4" max="4" width="40.21875" style="26" customWidth="1"/>
+    <col min="4" max="4" width="29.77734375" style="26" customWidth="1"/>
     <col min="5" max="16384" width="8.88671875" style="26"/>
   </cols>
   <sheetData>
@@ -5521,56 +5733,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
       <c r="G4" s="46">
         <f>SUM(G2:G3)</f>
         <v>122290</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="48"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
       <c r="G5" s="46">
         <f>G4*9%</f>
         <v>11006.1</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
       <c r="G6" s="46">
         <f>G4*9%</f>
         <v>11006.1</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="48"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
+      <c r="B7" s="61"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
       <c r="G7" s="46">
         <f>SUM(G4:G6)</f>
         <v>144302.20000000001</v>
@@ -5582,6 +5794,820 @@
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="A6:F6"/>
     <mergeCell ref="A7:F7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:D32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="12" style="26" customWidth="1"/>
+    <col min="2" max="2" width="81" style="26" customWidth="1"/>
+    <col min="3" max="3" width="6.88671875" style="26" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="26"/>
+    <col min="5" max="5" width="10.44140625" style="26" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="8.88671875" style="26"/>
+    <col min="9" max="10" width="9.33203125" style="26" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5546875" style="26" customWidth="1"/>
+    <col min="12" max="12" width="14.109375" style="26" customWidth="1"/>
+    <col min="13" max="13" width="8.33203125" style="26" customWidth="1"/>
+    <col min="14" max="16384" width="8.88671875" style="26"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="21">
+      <c r="A1" s="70" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="48"/>
+    </row>
+    <row r="2" spans="1:5" ht="15.6">
+      <c r="A2" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="49" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="49" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="19.2" customHeight="1">
+      <c r="A3" s="50">
+        <v>1</v>
+      </c>
+      <c r="B3" s="50" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3" s="50">
+        <v>4</v>
+      </c>
+      <c r="D3" s="51">
+        <v>84690</v>
+      </c>
+      <c r="E3" s="51">
+        <f t="shared" ref="E3:E12" si="0">C3*D3</f>
+        <v>338760</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="17.399999999999999" customHeight="1">
+      <c r="A4" s="50">
+        <v>2</v>
+      </c>
+      <c r="B4" s="50" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4" s="50">
+        <v>12</v>
+      </c>
+      <c r="D4" s="51">
+        <v>8400</v>
+      </c>
+      <c r="E4" s="51">
+        <f t="shared" si="0"/>
+        <v>100800</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="18.600000000000001" customHeight="1">
+      <c r="A5" s="50">
+        <v>3</v>
+      </c>
+      <c r="B5" s="50" t="s">
+        <v>100</v>
+      </c>
+      <c r="C5" s="50">
+        <v>4</v>
+      </c>
+      <c r="D5" s="51">
+        <v>24400</v>
+      </c>
+      <c r="E5" s="51">
+        <f t="shared" si="0"/>
+        <v>97600</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="16.8" customHeight="1">
+      <c r="A6" s="50">
+        <v>4</v>
+      </c>
+      <c r="B6" s="50" t="s">
+        <v>101</v>
+      </c>
+      <c r="C6" s="50">
+        <v>1</v>
+      </c>
+      <c r="D6" s="51">
+        <v>162400</v>
+      </c>
+      <c r="E6" s="51">
+        <f t="shared" si="0"/>
+        <v>162400</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="31.8" customHeight="1">
+      <c r="A7" s="50">
+        <v>5</v>
+      </c>
+      <c r="B7" s="50" t="s">
+        <v>102</v>
+      </c>
+      <c r="C7" s="50">
+        <v>1</v>
+      </c>
+      <c r="D7" s="51">
+        <v>15000</v>
+      </c>
+      <c r="E7" s="51">
+        <f t="shared" si="0"/>
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="46.8" customHeight="1">
+      <c r="A8" s="50">
+        <v>6</v>
+      </c>
+      <c r="B8" s="50" t="s">
+        <v>103</v>
+      </c>
+      <c r="C8" s="50">
+        <v>4</v>
+      </c>
+      <c r="D8" s="51">
+        <v>49400</v>
+      </c>
+      <c r="E8" s="51">
+        <f t="shared" si="0"/>
+        <v>197600</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="19.2" customHeight="1">
+      <c r="A9" s="50">
+        <v>7</v>
+      </c>
+      <c r="B9" s="50" t="s">
+        <v>119</v>
+      </c>
+      <c r="C9" s="50">
+        <v>2</v>
+      </c>
+      <c r="D9" s="51">
+        <v>5990</v>
+      </c>
+      <c r="E9" s="51">
+        <f t="shared" si="0"/>
+        <v>11980</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="21" customHeight="1">
+      <c r="A10" s="50">
+        <v>8</v>
+      </c>
+      <c r="B10" s="50" t="s">
+        <v>104</v>
+      </c>
+      <c r="C10" s="50">
+        <v>8</v>
+      </c>
+      <c r="D10" s="51">
+        <v>10880</v>
+      </c>
+      <c r="E10" s="51">
+        <f t="shared" si="0"/>
+        <v>87040</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="16.2" customHeight="1">
+      <c r="A11" s="50">
+        <v>9</v>
+      </c>
+      <c r="B11" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="C11" s="50">
+        <v>2</v>
+      </c>
+      <c r="D11" s="51">
+        <v>18380</v>
+      </c>
+      <c r="E11" s="51">
+        <f t="shared" si="0"/>
+        <v>36760</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.6">
+      <c r="A12" s="50">
+        <v>10</v>
+      </c>
+      <c r="B12" s="50" t="s">
+        <v>105</v>
+      </c>
+      <c r="C12" s="50">
+        <v>1</v>
+      </c>
+      <c r="D12" s="51">
+        <v>35990</v>
+      </c>
+      <c r="E12" s="51">
+        <f t="shared" si="0"/>
+        <v>35990</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.6">
+      <c r="A13" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="B13" s="65"/>
+      <c r="C13" s="65"/>
+      <c r="D13" s="66"/>
+      <c r="E13" s="52">
+        <f>SUM(E3:E12)</f>
+        <v>1083930</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.6">
+      <c r="A14" s="53"/>
+      <c r="B14" s="53"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="54"/>
+    </row>
+    <row r="15" spans="1:5" ht="21">
+      <c r="A15" s="67" t="s">
+        <v>92</v>
+      </c>
+      <c r="B15" s="68"/>
+      <c r="C15" s="68"/>
+      <c r="D15" s="69"/>
+      <c r="E15" s="53"/>
+    </row>
+    <row r="16" spans="1:5" ht="15.6">
+      <c r="A16" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="49" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="49" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="15.6">
+      <c r="A17" s="50">
+        <v>1</v>
+      </c>
+      <c r="B17" s="50" t="s">
+        <v>96</v>
+      </c>
+      <c r="C17" s="50">
+        <v>4</v>
+      </c>
+      <c r="D17" s="51">
+        <v>24990</v>
+      </c>
+      <c r="E17" s="51">
+        <f t="shared" ref="E17:E30" si="1">C17*D17</f>
+        <v>99960</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="19.8" customHeight="1">
+      <c r="A18" s="50">
+        <v>2</v>
+      </c>
+      <c r="B18" s="50" t="s">
+        <v>97</v>
+      </c>
+      <c r="C18" s="50">
+        <v>1</v>
+      </c>
+      <c r="D18" s="51">
+        <v>7600</v>
+      </c>
+      <c r="E18" s="51">
+        <f t="shared" si="1"/>
+        <v>7600</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="12" customHeight="1">
+      <c r="A19" s="50">
+        <v>3</v>
+      </c>
+      <c r="B19" s="50" t="s">
+        <v>106</v>
+      </c>
+      <c r="C19" s="50">
+        <v>6</v>
+      </c>
+      <c r="D19" s="51">
+        <v>2600</v>
+      </c>
+      <c r="E19" s="51">
+        <f t="shared" si="1"/>
+        <v>15600</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="15.6">
+      <c r="A20" s="50">
+        <v>4</v>
+      </c>
+      <c r="B20" s="50" t="s">
+        <v>107</v>
+      </c>
+      <c r="C20" s="50">
+        <v>36</v>
+      </c>
+      <c r="D20" s="51">
+        <v>180</v>
+      </c>
+      <c r="E20" s="51">
+        <f t="shared" si="1"/>
+        <v>6480</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="15.6">
+      <c r="A21" s="50">
+        <v>5</v>
+      </c>
+      <c r="B21" s="48" t="s">
+        <v>108</v>
+      </c>
+      <c r="C21" s="50">
+        <v>60</v>
+      </c>
+      <c r="D21" s="51">
+        <v>80</v>
+      </c>
+      <c r="E21" s="51">
+        <f t="shared" si="1"/>
+        <v>4800</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="15.6">
+      <c r="A22" s="50">
+        <v>6</v>
+      </c>
+      <c r="B22" s="50" t="s">
+        <v>109</v>
+      </c>
+      <c r="C22" s="50">
+        <v>1</v>
+      </c>
+      <c r="D22" s="51">
+        <v>400</v>
+      </c>
+      <c r="E22" s="51">
+        <f t="shared" si="1"/>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="15.6">
+      <c r="A23" s="50">
+        <v>7</v>
+      </c>
+      <c r="B23" s="50" t="s">
+        <v>110</v>
+      </c>
+      <c r="C23" s="50">
+        <v>36</v>
+      </c>
+      <c r="D23" s="51">
+        <v>180</v>
+      </c>
+      <c r="E23" s="51">
+        <f t="shared" si="1"/>
+        <v>6480</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="31.2">
+      <c r="A24" s="50">
+        <v>8</v>
+      </c>
+      <c r="B24" s="50" t="s">
+        <v>111</v>
+      </c>
+      <c r="C24" s="50">
+        <v>3189</v>
+      </c>
+      <c r="D24" s="51">
+        <v>120</v>
+      </c>
+      <c r="E24" s="51">
+        <f t="shared" si="1"/>
+        <v>382680</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="15.6">
+      <c r="A25" s="50">
+        <v>9</v>
+      </c>
+      <c r="B25" s="50" t="s">
+        <v>114</v>
+      </c>
+      <c r="C25" s="50">
+        <v>4</v>
+      </c>
+      <c r="D25" s="51">
+        <v>11160</v>
+      </c>
+      <c r="E25" s="51">
+        <f t="shared" si="1"/>
+        <v>44640</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="15.6">
+      <c r="A26" s="50">
+        <v>10</v>
+      </c>
+      <c r="B26" s="50" t="s">
+        <v>115</v>
+      </c>
+      <c r="C26" s="50">
+        <v>2</v>
+      </c>
+      <c r="D26" s="51">
+        <v>5800</v>
+      </c>
+      <c r="E26" s="51">
+        <f t="shared" si="1"/>
+        <v>11600</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="15.6">
+      <c r="A27" s="50">
+        <v>11</v>
+      </c>
+      <c r="B27" s="50" t="s">
+        <v>113</v>
+      </c>
+      <c r="C27" s="50">
+        <v>60</v>
+      </c>
+      <c r="D27" s="51">
+        <v>300</v>
+      </c>
+      <c r="E27" s="51">
+        <f t="shared" si="1"/>
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="19.2" customHeight="1">
+      <c r="A28" s="50">
+        <v>12</v>
+      </c>
+      <c r="B28" s="50" t="s">
+        <v>112</v>
+      </c>
+      <c r="C28" s="50">
+        <v>10</v>
+      </c>
+      <c r="D28" s="51">
+        <v>1000</v>
+      </c>
+      <c r="E28" s="51">
+        <f t="shared" si="1"/>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="19.2" customHeight="1">
+      <c r="A29" s="50">
+        <v>13</v>
+      </c>
+      <c r="B29" s="50" t="s">
+        <v>116</v>
+      </c>
+      <c r="C29" s="50">
+        <v>21</v>
+      </c>
+      <c r="D29" s="51">
+        <v>950</v>
+      </c>
+      <c r="E29" s="51">
+        <f t="shared" si="1"/>
+        <v>19950</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="22.2" customHeight="1">
+      <c r="A30" s="50">
+        <v>14</v>
+      </c>
+      <c r="B30" s="55" t="s">
+        <v>93</v>
+      </c>
+      <c r="C30" s="50">
+        <v>1</v>
+      </c>
+      <c r="D30" s="51">
+        <v>150000</v>
+      </c>
+      <c r="E30" s="51">
+        <f t="shared" si="1"/>
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="31.2">
+      <c r="A31" s="64" t="s">
+        <v>94</v>
+      </c>
+      <c r="B31" s="65"/>
+      <c r="C31" s="65"/>
+      <c r="D31" s="66"/>
+      <c r="E31" s="52">
+        <f>SUM(E17:E30)</f>
+        <v>778190</v>
+      </c>
+      <c r="I31" s="59" t="s">
+        <v>122</v>
+      </c>
+      <c r="J31" s="59" t="s">
+        <v>8</v>
+      </c>
+      <c r="K31" s="59" t="s">
+        <v>9</v>
+      </c>
+      <c r="L31" s="59" t="s">
+        <v>123</v>
+      </c>
+      <c r="M31" s="59" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="15.6">
+      <c r="A32" s="64" t="s">
+        <v>125</v>
+      </c>
+      <c r="B32" s="65"/>
+      <c r="C32" s="65"/>
+      <c r="D32" s="66"/>
+      <c r="E32" s="52">
+        <f>E13+E31</f>
+        <v>1862120</v>
+      </c>
+      <c r="I32" s="55">
+        <f>E32*9%</f>
+        <v>167590.79999999999</v>
+      </c>
+      <c r="J32" s="55">
+        <f>E32*9%</f>
+        <v>167590.79999999999</v>
+      </c>
+      <c r="K32" s="55">
+        <f>E32+I32+J32</f>
+        <v>2197301.6</v>
+      </c>
+      <c r="L32" s="55">
+        <v>1364617</v>
+      </c>
+      <c r="M32" s="55">
+        <f>K32-L32</f>
+        <v>832684.60000000009</v>
+      </c>
+      <c r="N32" s="60"/>
+    </row>
+    <row r="33" spans="1:10" ht="15.6">
+      <c r="A33" s="64" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" s="65"/>
+      <c r="C33" s="65"/>
+      <c r="D33" s="66"/>
+      <c r="E33" s="52">
+        <f>E32*9%</f>
+        <v>167590.79999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="15.6">
+      <c r="A34" s="64" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34" s="65"/>
+      <c r="C34" s="65"/>
+      <c r="D34" s="66"/>
+      <c r="E34" s="52">
+        <f>E32*9%</f>
+        <v>167590.79999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="15.6">
+      <c r="A35" s="64" t="s">
+        <v>95</v>
+      </c>
+      <c r="B35" s="65"/>
+      <c r="C35" s="65"/>
+      <c r="D35" s="66"/>
+      <c r="E35" s="52">
+        <f>SUM(E32:E34)</f>
+        <v>2197301.6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" s="57" customFormat="1"/>
+    <row r="37" spans="1:10" s="57" customFormat="1"/>
+    <row r="38" spans="1:10" s="57" customFormat="1">
+      <c r="A38" s="58" t="s">
+        <v>6</v>
+      </c>
+      <c r="B38" s="58">
+        <v>1861170</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="58" t="s">
+        <v>120</v>
+      </c>
+      <c r="B39" s="58">
+        <f>B38*18%</f>
+        <v>335010.59999999998</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="58" t="s">
+        <v>9</v>
+      </c>
+      <c r="B40" s="58">
+        <v>2196180</v>
+      </c>
+      <c r="J40" s="57">
+        <f>E35-1364617</f>
+        <v>832684.60000000009</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" s="57" customFormat="1"/>
+    <row r="50" spans="1:2" s="57" customFormat="1" ht="28.8">
+      <c r="A50" s="48" t="s">
+        <v>117</v>
+      </c>
+      <c r="B50" s="48">
+        <v>1364617</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" s="57" customFormat="1" ht="28.8">
+      <c r="A51" s="48" t="s">
+        <v>118</v>
+      </c>
+      <c r="B51" s="48">
+        <v>831563</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="A33:D33"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P10" sqref="P10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="11.6640625" customWidth="1"/>
+    <col min="4" max="4" width="23.21875" customWidth="1"/>
+    <col min="5" max="5" width="5.44140625" customWidth="1"/>
+    <col min="7" max="7" width="7.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="24.6" customHeight="1">
+      <c r="A1" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="56" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="56" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="56" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="56" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="31.2" customHeight="1">
+      <c r="A2" s="34">
+        <v>1</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="C2" s="10">
+        <v>616026</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="1">
+        <v>6</v>
+      </c>
+      <c r="F2" s="1">
+        <v>5614</v>
+      </c>
+      <c r="G2" s="1">
+        <f t="shared" ref="G2" si="0">E2*F2</f>
+        <v>33684</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="61" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="56">
+        <f>SUM(G2)</f>
+        <v>33684</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="61" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="56">
+        <f>G3*9%</f>
+        <v>3031.56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="61" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="61"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="56">
+        <f>G3*9%</f>
+        <v>3031.56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="61" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="61"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="56">
+        <f>SUM(G3:G5)</f>
+        <v>39747.119999999995</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A6:F6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5801,56 +6827,56 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="48" t="s">
+      <c r="A9" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="48"/>
-      <c r="C9" s="48"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="48"/>
+      <c r="B9" s="61"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="61"/>
       <c r="G9" s="11">
         <f>SUM(G2:G8)</f>
         <v>249351</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="48" t="s">
+      <c r="A10" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="48"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="48"/>
+      <c r="B10" s="61"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="61"/>
       <c r="G10" s="11">
         <f>G9*9%</f>
         <v>22441.59</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="48" t="s">
+      <c r="A11" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="48"/>
-      <c r="C11" s="48"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
+      <c r="B11" s="61"/>
+      <c r="C11" s="61"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="61"/>
       <c r="G11" s="11">
         <f>G9*9%</f>
         <v>22441.59</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="48" t="s">
+      <c r="A12" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="48"/>
-      <c r="C12" s="48"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
+      <c r="B12" s="61"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="61"/>
       <c r="G12" s="11">
         <f>SUM(G9:G11)</f>
         <v>294234.18000000005</v>
@@ -5956,56 +6982,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
       <c r="G4" s="12">
         <f>SUM(G2:G3)</f>
         <v>132820</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="48"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
       <c r="G5" s="12">
         <f>G4*9%</f>
         <v>11953.8</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
       <c r="G6" s="12">
         <f>G4*9%</f>
         <v>11953.8</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="48"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
+      <c r="B7" s="61"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
       <c r="G7" s="12">
         <f>SUM(G4:G6)</f>
         <v>156727.59999999998</v>
@@ -6074,48 +7100,48 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
       <c r="E3" s="17">
         <f>SUM(E2)</f>
         <v>18560</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="50"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
       <c r="E4" s="17">
         <f>E3*9%</f>
         <v>1670.3999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="49" t="s">
+      <c r="A5" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="50"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
       <c r="E5" s="17">
         <f>E3*9%</f>
         <v>1670.3999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="49" t="s">
+      <c r="A6" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="50"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
+      <c r="B6" s="63"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="63"/>
       <c r="E6" s="17">
         <f>SUM(E3:E5)</f>
         <v>21900.800000000003</v>
@@ -6225,56 +7251,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
       <c r="G4" s="13">
         <f>SUM(G2:G3)</f>
         <v>128790</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="48"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
       <c r="G5" s="13">
         <f>G4*9%</f>
         <v>11591.1</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
       <c r="G6" s="13">
         <f>G4*9%</f>
         <v>11591.1</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="48"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
+      <c r="B7" s="61"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
       <c r="G7" s="13">
         <f>SUM(G4:G6)</f>
         <v>151972.20000000001</v>
@@ -6384,56 +7410,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
       <c r="G4" s="18">
         <f>SUM(G2:G3)</f>
         <v>196927</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="48"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
       <c r="G5" s="18">
         <f>G4*9%</f>
         <v>17723.43</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
       <c r="G6" s="18">
         <f>G4*9%</f>
         <v>17723.43</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="48"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
+      <c r="B7" s="61"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
       <c r="G7" s="18">
         <f>SUM(G4:G6)</f>
         <v>232373.86</v>
@@ -6566,56 +7592,56 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="48"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
       <c r="G5" s="19">
         <f>SUM(G2:G4)</f>
         <v>189083</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
       <c r="G6" s="19">
         <f>G5*9%</f>
         <v>17017.47</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="48"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
+      <c r="B7" s="61"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
       <c r="G7" s="19">
         <f>G5*9%</f>
         <v>17017.47</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="48" t="s">
+      <c r="A8" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="48"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
+      <c r="B8" s="61"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="61"/>
       <c r="G8" s="19">
         <f>SUM(G5:G7)</f>
         <v>223117.94</v>

--- a/Invoices/Invoices.xlsx
+++ b/Invoices/Invoices.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="25" activeTab="33"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="25" activeTab="32"/>
   </bookViews>
   <sheets>
     <sheet name="Putz 101" sheetId="1" r:id="rId1"/>
@@ -5803,14 +5803,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:D32"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="12" style="26" customWidth="1"/>
-    <col min="2" max="2" width="81" style="26" customWidth="1"/>
+    <col min="2" max="2" width="88.88671875" style="26" customWidth="1"/>
     <col min="3" max="3" width="6.88671875" style="26" customWidth="1"/>
     <col min="4" max="4" width="8.88671875" style="26"/>
     <col min="5" max="5" width="10.44140625" style="26" bestFit="1" customWidth="1"/>
@@ -5920,7 +5920,7 @@
         <v>162400</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="31.8" customHeight="1">
+    <row r="7" spans="1:5" ht="16.2" customHeight="1">
       <c r="A7" s="50">
         <v>5</v>
       </c>
@@ -5938,7 +5938,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="46.8" customHeight="1">
+    <row r="8" spans="1:5" ht="30" customHeight="1">
       <c r="A8" s="50">
         <v>6</v>
       </c>
@@ -5974,7 +5974,7 @@
         <v>11980</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="21" customHeight="1">
+    <row r="10" spans="1:5" ht="16.8" customHeight="1">
       <c r="A10" s="50">
         <v>8</v>
       </c>
@@ -6307,7 +6307,7 @@
         <v>19950</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="22.2" customHeight="1">
+    <row r="30" spans="1:14" ht="17.399999999999999" customHeight="1">
       <c r="A30" s="50">
         <v>14</v>
       </c>
@@ -6487,8 +6487,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/Invoices/Invoices.xlsx
+++ b/Invoices/Invoices.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="25" activeTab="32"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="26" activeTab="34"/>
   </bookViews>
   <sheets>
     <sheet name="Putz 101" sheetId="1" r:id="rId1"/>
@@ -41,6 +41,7 @@
     <sheet name="Putz 208" sheetId="32" r:id="rId32"/>
     <sheet name="Nerul 209" sheetId="33" r:id="rId33"/>
     <sheet name="Putz 210" sheetId="34" r:id="rId34"/>
+    <sheet name="Nerul 301" sheetId="35" r:id="rId35"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -52,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="127">
   <si>
     <t>Sr. No</t>
   </si>
@@ -430,6 +431,9 @@
   </si>
   <si>
     <t>TOTAL (1) + (2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scafolding Charges - </t>
   </si>
 </sst>
 </file>
@@ -607,7 +611,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -788,6 +792,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1239,56 +1246,56 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="61" t="s">
+      <c r="A6" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="61"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
       <c r="G6" s="2">
         <f>SUM(G2:G5)</f>
         <v>91479</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="61" t="s">
+      <c r="A7" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="61"/>
-      <c r="C7" s="61"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="61"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
       <c r="G7" s="2">
         <f>G6*9%</f>
         <v>8233.11</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="61" t="s">
+      <c r="A8" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="61"/>
-      <c r="C8" s="61"/>
-      <c r="D8" s="61"/>
-      <c r="E8" s="61"/>
-      <c r="F8" s="61"/>
+      <c r="B8" s="62"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
       <c r="G8" s="2">
         <f>G6*9%</f>
         <v>8233.11</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="14.4" customHeight="1">
-      <c r="A9" s="61" t="s">
+      <c r="A9" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="61"/>
-      <c r="C9" s="61"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="61"/>
+      <c r="B9" s="62"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
       <c r="G9" s="2">
         <f>SUM(G6:G8)</f>
         <v>107945.22</v>
@@ -1423,56 +1430,56 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="61"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
       <c r="G5" s="19">
         <f>SUM(G2:G4)</f>
         <v>124900</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="61" t="s">
+      <c r="A6" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="61"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
       <c r="G6" s="19">
         <f>G5*9%</f>
         <v>11241</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="61" t="s">
+      <c r="A7" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="61"/>
-      <c r="C7" s="61"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="61"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
       <c r="G7" s="19">
         <f>G5*9%</f>
         <v>11241</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="61" t="s">
+      <c r="A8" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="61"/>
-      <c r="C8" s="61"/>
-      <c r="D8" s="61"/>
-      <c r="E8" s="61"/>
-      <c r="F8" s="61"/>
+      <c r="B8" s="62"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
       <c r="G8" s="19">
         <f>SUM(G5:G7)</f>
         <v>147382</v>
@@ -1556,56 +1563,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="61" t="s">
+      <c r="A3" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
       <c r="G3" s="20">
         <f>SUM(G2)</f>
         <v>5614</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="61" t="s">
+      <c r="A4" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
       <c r="G4" s="20">
         <f>G3*9%</f>
         <v>505.26</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="61"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
       <c r="G5" s="20">
         <f>G3*9%</f>
         <v>505.26</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="61" t="s">
+      <c r="A6" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="61"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
       <c r="G6" s="20">
         <f>SUM(G3:G5)</f>
         <v>6624.52</v>
@@ -1715,56 +1722,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="61" t="s">
+      <c r="A4" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
       <c r="G4" s="21">
         <f>SUM(G2:G3)</f>
         <v>41212</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="61"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
       <c r="G5" s="21">
         <f>G4*9%</f>
         <v>3709.08</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="61" t="s">
+      <c r="A6" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="61"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
       <c r="G6" s="21">
         <f>G4*9%</f>
         <v>3709.08</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="61" t="s">
+      <c r="A7" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="61"/>
-      <c r="C7" s="61"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="61"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
       <c r="G7" s="21">
         <f>SUM(G4:G6)</f>
         <v>48630.16</v>
@@ -1849,56 +1856,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="61" t="s">
+      <c r="A3" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
       <c r="G3" s="21">
         <f>SUM(G2)</f>
         <v>24000</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="61" t="s">
+      <c r="A4" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
       <c r="G4" s="21">
         <f>G3*9%</f>
         <v>2160</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="61"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
       <c r="G5" s="21">
         <f>G3*9%</f>
         <v>2160</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="61" t="s">
+      <c r="A6" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="61"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
       <c r="G6" s="21">
         <f>SUM(G3:G5)</f>
         <v>28320</v>
@@ -2055,56 +2062,56 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="61" t="s">
+      <c r="A6" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="61"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
       <c r="G6" s="22">
         <f>SUM(G2:G5)</f>
         <v>313513</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="61" t="s">
+      <c r="A7" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="61"/>
-      <c r="C7" s="61"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="61"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
       <c r="G7" s="22">
         <f>G6*9%</f>
         <v>28216.17</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="61" t="s">
+      <c r="A8" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="61"/>
-      <c r="C8" s="61"/>
-      <c r="D8" s="61"/>
-      <c r="E8" s="61"/>
-      <c r="F8" s="61"/>
+      <c r="B8" s="62"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
       <c r="G8" s="22">
         <f>G6*9%</f>
         <v>28216.17</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="61" t="s">
+      <c r="A9" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="61"/>
-      <c r="C9" s="61"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="61"/>
+      <c r="B9" s="62"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
       <c r="G9" s="22">
         <f>SUM(G6:G8)</f>
         <v>369945.33999999997</v>
@@ -2189,56 +2196,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="61" t="s">
+      <c r="A3" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
       <c r="G3" s="22">
         <f>SUM(G2)</f>
         <v>73450</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="61" t="s">
+      <c r="A4" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
       <c r="G4" s="22">
         <f>G3*9%</f>
         <v>6610.5</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="61"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
       <c r="G5" s="22">
         <f>G3*9%</f>
         <v>6610.5</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="61" t="s">
+      <c r="A6" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="61"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
       <c r="G6" s="22">
         <f>SUM(G3:G5)</f>
         <v>86671</v>
@@ -2346,56 +2353,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="61" t="s">
+      <c r="A4" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
       <c r="G4" s="23">
         <f>SUM(G2:G3)</f>
         <v>729990</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="61"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
       <c r="G5" s="23">
         <f>G4*9%</f>
         <v>65699.099999999991</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="61" t="s">
+      <c r="A6" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="61"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
       <c r="G6" s="23">
         <f>G4*9%</f>
         <v>65699.099999999991</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="61" t="s">
+      <c r="A7" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="61"/>
-      <c r="C7" s="61"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="61"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
       <c r="G7" s="23">
         <f>SUM(G4:G6)</f>
         <v>861388.2</v>
@@ -2575,56 +2582,56 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="61" t="s">
+      <c r="A7" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="61"/>
-      <c r="C7" s="61"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="61"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
       <c r="G7" s="23">
         <f>SUM(G2:G6)</f>
         <v>246402</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="61" t="s">
+      <c r="A8" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="61"/>
-      <c r="C8" s="61"/>
-      <c r="D8" s="61"/>
-      <c r="E8" s="61"/>
-      <c r="F8" s="61"/>
+      <c r="B8" s="62"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
       <c r="G8" s="23">
         <f>G7*9%</f>
         <v>22176.18</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="61" t="s">
+      <c r="A9" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="61"/>
-      <c r="C9" s="61"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="61"/>
+      <c r="B9" s="62"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
       <c r="G9" s="23">
         <f>G7*9%</f>
         <v>22176.18</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="61" t="s">
+      <c r="A10" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="61"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="61"/>
-      <c r="E10" s="61"/>
-      <c r="F10" s="61"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
       <c r="G10" s="23">
         <f>SUM(G7:G9)</f>
         <v>290754.36</v>
@@ -2880,56 +2887,56 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="61" t="s">
+      <c r="A10" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="61"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="61"/>
-      <c r="E10" s="61"/>
-      <c r="F10" s="61"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
       <c r="G10" s="27">
         <f>SUM(G2:G9)</f>
         <v>734495</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="61" t="s">
+      <c r="A11" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="61"/>
-      <c r="C11" s="61"/>
-      <c r="D11" s="61"/>
-      <c r="E11" s="61"/>
-      <c r="F11" s="61"/>
+      <c r="B11" s="62"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="62"/>
       <c r="G11" s="27">
         <f>G10*9%</f>
         <v>66104.55</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="61" t="s">
+      <c r="A12" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="61"/>
-      <c r="C12" s="61"/>
-      <c r="D12" s="61"/>
-      <c r="E12" s="61"/>
-      <c r="F12" s="61"/>
+      <c r="B12" s="62"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="62"/>
       <c r="G12" s="27">
         <f>G10*9%</f>
         <v>66104.55</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="61" t="s">
+      <c r="A13" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="61"/>
-      <c r="C13" s="61"/>
-      <c r="D13" s="61"/>
-      <c r="E13" s="61"/>
-      <c r="F13" s="61"/>
+      <c r="B13" s="62"/>
+      <c r="C13" s="62"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="62"/>
+      <c r="F13" s="62"/>
       <c r="G13" s="27">
         <f>SUM(G10:G12)</f>
         <v>866704.10000000009</v>
@@ -3085,56 +3092,56 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="61" t="s">
+      <c r="A6" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="61"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
       <c r="G6" s="25">
         <f>SUM(G2:G5)</f>
         <v>70904</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="61" t="s">
+      <c r="A7" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="61"/>
-      <c r="C7" s="61"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="61"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
       <c r="G7" s="25">
         <f>G6*9%</f>
         <v>6381.36</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="61" t="s">
+      <c r="A8" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="61"/>
-      <c r="C8" s="61"/>
-      <c r="D8" s="61"/>
-      <c r="E8" s="61"/>
-      <c r="F8" s="61"/>
+      <c r="B8" s="62"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
       <c r="G8" s="25">
         <f>G6*9%</f>
         <v>6381.36</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="61" t="s">
+      <c r="A9" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="61"/>
-      <c r="C9" s="61"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="61"/>
+      <c r="B9" s="62"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
       <c r="G9" s="25">
         <f>SUM(G6:G8)</f>
         <v>83666.720000000001</v>
@@ -3337,56 +3344,56 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="61" t="s">
+      <c r="A8" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="61"/>
-      <c r="C8" s="61"/>
-      <c r="D8" s="61"/>
-      <c r="E8" s="61"/>
-      <c r="F8" s="61"/>
+      <c r="B8" s="62"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
       <c r="G8" s="3">
         <f>SUM(G2:G7)</f>
         <v>246185</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="61" t="s">
+      <c r="A9" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="61"/>
-      <c r="C9" s="61"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="61"/>
+      <c r="B9" s="62"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
       <c r="G9" s="3">
         <f>G8*9%</f>
         <v>22156.649999999998</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="61" t="s">
+      <c r="A10" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="61"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="61"/>
-      <c r="E10" s="61"/>
-      <c r="F10" s="61"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
       <c r="G10" s="3">
         <f>G8*9%</f>
         <v>22156.649999999998</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="61" t="s">
+      <c r="A11" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="61"/>
-      <c r="C11" s="61"/>
-      <c r="D11" s="61"/>
-      <c r="E11" s="61"/>
-      <c r="F11" s="61"/>
+      <c r="B11" s="62"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="62"/>
       <c r="G11" s="3">
         <f>SUM(G8:G10)</f>
         <v>290498.30000000005</v>
@@ -3520,56 +3527,56 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="61"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
       <c r="G5" s="28">
         <f>SUM(G2:G4)</f>
         <v>262240</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="61" t="s">
+      <c r="A6" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="61"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
       <c r="G6" s="28">
         <f>G5*9%</f>
         <v>23601.599999999999</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="61" t="s">
+      <c r="A7" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="61"/>
-      <c r="C7" s="61"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="61"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
       <c r="G7" s="28">
         <f>G5*9%</f>
         <v>23601.599999999999</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="61" t="s">
+      <c r="A8" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="61"/>
-      <c r="C8" s="61"/>
-      <c r="D8" s="61"/>
-      <c r="E8" s="61"/>
-      <c r="F8" s="61"/>
+      <c r="B8" s="62"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
       <c r="G8" s="28">
         <f>SUM(G5:G7)</f>
         <v>309443.19999999995</v>
@@ -3799,56 +3806,56 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="61" t="s">
+      <c r="A9" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="61"/>
-      <c r="C9" s="61"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="61"/>
+      <c r="B9" s="62"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
       <c r="G9" s="28">
         <f>SUM(G2:G8)</f>
         <v>322872</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="61" t="s">
+      <c r="A10" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="61"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="61"/>
-      <c r="E10" s="61"/>
-      <c r="F10" s="61"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
       <c r="G10" s="28">
         <f>G9*9%</f>
         <v>29058.48</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="61" t="s">
+      <c r="A11" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="61"/>
-      <c r="C11" s="61"/>
-      <c r="D11" s="61"/>
-      <c r="E11" s="61"/>
-      <c r="F11" s="61"/>
+      <c r="B11" s="62"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="62"/>
       <c r="G11" s="28">
         <f>G9*9%</f>
         <v>29058.48</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="61" t="s">
+      <c r="A12" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="61"/>
-      <c r="C12" s="61"/>
-      <c r="D12" s="61"/>
-      <c r="E12" s="61"/>
-      <c r="F12" s="61"/>
+      <c r="B12" s="62"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="62"/>
       <c r="G12" s="28">
         <f>SUM(G9:G11)</f>
         <v>380988.95999999996</v>
@@ -4005,56 +4012,56 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="61" t="s">
+      <c r="A6" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="61"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
       <c r="G6" s="29">
         <f>SUM(G2:G5)</f>
         <v>161752</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="61" t="s">
+      <c r="A7" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="61"/>
-      <c r="C7" s="61"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="61"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
       <c r="G7" s="29">
         <f>G6*9%</f>
         <v>14557.68</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="61" t="s">
+      <c r="A8" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="61"/>
-      <c r="C8" s="61"/>
-      <c r="D8" s="61"/>
-      <c r="E8" s="61"/>
-      <c r="F8" s="61"/>
+      <c r="B8" s="62"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
       <c r="G8" s="29">
         <f>G6*9%</f>
         <v>14557.68</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="61" t="s">
+      <c r="A9" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="61"/>
-      <c r="C9" s="61"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="61"/>
+      <c r="B9" s="62"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
       <c r="G9" s="29">
         <f>SUM(G6:G8)</f>
         <v>190867.36</v>
@@ -4138,56 +4145,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="61" t="s">
+      <c r="A3" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
       <c r="G3" s="30">
         <f>SUM(G2)</f>
         <v>18960</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="61" t="s">
+      <c r="A4" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
       <c r="G4" s="30">
         <f>G3*9%</f>
         <v>1706.3999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="61"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
       <c r="G5" s="30">
         <f>G3*9%</f>
         <v>1706.3999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="61" t="s">
+      <c r="A6" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="61"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
       <c r="G6" s="30">
         <f>SUM(G3:G5)</f>
         <v>22372.800000000003</v>
@@ -4272,56 +4279,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="61" t="s">
+      <c r="A3" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
       <c r="G3" s="32">
         <f>SUM(G2)</f>
         <v>86070</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="61" t="s">
+      <c r="A4" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
       <c r="G4" s="32">
         <f>G3*9%</f>
         <v>7746.2999999999993</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="61"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
       <c r="G5" s="32">
         <f>G3*9%</f>
         <v>7746.2999999999993</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="61" t="s">
+      <c r="A6" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="61"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
       <c r="G6" s="32">
         <f>SUM(G3:G5)</f>
         <v>101562.6</v>
@@ -4431,56 +4438,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="61" t="s">
+      <c r="A4" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
       <c r="G4" s="33">
         <f>SUM(G2:G3)</f>
         <v>113520</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="61"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
       <c r="G5" s="33">
         <f>G4*9%</f>
         <v>10216.799999999999</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="61" t="s">
+      <c r="A6" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="61"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
       <c r="G6" s="33">
         <f>G4*9%</f>
         <v>10216.799999999999</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="61" t="s">
+      <c r="A7" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="61"/>
-      <c r="C7" s="61"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="61"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
       <c r="G7" s="33">
         <f>SUM(G4:G6)</f>
         <v>133953.60000000001</v>
@@ -4566,56 +4573,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="61" t="s">
+      <c r="A3" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
       <c r="G3" s="35">
         <f>SUM(G2)</f>
         <v>19406</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="61" t="s">
+      <c r="A4" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
       <c r="G4" s="35">
         <f>G3*9%</f>
         <v>1746.54</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="61"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
       <c r="G5" s="35">
         <f>G3*9%</f>
         <v>1746.54</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="61" t="s">
+      <c r="A6" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="61"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
       <c r="G6" s="35">
         <f>SUM(G3:G5)</f>
         <v>22899.08</v>
@@ -4820,56 +4827,56 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="61" t="s">
+      <c r="A8" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="61"/>
-      <c r="C8" s="61"/>
-      <c r="D8" s="61"/>
-      <c r="E8" s="61"/>
-      <c r="F8" s="61"/>
+      <c r="B8" s="62"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
       <c r="G8" s="36">
         <f>SUM(G2:G7)</f>
         <v>305810</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="61" t="s">
+      <c r="A9" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="61"/>
-      <c r="C9" s="61"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="61"/>
+      <c r="B9" s="62"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
       <c r="G9" s="36">
         <f>G8*9%</f>
         <v>27522.899999999998</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="61" t="s">
+      <c r="A10" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="61"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="61"/>
-      <c r="E10" s="61"/>
-      <c r="F10" s="61"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
       <c r="G10" s="36">
         <f>G8*9%</f>
         <v>27522.899999999998</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="61" t="s">
+      <c r="A11" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="61"/>
-      <c r="C11" s="61"/>
-      <c r="D11" s="61"/>
-      <c r="E11" s="61"/>
-      <c r="F11" s="61"/>
+      <c r="B11" s="62"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="62"/>
       <c r="G11" s="36">
         <f>SUM(G8:G10)</f>
         <v>360855.80000000005</v>
@@ -5000,56 +5007,56 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="61"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
       <c r="G5" s="42">
         <f>SUM(G2:G4)</f>
         <v>155660</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="61" t="s">
+      <c r="A6" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="61"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
       <c r="G6" s="42">
         <f>G5*9%</f>
         <v>14009.4</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="61" t="s">
+      <c r="A7" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="61"/>
-      <c r="C7" s="61"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="61"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
       <c r="G7" s="42">
         <f>G5*9%</f>
         <v>14009.4</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="61" t="s">
+      <c r="A8" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="61"/>
-      <c r="C8" s="61"/>
-      <c r="D8" s="61"/>
-      <c r="E8" s="61"/>
-      <c r="F8" s="61"/>
+      <c r="B8" s="62"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
       <c r="G8" s="42">
         <f>SUM(G5:G7)</f>
         <v>183678.8</v>
@@ -5180,56 +5187,56 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="61"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
       <c r="G5" s="43">
         <f>SUM(G2:G4)</f>
         <v>95390</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="61" t="s">
+      <c r="A6" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="61"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
       <c r="G6" s="43">
         <f>G5*9%</f>
         <v>8585.1</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="61" t="s">
+      <c r="A7" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="61"/>
-      <c r="C7" s="61"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="61"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
       <c r="G7" s="43">
         <f>G5*9%</f>
         <v>8585.1</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="61" t="s">
+      <c r="A8" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="61"/>
-      <c r="C8" s="61"/>
-      <c r="D8" s="61"/>
-      <c r="E8" s="61"/>
-      <c r="F8" s="61"/>
+      <c r="B8" s="62"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
       <c r="G8" s="43">
         <f>SUM(G5:G7)</f>
         <v>112560.20000000001</v>
@@ -5313,56 +5320,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="61" t="s">
+      <c r="A3" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
       <c r="G3" s="11">
         <f>SUM(G2)</f>
         <v>4831</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="61" t="s">
+      <c r="A4" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
       <c r="G4" s="11">
         <f>G3*9%</f>
         <v>434.78999999999996</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="61"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
       <c r="G5" s="11">
         <f>G3*9%</f>
         <v>434.78999999999996</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="61" t="s">
+      <c r="A6" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="61"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
       <c r="G6" s="11">
         <f>SUM(G3:G5)</f>
         <v>5700.58</v>
@@ -5445,56 +5452,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="61" t="s">
+      <c r="A3" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
       <c r="G3" s="43">
         <f>SUM(G2)</f>
         <v>56140</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="61" t="s">
+      <c r="A4" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
       <c r="G4" s="43">
         <f>G3*9%</f>
         <v>5052.5999999999995</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="61"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
       <c r="G5" s="43">
         <f>G3*9%</f>
         <v>5052.5999999999995</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="61" t="s">
+      <c r="A6" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="61"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
       <c r="G6" s="43">
         <f>SUM(G3:G5)</f>
         <v>66245.2</v>
@@ -5578,56 +5585,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="61" t="s">
+      <c r="A3" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
       <c r="G3" s="44">
         <f>SUM(G2)</f>
         <v>48310</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="61" t="s">
+      <c r="A4" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
       <c r="G4" s="44">
         <f>G3*9%</f>
         <v>4347.8999999999996</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="61"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
       <c r="G5" s="44">
         <f>G3*9%</f>
         <v>4347.8999999999996</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="61" t="s">
+      <c r="A6" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="61"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
       <c r="G6" s="44">
         <f>SUM(G3:G5)</f>
         <v>57005.8</v>
@@ -5733,56 +5740,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="61" t="s">
+      <c r="A4" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
       <c r="G4" s="46">
         <f>SUM(G2:G3)</f>
         <v>122290</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="61"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
       <c r="G5" s="46">
         <f>G4*9%</f>
         <v>11006.1</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="61" t="s">
+      <c r="A6" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="61"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
       <c r="G6" s="46">
         <f>G4*9%</f>
         <v>11006.1</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="61" t="s">
+      <c r="A7" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="61"/>
-      <c r="C7" s="61"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="61"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
       <c r="G7" s="46">
         <f>SUM(G4:G6)</f>
         <v>144302.20000000001</v>
@@ -5803,8 +5810,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A19" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5823,12 +5830,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="71" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
       <c r="E1" s="48"/>
     </row>
     <row r="2" spans="1:5" ht="15.6">
@@ -6029,12 +6036,12 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.6">
-      <c r="A13" s="64" t="s">
+      <c r="A13" s="65" t="s">
         <v>91</v>
       </c>
-      <c r="B13" s="65"/>
-      <c r="C13" s="65"/>
-      <c r="D13" s="66"/>
+      <c r="B13" s="66"/>
+      <c r="C13" s="66"/>
+      <c r="D13" s="67"/>
       <c r="E13" s="52">
         <f>SUM(E3:E12)</f>
         <v>1083930</v>
@@ -6048,12 +6055,12 @@
       <c r="E14" s="54"/>
     </row>
     <row r="15" spans="1:5" ht="21">
-      <c r="A15" s="67" t="s">
+      <c r="A15" s="68" t="s">
         <v>92</v>
       </c>
-      <c r="B15" s="68"/>
-      <c r="C15" s="68"/>
-      <c r="D15" s="69"/>
+      <c r="B15" s="69"/>
+      <c r="C15" s="69"/>
+      <c r="D15" s="70"/>
       <c r="E15" s="53"/>
     </row>
     <row r="16" spans="1:5" ht="15.6">
@@ -6326,12 +6333,12 @@
       </c>
     </row>
     <row r="31" spans="1:14" ht="31.2">
-      <c r="A31" s="64" t="s">
+      <c r="A31" s="65" t="s">
         <v>94</v>
       </c>
-      <c r="B31" s="65"/>
-      <c r="C31" s="65"/>
-      <c r="D31" s="66"/>
+      <c r="B31" s="66"/>
+      <c r="C31" s="66"/>
+      <c r="D31" s="67"/>
       <c r="E31" s="52">
         <f>SUM(E17:E30)</f>
         <v>778190</v>
@@ -6353,12 +6360,12 @@
       </c>
     </row>
     <row r="32" spans="1:14" ht="15.6">
-      <c r="A32" s="64" t="s">
+      <c r="A32" s="65" t="s">
         <v>125</v>
       </c>
-      <c r="B32" s="65"/>
-      <c r="C32" s="65"/>
-      <c r="D32" s="66"/>
+      <c r="B32" s="66"/>
+      <c r="C32" s="66"/>
+      <c r="D32" s="67"/>
       <c r="E32" s="52">
         <f>E13+E31</f>
         <v>1862120</v>
@@ -6385,36 +6392,36 @@
       <c r="N32" s="60"/>
     </row>
     <row r="33" spans="1:10" ht="15.6">
-      <c r="A33" s="64" t="s">
+      <c r="A33" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="B33" s="65"/>
-      <c r="C33" s="65"/>
-      <c r="D33" s="66"/>
+      <c r="B33" s="66"/>
+      <c r="C33" s="66"/>
+      <c r="D33" s="67"/>
       <c r="E33" s="52">
         <f>E32*9%</f>
         <v>167590.79999999999</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="15.6">
-      <c r="A34" s="64" t="s">
+      <c r="A34" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="B34" s="65"/>
-      <c r="C34" s="65"/>
-      <c r="D34" s="66"/>
+      <c r="B34" s="66"/>
+      <c r="C34" s="66"/>
+      <c r="D34" s="67"/>
       <c r="E34" s="52">
         <f>E32*9%</f>
         <v>167590.79999999999</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="15.6">
-      <c r="A35" s="64" t="s">
+      <c r="A35" s="65" t="s">
         <v>95</v>
       </c>
-      <c r="B35" s="65"/>
-      <c r="C35" s="65"/>
-      <c r="D35" s="66"/>
+      <c r="B35" s="66"/>
+      <c r="C35" s="66"/>
+      <c r="D35" s="67"/>
       <c r="E35" s="52">
         <f>SUM(E32:E34)</f>
         <v>2197301.6</v>
@@ -6547,56 +6554,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="61" t="s">
+      <c r="A3" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
       <c r="G3" s="56">
         <f>SUM(G2)</f>
         <v>33684</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="61" t="s">
+      <c r="A4" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
       <c r="G4" s="56">
         <f>G3*9%</f>
         <v>3031.56</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="61"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
       <c r="G5" s="56">
         <f>G3*9%</f>
         <v>3031.56</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="61" t="s">
+      <c r="A6" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="61"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
       <c r="G6" s="56">
         <f>SUM(G3:G5)</f>
         <v>39747.119999999995</v>
@@ -6608,6 +6615,697 @@
     <mergeCell ref="A4:F4"/>
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="A6:F6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N71"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31:M32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="12" style="26" customWidth="1"/>
+    <col min="2" max="2" width="82.6640625" style="26" customWidth="1"/>
+    <col min="3" max="3" width="6.88671875" style="26" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="26"/>
+    <col min="5" max="5" width="10.44140625" style="26" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="8.88671875" style="26"/>
+    <col min="9" max="10" width="9.33203125" style="26" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5546875" style="26" customWidth="1"/>
+    <col min="12" max="12" width="14.109375" style="26" customWidth="1"/>
+    <col min="13" max="13" width="8.33203125" style="26" customWidth="1"/>
+    <col min="14" max="16384" width="8.88671875" style="26"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="21">
+      <c r="A1" s="71" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="48"/>
+    </row>
+    <row r="2" spans="1:5" ht="15.6">
+      <c r="A2" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="49" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="49" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="19.2" customHeight="1">
+      <c r="A3" s="50">
+        <v>1</v>
+      </c>
+      <c r="B3" s="50" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3" s="50">
+        <v>4</v>
+      </c>
+      <c r="D3" s="51">
+        <v>84690</v>
+      </c>
+      <c r="E3" s="51">
+        <f t="shared" ref="E3:E12" si="0">C3*D3</f>
+        <v>338760</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="17.399999999999999" customHeight="1">
+      <c r="A4" s="50">
+        <v>2</v>
+      </c>
+      <c r="B4" s="50" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4" s="50">
+        <v>12</v>
+      </c>
+      <c r="D4" s="51">
+        <v>8400</v>
+      </c>
+      <c r="E4" s="51">
+        <f t="shared" si="0"/>
+        <v>100800</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="18.600000000000001" customHeight="1">
+      <c r="A5" s="50">
+        <v>3</v>
+      </c>
+      <c r="B5" s="50" t="s">
+        <v>100</v>
+      </c>
+      <c r="C5" s="50">
+        <v>4</v>
+      </c>
+      <c r="D5" s="51">
+        <v>24400</v>
+      </c>
+      <c r="E5" s="51">
+        <f t="shared" si="0"/>
+        <v>97600</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="16.8" customHeight="1">
+      <c r="A6" s="50">
+        <v>4</v>
+      </c>
+      <c r="B6" s="50" t="s">
+        <v>101</v>
+      </c>
+      <c r="C6" s="50">
+        <v>1</v>
+      </c>
+      <c r="D6" s="51">
+        <v>162400</v>
+      </c>
+      <c r="E6" s="51">
+        <f t="shared" si="0"/>
+        <v>162400</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="16.2" customHeight="1">
+      <c r="A7" s="50">
+        <v>5</v>
+      </c>
+      <c r="B7" s="50" t="s">
+        <v>102</v>
+      </c>
+      <c r="C7" s="50">
+        <v>1</v>
+      </c>
+      <c r="D7" s="51">
+        <v>15000</v>
+      </c>
+      <c r="E7" s="51">
+        <f t="shared" si="0"/>
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="30" customHeight="1">
+      <c r="A8" s="50">
+        <v>6</v>
+      </c>
+      <c r="B8" s="50" t="s">
+        <v>103</v>
+      </c>
+      <c r="C8" s="50">
+        <v>4</v>
+      </c>
+      <c r="D8" s="51">
+        <v>49400</v>
+      </c>
+      <c r="E8" s="51">
+        <f t="shared" si="0"/>
+        <v>197600</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="19.2" customHeight="1">
+      <c r="A9" s="50">
+        <v>7</v>
+      </c>
+      <c r="B9" s="50" t="s">
+        <v>119</v>
+      </c>
+      <c r="C9" s="50">
+        <v>2</v>
+      </c>
+      <c r="D9" s="51">
+        <v>5990</v>
+      </c>
+      <c r="E9" s="51">
+        <f t="shared" si="0"/>
+        <v>11980</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="16.8" customHeight="1">
+      <c r="A10" s="50">
+        <v>8</v>
+      </c>
+      <c r="B10" s="50" t="s">
+        <v>104</v>
+      </c>
+      <c r="C10" s="50">
+        <v>8</v>
+      </c>
+      <c r="D10" s="51">
+        <v>10880</v>
+      </c>
+      <c r="E10" s="51">
+        <f t="shared" si="0"/>
+        <v>87040</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="16.2" customHeight="1">
+      <c r="A11" s="50">
+        <v>9</v>
+      </c>
+      <c r="B11" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="C11" s="50">
+        <v>2</v>
+      </c>
+      <c r="D11" s="51">
+        <v>18380</v>
+      </c>
+      <c r="E11" s="51">
+        <f t="shared" si="0"/>
+        <v>36760</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.6">
+      <c r="A12" s="50">
+        <v>10</v>
+      </c>
+      <c r="B12" s="50" t="s">
+        <v>105</v>
+      </c>
+      <c r="C12" s="50">
+        <v>1</v>
+      </c>
+      <c r="D12" s="51">
+        <v>35990</v>
+      </c>
+      <c r="E12" s="51">
+        <f t="shared" si="0"/>
+        <v>35990</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.6">
+      <c r="A13" s="65" t="s">
+        <v>91</v>
+      </c>
+      <c r="B13" s="66"/>
+      <c r="C13" s="66"/>
+      <c r="D13" s="67"/>
+      <c r="E13" s="52">
+        <f>SUM(E3:E12)</f>
+        <v>1083930</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.6">
+      <c r="A14" s="53"/>
+      <c r="B14" s="53"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="54"/>
+    </row>
+    <row r="15" spans="1:5" ht="21">
+      <c r="A15" s="68" t="s">
+        <v>92</v>
+      </c>
+      <c r="B15" s="69"/>
+      <c r="C15" s="69"/>
+      <c r="D15" s="70"/>
+      <c r="E15" s="53"/>
+    </row>
+    <row r="16" spans="1:5" ht="15.6">
+      <c r="A16" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="49" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="49" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="15.6">
+      <c r="A17" s="50">
+        <v>1</v>
+      </c>
+      <c r="B17" s="50" t="s">
+        <v>96</v>
+      </c>
+      <c r="C17" s="50">
+        <v>4</v>
+      </c>
+      <c r="D17" s="51">
+        <v>24990</v>
+      </c>
+      <c r="E17" s="51">
+        <f t="shared" ref="E17:E30" si="1">C17*D17</f>
+        <v>99960</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="19.8" customHeight="1">
+      <c r="A18" s="50">
+        <v>2</v>
+      </c>
+      <c r="B18" s="50" t="s">
+        <v>97</v>
+      </c>
+      <c r="C18" s="50">
+        <v>1</v>
+      </c>
+      <c r="D18" s="51">
+        <v>7600</v>
+      </c>
+      <c r="E18" s="51">
+        <f t="shared" si="1"/>
+        <v>7600</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="12" customHeight="1">
+      <c r="A19" s="50">
+        <v>3</v>
+      </c>
+      <c r="B19" s="50" t="s">
+        <v>106</v>
+      </c>
+      <c r="C19" s="50">
+        <v>6</v>
+      </c>
+      <c r="D19" s="51">
+        <v>2600</v>
+      </c>
+      <c r="E19" s="51">
+        <f t="shared" si="1"/>
+        <v>15600</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="15.6">
+      <c r="A20" s="50">
+        <v>4</v>
+      </c>
+      <c r="B20" s="50" t="s">
+        <v>107</v>
+      </c>
+      <c r="C20" s="50">
+        <v>36</v>
+      </c>
+      <c r="D20" s="51">
+        <v>180</v>
+      </c>
+      <c r="E20" s="51">
+        <f t="shared" si="1"/>
+        <v>6480</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="15.6">
+      <c r="A21" s="50">
+        <v>5</v>
+      </c>
+      <c r="B21" s="48" t="s">
+        <v>108</v>
+      </c>
+      <c r="C21" s="50">
+        <v>60</v>
+      </c>
+      <c r="D21" s="51">
+        <v>80</v>
+      </c>
+      <c r="E21" s="51">
+        <f t="shared" si="1"/>
+        <v>4800</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="15.6">
+      <c r="A22" s="50">
+        <v>6</v>
+      </c>
+      <c r="B22" s="50" t="s">
+        <v>109</v>
+      </c>
+      <c r="C22" s="50">
+        <v>1</v>
+      </c>
+      <c r="D22" s="51">
+        <v>400</v>
+      </c>
+      <c r="E22" s="51">
+        <f t="shared" si="1"/>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="15.6">
+      <c r="A23" s="50">
+        <v>7</v>
+      </c>
+      <c r="B23" s="50" t="s">
+        <v>110</v>
+      </c>
+      <c r="C23" s="50">
+        <v>36</v>
+      </c>
+      <c r="D23" s="51">
+        <v>180</v>
+      </c>
+      <c r="E23" s="51">
+        <f t="shared" si="1"/>
+        <v>6480</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="31.2">
+      <c r="A24" s="50">
+        <v>8</v>
+      </c>
+      <c r="B24" s="50" t="s">
+        <v>111</v>
+      </c>
+      <c r="C24" s="50">
+        <v>3189</v>
+      </c>
+      <c r="D24" s="51">
+        <v>120</v>
+      </c>
+      <c r="E24" s="51">
+        <f t="shared" si="1"/>
+        <v>382680</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="15.6">
+      <c r="A25" s="50">
+        <v>9</v>
+      </c>
+      <c r="B25" s="50" t="s">
+        <v>114</v>
+      </c>
+      <c r="C25" s="50">
+        <v>4</v>
+      </c>
+      <c r="D25" s="51">
+        <v>11160</v>
+      </c>
+      <c r="E25" s="51">
+        <f t="shared" si="1"/>
+        <v>44640</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="15.6">
+      <c r="A26" s="50">
+        <v>10</v>
+      </c>
+      <c r="B26" s="50" t="s">
+        <v>115</v>
+      </c>
+      <c r="C26" s="50">
+        <v>2</v>
+      </c>
+      <c r="D26" s="51">
+        <v>5800</v>
+      </c>
+      <c r="E26" s="51">
+        <f t="shared" si="1"/>
+        <v>11600</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="15.6">
+      <c r="A27" s="50">
+        <v>11</v>
+      </c>
+      <c r="B27" s="50" t="s">
+        <v>113</v>
+      </c>
+      <c r="C27" s="50">
+        <v>60</v>
+      </c>
+      <c r="D27" s="51">
+        <v>300</v>
+      </c>
+      <c r="E27" s="51">
+        <f t="shared" si="1"/>
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="19.2" customHeight="1">
+      <c r="A28" s="50">
+        <v>12</v>
+      </c>
+      <c r="B28" s="50" t="s">
+        <v>112</v>
+      </c>
+      <c r="C28" s="50">
+        <v>10</v>
+      </c>
+      <c r="D28" s="51">
+        <v>1000</v>
+      </c>
+      <c r="E28" s="51">
+        <f t="shared" si="1"/>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="19.2" customHeight="1">
+      <c r="A29" s="50">
+        <v>13</v>
+      </c>
+      <c r="B29" s="50" t="s">
+        <v>116</v>
+      </c>
+      <c r="C29" s="50">
+        <v>21</v>
+      </c>
+      <c r="D29" s="51">
+        <v>950</v>
+      </c>
+      <c r="E29" s="51">
+        <f t="shared" si="1"/>
+        <v>19950</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="17.399999999999999" customHeight="1">
+      <c r="A30" s="50">
+        <v>14</v>
+      </c>
+      <c r="B30" s="55" t="s">
+        <v>93</v>
+      </c>
+      <c r="C30" s="50">
+        <v>1</v>
+      </c>
+      <c r="D30" s="51">
+        <v>150000</v>
+      </c>
+      <c r="E30" s="51">
+        <f t="shared" si="1"/>
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="15.6" customHeight="1">
+      <c r="A31" s="65" t="s">
+        <v>94</v>
+      </c>
+      <c r="B31" s="66"/>
+      <c r="C31" s="66"/>
+      <c r="D31" s="67"/>
+      <c r="E31" s="52">
+        <f>SUM(E17:E30)</f>
+        <v>778190</v>
+      </c>
+      <c r="I31" s="59" t="s">
+        <v>122</v>
+      </c>
+      <c r="J31" s="59" t="s">
+        <v>8</v>
+      </c>
+      <c r="K31" s="59" t="s">
+        <v>9</v>
+      </c>
+      <c r="L31" s="59" t="s">
+        <v>123</v>
+      </c>
+      <c r="M31" s="59" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="15.6">
+      <c r="A32" s="65" t="s">
+        <v>125</v>
+      </c>
+      <c r="B32" s="66"/>
+      <c r="C32" s="66"/>
+      <c r="D32" s="67"/>
+      <c r="E32" s="52">
+        <f>E13+E31</f>
+        <v>1862120</v>
+      </c>
+      <c r="I32" s="55">
+        <f>E32*9%</f>
+        <v>167590.79999999999</v>
+      </c>
+      <c r="J32" s="55">
+        <f>E32*9%</f>
+        <v>167590.79999999999</v>
+      </c>
+      <c r="K32" s="55">
+        <f>E32+I32+J32</f>
+        <v>2197301.6</v>
+      </c>
+      <c r="L32" s="55">
+        <v>1364617</v>
+      </c>
+      <c r="M32" s="55">
+        <f>K32-L32</f>
+        <v>832684.60000000009</v>
+      </c>
+      <c r="N32" s="60"/>
+    </row>
+    <row r="33" spans="1:5" ht="15.6">
+      <c r="A33" s="65" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" s="66"/>
+      <c r="C33" s="66"/>
+      <c r="D33" s="67"/>
+      <c r="E33" s="52">
+        <f>E32*9%</f>
+        <v>167590.79999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="15.6">
+      <c r="A34" s="65" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34" s="66"/>
+      <c r="C34" s="66"/>
+      <c r="D34" s="67"/>
+      <c r="E34" s="52">
+        <f>E32*9%</f>
+        <v>167590.79999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="15.6">
+      <c r="A35" s="65" t="s">
+        <v>95</v>
+      </c>
+      <c r="B35" s="66"/>
+      <c r="C35" s="66"/>
+      <c r="D35" s="67"/>
+      <c r="E35" s="52">
+        <f>SUM(E32:E34)</f>
+        <v>2197301.6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" s="57" customFormat="1"/>
+    <row r="37" spans="1:5" s="57" customFormat="1">
+      <c r="A37" s="61"/>
+    </row>
+    <row r="38" spans="1:5" ht="28.8">
+      <c r="A38" s="61" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" s="57" customFormat="1">
+      <c r="A58" s="58" t="s">
+        <v>6</v>
+      </c>
+      <c r="B58" s="58">
+        <v>1861170</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="A59" s="58" t="s">
+        <v>120</v>
+      </c>
+      <c r="B59" s="58">
+        <f>B58*18%</f>
+        <v>335010.59999999998</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
+      <c r="A60" s="58" t="s">
+        <v>9</v>
+      </c>
+      <c r="B60" s="58">
+        <v>2196180</v>
+      </c>
+      <c r="J60" s="57">
+        <f>E35-1364617</f>
+        <v>832684.60000000009</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" s="57" customFormat="1"/>
+    <row r="70" spans="1:2" s="57" customFormat="1" ht="28.8">
+      <c r="A70" s="48" t="s">
+        <v>117</v>
+      </c>
+      <c r="B70" s="48">
+        <v>1364617</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" s="57" customFormat="1" ht="28.8">
+      <c r="A71" s="48" t="s">
+        <v>118</v>
+      </c>
+      <c r="B71" s="48">
+        <v>831563</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="A33:D33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6827,56 +7525,56 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="61" t="s">
+      <c r="A9" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="61"/>
-      <c r="C9" s="61"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="61"/>
+      <c r="B9" s="62"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
       <c r="G9" s="11">
         <f>SUM(G2:G8)</f>
         <v>249351</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="61" t="s">
+      <c r="A10" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="61"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="61"/>
-      <c r="E10" s="61"/>
-      <c r="F10" s="61"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
       <c r="G10" s="11">
         <f>G9*9%</f>
         <v>22441.59</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="61" t="s">
+      <c r="A11" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="61"/>
-      <c r="C11" s="61"/>
-      <c r="D11" s="61"/>
-      <c r="E11" s="61"/>
-      <c r="F11" s="61"/>
+      <c r="B11" s="62"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="62"/>
       <c r="G11" s="11">
         <f>G9*9%</f>
         <v>22441.59</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="61" t="s">
+      <c r="A12" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="61"/>
-      <c r="C12" s="61"/>
-      <c r="D12" s="61"/>
-      <c r="E12" s="61"/>
-      <c r="F12" s="61"/>
+      <c r="B12" s="62"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="62"/>
       <c r="G12" s="11">
         <f>SUM(G9:G11)</f>
         <v>294234.18000000005</v>
@@ -6982,56 +7680,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="61" t="s">
+      <c r="A4" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
       <c r="G4" s="12">
         <f>SUM(G2:G3)</f>
         <v>132820</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="61"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
       <c r="G5" s="12">
         <f>G4*9%</f>
         <v>11953.8</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="61" t="s">
+      <c r="A6" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="61"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
       <c r="G6" s="12">
         <f>G4*9%</f>
         <v>11953.8</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="61" t="s">
+      <c r="A7" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="61"/>
-      <c r="C7" s="61"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="61"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
       <c r="G7" s="12">
         <f>SUM(G4:G6)</f>
         <v>156727.59999999998</v>
@@ -7100,48 +7798,48 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
       <c r="E3" s="17">
         <f>SUM(E2)</f>
         <v>18560</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
       <c r="E4" s="17">
         <f>E3*9%</f>
         <v>1670.3999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
       <c r="E5" s="17">
         <f>E3*9%</f>
         <v>1670.3999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="63"/>
-      <c r="C6" s="63"/>
-      <c r="D6" s="63"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
       <c r="E6" s="17">
         <f>SUM(E3:E5)</f>
         <v>21900.800000000003</v>
@@ -7251,56 +7949,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="61" t="s">
+      <c r="A4" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
       <c r="G4" s="13">
         <f>SUM(G2:G3)</f>
         <v>128790</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="61"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
       <c r="G5" s="13">
         <f>G4*9%</f>
         <v>11591.1</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="61" t="s">
+      <c r="A6" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="61"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
       <c r="G6" s="13">
         <f>G4*9%</f>
         <v>11591.1</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="61" t="s">
+      <c r="A7" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="61"/>
-      <c r="C7" s="61"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="61"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
       <c r="G7" s="13">
         <f>SUM(G4:G6)</f>
         <v>151972.20000000001</v>
@@ -7410,56 +8108,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="61" t="s">
+      <c r="A4" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
       <c r="G4" s="18">
         <f>SUM(G2:G3)</f>
         <v>196927</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="61"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
       <c r="G5" s="18">
         <f>G4*9%</f>
         <v>17723.43</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="61" t="s">
+      <c r="A6" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="61"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
       <c r="G6" s="18">
         <f>G4*9%</f>
         <v>17723.43</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="61" t="s">
+      <c r="A7" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="61"/>
-      <c r="C7" s="61"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="61"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
       <c r="G7" s="18">
         <f>SUM(G4:G6)</f>
         <v>232373.86</v>
@@ -7592,56 +8290,56 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="61"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
       <c r="G5" s="19">
         <f>SUM(G2:G4)</f>
         <v>189083</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="61" t="s">
+      <c r="A6" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="61"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
       <c r="G6" s="19">
         <f>G5*9%</f>
         <v>17017.47</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="61" t="s">
+      <c r="A7" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="61"/>
-      <c r="C7" s="61"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="61"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
       <c r="G7" s="19">
         <f>G5*9%</f>
         <v>17017.47</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="61" t="s">
+      <c r="A8" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="61"/>
-      <c r="C8" s="61"/>
-      <c r="D8" s="61"/>
-      <c r="E8" s="61"/>
-      <c r="F8" s="61"/>
+      <c r="B8" s="62"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
       <c r="G8" s="19">
         <f>SUM(G5:G7)</f>
         <v>223117.94</v>

--- a/Invoices/Invoices.xlsx
+++ b/Invoices/Invoices.xlsx
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="132">
   <si>
     <t>Sr. No</t>
   </si>
@@ -433,7 +433,22 @@
     <t>TOTAL (1) + (2)</t>
   </si>
   <si>
-    <t xml:space="preserve">Scafolding Charges - </t>
+    <t>Extra Charges</t>
+  </si>
+  <si>
+    <t>Grand Total (1+2+3+4+5+6)</t>
+  </si>
+  <si>
+    <t>3) TOTAL (1) + (2)</t>
+  </si>
+  <si>
+    <t>5) CSGT 9%</t>
+  </si>
+  <si>
+    <t>6) SGST 9%</t>
+  </si>
+  <si>
+    <t>4) Scafolding Movement Charges - 1000/- per pole i.e 4000/-</t>
   </si>
 </sst>
 </file>
@@ -793,9 +808,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -825,6 +837,9 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1246,56 +1261,56 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
       <c r="G6" s="2">
         <f>SUM(G2:G5)</f>
         <v>91479</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="62" t="s">
+      <c r="A7" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="62"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
+      <c r="B7" s="61"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
       <c r="G7" s="2">
         <f>G6*9%</f>
         <v>8233.11</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="62" t="s">
+      <c r="A8" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="62"/>
-      <c r="C8" s="62"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
+      <c r="B8" s="61"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="61"/>
       <c r="G8" s="2">
         <f>G6*9%</f>
         <v>8233.11</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="14.4" customHeight="1">
-      <c r="A9" s="62" t="s">
+      <c r="A9" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="62"/>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
+      <c r="B9" s="61"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="61"/>
       <c r="G9" s="2">
         <f>SUM(G6:G8)</f>
         <v>107945.22</v>
@@ -1430,56 +1445,56 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
       <c r="G5" s="19">
         <f>SUM(G2:G4)</f>
         <v>124900</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
       <c r="G6" s="19">
         <f>G5*9%</f>
         <v>11241</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="62" t="s">
+      <c r="A7" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="62"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
+      <c r="B7" s="61"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
       <c r="G7" s="19">
         <f>G5*9%</f>
         <v>11241</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="62" t="s">
+      <c r="A8" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="62"/>
-      <c r="C8" s="62"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
+      <c r="B8" s="61"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="61"/>
       <c r="G8" s="19">
         <f>SUM(G5:G7)</f>
         <v>147382</v>
@@ -1563,56 +1578,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
       <c r="G3" s="20">
         <f>SUM(G2)</f>
         <v>5614</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
       <c r="G4" s="20">
         <f>G3*9%</f>
         <v>505.26</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
       <c r="G5" s="20">
         <f>G3*9%</f>
         <v>505.26</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
       <c r="G6" s="20">
         <f>SUM(G3:G5)</f>
         <v>6624.52</v>
@@ -1722,56 +1737,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
       <c r="G4" s="21">
         <f>SUM(G2:G3)</f>
         <v>41212</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
       <c r="G5" s="21">
         <f>G4*9%</f>
         <v>3709.08</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
       <c r="G6" s="21">
         <f>G4*9%</f>
         <v>3709.08</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="62" t="s">
+      <c r="A7" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="62"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
+      <c r="B7" s="61"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
       <c r="G7" s="21">
         <f>SUM(G4:G6)</f>
         <v>48630.16</v>
@@ -1856,56 +1871,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
       <c r="G3" s="21">
         <f>SUM(G2)</f>
         <v>24000</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
       <c r="G4" s="21">
         <f>G3*9%</f>
         <v>2160</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
       <c r="G5" s="21">
         <f>G3*9%</f>
         <v>2160</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
       <c r="G6" s="21">
         <f>SUM(G3:G5)</f>
         <v>28320</v>
@@ -2062,56 +2077,56 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
       <c r="G6" s="22">
         <f>SUM(G2:G5)</f>
         <v>313513</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="62" t="s">
+      <c r="A7" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="62"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
+      <c r="B7" s="61"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
       <c r="G7" s="22">
         <f>G6*9%</f>
         <v>28216.17</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="62" t="s">
+      <c r="A8" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="62"/>
-      <c r="C8" s="62"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
+      <c r="B8" s="61"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="61"/>
       <c r="G8" s="22">
         <f>G6*9%</f>
         <v>28216.17</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="62" t="s">
+      <c r="A9" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="62"/>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
+      <c r="B9" s="61"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="61"/>
       <c r="G9" s="22">
         <f>SUM(G6:G8)</f>
         <v>369945.33999999997</v>
@@ -2196,56 +2211,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
       <c r="G3" s="22">
         <f>SUM(G2)</f>
         <v>73450</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
       <c r="G4" s="22">
         <f>G3*9%</f>
         <v>6610.5</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
       <c r="G5" s="22">
         <f>G3*9%</f>
         <v>6610.5</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
       <c r="G6" s="22">
         <f>SUM(G3:G5)</f>
         <v>86671</v>
@@ -2353,56 +2368,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
       <c r="G4" s="23">
         <f>SUM(G2:G3)</f>
         <v>729990</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
       <c r="G5" s="23">
         <f>G4*9%</f>
         <v>65699.099999999991</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
       <c r="G6" s="23">
         <f>G4*9%</f>
         <v>65699.099999999991</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="62" t="s">
+      <c r="A7" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="62"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
+      <c r="B7" s="61"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
       <c r="G7" s="23">
         <f>SUM(G4:G6)</f>
         <v>861388.2</v>
@@ -2582,56 +2597,56 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="62" t="s">
+      <c r="A7" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="62"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
+      <c r="B7" s="61"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
       <c r="G7" s="23">
         <f>SUM(G2:G6)</f>
         <v>246402</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="62" t="s">
+      <c r="A8" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="62"/>
-      <c r="C8" s="62"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
+      <c r="B8" s="61"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="61"/>
       <c r="G8" s="23">
         <f>G7*9%</f>
         <v>22176.18</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="62" t="s">
+      <c r="A9" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="62"/>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
+      <c r="B9" s="61"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="61"/>
       <c r="G9" s="23">
         <f>G7*9%</f>
         <v>22176.18</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="62" t="s">
+      <c r="A10" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="62"/>
-      <c r="C10" s="62"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="62"/>
+      <c r="B10" s="61"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="61"/>
       <c r="G10" s="23">
         <f>SUM(G7:G9)</f>
         <v>290754.36</v>
@@ -2887,56 +2902,56 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="62" t="s">
+      <c r="A10" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="62"/>
-      <c r="C10" s="62"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="62"/>
+      <c r="B10" s="61"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="61"/>
       <c r="G10" s="27">
         <f>SUM(G2:G9)</f>
         <v>734495</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="62" t="s">
+      <c r="A11" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="62"/>
-      <c r="C11" s="62"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="62"/>
+      <c r="B11" s="61"/>
+      <c r="C11" s="61"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="61"/>
       <c r="G11" s="27">
         <f>G10*9%</f>
         <v>66104.55</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="62" t="s">
+      <c r="A12" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="62"/>
-      <c r="C12" s="62"/>
-      <c r="D12" s="62"/>
-      <c r="E12" s="62"/>
-      <c r="F12" s="62"/>
+      <c r="B12" s="61"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="61"/>
       <c r="G12" s="27">
         <f>G10*9%</f>
         <v>66104.55</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="62" t="s">
+      <c r="A13" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="62"/>
-      <c r="C13" s="62"/>
-      <c r="D13" s="62"/>
-      <c r="E13" s="62"/>
-      <c r="F13" s="62"/>
+      <c r="B13" s="61"/>
+      <c r="C13" s="61"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="61"/>
       <c r="G13" s="27">
         <f>SUM(G10:G12)</f>
         <v>866704.10000000009</v>
@@ -3092,56 +3107,56 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
       <c r="G6" s="25">
         <f>SUM(G2:G5)</f>
         <v>70904</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="62" t="s">
+      <c r="A7" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="62"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
+      <c r="B7" s="61"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
       <c r="G7" s="25">
         <f>G6*9%</f>
         <v>6381.36</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="62" t="s">
+      <c r="A8" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="62"/>
-      <c r="C8" s="62"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
+      <c r="B8" s="61"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="61"/>
       <c r="G8" s="25">
         <f>G6*9%</f>
         <v>6381.36</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="62" t="s">
+      <c r="A9" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="62"/>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
+      <c r="B9" s="61"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="61"/>
       <c r="G9" s="25">
         <f>SUM(G6:G8)</f>
         <v>83666.720000000001</v>
@@ -3344,56 +3359,56 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="62" t="s">
+      <c r="A8" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="62"/>
-      <c r="C8" s="62"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
+      <c r="B8" s="61"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="61"/>
       <c r="G8" s="3">
         <f>SUM(G2:G7)</f>
         <v>246185</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="62" t="s">
+      <c r="A9" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="62"/>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
+      <c r="B9" s="61"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="61"/>
       <c r="G9" s="3">
         <f>G8*9%</f>
         <v>22156.649999999998</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="62" t="s">
+      <c r="A10" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="62"/>
-      <c r="C10" s="62"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="62"/>
+      <c r="B10" s="61"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="61"/>
       <c r="G10" s="3">
         <f>G8*9%</f>
         <v>22156.649999999998</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="62" t="s">
+      <c r="A11" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="62"/>
-      <c r="C11" s="62"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="62"/>
+      <c r="B11" s="61"/>
+      <c r="C11" s="61"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="61"/>
       <c r="G11" s="3">
         <f>SUM(G8:G10)</f>
         <v>290498.30000000005</v>
@@ -3527,56 +3542,56 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
       <c r="G5" s="28">
         <f>SUM(G2:G4)</f>
         <v>262240</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
       <c r="G6" s="28">
         <f>G5*9%</f>
         <v>23601.599999999999</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="62" t="s">
+      <c r="A7" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="62"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
+      <c r="B7" s="61"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
       <c r="G7" s="28">
         <f>G5*9%</f>
         <v>23601.599999999999</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="62" t="s">
+      <c r="A8" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="62"/>
-      <c r="C8" s="62"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
+      <c r="B8" s="61"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="61"/>
       <c r="G8" s="28">
         <f>SUM(G5:G7)</f>
         <v>309443.19999999995</v>
@@ -3806,56 +3821,56 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="62" t="s">
+      <c r="A9" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="62"/>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
+      <c r="B9" s="61"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="61"/>
       <c r="G9" s="28">
         <f>SUM(G2:G8)</f>
         <v>322872</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="62" t="s">
+      <c r="A10" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="62"/>
-      <c r="C10" s="62"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="62"/>
+      <c r="B10" s="61"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="61"/>
       <c r="G10" s="28">
         <f>G9*9%</f>
         <v>29058.48</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="62" t="s">
+      <c r="A11" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="62"/>
-      <c r="C11" s="62"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="62"/>
+      <c r="B11" s="61"/>
+      <c r="C11" s="61"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="61"/>
       <c r="G11" s="28">
         <f>G9*9%</f>
         <v>29058.48</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="62" t="s">
+      <c r="A12" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="62"/>
-      <c r="C12" s="62"/>
-      <c r="D12" s="62"/>
-      <c r="E12" s="62"/>
-      <c r="F12" s="62"/>
+      <c r="B12" s="61"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="61"/>
       <c r="G12" s="28">
         <f>SUM(G9:G11)</f>
         <v>380988.95999999996</v>
@@ -4012,56 +4027,56 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
       <c r="G6" s="29">
         <f>SUM(G2:G5)</f>
         <v>161752</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="62" t="s">
+      <c r="A7" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="62"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
+      <c r="B7" s="61"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
       <c r="G7" s="29">
         <f>G6*9%</f>
         <v>14557.68</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="62" t="s">
+      <c r="A8" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="62"/>
-      <c r="C8" s="62"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
+      <c r="B8" s="61"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="61"/>
       <c r="G8" s="29">
         <f>G6*9%</f>
         <v>14557.68</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="62" t="s">
+      <c r="A9" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="62"/>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
+      <c r="B9" s="61"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="61"/>
       <c r="G9" s="29">
         <f>SUM(G6:G8)</f>
         <v>190867.36</v>
@@ -4145,56 +4160,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
       <c r="G3" s="30">
         <f>SUM(G2)</f>
         <v>18960</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
       <c r="G4" s="30">
         <f>G3*9%</f>
         <v>1706.3999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
       <c r="G5" s="30">
         <f>G3*9%</f>
         <v>1706.3999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
       <c r="G6" s="30">
         <f>SUM(G3:G5)</f>
         <v>22372.800000000003</v>
@@ -4279,56 +4294,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
       <c r="G3" s="32">
         <f>SUM(G2)</f>
         <v>86070</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
       <c r="G4" s="32">
         <f>G3*9%</f>
         <v>7746.2999999999993</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
       <c r="G5" s="32">
         <f>G3*9%</f>
         <v>7746.2999999999993</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
       <c r="G6" s="32">
         <f>SUM(G3:G5)</f>
         <v>101562.6</v>
@@ -4438,56 +4453,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
       <c r="G4" s="33">
         <f>SUM(G2:G3)</f>
         <v>113520</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
       <c r="G5" s="33">
         <f>G4*9%</f>
         <v>10216.799999999999</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
       <c r="G6" s="33">
         <f>G4*9%</f>
         <v>10216.799999999999</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="62" t="s">
+      <c r="A7" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="62"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
+      <c r="B7" s="61"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
       <c r="G7" s="33">
         <f>SUM(G4:G6)</f>
         <v>133953.60000000001</v>
@@ -4573,56 +4588,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
       <c r="G3" s="35">
         <f>SUM(G2)</f>
         <v>19406</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
       <c r="G4" s="35">
         <f>G3*9%</f>
         <v>1746.54</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
       <c r="G5" s="35">
         <f>G3*9%</f>
         <v>1746.54</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
       <c r="G6" s="35">
         <f>SUM(G3:G5)</f>
         <v>22899.08</v>
@@ -4827,56 +4842,56 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="62" t="s">
+      <c r="A8" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="62"/>
-      <c r="C8" s="62"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
+      <c r="B8" s="61"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="61"/>
       <c r="G8" s="36">
         <f>SUM(G2:G7)</f>
         <v>305810</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="62" t="s">
+      <c r="A9" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="62"/>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
+      <c r="B9" s="61"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="61"/>
       <c r="G9" s="36">
         <f>G8*9%</f>
         <v>27522.899999999998</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="62" t="s">
+      <c r="A10" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="62"/>
-      <c r="C10" s="62"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="62"/>
+      <c r="B10" s="61"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="61"/>
       <c r="G10" s="36">
         <f>G8*9%</f>
         <v>27522.899999999998</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="62" t="s">
+      <c r="A11" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="62"/>
-      <c r="C11" s="62"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="62"/>
+      <c r="B11" s="61"/>
+      <c r="C11" s="61"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="61"/>
       <c r="G11" s="36">
         <f>SUM(G8:G10)</f>
         <v>360855.80000000005</v>
@@ -5007,56 +5022,56 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
       <c r="G5" s="42">
         <f>SUM(G2:G4)</f>
         <v>155660</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
       <c r="G6" s="42">
         <f>G5*9%</f>
         <v>14009.4</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="62" t="s">
+      <c r="A7" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="62"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
+      <c r="B7" s="61"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
       <c r="G7" s="42">
         <f>G5*9%</f>
         <v>14009.4</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="62" t="s">
+      <c r="A8" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="62"/>
-      <c r="C8" s="62"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
+      <c r="B8" s="61"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="61"/>
       <c r="G8" s="42">
         <f>SUM(G5:G7)</f>
         <v>183678.8</v>
@@ -5187,56 +5202,56 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
       <c r="G5" s="43">
         <f>SUM(G2:G4)</f>
         <v>95390</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
       <c r="G6" s="43">
         <f>G5*9%</f>
         <v>8585.1</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="62" t="s">
+      <c r="A7" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="62"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
+      <c r="B7" s="61"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
       <c r="G7" s="43">
         <f>G5*9%</f>
         <v>8585.1</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="62" t="s">
+      <c r="A8" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="62"/>
-      <c r="C8" s="62"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
+      <c r="B8" s="61"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="61"/>
       <c r="G8" s="43">
         <f>SUM(G5:G7)</f>
         <v>112560.20000000001</v>
@@ -5320,56 +5335,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
       <c r="G3" s="11">
         <f>SUM(G2)</f>
         <v>4831</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
       <c r="G4" s="11">
         <f>G3*9%</f>
         <v>434.78999999999996</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
       <c r="G5" s="11">
         <f>G3*9%</f>
         <v>434.78999999999996</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
       <c r="G6" s="11">
         <f>SUM(G3:G5)</f>
         <v>5700.58</v>
@@ -5452,56 +5467,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
       <c r="G3" s="43">
         <f>SUM(G2)</f>
         <v>56140</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
       <c r="G4" s="43">
         <f>G3*9%</f>
         <v>5052.5999999999995</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
       <c r="G5" s="43">
         <f>G3*9%</f>
         <v>5052.5999999999995</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
       <c r="G6" s="43">
         <f>SUM(G3:G5)</f>
         <v>66245.2</v>
@@ -5585,56 +5600,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
       <c r="G3" s="44">
         <f>SUM(G2)</f>
         <v>48310</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
       <c r="G4" s="44">
         <f>G3*9%</f>
         <v>4347.8999999999996</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
       <c r="G5" s="44">
         <f>G3*9%</f>
         <v>4347.8999999999996</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
       <c r="G6" s="44">
         <f>SUM(G3:G5)</f>
         <v>57005.8</v>
@@ -5740,56 +5755,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
       <c r="G4" s="46">
         <f>SUM(G2:G3)</f>
         <v>122290</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
       <c r="G5" s="46">
         <f>G4*9%</f>
         <v>11006.1</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
       <c r="G6" s="46">
         <f>G4*9%</f>
         <v>11006.1</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="62" t="s">
+      <c r="A7" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="62"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
+      <c r="B7" s="61"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
       <c r="G7" s="46">
         <f>SUM(G4:G6)</f>
         <v>144302.20000000001</v>
@@ -5830,12 +5845,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="70" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
       <c r="E1" s="48"/>
     </row>
     <row r="2" spans="1:5" ht="15.6">
@@ -6036,12 +6051,12 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.6">
-      <c r="A13" s="65" t="s">
+      <c r="A13" s="64" t="s">
         <v>91</v>
       </c>
-      <c r="B13" s="66"/>
-      <c r="C13" s="66"/>
-      <c r="D13" s="67"/>
+      <c r="B13" s="65"/>
+      <c r="C13" s="65"/>
+      <c r="D13" s="66"/>
       <c r="E13" s="52">
         <f>SUM(E3:E12)</f>
         <v>1083930</v>
@@ -6055,12 +6070,12 @@
       <c r="E14" s="54"/>
     </row>
     <row r="15" spans="1:5" ht="21">
-      <c r="A15" s="68" t="s">
+      <c r="A15" s="67" t="s">
         <v>92</v>
       </c>
-      <c r="B15" s="69"/>
-      <c r="C15" s="69"/>
-      <c r="D15" s="70"/>
+      <c r="B15" s="68"/>
+      <c r="C15" s="68"/>
+      <c r="D15" s="69"/>
       <c r="E15" s="53"/>
     </row>
     <row r="16" spans="1:5" ht="15.6">
@@ -6333,12 +6348,12 @@
       </c>
     </row>
     <row r="31" spans="1:14" ht="31.2">
-      <c r="A31" s="65" t="s">
+      <c r="A31" s="64" t="s">
         <v>94</v>
       </c>
-      <c r="B31" s="66"/>
-      <c r="C31" s="66"/>
-      <c r="D31" s="67"/>
+      <c r="B31" s="65"/>
+      <c r="C31" s="65"/>
+      <c r="D31" s="66"/>
       <c r="E31" s="52">
         <f>SUM(E17:E30)</f>
         <v>778190</v>
@@ -6360,12 +6375,12 @@
       </c>
     </row>
     <row r="32" spans="1:14" ht="15.6">
-      <c r="A32" s="65" t="s">
+      <c r="A32" s="64" t="s">
         <v>125</v>
       </c>
-      <c r="B32" s="66"/>
-      <c r="C32" s="66"/>
-      <c r="D32" s="67"/>
+      <c r="B32" s="65"/>
+      <c r="C32" s="65"/>
+      <c r="D32" s="66"/>
       <c r="E32" s="52">
         <f>E13+E31</f>
         <v>1862120</v>
@@ -6392,36 +6407,36 @@
       <c r="N32" s="60"/>
     </row>
     <row r="33" spans="1:10" ht="15.6">
-      <c r="A33" s="65" t="s">
+      <c r="A33" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="B33" s="66"/>
-      <c r="C33" s="66"/>
-      <c r="D33" s="67"/>
+      <c r="B33" s="65"/>
+      <c r="C33" s="65"/>
+      <c r="D33" s="66"/>
       <c r="E33" s="52">
         <f>E32*9%</f>
         <v>167590.79999999999</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="15.6">
-      <c r="A34" s="65" t="s">
+      <c r="A34" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="B34" s="66"/>
-      <c r="C34" s="66"/>
-      <c r="D34" s="67"/>
+      <c r="B34" s="65"/>
+      <c r="C34" s="65"/>
+      <c r="D34" s="66"/>
       <c r="E34" s="52">
         <f>E32*9%</f>
         <v>167590.79999999999</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="15.6">
-      <c r="A35" s="65" t="s">
+      <c r="A35" s="64" t="s">
         <v>95</v>
       </c>
-      <c r="B35" s="66"/>
-      <c r="C35" s="66"/>
-      <c r="D35" s="67"/>
+      <c r="B35" s="65"/>
+      <c r="C35" s="65"/>
+      <c r="D35" s="66"/>
       <c r="E35" s="52">
         <f>SUM(E32:E34)</f>
         <v>2197301.6</v>
@@ -6554,56 +6569,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
       <c r="G3" s="56">
         <f>SUM(G2)</f>
         <v>33684</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
       <c r="G4" s="56">
         <f>G3*9%</f>
         <v>3031.56</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
       <c r="G5" s="56">
         <f>G3*9%</f>
         <v>3031.56</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
       <c r="G6" s="56">
         <f>SUM(G3:G5)</f>
         <v>39747.119999999995</v>
@@ -6622,20 +6637,21 @@
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N71"/>
+  <dimension ref="A1:N66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31:M32"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="12" style="26" customWidth="1"/>
-    <col min="2" max="2" width="82.6640625" style="26" customWidth="1"/>
-    <col min="3" max="3" width="6.88671875" style="26" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" style="26"/>
+    <col min="2" max="2" width="16.109375" style="26" customWidth="1"/>
+    <col min="3" max="3" width="26.44140625" style="26" customWidth="1"/>
+    <col min="4" max="4" width="22.88671875" style="26" customWidth="1"/>
     <col min="5" max="5" width="10.44140625" style="26" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="8.88671875" style="26"/>
+    <col min="6" max="7" width="8.88671875" style="26"/>
+    <col min="8" max="8" width="9.5546875" style="26" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="9.33203125" style="26" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.5546875" style="26" customWidth="1"/>
     <col min="12" max="12" width="14.109375" style="26" customWidth="1"/>
@@ -6644,12 +6660,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="70" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
       <c r="E1" s="48"/>
     </row>
     <row r="2" spans="1:5" ht="15.6">
@@ -6850,12 +6866,12 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.6">
-      <c r="A13" s="65" t="s">
+      <c r="A13" s="64" t="s">
         <v>91</v>
       </c>
-      <c r="B13" s="66"/>
-      <c r="C13" s="66"/>
-      <c r="D13" s="67"/>
+      <c r="B13" s="65"/>
+      <c r="C13" s="65"/>
+      <c r="D13" s="66"/>
       <c r="E13" s="52">
         <f>SUM(E3:E12)</f>
         <v>1083930</v>
@@ -6869,12 +6885,12 @@
       <c r="E14" s="54"/>
     </row>
     <row r="15" spans="1:5" ht="21">
-      <c r="A15" s="68" t="s">
+      <c r="A15" s="67" t="s">
         <v>92</v>
       </c>
-      <c r="B15" s="69"/>
-      <c r="C15" s="69"/>
-      <c r="D15" s="70"/>
+      <c r="B15" s="68"/>
+      <c r="C15" s="68"/>
+      <c r="D15" s="69"/>
       <c r="E15" s="53"/>
     </row>
     <row r="16" spans="1:5" ht="15.6">
@@ -7147,167 +7163,171 @@
       </c>
     </row>
     <row r="31" spans="1:14" ht="15.6" customHeight="1">
-      <c r="A31" s="65" t="s">
+      <c r="A31" s="64" t="s">
         <v>94</v>
       </c>
-      <c r="B31" s="66"/>
-      <c r="C31" s="66"/>
-      <c r="D31" s="67"/>
+      <c r="B31" s="65"/>
+      <c r="C31" s="65"/>
+      <c r="D31" s="66"/>
       <c r="E31" s="52">
         <f>SUM(E17:E30)</f>
         <v>778190</v>
       </c>
-      <c r="I31" s="59" t="s">
-        <v>122</v>
-      </c>
-      <c r="J31" s="59" t="s">
-        <v>8</v>
-      </c>
-      <c r="K31" s="59" t="s">
-        <v>9</v>
-      </c>
-      <c r="L31" s="59" t="s">
-        <v>123</v>
-      </c>
-      <c r="M31" s="59" t="s">
-        <v>124</v>
-      </c>
     </row>
     <row r="32" spans="1:14" ht="15.6">
-      <c r="A32" s="65" t="s">
-        <v>125</v>
-      </c>
-      <c r="B32" s="66"/>
-      <c r="C32" s="66"/>
-      <c r="D32" s="67"/>
+      <c r="A32" s="64" t="s">
+        <v>128</v>
+      </c>
+      <c r="B32" s="65"/>
+      <c r="C32" s="65"/>
+      <c r="D32" s="66"/>
       <c r="E32" s="52">
         <f>E13+E31</f>
         <v>1862120</v>
       </c>
-      <c r="I32" s="55">
-        <f>E32*9%</f>
-        <v>167590.79999999999</v>
-      </c>
-      <c r="J32" s="55">
-        <f>E32*9%</f>
-        <v>167590.79999999999</v>
-      </c>
-      <c r="K32" s="55">
-        <f>E32+I32+J32</f>
-        <v>2197301.6</v>
-      </c>
-      <c r="L32" s="55">
+      <c r="N32" s="60"/>
+    </row>
+    <row r="33" spans="1:8" s="57" customFormat="1"/>
+    <row r="34" spans="1:8" s="57" customFormat="1" ht="13.2" customHeight="1">
+      <c r="A34" s="71" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="71" t="s">
+        <v>131</v>
+      </c>
+      <c r="H35" s="26">
+        <f>1862120+4000</f>
+        <v>1866120</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="H36" s="26">
+        <f>H35*9%</f>
+        <v>167950.8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="31.2">
+      <c r="A37" s="59" t="s">
+        <v>129</v>
+      </c>
+      <c r="B37" s="59" t="s">
+        <v>130</v>
+      </c>
+      <c r="C37" s="59" t="s">
+        <v>127</v>
+      </c>
+      <c r="D37" s="59" t="s">
+        <v>123</v>
+      </c>
+      <c r="E37" s="59" t="s">
+        <v>124</v>
+      </c>
+      <c r="H37" s="26">
+        <f>H35*9%</f>
+        <v>167950.8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="15.6">
+      <c r="A38" s="55">
+        <f>H35*9%</f>
+        <v>167950.8</v>
+      </c>
+      <c r="B38" s="55">
+        <f>H35*9%</f>
+        <v>167950.8</v>
+      </c>
+      <c r="C38" s="55">
+        <f>E32+4000+A38+B38</f>
+        <v>2202021.6</v>
+      </c>
+      <c r="D38" s="55">
         <v>1364617</v>
       </c>
-      <c r="M32" s="55">
-        <f>K32-L32</f>
-        <v>832684.60000000009</v>
-      </c>
-      <c r="N32" s="60"/>
-    </row>
-    <row r="33" spans="1:5" ht="15.6">
-      <c r="A33" s="65" t="s">
-        <v>7</v>
-      </c>
-      <c r="B33" s="66"/>
-      <c r="C33" s="66"/>
-      <c r="D33" s="67"/>
-      <c r="E33" s="52">
-        <f>E32*9%</f>
-        <v>167590.79999999999</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="15.6">
-      <c r="A34" s="65" t="s">
-        <v>8</v>
-      </c>
-      <c r="B34" s="66"/>
-      <c r="C34" s="66"/>
-      <c r="D34" s="67"/>
-      <c r="E34" s="52">
-        <f>E32*9%</f>
-        <v>167590.79999999999</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="15.6">
-      <c r="A35" s="65" t="s">
-        <v>95</v>
-      </c>
-      <c r="B35" s="66"/>
-      <c r="C35" s="66"/>
-      <c r="D35" s="67"/>
-      <c r="E35" s="52">
-        <f>SUM(E32:E34)</f>
-        <v>2197301.6</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" s="57" customFormat="1"/>
-    <row r="37" spans="1:5" s="57" customFormat="1">
-      <c r="A37" s="61"/>
-    </row>
-    <row r="38" spans="1:5" ht="28.8">
-      <c r="A38" s="61" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" s="57" customFormat="1">
-      <c r="A58" s="58" t="s">
+      <c r="E38" s="55">
+        <f>C38-D38</f>
+        <v>837404.60000000009</v>
+      </c>
+      <c r="H38" s="26">
+        <f>SUM(H35:H37)</f>
+        <v>2202021.6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="E44" s="26">
+        <f>E13+E31+4000</f>
+        <v>1866120</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="E45" s="26">
+        <f>E44*1.18</f>
+        <v>2202021.6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="E46" s="26">
+        <f>E45-D38</f>
+        <v>837404.60000000009</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" s="57" customFormat="1">
+      <c r="A53" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="B58" s="58">
+      <c r="B53" s="58">
         <v>1861170</v>
       </c>
     </row>
-    <row r="59" spans="1:10">
-      <c r="A59" s="58" t="s">
+    <row r="54" spans="1:10">
+      <c r="A54" s="58" t="s">
         <v>120</v>
       </c>
-      <c r="B59" s="58">
-        <f>B58*18%</f>
+      <c r="B54" s="58">
+        <f>B53*18%</f>
         <v>335010.59999999998</v>
       </c>
     </row>
-    <row r="60" spans="1:10">
-      <c r="A60" s="58" t="s">
+    <row r="55" spans="1:10">
+      <c r="A55" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="B60" s="58">
+      <c r="B55" s="58">
         <v>2196180</v>
       </c>
-      <c r="J60" s="57">
-        <f>E35-1364617</f>
-        <v>832684.60000000009</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" s="57" customFormat="1"/>
-    <row r="70" spans="1:2" s="57" customFormat="1" ht="28.8">
-      <c r="A70" s="48" t="s">
+      <c r="J55" s="57" t="e">
+        <f>#REF!-1364617</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" s="57" customFormat="1"/>
+    <row r="65" spans="1:2" s="57" customFormat="1" ht="28.8">
+      <c r="A65" s="48" t="s">
         <v>117</v>
       </c>
-      <c r="B70" s="48">
+      <c r="B65" s="48">
         <v>1364617</v>
       </c>
     </row>
-    <row r="71" spans="1:2" s="57" customFormat="1" ht="28.8">
-      <c r="A71" s="48" t="s">
+    <row r="66" spans="1:2" s="57" customFormat="1" ht="28.8">
+      <c r="A66" s="48" t="s">
         <v>118</v>
       </c>
-      <c r="B71" s="48">
+      <c r="B66" s="48">
         <v>831563</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="A35:D35"/>
+  <mergeCells count="5">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A13:D13"/>
     <mergeCell ref="A15:D15"/>
     <mergeCell ref="A31:D31"/>
     <mergeCell ref="A32:D32"/>
-    <mergeCell ref="A33:D33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7525,56 +7545,56 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="62" t="s">
+      <c r="A9" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="62"/>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
+      <c r="B9" s="61"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="61"/>
       <c r="G9" s="11">
         <f>SUM(G2:G8)</f>
         <v>249351</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="62" t="s">
+      <c r="A10" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="62"/>
-      <c r="C10" s="62"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="62"/>
+      <c r="B10" s="61"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="61"/>
       <c r="G10" s="11">
         <f>G9*9%</f>
         <v>22441.59</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="62" t="s">
+      <c r="A11" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="62"/>
-      <c r="C11" s="62"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="62"/>
+      <c r="B11" s="61"/>
+      <c r="C11" s="61"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="61"/>
       <c r="G11" s="11">
         <f>G9*9%</f>
         <v>22441.59</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="62" t="s">
+      <c r="A12" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="62"/>
-      <c r="C12" s="62"/>
-      <c r="D12" s="62"/>
-      <c r="E12" s="62"/>
-      <c r="F12" s="62"/>
+      <c r="B12" s="61"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="61"/>
       <c r="G12" s="11">
         <f>SUM(G9:G11)</f>
         <v>294234.18000000005</v>
@@ -7680,56 +7700,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
       <c r="G4" s="12">
         <f>SUM(G2:G3)</f>
         <v>132820</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
       <c r="G5" s="12">
         <f>G4*9%</f>
         <v>11953.8</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
       <c r="G6" s="12">
         <f>G4*9%</f>
         <v>11953.8</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="62" t="s">
+      <c r="A7" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="62"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
+      <c r="B7" s="61"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
       <c r="G7" s="12">
         <f>SUM(G4:G6)</f>
         <v>156727.59999999998</v>
@@ -7798,48 +7818,48 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
       <c r="E3" s="17">
         <f>SUM(E2)</f>
         <v>18560</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
       <c r="E4" s="17">
         <f>E3*9%</f>
         <v>1670.3999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="63" t="s">
+      <c r="A5" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
       <c r="E5" s="17">
         <f>E3*9%</f>
         <v>1670.3999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="63" t="s">
+      <c r="A6" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="64"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
+      <c r="B6" s="63"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="63"/>
       <c r="E6" s="17">
         <f>SUM(E3:E5)</f>
         <v>21900.800000000003</v>
@@ -7949,56 +7969,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
       <c r="G4" s="13">
         <f>SUM(G2:G3)</f>
         <v>128790</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
       <c r="G5" s="13">
         <f>G4*9%</f>
         <v>11591.1</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
       <c r="G6" s="13">
         <f>G4*9%</f>
         <v>11591.1</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="62" t="s">
+      <c r="A7" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="62"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
+      <c r="B7" s="61"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
       <c r="G7" s="13">
         <f>SUM(G4:G6)</f>
         <v>151972.20000000001</v>
@@ -8108,56 +8128,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
       <c r="G4" s="18">
         <f>SUM(G2:G3)</f>
         <v>196927</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
       <c r="G5" s="18">
         <f>G4*9%</f>
         <v>17723.43</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
       <c r="G6" s="18">
         <f>G4*9%</f>
         <v>17723.43</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="62" t="s">
+      <c r="A7" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="62"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
+      <c r="B7" s="61"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
       <c r="G7" s="18">
         <f>SUM(G4:G6)</f>
         <v>232373.86</v>
@@ -8290,56 +8310,56 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
       <c r="G5" s="19">
         <f>SUM(G2:G4)</f>
         <v>189083</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
       <c r="G6" s="19">
         <f>G5*9%</f>
         <v>17017.47</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="62" t="s">
+      <c r="A7" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="62"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
+      <c r="B7" s="61"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
       <c r="G7" s="19">
         <f>G5*9%</f>
         <v>17017.47</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="62" t="s">
+      <c r="A8" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="62"/>
-      <c r="C8" s="62"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
+      <c r="B8" s="61"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="61"/>
       <c r="G8" s="19">
         <f>SUM(G5:G7)</f>
         <v>223117.94</v>

--- a/Invoices/Invoices.xlsx
+++ b/Invoices/Invoices.xlsx
@@ -808,6 +808,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -837,9 +840,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1261,56 +1261,56 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="61" t="s">
+      <c r="A6" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="61"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
       <c r="G6" s="2">
         <f>SUM(G2:G5)</f>
         <v>91479</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="61" t="s">
+      <c r="A7" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="61"/>
-      <c r="C7" s="61"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="61"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
       <c r="G7" s="2">
         <f>G6*9%</f>
         <v>8233.11</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="61" t="s">
+      <c r="A8" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="61"/>
-      <c r="C8" s="61"/>
-      <c r="D8" s="61"/>
-      <c r="E8" s="61"/>
-      <c r="F8" s="61"/>
+      <c r="B8" s="62"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
       <c r="G8" s="2">
         <f>G6*9%</f>
         <v>8233.11</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="14.4" customHeight="1">
-      <c r="A9" s="61" t="s">
+      <c r="A9" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="61"/>
-      <c r="C9" s="61"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="61"/>
+      <c r="B9" s="62"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
       <c r="G9" s="2">
         <f>SUM(G6:G8)</f>
         <v>107945.22</v>
@@ -1445,56 +1445,56 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="61"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
       <c r="G5" s="19">
         <f>SUM(G2:G4)</f>
         <v>124900</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="61" t="s">
+      <c r="A6" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="61"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
       <c r="G6" s="19">
         <f>G5*9%</f>
         <v>11241</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="61" t="s">
+      <c r="A7" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="61"/>
-      <c r="C7" s="61"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="61"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
       <c r="G7" s="19">
         <f>G5*9%</f>
         <v>11241</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="61" t="s">
+      <c r="A8" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="61"/>
-      <c r="C8" s="61"/>
-      <c r="D8" s="61"/>
-      <c r="E8" s="61"/>
-      <c r="F8" s="61"/>
+      <c r="B8" s="62"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
       <c r="G8" s="19">
         <f>SUM(G5:G7)</f>
         <v>147382</v>
@@ -1578,56 +1578,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="61" t="s">
+      <c r="A3" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
       <c r="G3" s="20">
         <f>SUM(G2)</f>
         <v>5614</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="61" t="s">
+      <c r="A4" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
       <c r="G4" s="20">
         <f>G3*9%</f>
         <v>505.26</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="61"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
       <c r="G5" s="20">
         <f>G3*9%</f>
         <v>505.26</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="61" t="s">
+      <c r="A6" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="61"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
       <c r="G6" s="20">
         <f>SUM(G3:G5)</f>
         <v>6624.52</v>
@@ -1737,56 +1737,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="61" t="s">
+      <c r="A4" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
       <c r="G4" s="21">
         <f>SUM(G2:G3)</f>
         <v>41212</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="61"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
       <c r="G5" s="21">
         <f>G4*9%</f>
         <v>3709.08</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="61" t="s">
+      <c r="A6" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="61"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
       <c r="G6" s="21">
         <f>G4*9%</f>
         <v>3709.08</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="61" t="s">
+      <c r="A7" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="61"/>
-      <c r="C7" s="61"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="61"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
       <c r="G7" s="21">
         <f>SUM(G4:G6)</f>
         <v>48630.16</v>
@@ -1871,56 +1871,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="61" t="s">
+      <c r="A3" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
       <c r="G3" s="21">
         <f>SUM(G2)</f>
         <v>24000</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="61" t="s">
+      <c r="A4" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
       <c r="G4" s="21">
         <f>G3*9%</f>
         <v>2160</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="61"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
       <c r="G5" s="21">
         <f>G3*9%</f>
         <v>2160</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="61" t="s">
+      <c r="A6" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="61"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
       <c r="G6" s="21">
         <f>SUM(G3:G5)</f>
         <v>28320</v>
@@ -2077,56 +2077,56 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="61" t="s">
+      <c r="A6" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="61"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
       <c r="G6" s="22">
         <f>SUM(G2:G5)</f>
         <v>313513</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="61" t="s">
+      <c r="A7" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="61"/>
-      <c r="C7" s="61"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="61"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
       <c r="G7" s="22">
         <f>G6*9%</f>
         <v>28216.17</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="61" t="s">
+      <c r="A8" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="61"/>
-      <c r="C8" s="61"/>
-      <c r="D8" s="61"/>
-      <c r="E8" s="61"/>
-      <c r="F8" s="61"/>
+      <c r="B8" s="62"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
       <c r="G8" s="22">
         <f>G6*9%</f>
         <v>28216.17</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="61" t="s">
+      <c r="A9" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="61"/>
-      <c r="C9" s="61"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="61"/>
+      <c r="B9" s="62"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
       <c r="G9" s="22">
         <f>SUM(G6:G8)</f>
         <v>369945.33999999997</v>
@@ -2211,56 +2211,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="61" t="s">
+      <c r="A3" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
       <c r="G3" s="22">
         <f>SUM(G2)</f>
         <v>73450</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="61" t="s">
+      <c r="A4" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
       <c r="G4" s="22">
         <f>G3*9%</f>
         <v>6610.5</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="61"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
       <c r="G5" s="22">
         <f>G3*9%</f>
         <v>6610.5</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="61" t="s">
+      <c r="A6" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="61"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
       <c r="G6" s="22">
         <f>SUM(G3:G5)</f>
         <v>86671</v>
@@ -2368,56 +2368,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="61" t="s">
+      <c r="A4" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
       <c r="G4" s="23">
         <f>SUM(G2:G3)</f>
         <v>729990</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="61"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
       <c r="G5" s="23">
         <f>G4*9%</f>
         <v>65699.099999999991</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="61" t="s">
+      <c r="A6" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="61"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
       <c r="G6" s="23">
         <f>G4*9%</f>
         <v>65699.099999999991</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="61" t="s">
+      <c r="A7" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="61"/>
-      <c r="C7" s="61"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="61"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
       <c r="G7" s="23">
         <f>SUM(G4:G6)</f>
         <v>861388.2</v>
@@ -2597,56 +2597,56 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="61" t="s">
+      <c r="A7" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="61"/>
-      <c r="C7" s="61"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="61"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
       <c r="G7" s="23">
         <f>SUM(G2:G6)</f>
         <v>246402</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="61" t="s">
+      <c r="A8" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="61"/>
-      <c r="C8" s="61"/>
-      <c r="D8" s="61"/>
-      <c r="E8" s="61"/>
-      <c r="F8" s="61"/>
+      <c r="B8" s="62"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
       <c r="G8" s="23">
         <f>G7*9%</f>
         <v>22176.18</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="61" t="s">
+      <c r="A9" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="61"/>
-      <c r="C9" s="61"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="61"/>
+      <c r="B9" s="62"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
       <c r="G9" s="23">
         <f>G7*9%</f>
         <v>22176.18</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="61" t="s">
+      <c r="A10" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="61"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="61"/>
-      <c r="E10" s="61"/>
-      <c r="F10" s="61"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
       <c r="G10" s="23">
         <f>SUM(G7:G9)</f>
         <v>290754.36</v>
@@ -2902,56 +2902,56 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="61" t="s">
+      <c r="A10" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="61"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="61"/>
-      <c r="E10" s="61"/>
-      <c r="F10" s="61"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
       <c r="G10" s="27">
         <f>SUM(G2:G9)</f>
         <v>734495</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="61" t="s">
+      <c r="A11" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="61"/>
-      <c r="C11" s="61"/>
-      <c r="D11" s="61"/>
-      <c r="E11" s="61"/>
-      <c r="F11" s="61"/>
+      <c r="B11" s="62"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="62"/>
       <c r="G11" s="27">
         <f>G10*9%</f>
         <v>66104.55</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="61" t="s">
+      <c r="A12" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="61"/>
-      <c r="C12" s="61"/>
-      <c r="D12" s="61"/>
-      <c r="E12" s="61"/>
-      <c r="F12" s="61"/>
+      <c r="B12" s="62"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="62"/>
       <c r="G12" s="27">
         <f>G10*9%</f>
         <v>66104.55</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="61" t="s">
+      <c r="A13" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="61"/>
-      <c r="C13" s="61"/>
-      <c r="D13" s="61"/>
-      <c r="E13" s="61"/>
-      <c r="F13" s="61"/>
+      <c r="B13" s="62"/>
+      <c r="C13" s="62"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="62"/>
+      <c r="F13" s="62"/>
       <c r="G13" s="27">
         <f>SUM(G10:G12)</f>
         <v>866704.10000000009</v>
@@ -3107,56 +3107,56 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="61" t="s">
+      <c r="A6" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="61"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
       <c r="G6" s="25">
         <f>SUM(G2:G5)</f>
         <v>70904</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="61" t="s">
+      <c r="A7" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="61"/>
-      <c r="C7" s="61"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="61"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
       <c r="G7" s="25">
         <f>G6*9%</f>
         <v>6381.36</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="61" t="s">
+      <c r="A8" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="61"/>
-      <c r="C8" s="61"/>
-      <c r="D8" s="61"/>
-      <c r="E8" s="61"/>
-      <c r="F8" s="61"/>
+      <c r="B8" s="62"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
       <c r="G8" s="25">
         <f>G6*9%</f>
         <v>6381.36</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="61" t="s">
+      <c r="A9" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="61"/>
-      <c r="C9" s="61"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="61"/>
+      <c r="B9" s="62"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
       <c r="G9" s="25">
         <f>SUM(G6:G8)</f>
         <v>83666.720000000001</v>
@@ -3359,56 +3359,56 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="61" t="s">
+      <c r="A8" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="61"/>
-      <c r="C8" s="61"/>
-      <c r="D8" s="61"/>
-      <c r="E8" s="61"/>
-      <c r="F8" s="61"/>
+      <c r="B8" s="62"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
       <c r="G8" s="3">
         <f>SUM(G2:G7)</f>
         <v>246185</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="61" t="s">
+      <c r="A9" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="61"/>
-      <c r="C9" s="61"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="61"/>
+      <c r="B9" s="62"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
       <c r="G9" s="3">
         <f>G8*9%</f>
         <v>22156.649999999998</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="61" t="s">
+      <c r="A10" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="61"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="61"/>
-      <c r="E10" s="61"/>
-      <c r="F10" s="61"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
       <c r="G10" s="3">
         <f>G8*9%</f>
         <v>22156.649999999998</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="61" t="s">
+      <c r="A11" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="61"/>
-      <c r="C11" s="61"/>
-      <c r="D11" s="61"/>
-      <c r="E11" s="61"/>
-      <c r="F11" s="61"/>
+      <c r="B11" s="62"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="62"/>
       <c r="G11" s="3">
         <f>SUM(G8:G10)</f>
         <v>290498.30000000005</v>
@@ -3542,56 +3542,56 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="61"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
       <c r="G5" s="28">
         <f>SUM(G2:G4)</f>
         <v>262240</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="61" t="s">
+      <c r="A6" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="61"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
       <c r="G6" s="28">
         <f>G5*9%</f>
         <v>23601.599999999999</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="61" t="s">
+      <c r="A7" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="61"/>
-      <c r="C7" s="61"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="61"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
       <c r="G7" s="28">
         <f>G5*9%</f>
         <v>23601.599999999999</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="61" t="s">
+      <c r="A8" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="61"/>
-      <c r="C8" s="61"/>
-      <c r="D8" s="61"/>
-      <c r="E8" s="61"/>
-      <c r="F8" s="61"/>
+      <c r="B8" s="62"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
       <c r="G8" s="28">
         <f>SUM(G5:G7)</f>
         <v>309443.19999999995</v>
@@ -3821,56 +3821,56 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="61" t="s">
+      <c r="A9" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="61"/>
-      <c r="C9" s="61"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="61"/>
+      <c r="B9" s="62"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
       <c r="G9" s="28">
         <f>SUM(G2:G8)</f>
         <v>322872</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="61" t="s">
+      <c r="A10" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="61"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="61"/>
-      <c r="E10" s="61"/>
-      <c r="F10" s="61"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
       <c r="G10" s="28">
         <f>G9*9%</f>
         <v>29058.48</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="61" t="s">
+      <c r="A11" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="61"/>
-      <c r="C11" s="61"/>
-      <c r="D11" s="61"/>
-      <c r="E11" s="61"/>
-      <c r="F11" s="61"/>
+      <c r="B11" s="62"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="62"/>
       <c r="G11" s="28">
         <f>G9*9%</f>
         <v>29058.48</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="61" t="s">
+      <c r="A12" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="61"/>
-      <c r="C12" s="61"/>
-      <c r="D12" s="61"/>
-      <c r="E12" s="61"/>
-      <c r="F12" s="61"/>
+      <c r="B12" s="62"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="62"/>
       <c r="G12" s="28">
         <f>SUM(G9:G11)</f>
         <v>380988.95999999996</v>
@@ -4027,56 +4027,56 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="61" t="s">
+      <c r="A6" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="61"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
       <c r="G6" s="29">
         <f>SUM(G2:G5)</f>
         <v>161752</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="61" t="s">
+      <c r="A7" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="61"/>
-      <c r="C7" s="61"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="61"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
       <c r="G7" s="29">
         <f>G6*9%</f>
         <v>14557.68</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="61" t="s">
+      <c r="A8" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="61"/>
-      <c r="C8" s="61"/>
-      <c r="D8" s="61"/>
-      <c r="E8" s="61"/>
-      <c r="F8" s="61"/>
+      <c r="B8" s="62"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
       <c r="G8" s="29">
         <f>G6*9%</f>
         <v>14557.68</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="61" t="s">
+      <c r="A9" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="61"/>
-      <c r="C9" s="61"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="61"/>
+      <c r="B9" s="62"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
       <c r="G9" s="29">
         <f>SUM(G6:G8)</f>
         <v>190867.36</v>
@@ -4160,56 +4160,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="61" t="s">
+      <c r="A3" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
       <c r="G3" s="30">
         <f>SUM(G2)</f>
         <v>18960</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="61" t="s">
+      <c r="A4" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
       <c r="G4" s="30">
         <f>G3*9%</f>
         <v>1706.3999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="61"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
       <c r="G5" s="30">
         <f>G3*9%</f>
         <v>1706.3999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="61" t="s">
+      <c r="A6" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="61"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
       <c r="G6" s="30">
         <f>SUM(G3:G5)</f>
         <v>22372.800000000003</v>
@@ -4294,56 +4294,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="61" t="s">
+      <c r="A3" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
       <c r="G3" s="32">
         <f>SUM(G2)</f>
         <v>86070</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="61" t="s">
+      <c r="A4" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
       <c r="G4" s="32">
         <f>G3*9%</f>
         <v>7746.2999999999993</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="61"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
       <c r="G5" s="32">
         <f>G3*9%</f>
         <v>7746.2999999999993</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="61" t="s">
+      <c r="A6" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="61"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
       <c r="G6" s="32">
         <f>SUM(G3:G5)</f>
         <v>101562.6</v>
@@ -4453,56 +4453,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="61" t="s">
+      <c r="A4" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
       <c r="G4" s="33">
         <f>SUM(G2:G3)</f>
         <v>113520</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="61"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
       <c r="G5" s="33">
         <f>G4*9%</f>
         <v>10216.799999999999</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="61" t="s">
+      <c r="A6" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="61"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
       <c r="G6" s="33">
         <f>G4*9%</f>
         <v>10216.799999999999</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="61" t="s">
+      <c r="A7" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="61"/>
-      <c r="C7" s="61"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="61"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
       <c r="G7" s="33">
         <f>SUM(G4:G6)</f>
         <v>133953.60000000001</v>
@@ -4588,56 +4588,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="61" t="s">
+      <c r="A3" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
       <c r="G3" s="35">
         <f>SUM(G2)</f>
         <v>19406</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="61" t="s">
+      <c r="A4" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
       <c r="G4" s="35">
         <f>G3*9%</f>
         <v>1746.54</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="61"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
       <c r="G5" s="35">
         <f>G3*9%</f>
         <v>1746.54</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="61" t="s">
+      <c r="A6" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="61"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
       <c r="G6" s="35">
         <f>SUM(G3:G5)</f>
         <v>22899.08</v>
@@ -4842,56 +4842,56 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="61" t="s">
+      <c r="A8" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="61"/>
-      <c r="C8" s="61"/>
-      <c r="D8" s="61"/>
-      <c r="E8" s="61"/>
-      <c r="F8" s="61"/>
+      <c r="B8" s="62"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
       <c r="G8" s="36">
         <f>SUM(G2:G7)</f>
         <v>305810</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="61" t="s">
+      <c r="A9" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="61"/>
-      <c r="C9" s="61"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="61"/>
+      <c r="B9" s="62"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
       <c r="G9" s="36">
         <f>G8*9%</f>
         <v>27522.899999999998</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="61" t="s">
+      <c r="A10" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="61"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="61"/>
-      <c r="E10" s="61"/>
-      <c r="F10" s="61"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
       <c r="G10" s="36">
         <f>G8*9%</f>
         <v>27522.899999999998</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="61" t="s">
+      <c r="A11" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="61"/>
-      <c r="C11" s="61"/>
-      <c r="D11" s="61"/>
-      <c r="E11" s="61"/>
-      <c r="F11" s="61"/>
+      <c r="B11" s="62"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="62"/>
       <c r="G11" s="36">
         <f>SUM(G8:G10)</f>
         <v>360855.80000000005</v>
@@ -5022,56 +5022,56 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="61"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
       <c r="G5" s="42">
         <f>SUM(G2:G4)</f>
         <v>155660</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="61" t="s">
+      <c r="A6" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="61"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
       <c r="G6" s="42">
         <f>G5*9%</f>
         <v>14009.4</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="61" t="s">
+      <c r="A7" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="61"/>
-      <c r="C7" s="61"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="61"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
       <c r="G7" s="42">
         <f>G5*9%</f>
         <v>14009.4</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="61" t="s">
+      <c r="A8" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="61"/>
-      <c r="C8" s="61"/>
-      <c r="D8" s="61"/>
-      <c r="E8" s="61"/>
-      <c r="F8" s="61"/>
+      <c r="B8" s="62"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
       <c r="G8" s="42">
         <f>SUM(G5:G7)</f>
         <v>183678.8</v>
@@ -5202,56 +5202,56 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="61"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
       <c r="G5" s="43">
         <f>SUM(G2:G4)</f>
         <v>95390</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="61" t="s">
+      <c r="A6" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="61"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
       <c r="G6" s="43">
         <f>G5*9%</f>
         <v>8585.1</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="61" t="s">
+      <c r="A7" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="61"/>
-      <c r="C7" s="61"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="61"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
       <c r="G7" s="43">
         <f>G5*9%</f>
         <v>8585.1</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="61" t="s">
+      <c r="A8" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="61"/>
-      <c r="C8" s="61"/>
-      <c r="D8" s="61"/>
-      <c r="E8" s="61"/>
-      <c r="F8" s="61"/>
+      <c r="B8" s="62"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
       <c r="G8" s="43">
         <f>SUM(G5:G7)</f>
         <v>112560.20000000001</v>
@@ -5335,56 +5335,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="61" t="s">
+      <c r="A3" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
       <c r="G3" s="11">
         <f>SUM(G2)</f>
         <v>4831</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="61" t="s">
+      <c r="A4" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
       <c r="G4" s="11">
         <f>G3*9%</f>
         <v>434.78999999999996</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="61"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
       <c r="G5" s="11">
         <f>G3*9%</f>
         <v>434.78999999999996</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="61" t="s">
+      <c r="A6" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="61"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
       <c r="G6" s="11">
         <f>SUM(G3:G5)</f>
         <v>5700.58</v>
@@ -5467,56 +5467,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="61" t="s">
+      <c r="A3" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
       <c r="G3" s="43">
         <f>SUM(G2)</f>
         <v>56140</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="61" t="s">
+      <c r="A4" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
       <c r="G4" s="43">
         <f>G3*9%</f>
         <v>5052.5999999999995</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="61"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
       <c r="G5" s="43">
         <f>G3*9%</f>
         <v>5052.5999999999995</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="61" t="s">
+      <c r="A6" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="61"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
       <c r="G6" s="43">
         <f>SUM(G3:G5)</f>
         <v>66245.2</v>
@@ -5600,56 +5600,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="61" t="s">
+      <c r="A3" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
       <c r="G3" s="44">
         <f>SUM(G2)</f>
         <v>48310</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="61" t="s">
+      <c r="A4" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
       <c r="G4" s="44">
         <f>G3*9%</f>
         <v>4347.8999999999996</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="61"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
       <c r="G5" s="44">
         <f>G3*9%</f>
         <v>4347.8999999999996</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="61" t="s">
+      <c r="A6" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="61"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
       <c r="G6" s="44">
         <f>SUM(G3:G5)</f>
         <v>57005.8</v>
@@ -5755,56 +5755,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="61" t="s">
+      <c r="A4" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
       <c r="G4" s="46">
         <f>SUM(G2:G3)</f>
         <v>122290</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="61"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
       <c r="G5" s="46">
         <f>G4*9%</f>
         <v>11006.1</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="61" t="s">
+      <c r="A6" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="61"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
       <c r="G6" s="46">
         <f>G4*9%</f>
         <v>11006.1</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="61" t="s">
+      <c r="A7" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="61"/>
-      <c r="C7" s="61"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="61"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
       <c r="G7" s="46">
         <f>SUM(G4:G6)</f>
         <v>144302.20000000001</v>
@@ -5845,12 +5845,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="71" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
       <c r="E1" s="48"/>
     </row>
     <row r="2" spans="1:5" ht="15.6">
@@ -6051,12 +6051,12 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.6">
-      <c r="A13" s="64" t="s">
+      <c r="A13" s="65" t="s">
         <v>91</v>
       </c>
-      <c r="B13" s="65"/>
-      <c r="C13" s="65"/>
-      <c r="D13" s="66"/>
+      <c r="B13" s="66"/>
+      <c r="C13" s="66"/>
+      <c r="D13" s="67"/>
       <c r="E13" s="52">
         <f>SUM(E3:E12)</f>
         <v>1083930</v>
@@ -6070,12 +6070,12 @@
       <c r="E14" s="54"/>
     </row>
     <row r="15" spans="1:5" ht="21">
-      <c r="A15" s="67" t="s">
+      <c r="A15" s="68" t="s">
         <v>92</v>
       </c>
-      <c r="B15" s="68"/>
-      <c r="C15" s="68"/>
-      <c r="D15" s="69"/>
+      <c r="B15" s="69"/>
+      <c r="C15" s="69"/>
+      <c r="D15" s="70"/>
       <c r="E15" s="53"/>
     </row>
     <row r="16" spans="1:5" ht="15.6">
@@ -6348,12 +6348,12 @@
       </c>
     </row>
     <row r="31" spans="1:14" ht="31.2">
-      <c r="A31" s="64" t="s">
+      <c r="A31" s="65" t="s">
         <v>94</v>
       </c>
-      <c r="B31" s="65"/>
-      <c r="C31" s="65"/>
-      <c r="D31" s="66"/>
+      <c r="B31" s="66"/>
+      <c r="C31" s="66"/>
+      <c r="D31" s="67"/>
       <c r="E31" s="52">
         <f>SUM(E17:E30)</f>
         <v>778190</v>
@@ -6375,12 +6375,12 @@
       </c>
     </row>
     <row r="32" spans="1:14" ht="15.6">
-      <c r="A32" s="64" t="s">
+      <c r="A32" s="65" t="s">
         <v>125</v>
       </c>
-      <c r="B32" s="65"/>
-      <c r="C32" s="65"/>
-      <c r="D32" s="66"/>
+      <c r="B32" s="66"/>
+      <c r="C32" s="66"/>
+      <c r="D32" s="67"/>
       <c r="E32" s="52">
         <f>E13+E31</f>
         <v>1862120</v>
@@ -6407,36 +6407,36 @@
       <c r="N32" s="60"/>
     </row>
     <row r="33" spans="1:10" ht="15.6">
-      <c r="A33" s="64" t="s">
+      <c r="A33" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="B33" s="65"/>
-      <c r="C33" s="65"/>
-      <c r="D33" s="66"/>
+      <c r="B33" s="66"/>
+      <c r="C33" s="66"/>
+      <c r="D33" s="67"/>
       <c r="E33" s="52">
         <f>E32*9%</f>
         <v>167590.79999999999</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="15.6">
-      <c r="A34" s="64" t="s">
+      <c r="A34" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="B34" s="65"/>
-      <c r="C34" s="65"/>
-      <c r="D34" s="66"/>
+      <c r="B34" s="66"/>
+      <c r="C34" s="66"/>
+      <c r="D34" s="67"/>
       <c r="E34" s="52">
         <f>E32*9%</f>
         <v>167590.79999999999</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="15.6">
-      <c r="A35" s="64" t="s">
+      <c r="A35" s="65" t="s">
         <v>95</v>
       </c>
-      <c r="B35" s="65"/>
-      <c r="C35" s="65"/>
-      <c r="D35" s="66"/>
+      <c r="B35" s="66"/>
+      <c r="C35" s="66"/>
+      <c r="D35" s="67"/>
       <c r="E35" s="52">
         <f>SUM(E32:E34)</f>
         <v>2197301.6</v>
@@ -6569,56 +6569,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="61" t="s">
+      <c r="A3" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
       <c r="G3" s="56">
         <f>SUM(G2)</f>
         <v>33684</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="61" t="s">
+      <c r="A4" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
       <c r="G4" s="56">
         <f>G3*9%</f>
         <v>3031.56</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="61"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
       <c r="G5" s="56">
         <f>G3*9%</f>
         <v>3031.56</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="61" t="s">
+      <c r="A6" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="61"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
       <c r="G6" s="56">
         <f>SUM(G3:G5)</f>
         <v>39747.119999999995</v>
@@ -6639,14 +6639,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="12" style="26" customWidth="1"/>
-    <col min="2" max="2" width="16.109375" style="26" customWidth="1"/>
+    <col min="2" max="2" width="53.88671875" style="26" customWidth="1"/>
     <col min="3" max="3" width="26.44140625" style="26" customWidth="1"/>
     <col min="4" max="4" width="22.88671875" style="26" customWidth="1"/>
     <col min="5" max="5" width="10.44140625" style="26" bestFit="1" customWidth="1"/>
@@ -6660,12 +6660,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="71" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
       <c r="E1" s="48"/>
     </row>
     <row r="2" spans="1:5" ht="15.6">
@@ -6866,12 +6866,12 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.6">
-      <c r="A13" s="64" t="s">
+      <c r="A13" s="65" t="s">
         <v>91</v>
       </c>
-      <c r="B13" s="65"/>
-      <c r="C13" s="65"/>
-      <c r="D13" s="66"/>
+      <c r="B13" s="66"/>
+      <c r="C13" s="66"/>
+      <c r="D13" s="67"/>
       <c r="E13" s="52">
         <f>SUM(E3:E12)</f>
         <v>1083930</v>
@@ -6885,12 +6885,12 @@
       <c r="E14" s="54"/>
     </row>
     <row r="15" spans="1:5" ht="21">
-      <c r="A15" s="67" t="s">
+      <c r="A15" s="68" t="s">
         <v>92</v>
       </c>
-      <c r="B15" s="68"/>
-      <c r="C15" s="68"/>
-      <c r="D15" s="69"/>
+      <c r="B15" s="69"/>
+      <c r="C15" s="69"/>
+      <c r="D15" s="70"/>
       <c r="E15" s="53"/>
     </row>
     <row r="16" spans="1:5" ht="15.6">
@@ -7163,24 +7163,24 @@
       </c>
     </row>
     <row r="31" spans="1:14" ht="15.6" customHeight="1">
-      <c r="A31" s="64" t="s">
+      <c r="A31" s="65" t="s">
         <v>94</v>
       </c>
-      <c r="B31" s="65"/>
-      <c r="C31" s="65"/>
-      <c r="D31" s="66"/>
+      <c r="B31" s="66"/>
+      <c r="C31" s="66"/>
+      <c r="D31" s="67"/>
       <c r="E31" s="52">
         <f>SUM(E17:E30)</f>
         <v>778190</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="15.6">
-      <c r="A32" s="64" t="s">
+      <c r="A32" s="65" t="s">
         <v>128</v>
       </c>
-      <c r="B32" s="65"/>
-      <c r="C32" s="65"/>
-      <c r="D32" s="66"/>
+      <c r="B32" s="66"/>
+      <c r="C32" s="66"/>
+      <c r="D32" s="67"/>
       <c r="E32" s="52">
         <f>E13+E31</f>
         <v>1862120</v>
@@ -7189,12 +7189,12 @@
     </row>
     <row r="33" spans="1:8" s="57" customFormat="1"/>
     <row r="34" spans="1:8" s="57" customFormat="1" ht="13.2" customHeight="1">
-      <c r="A34" s="71" t="s">
+      <c r="A34" s="61" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="71" t="s">
+      <c r="A35" s="61" t="s">
         <v>131</v>
       </c>
       <c r="H35" s="26">
@@ -7545,56 +7545,56 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="61" t="s">
+      <c r="A9" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="61"/>
-      <c r="C9" s="61"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="61"/>
+      <c r="B9" s="62"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
       <c r="G9" s="11">
         <f>SUM(G2:G8)</f>
         <v>249351</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="61" t="s">
+      <c r="A10" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="61"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="61"/>
-      <c r="E10" s="61"/>
-      <c r="F10" s="61"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
       <c r="G10" s="11">
         <f>G9*9%</f>
         <v>22441.59</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="61" t="s">
+      <c r="A11" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="61"/>
-      <c r="C11" s="61"/>
-      <c r="D11" s="61"/>
-      <c r="E11" s="61"/>
-      <c r="F11" s="61"/>
+      <c r="B11" s="62"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="62"/>
       <c r="G11" s="11">
         <f>G9*9%</f>
         <v>22441.59</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="61" t="s">
+      <c r="A12" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="61"/>
-      <c r="C12" s="61"/>
-      <c r="D12" s="61"/>
-      <c r="E12" s="61"/>
-      <c r="F12" s="61"/>
+      <c r="B12" s="62"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="62"/>
       <c r="G12" s="11">
         <f>SUM(G9:G11)</f>
         <v>294234.18000000005</v>
@@ -7700,56 +7700,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="61" t="s">
+      <c r="A4" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
       <c r="G4" s="12">
         <f>SUM(G2:G3)</f>
         <v>132820</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="61"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
       <c r="G5" s="12">
         <f>G4*9%</f>
         <v>11953.8</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="61" t="s">
+      <c r="A6" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="61"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
       <c r="G6" s="12">
         <f>G4*9%</f>
         <v>11953.8</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="61" t="s">
+      <c r="A7" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="61"/>
-      <c r="C7" s="61"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="61"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
       <c r="G7" s="12">
         <f>SUM(G4:G6)</f>
         <v>156727.59999999998</v>
@@ -7818,48 +7818,48 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
       <c r="E3" s="17">
         <f>SUM(E2)</f>
         <v>18560</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
       <c r="E4" s="17">
         <f>E3*9%</f>
         <v>1670.3999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
       <c r="E5" s="17">
         <f>E3*9%</f>
         <v>1670.3999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="63"/>
-      <c r="C6" s="63"/>
-      <c r="D6" s="63"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
       <c r="E6" s="17">
         <f>SUM(E3:E5)</f>
         <v>21900.800000000003</v>
@@ -7969,56 +7969,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="61" t="s">
+      <c r="A4" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
       <c r="G4" s="13">
         <f>SUM(G2:G3)</f>
         <v>128790</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="61"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
       <c r="G5" s="13">
         <f>G4*9%</f>
         <v>11591.1</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="61" t="s">
+      <c r="A6" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="61"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
       <c r="G6" s="13">
         <f>G4*9%</f>
         <v>11591.1</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="61" t="s">
+      <c r="A7" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="61"/>
-      <c r="C7" s="61"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="61"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
       <c r="G7" s="13">
         <f>SUM(G4:G6)</f>
         <v>151972.20000000001</v>
@@ -8128,56 +8128,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="61" t="s">
+      <c r="A4" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
       <c r="G4" s="18">
         <f>SUM(G2:G3)</f>
         <v>196927</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="61"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
       <c r="G5" s="18">
         <f>G4*9%</f>
         <v>17723.43</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="61" t="s">
+      <c r="A6" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="61"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
       <c r="G6" s="18">
         <f>G4*9%</f>
         <v>17723.43</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="61" t="s">
+      <c r="A7" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="61"/>
-      <c r="C7" s="61"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="61"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
       <c r="G7" s="18">
         <f>SUM(G4:G6)</f>
         <v>232373.86</v>
@@ -8310,56 +8310,56 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="61"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
       <c r="G5" s="19">
         <f>SUM(G2:G4)</f>
         <v>189083</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="61" t="s">
+      <c r="A6" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="61"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
       <c r="G6" s="19">
         <f>G5*9%</f>
         <v>17017.47</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="61" t="s">
+      <c r="A7" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="61"/>
-      <c r="C7" s="61"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="61"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
       <c r="G7" s="19">
         <f>G5*9%</f>
         <v>17017.47</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="61" t="s">
+      <c r="A8" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="61"/>
-      <c r="C8" s="61"/>
-      <c r="D8" s="61"/>
-      <c r="E8" s="61"/>
-      <c r="F8" s="61"/>
+      <c r="B8" s="62"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
       <c r="G8" s="19">
         <f>SUM(G5:G7)</f>
         <v>223117.94</v>

--- a/Invoices/Invoices.xlsx
+++ b/Invoices/Invoices.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="26" activeTab="34"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="28" activeTab="35"/>
   </bookViews>
   <sheets>
     <sheet name="Putz 101" sheetId="1" r:id="rId1"/>
@@ -42,6 +42,7 @@
     <sheet name="Nerul 209" sheetId="33" r:id="rId33"/>
     <sheet name="Putz 210" sheetId="34" r:id="rId34"/>
     <sheet name="Nerul 301" sheetId="35" r:id="rId35"/>
+    <sheet name="Shezwan House 302" sheetId="36" r:id="rId36"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -53,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="141">
   <si>
     <t>Sr. No</t>
   </si>
@@ -449,13 +450,40 @@
   </si>
   <si>
     <t>4) Scafolding Movement Charges - 1000/- per pole i.e 4000/-</t>
+  </si>
+  <si>
+    <t>BNC Connector</t>
+  </si>
+  <si>
+    <t>Power Connector</t>
+  </si>
+  <si>
+    <t>Power Supply</t>
+  </si>
+  <si>
+    <t>Enclosure with mounting</t>
+  </si>
+  <si>
+    <t>INSTALLATION TESTING COMMISSIONING</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>W Box  2MP Dome Camera</t>
+  </si>
+  <si>
+    <t>W Box 2Amps adaptor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cabling RJ 59 copper 3 + 1 Cat 6 with casing, cabling, laying </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="13">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -539,6 +567,17 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri  "/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri  "/>
     </font>
   </fonts>
   <fills count="2">
@@ -626,7 +665,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -811,6 +850,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -839,6 +884,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1261,56 +1315,56 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
       <c r="G6" s="2">
         <f>SUM(G2:G5)</f>
         <v>91479</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="62" t="s">
+      <c r="A7" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="62"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
       <c r="G7" s="2">
         <f>G6*9%</f>
         <v>8233.11</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="62" t="s">
+      <c r="A8" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="62"/>
-      <c r="C8" s="62"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
+      <c r="B8" s="64"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
       <c r="G8" s="2">
         <f>G6*9%</f>
         <v>8233.11</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="14.4" customHeight="1">
-      <c r="A9" s="62" t="s">
+      <c r="A9" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="62"/>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
+      <c r="B9" s="64"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
       <c r="G9" s="2">
         <f>SUM(G6:G8)</f>
         <v>107945.22</v>
@@ -1445,56 +1499,56 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
       <c r="G5" s="19">
         <f>SUM(G2:G4)</f>
         <v>124900</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
       <c r="G6" s="19">
         <f>G5*9%</f>
         <v>11241</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="62" t="s">
+      <c r="A7" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="62"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
       <c r="G7" s="19">
         <f>G5*9%</f>
         <v>11241</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="62" t="s">
+      <c r="A8" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="62"/>
-      <c r="C8" s="62"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
+      <c r="B8" s="64"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
       <c r="G8" s="19">
         <f>SUM(G5:G7)</f>
         <v>147382</v>
@@ -1578,56 +1632,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
       <c r="G3" s="20">
         <f>SUM(G2)</f>
         <v>5614</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
       <c r="G4" s="20">
         <f>G3*9%</f>
         <v>505.26</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
       <c r="G5" s="20">
         <f>G3*9%</f>
         <v>505.26</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
       <c r="G6" s="20">
         <f>SUM(G3:G5)</f>
         <v>6624.52</v>
@@ -1737,56 +1791,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
       <c r="G4" s="21">
         <f>SUM(G2:G3)</f>
         <v>41212</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
       <c r="G5" s="21">
         <f>G4*9%</f>
         <v>3709.08</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
       <c r="G6" s="21">
         <f>G4*9%</f>
         <v>3709.08</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="62" t="s">
+      <c r="A7" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="62"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
       <c r="G7" s="21">
         <f>SUM(G4:G6)</f>
         <v>48630.16</v>
@@ -1871,56 +1925,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
       <c r="G3" s="21">
         <f>SUM(G2)</f>
         <v>24000</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
       <c r="G4" s="21">
         <f>G3*9%</f>
         <v>2160</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
       <c r="G5" s="21">
         <f>G3*9%</f>
         <v>2160</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
       <c r="G6" s="21">
         <f>SUM(G3:G5)</f>
         <v>28320</v>
@@ -2077,56 +2131,56 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
       <c r="G6" s="22">
         <f>SUM(G2:G5)</f>
         <v>313513</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="62" t="s">
+      <c r="A7" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="62"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
       <c r="G7" s="22">
         <f>G6*9%</f>
         <v>28216.17</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="62" t="s">
+      <c r="A8" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="62"/>
-      <c r="C8" s="62"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
+      <c r="B8" s="64"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
       <c r="G8" s="22">
         <f>G6*9%</f>
         <v>28216.17</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="62" t="s">
+      <c r="A9" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="62"/>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
+      <c r="B9" s="64"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
       <c r="G9" s="22">
         <f>SUM(G6:G8)</f>
         <v>369945.33999999997</v>
@@ -2211,56 +2265,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
       <c r="G3" s="22">
         <f>SUM(G2)</f>
         <v>73450</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
       <c r="G4" s="22">
         <f>G3*9%</f>
         <v>6610.5</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
       <c r="G5" s="22">
         <f>G3*9%</f>
         <v>6610.5</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
       <c r="G6" s="22">
         <f>SUM(G3:G5)</f>
         <v>86671</v>
@@ -2368,56 +2422,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
       <c r="G4" s="23">
         <f>SUM(G2:G3)</f>
         <v>729990</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
       <c r="G5" s="23">
         <f>G4*9%</f>
         <v>65699.099999999991</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
       <c r="G6" s="23">
         <f>G4*9%</f>
         <v>65699.099999999991</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="62" t="s">
+      <c r="A7" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="62"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
       <c r="G7" s="23">
         <f>SUM(G4:G6)</f>
         <v>861388.2</v>
@@ -2597,56 +2651,56 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="62" t="s">
+      <c r="A7" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="62"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
       <c r="G7" s="23">
         <f>SUM(G2:G6)</f>
         <v>246402</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="62" t="s">
+      <c r="A8" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="62"/>
-      <c r="C8" s="62"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
+      <c r="B8" s="64"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
       <c r="G8" s="23">
         <f>G7*9%</f>
         <v>22176.18</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="62" t="s">
+      <c r="A9" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="62"/>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
+      <c r="B9" s="64"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
       <c r="G9" s="23">
         <f>G7*9%</f>
         <v>22176.18</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="62" t="s">
+      <c r="A10" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="62"/>
-      <c r="C10" s="62"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="62"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="64"/>
       <c r="G10" s="23">
         <f>SUM(G7:G9)</f>
         <v>290754.36</v>
@@ -2902,56 +2956,56 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="62" t="s">
+      <c r="A10" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="62"/>
-      <c r="C10" s="62"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="62"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="64"/>
       <c r="G10" s="27">
         <f>SUM(G2:G9)</f>
         <v>734495</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="62" t="s">
+      <c r="A11" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="62"/>
-      <c r="C11" s="62"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="62"/>
+      <c r="B11" s="64"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="64"/>
       <c r="G11" s="27">
         <f>G10*9%</f>
         <v>66104.55</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="62" t="s">
+      <c r="A12" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="62"/>
-      <c r="C12" s="62"/>
-      <c r="D12" s="62"/>
-      <c r="E12" s="62"/>
-      <c r="F12" s="62"/>
+      <c r="B12" s="64"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="64"/>
       <c r="G12" s="27">
         <f>G10*9%</f>
         <v>66104.55</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="62" t="s">
+      <c r="A13" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="62"/>
-      <c r="C13" s="62"/>
-      <c r="D13" s="62"/>
-      <c r="E13" s="62"/>
-      <c r="F13" s="62"/>
+      <c r="B13" s="64"/>
+      <c r="C13" s="64"/>
+      <c r="D13" s="64"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="64"/>
       <c r="G13" s="27">
         <f>SUM(G10:G12)</f>
         <v>866704.10000000009</v>
@@ -3107,56 +3161,56 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
       <c r="G6" s="25">
         <f>SUM(G2:G5)</f>
         <v>70904</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="62" t="s">
+      <c r="A7" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="62"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
       <c r="G7" s="25">
         <f>G6*9%</f>
         <v>6381.36</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="62" t="s">
+      <c r="A8" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="62"/>
-      <c r="C8" s="62"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
+      <c r="B8" s="64"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
       <c r="G8" s="25">
         <f>G6*9%</f>
         <v>6381.36</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="62" t="s">
+      <c r="A9" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="62"/>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
+      <c r="B9" s="64"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
       <c r="G9" s="25">
         <f>SUM(G6:G8)</f>
         <v>83666.720000000001</v>
@@ -3359,56 +3413,56 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="62" t="s">
+      <c r="A8" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="62"/>
-      <c r="C8" s="62"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
+      <c r="B8" s="64"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
       <c r="G8" s="3">
         <f>SUM(G2:G7)</f>
         <v>246185</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="62" t="s">
+      <c r="A9" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="62"/>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
+      <c r="B9" s="64"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
       <c r="G9" s="3">
         <f>G8*9%</f>
         <v>22156.649999999998</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="62" t="s">
+      <c r="A10" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="62"/>
-      <c r="C10" s="62"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="62"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="64"/>
       <c r="G10" s="3">
         <f>G8*9%</f>
         <v>22156.649999999998</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="62" t="s">
+      <c r="A11" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="62"/>
-      <c r="C11" s="62"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="62"/>
+      <c r="B11" s="64"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="64"/>
       <c r="G11" s="3">
         <f>SUM(G8:G10)</f>
         <v>290498.30000000005</v>
@@ -3542,56 +3596,56 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
       <c r="G5" s="28">
         <f>SUM(G2:G4)</f>
         <v>262240</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
       <c r="G6" s="28">
         <f>G5*9%</f>
         <v>23601.599999999999</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="62" t="s">
+      <c r="A7" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="62"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
       <c r="G7" s="28">
         <f>G5*9%</f>
         <v>23601.599999999999</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="62" t="s">
+      <c r="A8" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="62"/>
-      <c r="C8" s="62"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
+      <c r="B8" s="64"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
       <c r="G8" s="28">
         <f>SUM(G5:G7)</f>
         <v>309443.19999999995</v>
@@ -3821,56 +3875,56 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="62" t="s">
+      <c r="A9" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="62"/>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
+      <c r="B9" s="64"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
       <c r="G9" s="28">
         <f>SUM(G2:G8)</f>
         <v>322872</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="62" t="s">
+      <c r="A10" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="62"/>
-      <c r="C10" s="62"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="62"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="64"/>
       <c r="G10" s="28">
         <f>G9*9%</f>
         <v>29058.48</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="62" t="s">
+      <c r="A11" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="62"/>
-      <c r="C11" s="62"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="62"/>
+      <c r="B11" s="64"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="64"/>
       <c r="G11" s="28">
         <f>G9*9%</f>
         <v>29058.48</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="62" t="s">
+      <c r="A12" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="62"/>
-      <c r="C12" s="62"/>
-      <c r="D12" s="62"/>
-      <c r="E12" s="62"/>
-      <c r="F12" s="62"/>
+      <c r="B12" s="64"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="64"/>
       <c r="G12" s="28">
         <f>SUM(G9:G11)</f>
         <v>380988.95999999996</v>
@@ -4027,56 +4081,56 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
       <c r="G6" s="29">
         <f>SUM(G2:G5)</f>
         <v>161752</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="62" t="s">
+      <c r="A7" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="62"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
       <c r="G7" s="29">
         <f>G6*9%</f>
         <v>14557.68</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="62" t="s">
+      <c r="A8" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="62"/>
-      <c r="C8" s="62"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
+      <c r="B8" s="64"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
       <c r="G8" s="29">
         <f>G6*9%</f>
         <v>14557.68</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="62" t="s">
+      <c r="A9" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="62"/>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
+      <c r="B9" s="64"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
       <c r="G9" s="29">
         <f>SUM(G6:G8)</f>
         <v>190867.36</v>
@@ -4160,56 +4214,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
       <c r="G3" s="30">
         <f>SUM(G2)</f>
         <v>18960</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
       <c r="G4" s="30">
         <f>G3*9%</f>
         <v>1706.3999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
       <c r="G5" s="30">
         <f>G3*9%</f>
         <v>1706.3999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
       <c r="G6" s="30">
         <f>SUM(G3:G5)</f>
         <v>22372.800000000003</v>
@@ -4294,56 +4348,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
       <c r="G3" s="32">
         <f>SUM(G2)</f>
         <v>86070</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
       <c r="G4" s="32">
         <f>G3*9%</f>
         <v>7746.2999999999993</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
       <c r="G5" s="32">
         <f>G3*9%</f>
         <v>7746.2999999999993</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
       <c r="G6" s="32">
         <f>SUM(G3:G5)</f>
         <v>101562.6</v>
@@ -4453,56 +4507,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
       <c r="G4" s="33">
         <f>SUM(G2:G3)</f>
         <v>113520</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
       <c r="G5" s="33">
         <f>G4*9%</f>
         <v>10216.799999999999</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
       <c r="G6" s="33">
         <f>G4*9%</f>
         <v>10216.799999999999</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="62" t="s">
+      <c r="A7" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="62"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
       <c r="G7" s="33">
         <f>SUM(G4:G6)</f>
         <v>133953.60000000001</v>
@@ -4588,56 +4642,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
       <c r="G3" s="35">
         <f>SUM(G2)</f>
         <v>19406</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
       <c r="G4" s="35">
         <f>G3*9%</f>
         <v>1746.54</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
       <c r="G5" s="35">
         <f>G3*9%</f>
         <v>1746.54</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
       <c r="G6" s="35">
         <f>SUM(G3:G5)</f>
         <v>22899.08</v>
@@ -4842,56 +4896,56 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="62" t="s">
+      <c r="A8" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="62"/>
-      <c r="C8" s="62"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
+      <c r="B8" s="64"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
       <c r="G8" s="36">
         <f>SUM(G2:G7)</f>
         <v>305810</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="62" t="s">
+      <c r="A9" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="62"/>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
+      <c r="B9" s="64"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
       <c r="G9" s="36">
         <f>G8*9%</f>
         <v>27522.899999999998</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="62" t="s">
+      <c r="A10" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="62"/>
-      <c r="C10" s="62"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="62"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="64"/>
       <c r="G10" s="36">
         <f>G8*9%</f>
         <v>27522.899999999998</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="62" t="s">
+      <c r="A11" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="62"/>
-      <c r="C11" s="62"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="62"/>
+      <c r="B11" s="64"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="64"/>
       <c r="G11" s="36">
         <f>SUM(G8:G10)</f>
         <v>360855.80000000005</v>
@@ -5022,56 +5076,56 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
       <c r="G5" s="42">
         <f>SUM(G2:G4)</f>
         <v>155660</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
       <c r="G6" s="42">
         <f>G5*9%</f>
         <v>14009.4</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="62" t="s">
+      <c r="A7" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="62"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
       <c r="G7" s="42">
         <f>G5*9%</f>
         <v>14009.4</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="62" t="s">
+      <c r="A8" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="62"/>
-      <c r="C8" s="62"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
+      <c r="B8" s="64"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
       <c r="G8" s="42">
         <f>SUM(G5:G7)</f>
         <v>183678.8</v>
@@ -5202,56 +5256,56 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
       <c r="G5" s="43">
         <f>SUM(G2:G4)</f>
         <v>95390</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
       <c r="G6" s="43">
         <f>G5*9%</f>
         <v>8585.1</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="62" t="s">
+      <c r="A7" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="62"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
       <c r="G7" s="43">
         <f>G5*9%</f>
         <v>8585.1</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="62" t="s">
+      <c r="A8" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="62"/>
-      <c r="C8" s="62"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
+      <c r="B8" s="64"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
       <c r="G8" s="43">
         <f>SUM(G5:G7)</f>
         <v>112560.20000000001</v>
@@ -5335,56 +5389,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
       <c r="G3" s="11">
         <f>SUM(G2)</f>
         <v>4831</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
       <c r="G4" s="11">
         <f>G3*9%</f>
         <v>434.78999999999996</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
       <c r="G5" s="11">
         <f>G3*9%</f>
         <v>434.78999999999996</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
       <c r="G6" s="11">
         <f>SUM(G3:G5)</f>
         <v>5700.58</v>
@@ -5467,56 +5521,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
       <c r="G3" s="43">
         <f>SUM(G2)</f>
         <v>56140</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
       <c r="G4" s="43">
         <f>G3*9%</f>
         <v>5052.5999999999995</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
       <c r="G5" s="43">
         <f>G3*9%</f>
         <v>5052.5999999999995</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
       <c r="G6" s="43">
         <f>SUM(G3:G5)</f>
         <v>66245.2</v>
@@ -5600,56 +5654,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
       <c r="G3" s="44">
         <f>SUM(G2)</f>
         <v>48310</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
       <c r="G4" s="44">
         <f>G3*9%</f>
         <v>4347.8999999999996</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
       <c r="G5" s="44">
         <f>G3*9%</f>
         <v>4347.8999999999996</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
       <c r="G6" s="44">
         <f>SUM(G3:G5)</f>
         <v>57005.8</v>
@@ -5755,56 +5809,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
       <c r="G4" s="46">
         <f>SUM(G2:G3)</f>
         <v>122290</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
       <c r="G5" s="46">
         <f>G4*9%</f>
         <v>11006.1</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
       <c r="G6" s="46">
         <f>G4*9%</f>
         <v>11006.1</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="62" t="s">
+      <c r="A7" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="62"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
       <c r="G7" s="46">
         <f>SUM(G4:G6)</f>
         <v>144302.20000000001</v>
@@ -5845,12 +5899,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="73" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
       <c r="E1" s="48"/>
     </row>
     <row r="2" spans="1:5" ht="15.6">
@@ -6051,12 +6105,12 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.6">
-      <c r="A13" s="65" t="s">
+      <c r="A13" s="67" t="s">
         <v>91</v>
       </c>
-      <c r="B13" s="66"/>
-      <c r="C13" s="66"/>
-      <c r="D13" s="67"/>
+      <c r="B13" s="68"/>
+      <c r="C13" s="68"/>
+      <c r="D13" s="69"/>
       <c r="E13" s="52">
         <f>SUM(E3:E12)</f>
         <v>1083930</v>
@@ -6070,12 +6124,12 @@
       <c r="E14" s="54"/>
     </row>
     <row r="15" spans="1:5" ht="21">
-      <c r="A15" s="68" t="s">
+      <c r="A15" s="70" t="s">
         <v>92</v>
       </c>
-      <c r="B15" s="69"/>
-      <c r="C15" s="69"/>
-      <c r="D15" s="70"/>
+      <c r="B15" s="71"/>
+      <c r="C15" s="71"/>
+      <c r="D15" s="72"/>
       <c r="E15" s="53"/>
     </row>
     <row r="16" spans="1:5" ht="15.6">
@@ -6348,12 +6402,12 @@
       </c>
     </row>
     <row r="31" spans="1:14" ht="31.2">
-      <c r="A31" s="65" t="s">
+      <c r="A31" s="67" t="s">
         <v>94</v>
       </c>
-      <c r="B31" s="66"/>
-      <c r="C31" s="66"/>
-      <c r="D31" s="67"/>
+      <c r="B31" s="68"/>
+      <c r="C31" s="68"/>
+      <c r="D31" s="69"/>
       <c r="E31" s="52">
         <f>SUM(E17:E30)</f>
         <v>778190</v>
@@ -6375,12 +6429,12 @@
       </c>
     </row>
     <row r="32" spans="1:14" ht="15.6">
-      <c r="A32" s="65" t="s">
+      <c r="A32" s="67" t="s">
         <v>125</v>
       </c>
-      <c r="B32" s="66"/>
-      <c r="C32" s="66"/>
-      <c r="D32" s="67"/>
+      <c r="B32" s="68"/>
+      <c r="C32" s="68"/>
+      <c r="D32" s="69"/>
       <c r="E32" s="52">
         <f>E13+E31</f>
         <v>1862120</v>
@@ -6407,36 +6461,36 @@
       <c r="N32" s="60"/>
     </row>
     <row r="33" spans="1:10" ht="15.6">
-      <c r="A33" s="65" t="s">
+      <c r="A33" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="B33" s="66"/>
-      <c r="C33" s="66"/>
-      <c r="D33" s="67"/>
+      <c r="B33" s="68"/>
+      <c r="C33" s="68"/>
+      <c r="D33" s="69"/>
       <c r="E33" s="52">
         <f>E32*9%</f>
         <v>167590.79999999999</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="15.6">
-      <c r="A34" s="65" t="s">
+      <c r="A34" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="B34" s="66"/>
-      <c r="C34" s="66"/>
-      <c r="D34" s="67"/>
+      <c r="B34" s="68"/>
+      <c r="C34" s="68"/>
+      <c r="D34" s="69"/>
       <c r="E34" s="52">
         <f>E32*9%</f>
         <v>167590.79999999999</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="15.6">
-      <c r="A35" s="65" t="s">
+      <c r="A35" s="67" t="s">
         <v>95</v>
       </c>
-      <c r="B35" s="66"/>
-      <c r="C35" s="66"/>
-      <c r="D35" s="67"/>
+      <c r="B35" s="68"/>
+      <c r="C35" s="68"/>
+      <c r="D35" s="69"/>
       <c r="E35" s="52">
         <f>SUM(E32:E34)</f>
         <v>2197301.6</v>
@@ -6569,56 +6623,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
       <c r="G3" s="56">
         <f>SUM(G2)</f>
         <v>33684</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
       <c r="G4" s="56">
         <f>G3*9%</f>
         <v>3031.56</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
       <c r="G5" s="56">
         <f>G3*9%</f>
         <v>3031.56</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
       <c r="G6" s="56">
         <f>SUM(G3:G5)</f>
         <v>39747.119999999995</v>
@@ -6639,7 +6693,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
@@ -6660,12 +6714,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="73" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
       <c r="E1" s="48"/>
     </row>
     <row r="2" spans="1:5" ht="15.6">
@@ -6866,12 +6920,12 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.6">
-      <c r="A13" s="65" t="s">
+      <c r="A13" s="67" t="s">
         <v>91</v>
       </c>
-      <c r="B13" s="66"/>
-      <c r="C13" s="66"/>
-      <c r="D13" s="67"/>
+      <c r="B13" s="68"/>
+      <c r="C13" s="68"/>
+      <c r="D13" s="69"/>
       <c r="E13" s="52">
         <f>SUM(E3:E12)</f>
         <v>1083930</v>
@@ -6885,12 +6939,12 @@
       <c r="E14" s="54"/>
     </row>
     <row r="15" spans="1:5" ht="21">
-      <c r="A15" s="68" t="s">
+      <c r="A15" s="70" t="s">
         <v>92</v>
       </c>
-      <c r="B15" s="69"/>
-      <c r="C15" s="69"/>
-      <c r="D15" s="70"/>
+      <c r="B15" s="71"/>
+      <c r="C15" s="71"/>
+      <c r="D15" s="72"/>
       <c r="E15" s="53"/>
     </row>
     <row r="16" spans="1:5" ht="15.6">
@@ -7163,24 +7217,24 @@
       </c>
     </row>
     <row r="31" spans="1:14" ht="15.6" customHeight="1">
-      <c r="A31" s="65" t="s">
+      <c r="A31" s="67" t="s">
         <v>94</v>
       </c>
-      <c r="B31" s="66"/>
-      <c r="C31" s="66"/>
-      <c r="D31" s="67"/>
+      <c r="B31" s="68"/>
+      <c r="C31" s="68"/>
+      <c r="D31" s="69"/>
       <c r="E31" s="52">
         <f>SUM(E17:E30)</f>
         <v>778190</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="15.6">
-      <c r="A32" s="65" t="s">
+      <c r="A32" s="67" t="s">
         <v>128</v>
       </c>
-      <c r="B32" s="66"/>
-      <c r="C32" s="66"/>
-      <c r="D32" s="67"/>
+      <c r="B32" s="68"/>
+      <c r="C32" s="68"/>
+      <c r="D32" s="69"/>
       <c r="E32" s="52">
         <f>E13+E31</f>
         <v>1862120</v>
@@ -7328,6 +7382,202 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="26"/>
+    <col min="2" max="2" width="43.6640625" style="26" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="26"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="62" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="62" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="62" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="62" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="62" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="63">
+        <v>1</v>
+      </c>
+      <c r="B2" s="63" t="s">
+        <v>138</v>
+      </c>
+      <c r="C2" s="63">
+        <v>5</v>
+      </c>
+      <c r="D2" s="63">
+        <v>2000</v>
+      </c>
+      <c r="E2" s="63">
+        <f t="shared" ref="E2:E9" si="0">C2*D2</f>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="63">
+        <v>2</v>
+      </c>
+      <c r="B3" s="63" t="s">
+        <v>132</v>
+      </c>
+      <c r="C3" s="63">
+        <v>12</v>
+      </c>
+      <c r="D3" s="63">
+        <v>60</v>
+      </c>
+      <c r="E3" s="63">
+        <f t="shared" si="0"/>
+        <v>720</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="63">
+        <v>3</v>
+      </c>
+      <c r="B4" s="63" t="s">
+        <v>133</v>
+      </c>
+      <c r="C4" s="63">
+        <v>6</v>
+      </c>
+      <c r="D4" s="63">
+        <v>40</v>
+      </c>
+      <c r="E4" s="63">
+        <f t="shared" si="0"/>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="63">
+        <v>4</v>
+      </c>
+      <c r="B5" s="63" t="s">
+        <v>134</v>
+      </c>
+      <c r="C5" s="63">
+        <v>1</v>
+      </c>
+      <c r="D5" s="63">
+        <v>1990</v>
+      </c>
+      <c r="E5" s="63">
+        <f t="shared" si="0"/>
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="63">
+        <v>5</v>
+      </c>
+      <c r="B6" s="63" t="s">
+        <v>139</v>
+      </c>
+      <c r="C6" s="63">
+        <v>1</v>
+      </c>
+      <c r="D6" s="63">
+        <v>1800</v>
+      </c>
+      <c r="E6" s="63">
+        <f t="shared" si="0"/>
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="63">
+        <v>6</v>
+      </c>
+      <c r="B7" s="63" t="s">
+        <v>135</v>
+      </c>
+      <c r="C7" s="63">
+        <v>1</v>
+      </c>
+      <c r="D7" s="63">
+        <v>100</v>
+      </c>
+      <c r="E7" s="63">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="24.6" customHeight="1">
+      <c r="A8" s="63">
+        <v>7</v>
+      </c>
+      <c r="B8" s="63" t="s">
+        <v>140</v>
+      </c>
+      <c r="C8" s="63">
+        <v>87</v>
+      </c>
+      <c r="D8" s="63">
+        <v>90</v>
+      </c>
+      <c r="E8" s="63">
+        <f t="shared" si="0"/>
+        <v>7830</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="63">
+        <v>8</v>
+      </c>
+      <c r="B9" s="63" t="s">
+        <v>136</v>
+      </c>
+      <c r="C9" s="63">
+        <v>1</v>
+      </c>
+      <c r="D9" s="63">
+        <v>4000</v>
+      </c>
+      <c r="E9" s="63">
+        <f t="shared" si="0"/>
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="74" t="s">
+        <v>137</v>
+      </c>
+      <c r="B10" s="75"/>
+      <c r="C10" s="75"/>
+      <c r="D10" s="76"/>
+      <c r="E10" s="62">
+        <f>SUM(E2:E9)</f>
+        <v>26680</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A10:D10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -7545,56 +7795,56 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="62" t="s">
+      <c r="A9" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="62"/>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
+      <c r="B9" s="64"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
       <c r="G9" s="11">
         <f>SUM(G2:G8)</f>
         <v>249351</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="62" t="s">
+      <c r="A10" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="62"/>
-      <c r="C10" s="62"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="62"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="64"/>
       <c r="G10" s="11">
         <f>G9*9%</f>
         <v>22441.59</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="62" t="s">
+      <c r="A11" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="62"/>
-      <c r="C11" s="62"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="62"/>
+      <c r="B11" s="64"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="64"/>
       <c r="G11" s="11">
         <f>G9*9%</f>
         <v>22441.59</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="62" t="s">
+      <c r="A12" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="62"/>
-      <c r="C12" s="62"/>
-      <c r="D12" s="62"/>
-      <c r="E12" s="62"/>
-      <c r="F12" s="62"/>
+      <c r="B12" s="64"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="64"/>
       <c r="G12" s="11">
         <f>SUM(G9:G11)</f>
         <v>294234.18000000005</v>
@@ -7700,56 +7950,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
       <c r="G4" s="12">
         <f>SUM(G2:G3)</f>
         <v>132820</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
       <c r="G5" s="12">
         <f>G4*9%</f>
         <v>11953.8</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
       <c r="G6" s="12">
         <f>G4*9%</f>
         <v>11953.8</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="62" t="s">
+      <c r="A7" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="62"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
       <c r="G7" s="12">
         <f>SUM(G4:G6)</f>
         <v>156727.59999999998</v>
@@ -7818,48 +8068,48 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
       <c r="E3" s="17">
         <f>SUM(E2)</f>
         <v>18560</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
       <c r="E4" s="17">
         <f>E3*9%</f>
         <v>1670.3999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="63" t="s">
+      <c r="A5" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
       <c r="E5" s="17">
         <f>E3*9%</f>
         <v>1670.3999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="63" t="s">
+      <c r="A6" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="64"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
+      <c r="B6" s="66"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="66"/>
       <c r="E6" s="17">
         <f>SUM(E3:E5)</f>
         <v>21900.800000000003</v>
@@ -7969,56 +8219,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
       <c r="G4" s="13">
         <f>SUM(G2:G3)</f>
         <v>128790</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
       <c r="G5" s="13">
         <f>G4*9%</f>
         <v>11591.1</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
       <c r="G6" s="13">
         <f>G4*9%</f>
         <v>11591.1</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="62" t="s">
+      <c r="A7" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="62"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
       <c r="G7" s="13">
         <f>SUM(G4:G6)</f>
         <v>151972.20000000001</v>
@@ -8128,56 +8378,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
       <c r="G4" s="18">
         <f>SUM(G2:G3)</f>
         <v>196927</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
       <c r="G5" s="18">
         <f>G4*9%</f>
         <v>17723.43</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
       <c r="G6" s="18">
         <f>G4*9%</f>
         <v>17723.43</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="62" t="s">
+      <c r="A7" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="62"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
       <c r="G7" s="18">
         <f>SUM(G4:G6)</f>
         <v>232373.86</v>
@@ -8310,56 +8560,56 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
       <c r="G5" s="19">
         <f>SUM(G2:G4)</f>
         <v>189083</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
       <c r="G6" s="19">
         <f>G5*9%</f>
         <v>17017.47</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="62" t="s">
+      <c r="A7" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="62"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
       <c r="G7" s="19">
         <f>G5*9%</f>
         <v>17017.47</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="62" t="s">
+      <c r="A8" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="62"/>
-      <c r="C8" s="62"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
+      <c r="B8" s="64"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
       <c r="G8" s="19">
         <f>SUM(G5:G7)</f>
         <v>223117.94</v>

--- a/Invoices/Invoices.xlsx
+++ b/Invoices/Invoices.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="28" activeTab="35"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="28" activeTab="34"/>
   </bookViews>
   <sheets>
     <sheet name="Putz 101" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,6 @@
     <sheet name="Nerul 209" sheetId="33" r:id="rId33"/>
     <sheet name="Putz 210" sheetId="34" r:id="rId34"/>
     <sheet name="Nerul 301" sheetId="35" r:id="rId35"/>
-    <sheet name="Shezwan House 302" sheetId="36" r:id="rId36"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -54,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="132">
   <si>
     <t>Sr. No</t>
   </si>
@@ -450,40 +449,13 @@
   </si>
   <si>
     <t>4) Scafolding Movement Charges - 1000/- per pole i.e 4000/-</t>
-  </si>
-  <si>
-    <t>BNC Connector</t>
-  </si>
-  <si>
-    <t>Power Connector</t>
-  </si>
-  <si>
-    <t>Power Supply</t>
-  </si>
-  <si>
-    <t>Enclosure with mounting</t>
-  </si>
-  <si>
-    <t>INSTALLATION TESTING COMMISSIONING</t>
-  </si>
-  <si>
-    <t>TOTAL</t>
-  </si>
-  <si>
-    <t>W Box  2MP Dome Camera</t>
-  </si>
-  <si>
-    <t>W Box 2Amps adaptor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cabling RJ 59 copper 3 + 1 Cat 6 with casing, cabling, laying </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="15">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -567,17 +539,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri  "/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri  "/>
     </font>
   </fonts>
   <fills count="2">
@@ -665,7 +626,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -850,12 +811,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -884,15 +839,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1315,56 +1261,56 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="64" t="s">
+      <c r="A6" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="64"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
       <c r="G6" s="2">
         <f>SUM(G2:G5)</f>
         <v>91479</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="64" t="s">
+      <c r="A7" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="64"/>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
       <c r="G7" s="2">
         <f>G6*9%</f>
         <v>8233.11</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="64" t="s">
+      <c r="A8" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="64"/>
-      <c r="C8" s="64"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="64"/>
+      <c r="B8" s="62"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
       <c r="G8" s="2">
         <f>G6*9%</f>
         <v>8233.11</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="14.4" customHeight="1">
-      <c r="A9" s="64" t="s">
+      <c r="A9" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="64"/>
-      <c r="C9" s="64"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64"/>
+      <c r="B9" s="62"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
       <c r="G9" s="2">
         <f>SUM(G6:G8)</f>
         <v>107945.22</v>
@@ -1499,56 +1445,56 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="64" t="s">
+      <c r="A5" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
       <c r="G5" s="19">
         <f>SUM(G2:G4)</f>
         <v>124900</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="64" t="s">
+      <c r="A6" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="64"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
       <c r="G6" s="19">
         <f>G5*9%</f>
         <v>11241</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="64" t="s">
+      <c r="A7" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="64"/>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
       <c r="G7" s="19">
         <f>G5*9%</f>
         <v>11241</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="64" t="s">
+      <c r="A8" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="64"/>
-      <c r="C8" s="64"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="64"/>
+      <c r="B8" s="62"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
       <c r="G8" s="19">
         <f>SUM(G5:G7)</f>
         <v>147382</v>
@@ -1632,56 +1578,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
       <c r="G3" s="20">
         <f>SUM(G2)</f>
         <v>5614</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="64" t="s">
+      <c r="A4" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
       <c r="G4" s="20">
         <f>G3*9%</f>
         <v>505.26</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="64" t="s">
+      <c r="A5" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
       <c r="G5" s="20">
         <f>G3*9%</f>
         <v>505.26</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="64" t="s">
+      <c r="A6" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="64"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
       <c r="G6" s="20">
         <f>SUM(G3:G5)</f>
         <v>6624.52</v>
@@ -1791,56 +1737,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="64" t="s">
+      <c r="A4" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
       <c r="G4" s="21">
         <f>SUM(G2:G3)</f>
         <v>41212</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="64" t="s">
+      <c r="A5" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
       <c r="G5" s="21">
         <f>G4*9%</f>
         <v>3709.08</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="64" t="s">
+      <c r="A6" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="64"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
       <c r="G6" s="21">
         <f>G4*9%</f>
         <v>3709.08</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="64" t="s">
+      <c r="A7" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="64"/>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
       <c r="G7" s="21">
         <f>SUM(G4:G6)</f>
         <v>48630.16</v>
@@ -1925,56 +1871,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
       <c r="G3" s="21">
         <f>SUM(G2)</f>
         <v>24000</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="64" t="s">
+      <c r="A4" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
       <c r="G4" s="21">
         <f>G3*9%</f>
         <v>2160</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="64" t="s">
+      <c r="A5" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
       <c r="G5" s="21">
         <f>G3*9%</f>
         <v>2160</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="64" t="s">
+      <c r="A6" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="64"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
       <c r="G6" s="21">
         <f>SUM(G3:G5)</f>
         <v>28320</v>
@@ -2131,56 +2077,56 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="64" t="s">
+      <c r="A6" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="64"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
       <c r="G6" s="22">
         <f>SUM(G2:G5)</f>
         <v>313513</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="64" t="s">
+      <c r="A7" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="64"/>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
       <c r="G7" s="22">
         <f>G6*9%</f>
         <v>28216.17</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="64" t="s">
+      <c r="A8" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="64"/>
-      <c r="C8" s="64"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="64"/>
+      <c r="B8" s="62"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
       <c r="G8" s="22">
         <f>G6*9%</f>
         <v>28216.17</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="64" t="s">
+      <c r="A9" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="64"/>
-      <c r="C9" s="64"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64"/>
+      <c r="B9" s="62"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
       <c r="G9" s="22">
         <f>SUM(G6:G8)</f>
         <v>369945.33999999997</v>
@@ -2265,56 +2211,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
       <c r="G3" s="22">
         <f>SUM(G2)</f>
         <v>73450</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="64" t="s">
+      <c r="A4" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
       <c r="G4" s="22">
         <f>G3*9%</f>
         <v>6610.5</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="64" t="s">
+      <c r="A5" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
       <c r="G5" s="22">
         <f>G3*9%</f>
         <v>6610.5</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="64" t="s">
+      <c r="A6" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="64"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
       <c r="G6" s="22">
         <f>SUM(G3:G5)</f>
         <v>86671</v>
@@ -2422,56 +2368,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="64" t="s">
+      <c r="A4" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
       <c r="G4" s="23">
         <f>SUM(G2:G3)</f>
         <v>729990</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="64" t="s">
+      <c r="A5" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
       <c r="G5" s="23">
         <f>G4*9%</f>
         <v>65699.099999999991</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="64" t="s">
+      <c r="A6" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="64"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
       <c r="G6" s="23">
         <f>G4*9%</f>
         <v>65699.099999999991</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="64" t="s">
+      <c r="A7" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="64"/>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
       <c r="G7" s="23">
         <f>SUM(G4:G6)</f>
         <v>861388.2</v>
@@ -2651,56 +2597,56 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="64" t="s">
+      <c r="A7" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="64"/>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
       <c r="G7" s="23">
         <f>SUM(G2:G6)</f>
         <v>246402</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="64" t="s">
+      <c r="A8" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="64"/>
-      <c r="C8" s="64"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="64"/>
+      <c r="B8" s="62"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
       <c r="G8" s="23">
         <f>G7*9%</f>
         <v>22176.18</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="64" t="s">
+      <c r="A9" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="64"/>
-      <c r="C9" s="64"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64"/>
+      <c r="B9" s="62"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
       <c r="G9" s="23">
         <f>G7*9%</f>
         <v>22176.18</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="64" t="s">
+      <c r="A10" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="64"/>
-      <c r="C10" s="64"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="64"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
       <c r="G10" s="23">
         <f>SUM(G7:G9)</f>
         <v>290754.36</v>
@@ -2956,56 +2902,56 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="64" t="s">
+      <c r="A10" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="64"/>
-      <c r="C10" s="64"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="64"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
       <c r="G10" s="27">
         <f>SUM(G2:G9)</f>
         <v>734495</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="64" t="s">
+      <c r="A11" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="64"/>
-      <c r="C11" s="64"/>
-      <c r="D11" s="64"/>
-      <c r="E11" s="64"/>
-      <c r="F11" s="64"/>
+      <c r="B11" s="62"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="62"/>
       <c r="G11" s="27">
         <f>G10*9%</f>
         <v>66104.55</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="64" t="s">
+      <c r="A12" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="64"/>
-      <c r="C12" s="64"/>
-      <c r="D12" s="64"/>
-      <c r="E12" s="64"/>
-      <c r="F12" s="64"/>
+      <c r="B12" s="62"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="62"/>
       <c r="G12" s="27">
         <f>G10*9%</f>
         <v>66104.55</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="64" t="s">
+      <c r="A13" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="64"/>
-      <c r="C13" s="64"/>
-      <c r="D13" s="64"/>
-      <c r="E13" s="64"/>
-      <c r="F13" s="64"/>
+      <c r="B13" s="62"/>
+      <c r="C13" s="62"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="62"/>
+      <c r="F13" s="62"/>
       <c r="G13" s="27">
         <f>SUM(G10:G12)</f>
         <v>866704.10000000009</v>
@@ -3161,56 +3107,56 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="64" t="s">
+      <c r="A6" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="64"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
       <c r="G6" s="25">
         <f>SUM(G2:G5)</f>
         <v>70904</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="64" t="s">
+      <c r="A7" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="64"/>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
       <c r="G7" s="25">
         <f>G6*9%</f>
         <v>6381.36</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="64" t="s">
+      <c r="A8" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="64"/>
-      <c r="C8" s="64"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="64"/>
+      <c r="B8" s="62"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
       <c r="G8" s="25">
         <f>G6*9%</f>
         <v>6381.36</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="64" t="s">
+      <c r="A9" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="64"/>
-      <c r="C9" s="64"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64"/>
+      <c r="B9" s="62"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
       <c r="G9" s="25">
         <f>SUM(G6:G8)</f>
         <v>83666.720000000001</v>
@@ -3413,56 +3359,56 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="64" t="s">
+      <c r="A8" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="64"/>
-      <c r="C8" s="64"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="64"/>
+      <c r="B8" s="62"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
       <c r="G8" s="3">
         <f>SUM(G2:G7)</f>
         <v>246185</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="64" t="s">
+      <c r="A9" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="64"/>
-      <c r="C9" s="64"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64"/>
+      <c r="B9" s="62"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
       <c r="G9" s="3">
         <f>G8*9%</f>
         <v>22156.649999999998</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="64" t="s">
+      <c r="A10" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="64"/>
-      <c r="C10" s="64"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="64"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
       <c r="G10" s="3">
         <f>G8*9%</f>
         <v>22156.649999999998</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="64" t="s">
+      <c r="A11" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="64"/>
-      <c r="C11" s="64"/>
-      <c r="D11" s="64"/>
-      <c r="E11" s="64"/>
-      <c r="F11" s="64"/>
+      <c r="B11" s="62"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="62"/>
       <c r="G11" s="3">
         <f>SUM(G8:G10)</f>
         <v>290498.30000000005</v>
@@ -3596,56 +3542,56 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="64" t="s">
+      <c r="A5" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
       <c r="G5" s="28">
         <f>SUM(G2:G4)</f>
         <v>262240</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="64" t="s">
+      <c r="A6" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="64"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
       <c r="G6" s="28">
         <f>G5*9%</f>
         <v>23601.599999999999</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="64" t="s">
+      <c r="A7" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="64"/>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
       <c r="G7" s="28">
         <f>G5*9%</f>
         <v>23601.599999999999</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="64" t="s">
+      <c r="A8" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="64"/>
-      <c r="C8" s="64"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="64"/>
+      <c r="B8" s="62"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
       <c r="G8" s="28">
         <f>SUM(G5:G7)</f>
         <v>309443.19999999995</v>
@@ -3875,56 +3821,56 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="64" t="s">
+      <c r="A9" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="64"/>
-      <c r="C9" s="64"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64"/>
+      <c r="B9" s="62"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
       <c r="G9" s="28">
         <f>SUM(G2:G8)</f>
         <v>322872</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="64" t="s">
+      <c r="A10" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="64"/>
-      <c r="C10" s="64"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="64"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
       <c r="G10" s="28">
         <f>G9*9%</f>
         <v>29058.48</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="64" t="s">
+      <c r="A11" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="64"/>
-      <c r="C11" s="64"/>
-      <c r="D11" s="64"/>
-      <c r="E11" s="64"/>
-      <c r="F11" s="64"/>
+      <c r="B11" s="62"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="62"/>
       <c r="G11" s="28">
         <f>G9*9%</f>
         <v>29058.48</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="64" t="s">
+      <c r="A12" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="64"/>
-      <c r="C12" s="64"/>
-      <c r="D12" s="64"/>
-      <c r="E12" s="64"/>
-      <c r="F12" s="64"/>
+      <c r="B12" s="62"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="62"/>
       <c r="G12" s="28">
         <f>SUM(G9:G11)</f>
         <v>380988.95999999996</v>
@@ -4081,56 +4027,56 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="64" t="s">
+      <c r="A6" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="64"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
       <c r="G6" s="29">
         <f>SUM(G2:G5)</f>
         <v>161752</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="64" t="s">
+      <c r="A7" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="64"/>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
       <c r="G7" s="29">
         <f>G6*9%</f>
         <v>14557.68</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="64" t="s">
+      <c r="A8" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="64"/>
-      <c r="C8" s="64"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="64"/>
+      <c r="B8" s="62"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
       <c r="G8" s="29">
         <f>G6*9%</f>
         <v>14557.68</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="64" t="s">
+      <c r="A9" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="64"/>
-      <c r="C9" s="64"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64"/>
+      <c r="B9" s="62"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
       <c r="G9" s="29">
         <f>SUM(G6:G8)</f>
         <v>190867.36</v>
@@ -4214,56 +4160,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
       <c r="G3" s="30">
         <f>SUM(G2)</f>
         <v>18960</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="64" t="s">
+      <c r="A4" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
       <c r="G4" s="30">
         <f>G3*9%</f>
         <v>1706.3999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="64" t="s">
+      <c r="A5" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
       <c r="G5" s="30">
         <f>G3*9%</f>
         <v>1706.3999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="64" t="s">
+      <c r="A6" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="64"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
       <c r="G6" s="30">
         <f>SUM(G3:G5)</f>
         <v>22372.800000000003</v>
@@ -4348,56 +4294,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
       <c r="G3" s="32">
         <f>SUM(G2)</f>
         <v>86070</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="64" t="s">
+      <c r="A4" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
       <c r="G4" s="32">
         <f>G3*9%</f>
         <v>7746.2999999999993</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="64" t="s">
+      <c r="A5" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
       <c r="G5" s="32">
         <f>G3*9%</f>
         <v>7746.2999999999993</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="64" t="s">
+      <c r="A6" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="64"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
       <c r="G6" s="32">
         <f>SUM(G3:G5)</f>
         <v>101562.6</v>
@@ -4507,56 +4453,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="64" t="s">
+      <c r="A4" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
       <c r="G4" s="33">
         <f>SUM(G2:G3)</f>
         <v>113520</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="64" t="s">
+      <c r="A5" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
       <c r="G5" s="33">
         <f>G4*9%</f>
         <v>10216.799999999999</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="64" t="s">
+      <c r="A6" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="64"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
       <c r="G6" s="33">
         <f>G4*9%</f>
         <v>10216.799999999999</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="64" t="s">
+      <c r="A7" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="64"/>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
       <c r="G7" s="33">
         <f>SUM(G4:G6)</f>
         <v>133953.60000000001</v>
@@ -4642,56 +4588,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
       <c r="G3" s="35">
         <f>SUM(G2)</f>
         <v>19406</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="64" t="s">
+      <c r="A4" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
       <c r="G4" s="35">
         <f>G3*9%</f>
         <v>1746.54</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="64" t="s">
+      <c r="A5" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
       <c r="G5" s="35">
         <f>G3*9%</f>
         <v>1746.54</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="64" t="s">
+      <c r="A6" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="64"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
       <c r="G6" s="35">
         <f>SUM(G3:G5)</f>
         <v>22899.08</v>
@@ -4896,56 +4842,56 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="64" t="s">
+      <c r="A8" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="64"/>
-      <c r="C8" s="64"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="64"/>
+      <c r="B8" s="62"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
       <c r="G8" s="36">
         <f>SUM(G2:G7)</f>
         <v>305810</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="64" t="s">
+      <c r="A9" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="64"/>
-      <c r="C9" s="64"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64"/>
+      <c r="B9" s="62"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
       <c r="G9" s="36">
         <f>G8*9%</f>
         <v>27522.899999999998</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="64" t="s">
+      <c r="A10" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="64"/>
-      <c r="C10" s="64"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="64"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
       <c r="G10" s="36">
         <f>G8*9%</f>
         <v>27522.899999999998</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="64" t="s">
+      <c r="A11" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="64"/>
-      <c r="C11" s="64"/>
-      <c r="D11" s="64"/>
-      <c r="E11" s="64"/>
-      <c r="F11" s="64"/>
+      <c r="B11" s="62"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="62"/>
       <c r="G11" s="36">
         <f>SUM(G8:G10)</f>
         <v>360855.80000000005</v>
@@ -5076,56 +5022,56 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="64" t="s">
+      <c r="A5" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
       <c r="G5" s="42">
         <f>SUM(G2:G4)</f>
         <v>155660</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="64" t="s">
+      <c r="A6" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="64"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
       <c r="G6" s="42">
         <f>G5*9%</f>
         <v>14009.4</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="64" t="s">
+      <c r="A7" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="64"/>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
       <c r="G7" s="42">
         <f>G5*9%</f>
         <v>14009.4</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="64" t="s">
+      <c r="A8" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="64"/>
-      <c r="C8" s="64"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="64"/>
+      <c r="B8" s="62"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
       <c r="G8" s="42">
         <f>SUM(G5:G7)</f>
         <v>183678.8</v>
@@ -5256,56 +5202,56 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="64" t="s">
+      <c r="A5" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
       <c r="G5" s="43">
         <f>SUM(G2:G4)</f>
         <v>95390</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="64" t="s">
+      <c r="A6" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="64"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
       <c r="G6" s="43">
         <f>G5*9%</f>
         <v>8585.1</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="64" t="s">
+      <c r="A7" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="64"/>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
       <c r="G7" s="43">
         <f>G5*9%</f>
         <v>8585.1</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="64" t="s">
+      <c r="A8" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="64"/>
-      <c r="C8" s="64"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="64"/>
+      <c r="B8" s="62"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
       <c r="G8" s="43">
         <f>SUM(G5:G7)</f>
         <v>112560.20000000001</v>
@@ -5389,56 +5335,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
       <c r="G3" s="11">
         <f>SUM(G2)</f>
         <v>4831</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="64" t="s">
+      <c r="A4" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
       <c r="G4" s="11">
         <f>G3*9%</f>
         <v>434.78999999999996</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="64" t="s">
+      <c r="A5" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
       <c r="G5" s="11">
         <f>G3*9%</f>
         <v>434.78999999999996</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="64" t="s">
+      <c r="A6" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="64"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
       <c r="G6" s="11">
         <f>SUM(G3:G5)</f>
         <v>5700.58</v>
@@ -5521,56 +5467,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
       <c r="G3" s="43">
         <f>SUM(G2)</f>
         <v>56140</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="64" t="s">
+      <c r="A4" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
       <c r="G4" s="43">
         <f>G3*9%</f>
         <v>5052.5999999999995</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="64" t="s">
+      <c r="A5" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
       <c r="G5" s="43">
         <f>G3*9%</f>
         <v>5052.5999999999995</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="64" t="s">
+      <c r="A6" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="64"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
       <c r="G6" s="43">
         <f>SUM(G3:G5)</f>
         <v>66245.2</v>
@@ -5654,56 +5600,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
       <c r="G3" s="44">
         <f>SUM(G2)</f>
         <v>48310</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="64" t="s">
+      <c r="A4" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
       <c r="G4" s="44">
         <f>G3*9%</f>
         <v>4347.8999999999996</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="64" t="s">
+      <c r="A5" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
       <c r="G5" s="44">
         <f>G3*9%</f>
         <v>4347.8999999999996</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="64" t="s">
+      <c r="A6" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="64"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
       <c r="G6" s="44">
         <f>SUM(G3:G5)</f>
         <v>57005.8</v>
@@ -5809,56 +5755,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="64" t="s">
+      <c r="A4" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
       <c r="G4" s="46">
         <f>SUM(G2:G3)</f>
         <v>122290</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="64" t="s">
+      <c r="A5" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
       <c r="G5" s="46">
         <f>G4*9%</f>
         <v>11006.1</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="64" t="s">
+      <c r="A6" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="64"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
       <c r="G6" s="46">
         <f>G4*9%</f>
         <v>11006.1</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="64" t="s">
+      <c r="A7" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="64"/>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
       <c r="G7" s="46">
         <f>SUM(G4:G6)</f>
         <v>144302.20000000001</v>
@@ -5899,12 +5845,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="71" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
       <c r="E1" s="48"/>
     </row>
     <row r="2" spans="1:5" ht="15.6">
@@ -6105,12 +6051,12 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.6">
-      <c r="A13" s="67" t="s">
+      <c r="A13" s="65" t="s">
         <v>91</v>
       </c>
-      <c r="B13" s="68"/>
-      <c r="C13" s="68"/>
-      <c r="D13" s="69"/>
+      <c r="B13" s="66"/>
+      <c r="C13" s="66"/>
+      <c r="D13" s="67"/>
       <c r="E13" s="52">
         <f>SUM(E3:E12)</f>
         <v>1083930</v>
@@ -6124,12 +6070,12 @@
       <c r="E14" s="54"/>
     </row>
     <row r="15" spans="1:5" ht="21">
-      <c r="A15" s="70" t="s">
+      <c r="A15" s="68" t="s">
         <v>92</v>
       </c>
-      <c r="B15" s="71"/>
-      <c r="C15" s="71"/>
-      <c r="D15" s="72"/>
+      <c r="B15" s="69"/>
+      <c r="C15" s="69"/>
+      <c r="D15" s="70"/>
       <c r="E15" s="53"/>
     </row>
     <row r="16" spans="1:5" ht="15.6">
@@ -6402,12 +6348,12 @@
       </c>
     </row>
     <row r="31" spans="1:14" ht="31.2">
-      <c r="A31" s="67" t="s">
+      <c r="A31" s="65" t="s">
         <v>94</v>
       </c>
-      <c r="B31" s="68"/>
-      <c r="C31" s="68"/>
-      <c r="D31" s="69"/>
+      <c r="B31" s="66"/>
+      <c r="C31" s="66"/>
+      <c r="D31" s="67"/>
       <c r="E31" s="52">
         <f>SUM(E17:E30)</f>
         <v>778190</v>
@@ -6429,12 +6375,12 @@
       </c>
     </row>
     <row r="32" spans="1:14" ht="15.6">
-      <c r="A32" s="67" t="s">
+      <c r="A32" s="65" t="s">
         <v>125</v>
       </c>
-      <c r="B32" s="68"/>
-      <c r="C32" s="68"/>
-      <c r="D32" s="69"/>
+      <c r="B32" s="66"/>
+      <c r="C32" s="66"/>
+      <c r="D32" s="67"/>
       <c r="E32" s="52">
         <f>E13+E31</f>
         <v>1862120</v>
@@ -6461,36 +6407,36 @@
       <c r="N32" s="60"/>
     </row>
     <row r="33" spans="1:10" ht="15.6">
-      <c r="A33" s="67" t="s">
+      <c r="A33" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="B33" s="68"/>
-      <c r="C33" s="68"/>
-      <c r="D33" s="69"/>
+      <c r="B33" s="66"/>
+      <c r="C33" s="66"/>
+      <c r="D33" s="67"/>
       <c r="E33" s="52">
         <f>E32*9%</f>
         <v>167590.79999999999</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="15.6">
-      <c r="A34" s="67" t="s">
+      <c r="A34" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="B34" s="68"/>
-      <c r="C34" s="68"/>
-      <c r="D34" s="69"/>
+      <c r="B34" s="66"/>
+      <c r="C34" s="66"/>
+      <c r="D34" s="67"/>
       <c r="E34" s="52">
         <f>E32*9%</f>
         <v>167590.79999999999</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="15.6">
-      <c r="A35" s="67" t="s">
+      <c r="A35" s="65" t="s">
         <v>95</v>
       </c>
-      <c r="B35" s="68"/>
-      <c r="C35" s="68"/>
-      <c r="D35" s="69"/>
+      <c r="B35" s="66"/>
+      <c r="C35" s="66"/>
+      <c r="D35" s="67"/>
       <c r="E35" s="52">
         <f>SUM(E32:E34)</f>
         <v>2197301.6</v>
@@ -6623,56 +6569,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
       <c r="G3" s="56">
         <f>SUM(G2)</f>
         <v>33684</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="64" t="s">
+      <c r="A4" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
       <c r="G4" s="56">
         <f>G3*9%</f>
         <v>3031.56</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="64" t="s">
+      <c r="A5" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
       <c r="G5" s="56">
         <f>G3*9%</f>
         <v>3031.56</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="64" t="s">
+      <c r="A6" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="64"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
       <c r="G6" s="56">
         <f>SUM(G3:G5)</f>
         <v>39747.119999999995</v>
@@ -6693,7 +6639,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N66"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
       <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
@@ -6714,12 +6660,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="71" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
       <c r="E1" s="48"/>
     </row>
     <row r="2" spans="1:5" ht="15.6">
@@ -6920,12 +6866,12 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.6">
-      <c r="A13" s="67" t="s">
+      <c r="A13" s="65" t="s">
         <v>91</v>
       </c>
-      <c r="B13" s="68"/>
-      <c r="C13" s="68"/>
-      <c r="D13" s="69"/>
+      <c r="B13" s="66"/>
+      <c r="C13" s="66"/>
+      <c r="D13" s="67"/>
       <c r="E13" s="52">
         <f>SUM(E3:E12)</f>
         <v>1083930</v>
@@ -6939,12 +6885,12 @@
       <c r="E14" s="54"/>
     </row>
     <row r="15" spans="1:5" ht="21">
-      <c r="A15" s="70" t="s">
+      <c r="A15" s="68" t="s">
         <v>92</v>
       </c>
-      <c r="B15" s="71"/>
-      <c r="C15" s="71"/>
-      <c r="D15" s="72"/>
+      <c r="B15" s="69"/>
+      <c r="C15" s="69"/>
+      <c r="D15" s="70"/>
       <c r="E15" s="53"/>
     </row>
     <row r="16" spans="1:5" ht="15.6">
@@ -7217,24 +7163,24 @@
       </c>
     </row>
     <row r="31" spans="1:14" ht="15.6" customHeight="1">
-      <c r="A31" s="67" t="s">
+      <c r="A31" s="65" t="s">
         <v>94</v>
       </c>
-      <c r="B31" s="68"/>
-      <c r="C31" s="68"/>
-      <c r="D31" s="69"/>
+      <c r="B31" s="66"/>
+      <c r="C31" s="66"/>
+      <c r="D31" s="67"/>
       <c r="E31" s="52">
         <f>SUM(E17:E30)</f>
         <v>778190</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="15.6">
-      <c r="A32" s="67" t="s">
+      <c r="A32" s="65" t="s">
         <v>128</v>
       </c>
-      <c r="B32" s="68"/>
-      <c r="C32" s="68"/>
-      <c r="D32" s="69"/>
+      <c r="B32" s="66"/>
+      <c r="C32" s="66"/>
+      <c r="D32" s="67"/>
       <c r="E32" s="52">
         <f>E13+E31</f>
         <v>1862120</v>
@@ -7382,202 +7328,6 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="8.88671875" style="26"/>
-    <col min="2" max="2" width="43.6640625" style="26" customWidth="1"/>
-    <col min="3" max="16384" width="8.88671875" style="26"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="62" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" s="62" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" s="62" t="s">
-        <v>38</v>
-      </c>
-      <c r="D1" s="62" t="s">
-        <v>39</v>
-      </c>
-      <c r="E1" s="62" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="63">
-        <v>1</v>
-      </c>
-      <c r="B2" s="63" t="s">
-        <v>138</v>
-      </c>
-      <c r="C2" s="63">
-        <v>5</v>
-      </c>
-      <c r="D2" s="63">
-        <v>2000</v>
-      </c>
-      <c r="E2" s="63">
-        <f t="shared" ref="E2:E9" si="0">C2*D2</f>
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="63">
-        <v>2</v>
-      </c>
-      <c r="B3" s="63" t="s">
-        <v>132</v>
-      </c>
-      <c r="C3" s="63">
-        <v>12</v>
-      </c>
-      <c r="D3" s="63">
-        <v>60</v>
-      </c>
-      <c r="E3" s="63">
-        <f t="shared" si="0"/>
-        <v>720</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="63">
-        <v>3</v>
-      </c>
-      <c r="B4" s="63" t="s">
-        <v>133</v>
-      </c>
-      <c r="C4" s="63">
-        <v>6</v>
-      </c>
-      <c r="D4" s="63">
-        <v>40</v>
-      </c>
-      <c r="E4" s="63">
-        <f t="shared" si="0"/>
-        <v>240</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="63">
-        <v>4</v>
-      </c>
-      <c r="B5" s="63" t="s">
-        <v>134</v>
-      </c>
-      <c r="C5" s="63">
-        <v>1</v>
-      </c>
-      <c r="D5" s="63">
-        <v>1990</v>
-      </c>
-      <c r="E5" s="63">
-        <f t="shared" si="0"/>
-        <v>1990</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="63">
-        <v>5</v>
-      </c>
-      <c r="B6" s="63" t="s">
-        <v>139</v>
-      </c>
-      <c r="C6" s="63">
-        <v>1</v>
-      </c>
-      <c r="D6" s="63">
-        <v>1800</v>
-      </c>
-      <c r="E6" s="63">
-        <f t="shared" si="0"/>
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="63">
-        <v>6</v>
-      </c>
-      <c r="B7" s="63" t="s">
-        <v>135</v>
-      </c>
-      <c r="C7" s="63">
-        <v>1</v>
-      </c>
-      <c r="D7" s="63">
-        <v>100</v>
-      </c>
-      <c r="E7" s="63">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="24.6" customHeight="1">
-      <c r="A8" s="63">
-        <v>7</v>
-      </c>
-      <c r="B8" s="63" t="s">
-        <v>140</v>
-      </c>
-      <c r="C8" s="63">
-        <v>87</v>
-      </c>
-      <c r="D8" s="63">
-        <v>90</v>
-      </c>
-      <c r="E8" s="63">
-        <f t="shared" si="0"/>
-        <v>7830</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="63">
-        <v>8</v>
-      </c>
-      <c r="B9" s="63" t="s">
-        <v>136</v>
-      </c>
-      <c r="C9" s="63">
-        <v>1</v>
-      </c>
-      <c r="D9" s="63">
-        <v>4000</v>
-      </c>
-      <c r="E9" s="63">
-        <f t="shared" si="0"/>
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="74" t="s">
-        <v>137</v>
-      </c>
-      <c r="B10" s="75"/>
-      <c r="C10" s="75"/>
-      <c r="D10" s="76"/>
-      <c r="E10" s="62">
-        <f>SUM(E2:E9)</f>
-        <v>26680</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A10:D10"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -7795,56 +7545,56 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="64" t="s">
+      <c r="A9" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="64"/>
-      <c r="C9" s="64"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64"/>
+      <c r="B9" s="62"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
       <c r="G9" s="11">
         <f>SUM(G2:G8)</f>
         <v>249351</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="64" t="s">
+      <c r="A10" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="64"/>
-      <c r="C10" s="64"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="64"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
       <c r="G10" s="11">
         <f>G9*9%</f>
         <v>22441.59</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="64" t="s">
+      <c r="A11" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="64"/>
-      <c r="C11" s="64"/>
-      <c r="D11" s="64"/>
-      <c r="E11" s="64"/>
-      <c r="F11" s="64"/>
+      <c r="B11" s="62"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="62"/>
       <c r="G11" s="11">
         <f>G9*9%</f>
         <v>22441.59</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="64" t="s">
+      <c r="A12" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="64"/>
-      <c r="C12" s="64"/>
-      <c r="D12" s="64"/>
-      <c r="E12" s="64"/>
-      <c r="F12" s="64"/>
+      <c r="B12" s="62"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="62"/>
       <c r="G12" s="11">
         <f>SUM(G9:G11)</f>
         <v>294234.18000000005</v>
@@ -7950,56 +7700,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="64" t="s">
+      <c r="A4" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
       <c r="G4" s="12">
         <f>SUM(G2:G3)</f>
         <v>132820</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="64" t="s">
+      <c r="A5" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
       <c r="G5" s="12">
         <f>G4*9%</f>
         <v>11953.8</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="64" t="s">
+      <c r="A6" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="64"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
       <c r="G6" s="12">
         <f>G4*9%</f>
         <v>11953.8</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="64" t="s">
+      <c r="A7" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="64"/>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
       <c r="G7" s="12">
         <f>SUM(G4:G6)</f>
         <v>156727.59999999998</v>
@@ -8068,48 +7818,48 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="65" t="s">
+      <c r="A3" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
       <c r="E3" s="17">
         <f>SUM(E2)</f>
         <v>18560</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="65" t="s">
+      <c r="A4" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="66"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
       <c r="E4" s="17">
         <f>E3*9%</f>
         <v>1670.3999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="65" t="s">
+      <c r="A5" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="66"/>
-      <c r="C5" s="66"/>
-      <c r="D5" s="66"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
       <c r="E5" s="17">
         <f>E3*9%</f>
         <v>1670.3999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="65" t="s">
+      <c r="A6" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="66"/>
-      <c r="C6" s="66"/>
-      <c r="D6" s="66"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
       <c r="E6" s="17">
         <f>SUM(E3:E5)</f>
         <v>21900.800000000003</v>
@@ -8219,56 +7969,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="64" t="s">
+      <c r="A4" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
       <c r="G4" s="13">
         <f>SUM(G2:G3)</f>
         <v>128790</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="64" t="s">
+      <c r="A5" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
       <c r="G5" s="13">
         <f>G4*9%</f>
         <v>11591.1</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="64" t="s">
+      <c r="A6" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="64"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
       <c r="G6" s="13">
         <f>G4*9%</f>
         <v>11591.1</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="64" t="s">
+      <c r="A7" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="64"/>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
       <c r="G7" s="13">
         <f>SUM(G4:G6)</f>
         <v>151972.20000000001</v>
@@ -8378,56 +8128,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="64" t="s">
+      <c r="A4" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
       <c r="G4" s="18">
         <f>SUM(G2:G3)</f>
         <v>196927</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="64" t="s">
+      <c r="A5" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
       <c r="G5" s="18">
         <f>G4*9%</f>
         <v>17723.43</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="64" t="s">
+      <c r="A6" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="64"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
       <c r="G6" s="18">
         <f>G4*9%</f>
         <v>17723.43</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="64" t="s">
+      <c r="A7" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="64"/>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
       <c r="G7" s="18">
         <f>SUM(G4:G6)</f>
         <v>232373.86</v>
@@ -8560,56 +8310,56 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="64" t="s">
+      <c r="A5" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
       <c r="G5" s="19">
         <f>SUM(G2:G4)</f>
         <v>189083</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="64" t="s">
+      <c r="A6" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="64"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
       <c r="G6" s="19">
         <f>G5*9%</f>
         <v>17017.47</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="64" t="s">
+      <c r="A7" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="64"/>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
       <c r="G7" s="19">
         <f>G5*9%</f>
         <v>17017.47</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="64" t="s">
+      <c r="A8" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="64"/>
-      <c r="C8" s="64"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="64"/>
+      <c r="B8" s="62"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
       <c r="G8" s="19">
         <f>SUM(G5:G7)</f>
         <v>223117.94</v>

--- a/Invoices/Invoices.xlsx
+++ b/Invoices/Invoices.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="28" activeTab="34"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="26" activeTab="34"/>
   </bookViews>
   <sheets>
     <sheet name="Putz 101" sheetId="1" r:id="rId1"/>
@@ -5668,6 +5668,9 @@
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5826,7 +5829,7 @@
   <dimension ref="A1:N51"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A19" sqref="A1:XFD1048576"/>
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -6507,10 +6510,13 @@
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="F25" sqref="E25:F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -6640,7 +6646,7 @@
   <dimension ref="A1:N66"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -7768,10 +7774,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/Invoices/Invoices.xlsx
+++ b/Invoices/Invoices.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="26" activeTab="34"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="28" activeTab="35"/>
   </bookViews>
   <sheets>
     <sheet name="Putz 101" sheetId="1" r:id="rId1"/>
@@ -42,6 +42,7 @@
     <sheet name="Nerul 209" sheetId="33" r:id="rId33"/>
     <sheet name="Putz 210" sheetId="34" r:id="rId34"/>
     <sheet name="Nerul 301" sheetId="35" r:id="rId35"/>
+    <sheet name="Putz 302 APS" sheetId="36" r:id="rId36"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -53,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="134">
   <si>
     <t>Sr. No</t>
   </si>
@@ -449,6 +450,12 @@
   </si>
   <si>
     <t>4) Scafolding Movement Charges - 1000/- per pole i.e 4000/-</t>
+  </si>
+  <si>
+    <t>APS 151350196 (05-07-2023)</t>
+  </si>
+  <si>
+    <t>Dell PC (Serial Number - (CPU - FL7WMZ3, D6VVMZ3) (Monitor - 1YSMXY3, 29ZMXY3)</t>
   </si>
 </sst>
 </file>
@@ -626,7 +633,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -810,6 +817,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1261,56 +1271,56 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
+      <c r="B6" s="63"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63"/>
       <c r="G6" s="2">
         <f>SUM(G2:G5)</f>
         <v>91479</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="62" t="s">
+      <c r="A7" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="62"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
+      <c r="B7" s="63"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="63"/>
       <c r="G7" s="2">
         <f>G6*9%</f>
         <v>8233.11</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="62" t="s">
+      <c r="A8" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="62"/>
-      <c r="C8" s="62"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
+      <c r="B8" s="63"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="63"/>
       <c r="G8" s="2">
         <f>G6*9%</f>
         <v>8233.11</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="14.4" customHeight="1">
-      <c r="A9" s="62" t="s">
+      <c r="A9" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="62"/>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
+      <c r="B9" s="63"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="63"/>
       <c r="G9" s="2">
         <f>SUM(G6:G8)</f>
         <v>107945.22</v>
@@ -1445,56 +1455,56 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
       <c r="G5" s="19">
         <f>SUM(G2:G4)</f>
         <v>124900</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
+      <c r="B6" s="63"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63"/>
       <c r="G6" s="19">
         <f>G5*9%</f>
         <v>11241</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="62" t="s">
+      <c r="A7" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="62"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
+      <c r="B7" s="63"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="63"/>
       <c r="G7" s="19">
         <f>G5*9%</f>
         <v>11241</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="62" t="s">
+      <c r="A8" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="62"/>
-      <c r="C8" s="62"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
+      <c r="B8" s="63"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="63"/>
       <c r="G8" s="19">
         <f>SUM(G5:G7)</f>
         <v>147382</v>
@@ -1578,56 +1588,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
       <c r="G3" s="20">
         <f>SUM(G2)</f>
         <v>5614</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
       <c r="G4" s="20">
         <f>G3*9%</f>
         <v>505.26</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
       <c r="G5" s="20">
         <f>G3*9%</f>
         <v>505.26</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
+      <c r="B6" s="63"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63"/>
       <c r="G6" s="20">
         <f>SUM(G3:G5)</f>
         <v>6624.52</v>
@@ -1737,56 +1747,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
       <c r="G4" s="21">
         <f>SUM(G2:G3)</f>
         <v>41212</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
       <c r="G5" s="21">
         <f>G4*9%</f>
         <v>3709.08</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
+      <c r="B6" s="63"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63"/>
       <c r="G6" s="21">
         <f>G4*9%</f>
         <v>3709.08</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="62" t="s">
+      <c r="A7" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="62"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
+      <c r="B7" s="63"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="63"/>
       <c r="G7" s="21">
         <f>SUM(G4:G6)</f>
         <v>48630.16</v>
@@ -1871,56 +1881,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
       <c r="G3" s="21">
         <f>SUM(G2)</f>
         <v>24000</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
       <c r="G4" s="21">
         <f>G3*9%</f>
         <v>2160</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
       <c r="G5" s="21">
         <f>G3*9%</f>
         <v>2160</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
+      <c r="B6" s="63"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63"/>
       <c r="G6" s="21">
         <f>SUM(G3:G5)</f>
         <v>28320</v>
@@ -2077,56 +2087,56 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
+      <c r="B6" s="63"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63"/>
       <c r="G6" s="22">
         <f>SUM(G2:G5)</f>
         <v>313513</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="62" t="s">
+      <c r="A7" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="62"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
+      <c r="B7" s="63"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="63"/>
       <c r="G7" s="22">
         <f>G6*9%</f>
         <v>28216.17</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="62" t="s">
+      <c r="A8" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="62"/>
-      <c r="C8" s="62"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
+      <c r="B8" s="63"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="63"/>
       <c r="G8" s="22">
         <f>G6*9%</f>
         <v>28216.17</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="62" t="s">
+      <c r="A9" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="62"/>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
+      <c r="B9" s="63"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="63"/>
       <c r="G9" s="22">
         <f>SUM(G6:G8)</f>
         <v>369945.33999999997</v>
@@ -2211,56 +2221,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
       <c r="G3" s="22">
         <f>SUM(G2)</f>
         <v>73450</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
       <c r="G4" s="22">
         <f>G3*9%</f>
         <v>6610.5</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
       <c r="G5" s="22">
         <f>G3*9%</f>
         <v>6610.5</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
+      <c r="B6" s="63"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63"/>
       <c r="G6" s="22">
         <f>SUM(G3:G5)</f>
         <v>86671</v>
@@ -2368,56 +2378,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
       <c r="G4" s="23">
         <f>SUM(G2:G3)</f>
         <v>729990</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
       <c r="G5" s="23">
         <f>G4*9%</f>
         <v>65699.099999999991</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
+      <c r="B6" s="63"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63"/>
       <c r="G6" s="23">
         <f>G4*9%</f>
         <v>65699.099999999991</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="62" t="s">
+      <c r="A7" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="62"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
+      <c r="B7" s="63"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="63"/>
       <c r="G7" s="23">
         <f>SUM(G4:G6)</f>
         <v>861388.2</v>
@@ -2442,7 +2452,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection sqref="A1:G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2597,56 +2607,56 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="62" t="s">
+      <c r="A7" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="62"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
+      <c r="B7" s="63"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="63"/>
       <c r="G7" s="23">
         <f>SUM(G2:G6)</f>
         <v>246402</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="62" t="s">
+      <c r="A8" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="62"/>
-      <c r="C8" s="62"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
+      <c r="B8" s="63"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="63"/>
       <c r="G8" s="23">
         <f>G7*9%</f>
         <v>22176.18</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="62" t="s">
+      <c r="A9" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="62"/>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
+      <c r="B9" s="63"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="63"/>
       <c r="G9" s="23">
         <f>G7*9%</f>
         <v>22176.18</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="62" t="s">
+      <c r="A10" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="62"/>
-      <c r="C10" s="62"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="62"/>
+      <c r="B10" s="63"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="63"/>
       <c r="G10" s="23">
         <f>SUM(G7:G9)</f>
         <v>290754.36</v>
@@ -2902,56 +2912,56 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="62" t="s">
+      <c r="A10" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="62"/>
-      <c r="C10" s="62"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="62"/>
+      <c r="B10" s="63"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="63"/>
       <c r="G10" s="27">
         <f>SUM(G2:G9)</f>
         <v>734495</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="62" t="s">
+      <c r="A11" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="62"/>
-      <c r="C11" s="62"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="62"/>
+      <c r="B11" s="63"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="63"/>
+      <c r="F11" s="63"/>
       <c r="G11" s="27">
         <f>G10*9%</f>
         <v>66104.55</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="62" t="s">
+      <c r="A12" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="62"/>
-      <c r="C12" s="62"/>
-      <c r="D12" s="62"/>
-      <c r="E12" s="62"/>
-      <c r="F12" s="62"/>
+      <c r="B12" s="63"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="63"/>
+      <c r="F12" s="63"/>
       <c r="G12" s="27">
         <f>G10*9%</f>
         <v>66104.55</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="62" t="s">
+      <c r="A13" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="62"/>
-      <c r="C13" s="62"/>
-      <c r="D13" s="62"/>
-      <c r="E13" s="62"/>
-      <c r="F13" s="62"/>
+      <c r="B13" s="63"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
       <c r="G13" s="27">
         <f>SUM(G10:G12)</f>
         <v>866704.10000000009</v>
@@ -3107,56 +3117,56 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
+      <c r="B6" s="63"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63"/>
       <c r="G6" s="25">
         <f>SUM(G2:G5)</f>
         <v>70904</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="62" t="s">
+      <c r="A7" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="62"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
+      <c r="B7" s="63"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="63"/>
       <c r="G7" s="25">
         <f>G6*9%</f>
         <v>6381.36</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="62" t="s">
+      <c r="A8" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="62"/>
-      <c r="C8" s="62"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
+      <c r="B8" s="63"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="63"/>
       <c r="G8" s="25">
         <f>G6*9%</f>
         <v>6381.36</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="62" t="s">
+      <c r="A9" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="62"/>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
+      <c r="B9" s="63"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="63"/>
       <c r="G9" s="25">
         <f>SUM(G6:G8)</f>
         <v>83666.720000000001</v>
@@ -3359,56 +3369,56 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="62" t="s">
+      <c r="A8" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="62"/>
-      <c r="C8" s="62"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
+      <c r="B8" s="63"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="63"/>
       <c r="G8" s="3">
         <f>SUM(G2:G7)</f>
         <v>246185</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="62" t="s">
+      <c r="A9" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="62"/>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
+      <c r="B9" s="63"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="63"/>
       <c r="G9" s="3">
         <f>G8*9%</f>
         <v>22156.649999999998</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="62" t="s">
+      <c r="A10" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="62"/>
-      <c r="C10" s="62"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="62"/>
+      <c r="B10" s="63"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="63"/>
       <c r="G10" s="3">
         <f>G8*9%</f>
         <v>22156.649999999998</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="62" t="s">
+      <c r="A11" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="62"/>
-      <c r="C11" s="62"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="62"/>
+      <c r="B11" s="63"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="63"/>
+      <c r="F11" s="63"/>
       <c r="G11" s="3">
         <f>SUM(G8:G10)</f>
         <v>290498.30000000005</v>
@@ -3542,56 +3552,56 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
       <c r="G5" s="28">
         <f>SUM(G2:G4)</f>
         <v>262240</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
+      <c r="B6" s="63"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63"/>
       <c r="G6" s="28">
         <f>G5*9%</f>
         <v>23601.599999999999</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="62" t="s">
+      <c r="A7" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="62"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
+      <c r="B7" s="63"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="63"/>
       <c r="G7" s="28">
         <f>G5*9%</f>
         <v>23601.599999999999</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="62" t="s">
+      <c r="A8" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="62"/>
-      <c r="C8" s="62"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
+      <c r="B8" s="63"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="63"/>
       <c r="G8" s="28">
         <f>SUM(G5:G7)</f>
         <v>309443.19999999995</v>
@@ -3821,56 +3831,56 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="62" t="s">
+      <c r="A9" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="62"/>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
+      <c r="B9" s="63"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="63"/>
       <c r="G9" s="28">
         <f>SUM(G2:G8)</f>
         <v>322872</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="62" t="s">
+      <c r="A10" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="62"/>
-      <c r="C10" s="62"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="62"/>
+      <c r="B10" s="63"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="63"/>
       <c r="G10" s="28">
         <f>G9*9%</f>
         <v>29058.48</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="62" t="s">
+      <c r="A11" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="62"/>
-      <c r="C11" s="62"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="62"/>
+      <c r="B11" s="63"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="63"/>
+      <c r="F11" s="63"/>
       <c r="G11" s="28">
         <f>G9*9%</f>
         <v>29058.48</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="62" t="s">
+      <c r="A12" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="62"/>
-      <c r="C12" s="62"/>
-      <c r="D12" s="62"/>
-      <c r="E12" s="62"/>
-      <c r="F12" s="62"/>
+      <c r="B12" s="63"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="63"/>
+      <c r="F12" s="63"/>
       <c r="G12" s="28">
         <f>SUM(G9:G11)</f>
         <v>380988.95999999996</v>
@@ -4027,56 +4037,56 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
+      <c r="B6" s="63"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63"/>
       <c r="G6" s="29">
         <f>SUM(G2:G5)</f>
         <v>161752</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="62" t="s">
+      <c r="A7" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="62"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
+      <c r="B7" s="63"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="63"/>
       <c r="G7" s="29">
         <f>G6*9%</f>
         <v>14557.68</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="62" t="s">
+      <c r="A8" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="62"/>
-      <c r="C8" s="62"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
+      <c r="B8" s="63"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="63"/>
       <c r="G8" s="29">
         <f>G6*9%</f>
         <v>14557.68</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="62" t="s">
+      <c r="A9" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="62"/>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
+      <c r="B9" s="63"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="63"/>
       <c r="G9" s="29">
         <f>SUM(G6:G8)</f>
         <v>190867.36</v>
@@ -4160,56 +4170,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
       <c r="G3" s="30">
         <f>SUM(G2)</f>
         <v>18960</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
       <c r="G4" s="30">
         <f>G3*9%</f>
         <v>1706.3999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
       <c r="G5" s="30">
         <f>G3*9%</f>
         <v>1706.3999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
+      <c r="B6" s="63"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63"/>
       <c r="G6" s="30">
         <f>SUM(G3:G5)</f>
         <v>22372.800000000003</v>
@@ -4294,56 +4304,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
       <c r="G3" s="32">
         <f>SUM(G2)</f>
         <v>86070</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
       <c r="G4" s="32">
         <f>G3*9%</f>
         <v>7746.2999999999993</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
       <c r="G5" s="32">
         <f>G3*9%</f>
         <v>7746.2999999999993</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
+      <c r="B6" s="63"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63"/>
       <c r="G6" s="32">
         <f>SUM(G3:G5)</f>
         <v>101562.6</v>
@@ -4453,56 +4463,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
       <c r="G4" s="33">
         <f>SUM(G2:G3)</f>
         <v>113520</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
       <c r="G5" s="33">
         <f>G4*9%</f>
         <v>10216.799999999999</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
+      <c r="B6" s="63"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63"/>
       <c r="G6" s="33">
         <f>G4*9%</f>
         <v>10216.799999999999</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="62" t="s">
+      <c r="A7" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="62"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
+      <c r="B7" s="63"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="63"/>
       <c r="G7" s="33">
         <f>SUM(G4:G6)</f>
         <v>133953.60000000001</v>
@@ -4588,56 +4598,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
       <c r="G3" s="35">
         <f>SUM(G2)</f>
         <v>19406</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
       <c r="G4" s="35">
         <f>G3*9%</f>
         <v>1746.54</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
       <c r="G5" s="35">
         <f>G3*9%</f>
         <v>1746.54</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
+      <c r="B6" s="63"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63"/>
       <c r="G6" s="35">
         <f>SUM(G3:G5)</f>
         <v>22899.08</v>
@@ -4842,56 +4852,56 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="62" t="s">
+      <c r="A8" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="62"/>
-      <c r="C8" s="62"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
+      <c r="B8" s="63"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="63"/>
       <c r="G8" s="36">
         <f>SUM(G2:G7)</f>
         <v>305810</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="62" t="s">
+      <c r="A9" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="62"/>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
+      <c r="B9" s="63"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="63"/>
       <c r="G9" s="36">
         <f>G8*9%</f>
         <v>27522.899999999998</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="62" t="s">
+      <c r="A10" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="62"/>
-      <c r="C10" s="62"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="62"/>
+      <c r="B10" s="63"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="63"/>
       <c r="G10" s="36">
         <f>G8*9%</f>
         <v>27522.899999999998</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="62" t="s">
+      <c r="A11" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="62"/>
-      <c r="C11" s="62"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="62"/>
+      <c r="B11" s="63"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="63"/>
+      <c r="F11" s="63"/>
       <c r="G11" s="36">
         <f>SUM(G8:G10)</f>
         <v>360855.80000000005</v>
@@ -5022,56 +5032,56 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
       <c r="G5" s="42">
         <f>SUM(G2:G4)</f>
         <v>155660</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
+      <c r="B6" s="63"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63"/>
       <c r="G6" s="42">
         <f>G5*9%</f>
         <v>14009.4</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="62" t="s">
+      <c r="A7" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="62"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
+      <c r="B7" s="63"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="63"/>
       <c r="G7" s="42">
         <f>G5*9%</f>
         <v>14009.4</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="62" t="s">
+      <c r="A8" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="62"/>
-      <c r="C8" s="62"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
+      <c r="B8" s="63"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="63"/>
       <c r="G8" s="42">
         <f>SUM(G5:G7)</f>
         <v>183678.8</v>
@@ -5202,56 +5212,56 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
       <c r="G5" s="43">
         <f>SUM(G2:G4)</f>
         <v>95390</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
+      <c r="B6" s="63"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63"/>
       <c r="G6" s="43">
         <f>G5*9%</f>
         <v>8585.1</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="62" t="s">
+      <c r="A7" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="62"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
+      <c r="B7" s="63"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="63"/>
       <c r="G7" s="43">
         <f>G5*9%</f>
         <v>8585.1</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="62" t="s">
+      <c r="A8" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="62"/>
-      <c r="C8" s="62"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
+      <c r="B8" s="63"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="63"/>
       <c r="G8" s="43">
         <f>SUM(G5:G7)</f>
         <v>112560.20000000001</v>
@@ -5335,56 +5345,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
       <c r="G3" s="11">
         <f>SUM(G2)</f>
         <v>4831</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
       <c r="G4" s="11">
         <f>G3*9%</f>
         <v>434.78999999999996</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
       <c r="G5" s="11">
         <f>G3*9%</f>
         <v>434.78999999999996</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
+      <c r="B6" s="63"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63"/>
       <c r="G6" s="11">
         <f>SUM(G3:G5)</f>
         <v>5700.58</v>
@@ -5467,56 +5477,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
       <c r="G3" s="43">
         <f>SUM(G2)</f>
         <v>56140</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
       <c r="G4" s="43">
         <f>G3*9%</f>
         <v>5052.5999999999995</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
       <c r="G5" s="43">
         <f>G3*9%</f>
         <v>5052.5999999999995</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
+      <c r="B6" s="63"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63"/>
       <c r="G6" s="43">
         <f>SUM(G3:G5)</f>
         <v>66245.2</v>
@@ -5600,56 +5610,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
       <c r="G3" s="44">
         <f>SUM(G2)</f>
         <v>48310</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
       <c r="G4" s="44">
         <f>G3*9%</f>
         <v>4347.8999999999996</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
       <c r="G5" s="44">
         <f>G3*9%</f>
         <v>4347.8999999999996</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
+      <c r="B6" s="63"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63"/>
       <c r="G6" s="44">
         <f>SUM(G3:G5)</f>
         <v>57005.8</v>
@@ -5674,7 +5684,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G7"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5758,56 +5768,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
       <c r="G4" s="46">
         <f>SUM(G2:G3)</f>
         <v>122290</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
       <c r="G5" s="46">
         <f>G4*9%</f>
         <v>11006.1</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
+      <c r="B6" s="63"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63"/>
       <c r="G6" s="46">
         <f>G4*9%</f>
         <v>11006.1</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="62" t="s">
+      <c r="A7" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="62"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
+      <c r="B7" s="63"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="63"/>
       <c r="G7" s="46">
         <f>SUM(G4:G6)</f>
         <v>144302.20000000001</v>
@@ -5848,12 +5858,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="72" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
       <c r="E1" s="48"/>
     </row>
     <row r="2" spans="1:5" ht="15.6">
@@ -6054,12 +6064,12 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.6">
-      <c r="A13" s="65" t="s">
+      <c r="A13" s="66" t="s">
         <v>91</v>
       </c>
-      <c r="B13" s="66"/>
-      <c r="C13" s="66"/>
-      <c r="D13" s="67"/>
+      <c r="B13" s="67"/>
+      <c r="C13" s="67"/>
+      <c r="D13" s="68"/>
       <c r="E13" s="52">
         <f>SUM(E3:E12)</f>
         <v>1083930</v>
@@ -6073,12 +6083,12 @@
       <c r="E14" s="54"/>
     </row>
     <row r="15" spans="1:5" ht="21">
-      <c r="A15" s="68" t="s">
+      <c r="A15" s="69" t="s">
         <v>92</v>
       </c>
-      <c r="B15" s="69"/>
-      <c r="C15" s="69"/>
-      <c r="D15" s="70"/>
+      <c r="B15" s="70"/>
+      <c r="C15" s="70"/>
+      <c r="D15" s="71"/>
       <c r="E15" s="53"/>
     </row>
     <row r="16" spans="1:5" ht="15.6">
@@ -6351,12 +6361,12 @@
       </c>
     </row>
     <row r="31" spans="1:14" ht="31.2">
-      <c r="A31" s="65" t="s">
+      <c r="A31" s="66" t="s">
         <v>94</v>
       </c>
-      <c r="B31" s="66"/>
-      <c r="C31" s="66"/>
-      <c r="D31" s="67"/>
+      <c r="B31" s="67"/>
+      <c r="C31" s="67"/>
+      <c r="D31" s="68"/>
       <c r="E31" s="52">
         <f>SUM(E17:E30)</f>
         <v>778190</v>
@@ -6378,12 +6388,12 @@
       </c>
     </row>
     <row r="32" spans="1:14" ht="15.6">
-      <c r="A32" s="65" t="s">
+      <c r="A32" s="66" t="s">
         <v>125</v>
       </c>
-      <c r="B32" s="66"/>
-      <c r="C32" s="66"/>
-      <c r="D32" s="67"/>
+      <c r="B32" s="67"/>
+      <c r="C32" s="67"/>
+      <c r="D32" s="68"/>
       <c r="E32" s="52">
         <f>E13+E31</f>
         <v>1862120</v>
@@ -6410,36 +6420,36 @@
       <c r="N32" s="60"/>
     </row>
     <row r="33" spans="1:10" ht="15.6">
-      <c r="A33" s="65" t="s">
+      <c r="A33" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="B33" s="66"/>
-      <c r="C33" s="66"/>
-      <c r="D33" s="67"/>
+      <c r="B33" s="67"/>
+      <c r="C33" s="67"/>
+      <c r="D33" s="68"/>
       <c r="E33" s="52">
         <f>E32*9%</f>
         <v>167590.79999999999</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="15.6">
-      <c r="A34" s="65" t="s">
+      <c r="A34" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="B34" s="66"/>
-      <c r="C34" s="66"/>
-      <c r="D34" s="67"/>
+      <c r="B34" s="67"/>
+      <c r="C34" s="67"/>
+      <c r="D34" s="68"/>
       <c r="E34" s="52">
         <f>E32*9%</f>
         <v>167590.79999999999</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="15.6">
-      <c r="A35" s="65" t="s">
+      <c r="A35" s="66" t="s">
         <v>95</v>
       </c>
-      <c r="B35" s="66"/>
-      <c r="C35" s="66"/>
-      <c r="D35" s="67"/>
+      <c r="B35" s="67"/>
+      <c r="C35" s="67"/>
+      <c r="D35" s="68"/>
       <c r="E35" s="52">
         <f>SUM(E32:E34)</f>
         <v>2197301.6</v>
@@ -6575,56 +6585,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
       <c r="G3" s="56">
         <f>SUM(G2)</f>
         <v>33684</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
       <c r="G4" s="56">
         <f>G3*9%</f>
         <v>3031.56</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
       <c r="G5" s="56">
         <f>G3*9%</f>
         <v>3031.56</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
+      <c r="B6" s="63"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63"/>
       <c r="G6" s="56">
         <f>SUM(G3:G5)</f>
         <v>39747.119999999995</v>
@@ -6645,8 +6655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -6666,12 +6676,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="72" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
       <c r="E1" s="48"/>
     </row>
     <row r="2" spans="1:5" ht="15.6">
@@ -6872,12 +6882,12 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.6">
-      <c r="A13" s="65" t="s">
+      <c r="A13" s="66" t="s">
         <v>91</v>
       </c>
-      <c r="B13" s="66"/>
-      <c r="C13" s="66"/>
-      <c r="D13" s="67"/>
+      <c r="B13" s="67"/>
+      <c r="C13" s="67"/>
+      <c r="D13" s="68"/>
       <c r="E13" s="52">
         <f>SUM(E3:E12)</f>
         <v>1083930</v>
@@ -6891,12 +6901,12 @@
       <c r="E14" s="54"/>
     </row>
     <row r="15" spans="1:5" ht="21">
-      <c r="A15" s="68" t="s">
+      <c r="A15" s="69" t="s">
         <v>92</v>
       </c>
-      <c r="B15" s="69"/>
-      <c r="C15" s="69"/>
-      <c r="D15" s="70"/>
+      <c r="B15" s="70"/>
+      <c r="C15" s="70"/>
+      <c r="D15" s="71"/>
       <c r="E15" s="53"/>
     </row>
     <row r="16" spans="1:5" ht="15.6">
@@ -7169,24 +7179,24 @@
       </c>
     </row>
     <row r="31" spans="1:14" ht="15.6" customHeight="1">
-      <c r="A31" s="65" t="s">
+      <c r="A31" s="66" t="s">
         <v>94</v>
       </c>
-      <c r="B31" s="66"/>
-      <c r="C31" s="66"/>
-      <c r="D31" s="67"/>
+      <c r="B31" s="67"/>
+      <c r="C31" s="67"/>
+      <c r="D31" s="68"/>
       <c r="E31" s="52">
         <f>SUM(E17:E30)</f>
         <v>778190</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="15.6">
-      <c r="A32" s="65" t="s">
+      <c r="A32" s="66" t="s">
         <v>128</v>
       </c>
-      <c r="B32" s="66"/>
-      <c r="C32" s="66"/>
-      <c r="D32" s="67"/>
+      <c r="B32" s="67"/>
+      <c r="C32" s="67"/>
+      <c r="D32" s="68"/>
       <c r="E32" s="52">
         <f>E13+E31</f>
         <v>1862120</v>
@@ -7334,6 +7344,133 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="4" max="4" width="22.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="62" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="62" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="62" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="62" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="62" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="52.8">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C2" s="10">
+        <v>719031</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="E2" s="1">
+        <v>2</v>
+      </c>
+      <c r="F2" s="1">
+        <v>45000</v>
+      </c>
+      <c r="G2" s="1">
+        <f t="shared" ref="G2" si="0">E2*F2</f>
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="63" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="62">
+        <f>SUM(G2:G2)</f>
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="63" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="62">
+        <f>G3*9%</f>
+        <v>8100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="63" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="62">
+        <f>G3*9%</f>
+        <v>8100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="63" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="63"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="62">
+        <f>SUM(G3:G5)</f>
+        <v>106200</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A6:F6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -7551,56 +7688,56 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="62" t="s">
+      <c r="A9" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="62"/>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
+      <c r="B9" s="63"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="63"/>
       <c r="G9" s="11">
         <f>SUM(G2:G8)</f>
         <v>249351</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="62" t="s">
+      <c r="A10" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="62"/>
-      <c r="C10" s="62"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="62"/>
+      <c r="B10" s="63"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="63"/>
       <c r="G10" s="11">
         <f>G9*9%</f>
         <v>22441.59</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="62" t="s">
+      <c r="A11" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="62"/>
-      <c r="C11" s="62"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="62"/>
+      <c r="B11" s="63"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="63"/>
+      <c r="F11" s="63"/>
       <c r="G11" s="11">
         <f>G9*9%</f>
         <v>22441.59</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="62" t="s">
+      <c r="A12" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="62"/>
-      <c r="C12" s="62"/>
-      <c r="D12" s="62"/>
-      <c r="E12" s="62"/>
-      <c r="F12" s="62"/>
+      <c r="B12" s="63"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="63"/>
+      <c r="F12" s="63"/>
       <c r="G12" s="11">
         <f>SUM(G9:G11)</f>
         <v>294234.18000000005</v>
@@ -7706,56 +7843,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
       <c r="G4" s="12">
         <f>SUM(G2:G3)</f>
         <v>132820</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
       <c r="G5" s="12">
         <f>G4*9%</f>
         <v>11953.8</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
+      <c r="B6" s="63"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63"/>
       <c r="G6" s="12">
         <f>G4*9%</f>
         <v>11953.8</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="62" t="s">
+      <c r="A7" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="62"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
+      <c r="B7" s="63"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="63"/>
       <c r="G7" s="12">
         <f>SUM(G4:G6)</f>
         <v>156727.59999999998</v>
@@ -7827,48 +7964,48 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
       <c r="E3" s="17">
         <f>SUM(E2)</f>
         <v>18560</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
       <c r="E4" s="17">
         <f>E3*9%</f>
         <v>1670.3999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="63" t="s">
+      <c r="A5" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
       <c r="E5" s="17">
         <f>E3*9%</f>
         <v>1670.3999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="63" t="s">
+      <c r="A6" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="64"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
+      <c r="B6" s="65"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
       <c r="E6" s="17">
         <f>SUM(E3:E5)</f>
         <v>21900.800000000003</v>
@@ -7978,56 +8115,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
       <c r="G4" s="13">
         <f>SUM(G2:G3)</f>
         <v>128790</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
       <c r="G5" s="13">
         <f>G4*9%</f>
         <v>11591.1</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
+      <c r="B6" s="63"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63"/>
       <c r="G6" s="13">
         <f>G4*9%</f>
         <v>11591.1</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="62" t="s">
+      <c r="A7" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="62"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
+      <c r="B7" s="63"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="63"/>
       <c r="G7" s="13">
         <f>SUM(G4:G6)</f>
         <v>151972.20000000001</v>
@@ -8137,56 +8274,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
       <c r="G4" s="18">
         <f>SUM(G2:G3)</f>
         <v>196927</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
       <c r="G5" s="18">
         <f>G4*9%</f>
         <v>17723.43</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
+      <c r="B6" s="63"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63"/>
       <c r="G6" s="18">
         <f>G4*9%</f>
         <v>17723.43</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="62" t="s">
+      <c r="A7" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="62"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
+      <c r="B7" s="63"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="63"/>
       <c r="G7" s="18">
         <f>SUM(G4:G6)</f>
         <v>232373.86</v>
@@ -8319,56 +8456,56 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
       <c r="G5" s="19">
         <f>SUM(G2:G4)</f>
         <v>189083</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
+      <c r="B6" s="63"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63"/>
       <c r="G6" s="19">
         <f>G5*9%</f>
         <v>17017.47</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="62" t="s">
+      <c r="A7" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="62"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
+      <c r="B7" s="63"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="63"/>
       <c r="G7" s="19">
         <f>G5*9%</f>
         <v>17017.47</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="62" t="s">
+      <c r="A8" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="62"/>
-      <c r="C8" s="62"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
+      <c r="B8" s="63"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="63"/>
       <c r="G8" s="19">
         <f>SUM(G5:G7)</f>
         <v>223117.94</v>

--- a/Invoices/Invoices.xlsx
+++ b/Invoices/Invoices.xlsx
@@ -7352,12 +7352,17 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="4" max="4" width="22.5546875" customWidth="1"/>
+    <col min="1" max="1" width="6.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" customWidth="1"/>
+    <col min="4" max="4" width="42.5546875" customWidth="1"/>
+    <col min="5" max="5" width="4.5546875" customWidth="1"/>
+    <col min="6" max="6" width="7.21875" customWidth="1"/>
+    <col min="7" max="7" width="7.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -7383,7 +7388,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="52.8">
+    <row r="2" spans="1:7" ht="40.799999999999997" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>

--- a/Invoices/Invoices.xlsx
+++ b/Invoices/Invoices.xlsx
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="136">
   <si>
     <t>Sr. No</t>
   </si>
@@ -456,6 +456,12 @@
   </si>
   <si>
     <t>Dell PC (Serial Number - (CPU - FL7WMZ3, D6VVMZ3) (Monitor - 1YSMXY3, 29ZMXY3)</t>
+  </si>
+  <si>
+    <t>APS 151343138 (14-06-2023)</t>
+  </si>
+  <si>
+    <t>PC UPS (Serial Number -                                                                                                                                                                                                                                               )</t>
   </si>
 </sst>
 </file>
@@ -7349,18 +7355,18 @@
 
 <file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="6.6640625" customWidth="1"/>
     <col min="2" max="2" width="12.109375" customWidth="1"/>
-    <col min="4" max="4" width="42.5546875" customWidth="1"/>
-    <col min="5" max="5" width="4.5546875" customWidth="1"/>
+    <col min="4" max="4" width="56.88671875" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" customWidth="1"/>
     <col min="6" max="6" width="7.21875" customWidth="1"/>
     <col min="7" max="7" width="7.33203125" customWidth="1"/>
   </cols>
@@ -7408,27 +7414,37 @@
         <v>45000</v>
       </c>
       <c r="G2" s="1">
-        <f t="shared" ref="G2" si="0">E2*F2</f>
+        <f t="shared" ref="G2:G3" si="0">E2*F2</f>
         <v>90000</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="63" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="62">
-        <f>SUM(G2:G2)</f>
-        <v>90000</v>
+    <row r="3" spans="1:7" ht="72" customHeight="1">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C3" s="4">
+        <v>724214</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2490</v>
+      </c>
+      <c r="G3" s="1">
+        <f t="shared" si="0"/>
+        <v>4980</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="63" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="63"/>
       <c r="C4" s="63"/>
@@ -7436,13 +7452,13 @@
       <c r="E4" s="63"/>
       <c r="F4" s="63"/>
       <c r="G4" s="62">
-        <f>G3*9%</f>
-        <v>8100</v>
+        <f>SUM(G2:G3)</f>
+        <v>94980</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="63" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" s="63"/>
       <c r="C5" s="63"/>
@@ -7450,13 +7466,13 @@
       <c r="E5" s="63"/>
       <c r="F5" s="63"/>
       <c r="G5" s="62">
-        <f>G3*9%</f>
-        <v>8100</v>
+        <f>G4*9%</f>
+        <v>8548.1999999999989</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="63" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" s="63"/>
       <c r="C6" s="63"/>
@@ -7464,16 +7480,30 @@
       <c r="E6" s="63"/>
       <c r="F6" s="63"/>
       <c r="G6" s="62">
-        <f>SUM(G3:G5)</f>
-        <v>106200</v>
+        <f>G4*9%</f>
+        <v>8548.1999999999989</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="63" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="63"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="62">
+        <f>SUM(G4:G6)</f>
+        <v>112076.4</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A3:F3"/>
     <mergeCell ref="A4:F4"/>
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A7:F7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Invoices/Invoices.xlsx
+++ b/Invoices/Invoices.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="28" activeTab="35"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="28" activeTab="36"/>
   </bookViews>
   <sheets>
     <sheet name="Putz 101" sheetId="1" r:id="rId1"/>
@@ -43,6 +43,7 @@
     <sheet name="Putz 210" sheetId="34" r:id="rId34"/>
     <sheet name="Nerul 301" sheetId="35" r:id="rId35"/>
     <sheet name="Putz 302 APS" sheetId="36" r:id="rId36"/>
+    <sheet name="Putz 303" sheetId="37" r:id="rId37"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -54,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="140">
   <si>
     <t>Sr. No</t>
   </si>
@@ -462,6 +463,18 @@
   </si>
   <si>
     <t>PC UPS (Serial Number -                                                                                                                                                                                                                                               )</t>
+  </si>
+  <si>
+    <t>151390089 (23-10-2023)</t>
+  </si>
+  <si>
+    <t>151387910 (18-10-2023)</t>
+  </si>
+  <si>
+    <t>151393630 (02-11-2023)</t>
+  </si>
+  <si>
+    <t>151391303 (26-10-2023)</t>
   </si>
 </sst>
 </file>
@@ -639,7 +652,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -823,6 +836,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1277,56 +1293,56 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="63" t="s">
+      <c r="A6" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="63"/>
-      <c r="C6" s="63"/>
-      <c r="D6" s="63"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
       <c r="G6" s="2">
         <f>SUM(G2:G5)</f>
         <v>91479</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="63" t="s">
+      <c r="A7" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="63"/>
-      <c r="C7" s="63"/>
-      <c r="D7" s="63"/>
-      <c r="E7" s="63"/>
-      <c r="F7" s="63"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
       <c r="G7" s="2">
         <f>G6*9%</f>
         <v>8233.11</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="63" t="s">
+      <c r="A8" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="63"/>
-      <c r="C8" s="63"/>
-      <c r="D8" s="63"/>
-      <c r="E8" s="63"/>
-      <c r="F8" s="63"/>
+      <c r="B8" s="64"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
       <c r="G8" s="2">
         <f>G6*9%</f>
         <v>8233.11</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="14.4" customHeight="1">
-      <c r="A9" s="63" t="s">
+      <c r="A9" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="63"/>
-      <c r="C9" s="63"/>
-      <c r="D9" s="63"/>
-      <c r="E9" s="63"/>
-      <c r="F9" s="63"/>
+      <c r="B9" s="64"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
       <c r="G9" s="2">
         <f>SUM(G6:G8)</f>
         <v>107945.22</v>
@@ -1461,56 +1477,56 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="63" t="s">
+      <c r="A5" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
       <c r="G5" s="19">
         <f>SUM(G2:G4)</f>
         <v>124900</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="63" t="s">
+      <c r="A6" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="63"/>
-      <c r="C6" s="63"/>
-      <c r="D6" s="63"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
       <c r="G6" s="19">
         <f>G5*9%</f>
         <v>11241</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="63" t="s">
+      <c r="A7" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="63"/>
-      <c r="C7" s="63"/>
-      <c r="D7" s="63"/>
-      <c r="E7" s="63"/>
-      <c r="F7" s="63"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
       <c r="G7" s="19">
         <f>G5*9%</f>
         <v>11241</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="63" t="s">
+      <c r="A8" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="63"/>
-      <c r="C8" s="63"/>
-      <c r="D8" s="63"/>
-      <c r="E8" s="63"/>
-      <c r="F8" s="63"/>
+      <c r="B8" s="64"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
       <c r="G8" s="19">
         <f>SUM(G5:G7)</f>
         <v>147382</v>
@@ -1594,56 +1610,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
       <c r="G3" s="20">
         <f>SUM(G2)</f>
         <v>5614</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
       <c r="G4" s="20">
         <f>G3*9%</f>
         <v>505.26</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="63" t="s">
+      <c r="A5" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
       <c r="G5" s="20">
         <f>G3*9%</f>
         <v>505.26</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="63" t="s">
+      <c r="A6" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="63"/>
-      <c r="C6" s="63"/>
-      <c r="D6" s="63"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
       <c r="G6" s="20">
         <f>SUM(G3:G5)</f>
         <v>6624.52</v>
@@ -1753,56 +1769,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
       <c r="G4" s="21">
         <f>SUM(G2:G3)</f>
         <v>41212</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="63" t="s">
+      <c r="A5" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
       <c r="G5" s="21">
         <f>G4*9%</f>
         <v>3709.08</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="63" t="s">
+      <c r="A6" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="63"/>
-      <c r="C6" s="63"/>
-      <c r="D6" s="63"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
       <c r="G6" s="21">
         <f>G4*9%</f>
         <v>3709.08</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="63" t="s">
+      <c r="A7" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="63"/>
-      <c r="C7" s="63"/>
-      <c r="D7" s="63"/>
-      <c r="E7" s="63"/>
-      <c r="F7" s="63"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
       <c r="G7" s="21">
         <f>SUM(G4:G6)</f>
         <v>48630.16</v>
@@ -1887,56 +1903,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
       <c r="G3" s="21">
         <f>SUM(G2)</f>
         <v>24000</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
       <c r="G4" s="21">
         <f>G3*9%</f>
         <v>2160</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="63" t="s">
+      <c r="A5" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
       <c r="G5" s="21">
         <f>G3*9%</f>
         <v>2160</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="63" t="s">
+      <c r="A6" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="63"/>
-      <c r="C6" s="63"/>
-      <c r="D6" s="63"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
       <c r="G6" s="21">
         <f>SUM(G3:G5)</f>
         <v>28320</v>
@@ -2093,56 +2109,56 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="63" t="s">
+      <c r="A6" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="63"/>
-      <c r="C6" s="63"/>
-      <c r="D6" s="63"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
       <c r="G6" s="22">
         <f>SUM(G2:G5)</f>
         <v>313513</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="63" t="s">
+      <c r="A7" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="63"/>
-      <c r="C7" s="63"/>
-      <c r="D7" s="63"/>
-      <c r="E7" s="63"/>
-      <c r="F7" s="63"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
       <c r="G7" s="22">
         <f>G6*9%</f>
         <v>28216.17</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="63" t="s">
+      <c r="A8" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="63"/>
-      <c r="C8" s="63"/>
-      <c r="D8" s="63"/>
-      <c r="E8" s="63"/>
-      <c r="F8" s="63"/>
+      <c r="B8" s="64"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
       <c r="G8" s="22">
         <f>G6*9%</f>
         <v>28216.17</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="63" t="s">
+      <c r="A9" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="63"/>
-      <c r="C9" s="63"/>
-      <c r="D9" s="63"/>
-      <c r="E9" s="63"/>
-      <c r="F9" s="63"/>
+      <c r="B9" s="64"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
       <c r="G9" s="22">
         <f>SUM(G6:G8)</f>
         <v>369945.33999999997</v>
@@ -2227,56 +2243,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
       <c r="G3" s="22">
         <f>SUM(G2)</f>
         <v>73450</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
       <c r="G4" s="22">
         <f>G3*9%</f>
         <v>6610.5</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="63" t="s">
+      <c r="A5" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
       <c r="G5" s="22">
         <f>G3*9%</f>
         <v>6610.5</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="63" t="s">
+      <c r="A6" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="63"/>
-      <c r="C6" s="63"/>
-      <c r="D6" s="63"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
       <c r="G6" s="22">
         <f>SUM(G3:G5)</f>
         <v>86671</v>
@@ -2384,56 +2400,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
       <c r="G4" s="23">
         <f>SUM(G2:G3)</f>
         <v>729990</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="63" t="s">
+      <c r="A5" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
       <c r="G5" s="23">
         <f>G4*9%</f>
         <v>65699.099999999991</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="63" t="s">
+      <c r="A6" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="63"/>
-      <c r="C6" s="63"/>
-      <c r="D6" s="63"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
       <c r="G6" s="23">
         <f>G4*9%</f>
         <v>65699.099999999991</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="63" t="s">
+      <c r="A7" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="63"/>
-      <c r="C7" s="63"/>
-      <c r="D7" s="63"/>
-      <c r="E7" s="63"/>
-      <c r="F7" s="63"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
       <c r="G7" s="23">
         <f>SUM(G4:G6)</f>
         <v>861388.2</v>
@@ -2613,56 +2629,56 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="63" t="s">
+      <c r="A7" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="63"/>
-      <c r="C7" s="63"/>
-      <c r="D7" s="63"/>
-      <c r="E7" s="63"/>
-      <c r="F7" s="63"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
       <c r="G7" s="23">
         <f>SUM(G2:G6)</f>
         <v>246402</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="63" t="s">
+      <c r="A8" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="63"/>
-      <c r="C8" s="63"/>
-      <c r="D8" s="63"/>
-      <c r="E8" s="63"/>
-      <c r="F8" s="63"/>
+      <c r="B8" s="64"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
       <c r="G8" s="23">
         <f>G7*9%</f>
         <v>22176.18</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="63" t="s">
+      <c r="A9" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="63"/>
-      <c r="C9" s="63"/>
-      <c r="D9" s="63"/>
-      <c r="E9" s="63"/>
-      <c r="F9" s="63"/>
+      <c r="B9" s="64"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
       <c r="G9" s="23">
         <f>G7*9%</f>
         <v>22176.18</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="63" t="s">
+      <c r="A10" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="63"/>
-      <c r="C10" s="63"/>
-      <c r="D10" s="63"/>
-      <c r="E10" s="63"/>
-      <c r="F10" s="63"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="64"/>
       <c r="G10" s="23">
         <f>SUM(G7:G9)</f>
         <v>290754.36</v>
@@ -2918,56 +2934,56 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="63" t="s">
+      <c r="A10" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="63"/>
-      <c r="C10" s="63"/>
-      <c r="D10" s="63"/>
-      <c r="E10" s="63"/>
-      <c r="F10" s="63"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="64"/>
       <c r="G10" s="27">
         <f>SUM(G2:G9)</f>
         <v>734495</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="63" t="s">
+      <c r="A11" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="63"/>
-      <c r="C11" s="63"/>
-      <c r="D11" s="63"/>
-      <c r="E11" s="63"/>
-      <c r="F11" s="63"/>
+      <c r="B11" s="64"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="64"/>
       <c r="G11" s="27">
         <f>G10*9%</f>
         <v>66104.55</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="63" t="s">
+      <c r="A12" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="63"/>
-      <c r="C12" s="63"/>
-      <c r="D12" s="63"/>
-      <c r="E12" s="63"/>
-      <c r="F12" s="63"/>
+      <c r="B12" s="64"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="64"/>
       <c r="G12" s="27">
         <f>G10*9%</f>
         <v>66104.55</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="63" t="s">
+      <c r="A13" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="63"/>
-      <c r="C13" s="63"/>
-      <c r="D13" s="63"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
+      <c r="B13" s="64"/>
+      <c r="C13" s="64"/>
+      <c r="D13" s="64"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="64"/>
       <c r="G13" s="27">
         <f>SUM(G10:G12)</f>
         <v>866704.10000000009</v>
@@ -3123,56 +3139,56 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="63" t="s">
+      <c r="A6" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="63"/>
-      <c r="C6" s="63"/>
-      <c r="D6" s="63"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
       <c r="G6" s="25">
         <f>SUM(G2:G5)</f>
         <v>70904</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="63" t="s">
+      <c r="A7" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="63"/>
-      <c r="C7" s="63"/>
-      <c r="D7" s="63"/>
-      <c r="E7" s="63"/>
-      <c r="F7" s="63"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
       <c r="G7" s="25">
         <f>G6*9%</f>
         <v>6381.36</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="63" t="s">
+      <c r="A8" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="63"/>
-      <c r="C8" s="63"/>
-      <c r="D8" s="63"/>
-      <c r="E8" s="63"/>
-      <c r="F8" s="63"/>
+      <c r="B8" s="64"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
       <c r="G8" s="25">
         <f>G6*9%</f>
         <v>6381.36</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="63" t="s">
+      <c r="A9" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="63"/>
-      <c r="C9" s="63"/>
-      <c r="D9" s="63"/>
-      <c r="E9" s="63"/>
-      <c r="F9" s="63"/>
+      <c r="B9" s="64"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
       <c r="G9" s="25">
         <f>SUM(G6:G8)</f>
         <v>83666.720000000001</v>
@@ -3375,56 +3391,56 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="63" t="s">
+      <c r="A8" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="63"/>
-      <c r="C8" s="63"/>
-      <c r="D8" s="63"/>
-      <c r="E8" s="63"/>
-      <c r="F8" s="63"/>
+      <c r="B8" s="64"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
       <c r="G8" s="3">
         <f>SUM(G2:G7)</f>
         <v>246185</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="63" t="s">
+      <c r="A9" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="63"/>
-      <c r="C9" s="63"/>
-      <c r="D9" s="63"/>
-      <c r="E9" s="63"/>
-      <c r="F9" s="63"/>
+      <c r="B9" s="64"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
       <c r="G9" s="3">
         <f>G8*9%</f>
         <v>22156.649999999998</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="63" t="s">
+      <c r="A10" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="63"/>
-      <c r="C10" s="63"/>
-      <c r="D10" s="63"/>
-      <c r="E10" s="63"/>
-      <c r="F10" s="63"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="64"/>
       <c r="G10" s="3">
         <f>G8*9%</f>
         <v>22156.649999999998</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="63" t="s">
+      <c r="A11" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="63"/>
-      <c r="C11" s="63"/>
-      <c r="D11" s="63"/>
-      <c r="E11" s="63"/>
-      <c r="F11" s="63"/>
+      <c r="B11" s="64"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="64"/>
       <c r="G11" s="3">
         <f>SUM(G8:G10)</f>
         <v>290498.30000000005</v>
@@ -3558,56 +3574,56 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="63" t="s">
+      <c r="A5" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
       <c r="G5" s="28">
         <f>SUM(G2:G4)</f>
         <v>262240</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="63" t="s">
+      <c r="A6" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="63"/>
-      <c r="C6" s="63"/>
-      <c r="D6" s="63"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
       <c r="G6" s="28">
         <f>G5*9%</f>
         <v>23601.599999999999</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="63" t="s">
+      <c r="A7" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="63"/>
-      <c r="C7" s="63"/>
-      <c r="D7" s="63"/>
-      <c r="E7" s="63"/>
-      <c r="F7" s="63"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
       <c r="G7" s="28">
         <f>G5*9%</f>
         <v>23601.599999999999</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="63" t="s">
+      <c r="A8" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="63"/>
-      <c r="C8" s="63"/>
-      <c r="D8" s="63"/>
-      <c r="E8" s="63"/>
-      <c r="F8" s="63"/>
+      <c r="B8" s="64"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
       <c r="G8" s="28">
         <f>SUM(G5:G7)</f>
         <v>309443.19999999995</v>
@@ -3837,56 +3853,56 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="63" t="s">
+      <c r="A9" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="63"/>
-      <c r="C9" s="63"/>
-      <c r="D9" s="63"/>
-      <c r="E9" s="63"/>
-      <c r="F9" s="63"/>
+      <c r="B9" s="64"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
       <c r="G9" s="28">
         <f>SUM(G2:G8)</f>
         <v>322872</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="63" t="s">
+      <c r="A10" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="63"/>
-      <c r="C10" s="63"/>
-      <c r="D10" s="63"/>
-      <c r="E10" s="63"/>
-      <c r="F10" s="63"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="64"/>
       <c r="G10" s="28">
         <f>G9*9%</f>
         <v>29058.48</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="63" t="s">
+      <c r="A11" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="63"/>
-      <c r="C11" s="63"/>
-      <c r="D11" s="63"/>
-      <c r="E11" s="63"/>
-      <c r="F11" s="63"/>
+      <c r="B11" s="64"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="64"/>
       <c r="G11" s="28">
         <f>G9*9%</f>
         <v>29058.48</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="63" t="s">
+      <c r="A12" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="63"/>
-      <c r="C12" s="63"/>
-      <c r="D12" s="63"/>
-      <c r="E12" s="63"/>
-      <c r="F12" s="63"/>
+      <c r="B12" s="64"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="64"/>
       <c r="G12" s="28">
         <f>SUM(G9:G11)</f>
         <v>380988.95999999996</v>
@@ -4043,56 +4059,56 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="63" t="s">
+      <c r="A6" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="63"/>
-      <c r="C6" s="63"/>
-      <c r="D6" s="63"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
       <c r="G6" s="29">
         <f>SUM(G2:G5)</f>
         <v>161752</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="63" t="s">
+      <c r="A7" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="63"/>
-      <c r="C7" s="63"/>
-      <c r="D7" s="63"/>
-      <c r="E7" s="63"/>
-      <c r="F7" s="63"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
       <c r="G7" s="29">
         <f>G6*9%</f>
         <v>14557.68</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="63" t="s">
+      <c r="A8" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="63"/>
-      <c r="C8" s="63"/>
-      <c r="D8" s="63"/>
-      <c r="E8" s="63"/>
-      <c r="F8" s="63"/>
+      <c r="B8" s="64"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
       <c r="G8" s="29">
         <f>G6*9%</f>
         <v>14557.68</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="63" t="s">
+      <c r="A9" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="63"/>
-      <c r="C9" s="63"/>
-      <c r="D9" s="63"/>
-      <c r="E9" s="63"/>
-      <c r="F9" s="63"/>
+      <c r="B9" s="64"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
       <c r="G9" s="29">
         <f>SUM(G6:G8)</f>
         <v>190867.36</v>
@@ -4176,56 +4192,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
       <c r="G3" s="30">
         <f>SUM(G2)</f>
         <v>18960</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
       <c r="G4" s="30">
         <f>G3*9%</f>
         <v>1706.3999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="63" t="s">
+      <c r="A5" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
       <c r="G5" s="30">
         <f>G3*9%</f>
         <v>1706.3999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="63" t="s">
+      <c r="A6" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="63"/>
-      <c r="C6" s="63"/>
-      <c r="D6" s="63"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
       <c r="G6" s="30">
         <f>SUM(G3:G5)</f>
         <v>22372.800000000003</v>
@@ -4310,56 +4326,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
       <c r="G3" s="32">
         <f>SUM(G2)</f>
         <v>86070</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
       <c r="G4" s="32">
         <f>G3*9%</f>
         <v>7746.2999999999993</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="63" t="s">
+      <c r="A5" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
       <c r="G5" s="32">
         <f>G3*9%</f>
         <v>7746.2999999999993</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="63" t="s">
+      <c r="A6" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="63"/>
-      <c r="C6" s="63"/>
-      <c r="D6" s="63"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
       <c r="G6" s="32">
         <f>SUM(G3:G5)</f>
         <v>101562.6</v>
@@ -4469,56 +4485,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
       <c r="G4" s="33">
         <f>SUM(G2:G3)</f>
         <v>113520</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="63" t="s">
+      <c r="A5" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
       <c r="G5" s="33">
         <f>G4*9%</f>
         <v>10216.799999999999</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="63" t="s">
+      <c r="A6" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="63"/>
-      <c r="C6" s="63"/>
-      <c r="D6" s="63"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
       <c r="G6" s="33">
         <f>G4*9%</f>
         <v>10216.799999999999</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="63" t="s">
+      <c r="A7" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="63"/>
-      <c r="C7" s="63"/>
-      <c r="D7" s="63"/>
-      <c r="E7" s="63"/>
-      <c r="F7" s="63"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
       <c r="G7" s="33">
         <f>SUM(G4:G6)</f>
         <v>133953.60000000001</v>
@@ -4604,56 +4620,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
       <c r="G3" s="35">
         <f>SUM(G2)</f>
         <v>19406</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
       <c r="G4" s="35">
         <f>G3*9%</f>
         <v>1746.54</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="63" t="s">
+      <c r="A5" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
       <c r="G5" s="35">
         <f>G3*9%</f>
         <v>1746.54</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="63" t="s">
+      <c r="A6" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="63"/>
-      <c r="C6" s="63"/>
-      <c r="D6" s="63"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
       <c r="G6" s="35">
         <f>SUM(G3:G5)</f>
         <v>22899.08</v>
@@ -4858,56 +4874,56 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="63" t="s">
+      <c r="A8" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="63"/>
-      <c r="C8" s="63"/>
-      <c r="D8" s="63"/>
-      <c r="E8" s="63"/>
-      <c r="F8" s="63"/>
+      <c r="B8" s="64"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
       <c r="G8" s="36">
         <f>SUM(G2:G7)</f>
         <v>305810</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="63" t="s">
+      <c r="A9" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="63"/>
-      <c r="C9" s="63"/>
-      <c r="D9" s="63"/>
-      <c r="E9" s="63"/>
-      <c r="F9" s="63"/>
+      <c r="B9" s="64"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
       <c r="G9" s="36">
         <f>G8*9%</f>
         <v>27522.899999999998</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="63" t="s">
+      <c r="A10" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="63"/>
-      <c r="C10" s="63"/>
-      <c r="D10" s="63"/>
-      <c r="E10" s="63"/>
-      <c r="F10" s="63"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="64"/>
       <c r="G10" s="36">
         <f>G8*9%</f>
         <v>27522.899999999998</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="63" t="s">
+      <c r="A11" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="63"/>
-      <c r="C11" s="63"/>
-      <c r="D11" s="63"/>
-      <c r="E11" s="63"/>
-      <c r="F11" s="63"/>
+      <c r="B11" s="64"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="64"/>
       <c r="G11" s="36">
         <f>SUM(G8:G10)</f>
         <v>360855.80000000005</v>
@@ -5038,56 +5054,56 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="63" t="s">
+      <c r="A5" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
       <c r="G5" s="42">
         <f>SUM(G2:G4)</f>
         <v>155660</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="63" t="s">
+      <c r="A6" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="63"/>
-      <c r="C6" s="63"/>
-      <c r="D6" s="63"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
       <c r="G6" s="42">
         <f>G5*9%</f>
         <v>14009.4</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="63" t="s">
+      <c r="A7" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="63"/>
-      <c r="C7" s="63"/>
-      <c r="D7" s="63"/>
-      <c r="E7" s="63"/>
-      <c r="F7" s="63"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
       <c r="G7" s="42">
         <f>G5*9%</f>
         <v>14009.4</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="63" t="s">
+      <c r="A8" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="63"/>
-      <c r="C8" s="63"/>
-      <c r="D8" s="63"/>
-      <c r="E8" s="63"/>
-      <c r="F8" s="63"/>
+      <c r="B8" s="64"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
       <c r="G8" s="42">
         <f>SUM(G5:G7)</f>
         <v>183678.8</v>
@@ -5218,56 +5234,56 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="63" t="s">
+      <c r="A5" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
       <c r="G5" s="43">
         <f>SUM(G2:G4)</f>
         <v>95390</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="63" t="s">
+      <c r="A6" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="63"/>
-      <c r="C6" s="63"/>
-      <c r="D6" s="63"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
       <c r="G6" s="43">
         <f>G5*9%</f>
         <v>8585.1</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="63" t="s">
+      <c r="A7" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="63"/>
-      <c r="C7" s="63"/>
-      <c r="D7" s="63"/>
-      <c r="E7" s="63"/>
-      <c r="F7" s="63"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
       <c r="G7" s="43">
         <f>G5*9%</f>
         <v>8585.1</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="63" t="s">
+      <c r="A8" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="63"/>
-      <c r="C8" s="63"/>
-      <c r="D8" s="63"/>
-      <c r="E8" s="63"/>
-      <c r="F8" s="63"/>
+      <c r="B8" s="64"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
       <c r="G8" s="43">
         <f>SUM(G5:G7)</f>
         <v>112560.20000000001</v>
@@ -5351,56 +5367,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
       <c r="G3" s="11">
         <f>SUM(G2)</f>
         <v>4831</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
       <c r="G4" s="11">
         <f>G3*9%</f>
         <v>434.78999999999996</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="63" t="s">
+      <c r="A5" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
       <c r="G5" s="11">
         <f>G3*9%</f>
         <v>434.78999999999996</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="63" t="s">
+      <c r="A6" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="63"/>
-      <c r="C6" s="63"/>
-      <c r="D6" s="63"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
       <c r="G6" s="11">
         <f>SUM(G3:G5)</f>
         <v>5700.58</v>
@@ -5483,56 +5499,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
       <c r="G3" s="43">
         <f>SUM(G2)</f>
         <v>56140</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
       <c r="G4" s="43">
         <f>G3*9%</f>
         <v>5052.5999999999995</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="63" t="s">
+      <c r="A5" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
       <c r="G5" s="43">
         <f>G3*9%</f>
         <v>5052.5999999999995</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="63" t="s">
+      <c r="A6" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="63"/>
-      <c r="C6" s="63"/>
-      <c r="D6" s="63"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
       <c r="G6" s="43">
         <f>SUM(G3:G5)</f>
         <v>66245.2</v>
@@ -5616,56 +5632,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
       <c r="G3" s="44">
         <f>SUM(G2)</f>
         <v>48310</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
       <c r="G4" s="44">
         <f>G3*9%</f>
         <v>4347.8999999999996</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="63" t="s">
+      <c r="A5" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
       <c r="G5" s="44">
         <f>G3*9%</f>
         <v>4347.8999999999996</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="63" t="s">
+      <c r="A6" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="63"/>
-      <c r="C6" s="63"/>
-      <c r="D6" s="63"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
       <c r="G6" s="44">
         <f>SUM(G3:G5)</f>
         <v>57005.8</v>
@@ -5774,56 +5790,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
       <c r="G4" s="46">
         <f>SUM(G2:G3)</f>
         <v>122290</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="63" t="s">
+      <c r="A5" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
       <c r="G5" s="46">
         <f>G4*9%</f>
         <v>11006.1</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="63" t="s">
+      <c r="A6" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="63"/>
-      <c r="C6" s="63"/>
-      <c r="D6" s="63"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
       <c r="G6" s="46">
         <f>G4*9%</f>
         <v>11006.1</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="63" t="s">
+      <c r="A7" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="63"/>
-      <c r="C7" s="63"/>
-      <c r="D7" s="63"/>
-      <c r="E7" s="63"/>
-      <c r="F7" s="63"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
       <c r="G7" s="46">
         <f>SUM(G4:G6)</f>
         <v>144302.20000000001</v>
@@ -5864,12 +5880,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="73" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
       <c r="E1" s="48"/>
     </row>
     <row r="2" spans="1:5" ht="15.6">
@@ -6070,12 +6086,12 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.6">
-      <c r="A13" s="66" t="s">
+      <c r="A13" s="67" t="s">
         <v>91</v>
       </c>
-      <c r="B13" s="67"/>
-      <c r="C13" s="67"/>
-      <c r="D13" s="68"/>
+      <c r="B13" s="68"/>
+      <c r="C13" s="68"/>
+      <c r="D13" s="69"/>
       <c r="E13" s="52">
         <f>SUM(E3:E12)</f>
         <v>1083930</v>
@@ -6089,12 +6105,12 @@
       <c r="E14" s="54"/>
     </row>
     <row r="15" spans="1:5" ht="21">
-      <c r="A15" s="69" t="s">
+      <c r="A15" s="70" t="s">
         <v>92</v>
       </c>
-      <c r="B15" s="70"/>
-      <c r="C15" s="70"/>
-      <c r="D15" s="71"/>
+      <c r="B15" s="71"/>
+      <c r="C15" s="71"/>
+      <c r="D15" s="72"/>
       <c r="E15" s="53"/>
     </row>
     <row r="16" spans="1:5" ht="15.6">
@@ -6367,12 +6383,12 @@
       </c>
     </row>
     <row r="31" spans="1:14" ht="31.2">
-      <c r="A31" s="66" t="s">
+      <c r="A31" s="67" t="s">
         <v>94</v>
       </c>
-      <c r="B31" s="67"/>
-      <c r="C31" s="67"/>
-      <c r="D31" s="68"/>
+      <c r="B31" s="68"/>
+      <c r="C31" s="68"/>
+      <c r="D31" s="69"/>
       <c r="E31" s="52">
         <f>SUM(E17:E30)</f>
         <v>778190</v>
@@ -6394,12 +6410,12 @@
       </c>
     </row>
     <row r="32" spans="1:14" ht="15.6">
-      <c r="A32" s="66" t="s">
+      <c r="A32" s="67" t="s">
         <v>125</v>
       </c>
-      <c r="B32" s="67"/>
-      <c r="C32" s="67"/>
-      <c r="D32" s="68"/>
+      <c r="B32" s="68"/>
+      <c r="C32" s="68"/>
+      <c r="D32" s="69"/>
       <c r="E32" s="52">
         <f>E13+E31</f>
         <v>1862120</v>
@@ -6426,36 +6442,36 @@
       <c r="N32" s="60"/>
     </row>
     <row r="33" spans="1:10" ht="15.6">
-      <c r="A33" s="66" t="s">
+      <c r="A33" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="B33" s="67"/>
-      <c r="C33" s="67"/>
-      <c r="D33" s="68"/>
+      <c r="B33" s="68"/>
+      <c r="C33" s="68"/>
+      <c r="D33" s="69"/>
       <c r="E33" s="52">
         <f>E32*9%</f>
         <v>167590.79999999999</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="15.6">
-      <c r="A34" s="66" t="s">
+      <c r="A34" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="B34" s="67"/>
-      <c r="C34" s="67"/>
-      <c r="D34" s="68"/>
+      <c r="B34" s="68"/>
+      <c r="C34" s="68"/>
+      <c r="D34" s="69"/>
       <c r="E34" s="52">
         <f>E32*9%</f>
         <v>167590.79999999999</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="15.6">
-      <c r="A35" s="66" t="s">
+      <c r="A35" s="67" t="s">
         <v>95</v>
       </c>
-      <c r="B35" s="67"/>
-      <c r="C35" s="67"/>
-      <c r="D35" s="68"/>
+      <c r="B35" s="68"/>
+      <c r="C35" s="68"/>
+      <c r="D35" s="69"/>
       <c r="E35" s="52">
         <f>SUM(E32:E34)</f>
         <v>2197301.6</v>
@@ -6591,56 +6607,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
       <c r="G3" s="56">
         <f>SUM(G2)</f>
         <v>33684</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
       <c r="G4" s="56">
         <f>G3*9%</f>
         <v>3031.56</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="63" t="s">
+      <c r="A5" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
       <c r="G5" s="56">
         <f>G3*9%</f>
         <v>3031.56</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="63" t="s">
+      <c r="A6" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="63"/>
-      <c r="C6" s="63"/>
-      <c r="D6" s="63"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
       <c r="G6" s="56">
         <f>SUM(G3:G5)</f>
         <v>39747.119999999995</v>
@@ -6682,12 +6698,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="73" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
       <c r="E1" s="48"/>
     </row>
     <row r="2" spans="1:5" ht="15.6">
@@ -6888,12 +6904,12 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.6">
-      <c r="A13" s="66" t="s">
+      <c r="A13" s="67" t="s">
         <v>91</v>
       </c>
-      <c r="B13" s="67"/>
-      <c r="C13" s="67"/>
-      <c r="D13" s="68"/>
+      <c r="B13" s="68"/>
+      <c r="C13" s="68"/>
+      <c r="D13" s="69"/>
       <c r="E13" s="52">
         <f>SUM(E3:E12)</f>
         <v>1083930</v>
@@ -6907,12 +6923,12 @@
       <c r="E14" s="54"/>
     </row>
     <row r="15" spans="1:5" ht="21">
-      <c r="A15" s="69" t="s">
+      <c r="A15" s="70" t="s">
         <v>92</v>
       </c>
-      <c r="B15" s="70"/>
-      <c r="C15" s="70"/>
-      <c r="D15" s="71"/>
+      <c r="B15" s="71"/>
+      <c r="C15" s="71"/>
+      <c r="D15" s="72"/>
       <c r="E15" s="53"/>
     </row>
     <row r="16" spans="1:5" ht="15.6">
@@ -7185,24 +7201,24 @@
       </c>
     </row>
     <row r="31" spans="1:14" ht="15.6" customHeight="1">
-      <c r="A31" s="66" t="s">
+      <c r="A31" s="67" t="s">
         <v>94</v>
       </c>
-      <c r="B31" s="67"/>
-      <c r="C31" s="67"/>
-      <c r="D31" s="68"/>
+      <c r="B31" s="68"/>
+      <c r="C31" s="68"/>
+      <c r="D31" s="69"/>
       <c r="E31" s="52">
         <f>SUM(E17:E30)</f>
         <v>778190</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="15.6">
-      <c r="A32" s="66" t="s">
+      <c r="A32" s="67" t="s">
         <v>128</v>
       </c>
-      <c r="B32" s="67"/>
-      <c r="C32" s="67"/>
-      <c r="D32" s="68"/>
+      <c r="B32" s="68"/>
+      <c r="C32" s="68"/>
+      <c r="D32" s="69"/>
       <c r="E32" s="52">
         <f>E13+E31</f>
         <v>1862120</v>
@@ -7357,16 +7373,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="6.6640625" customWidth="1"/>
     <col min="2" max="2" width="12.109375" customWidth="1"/>
-    <col min="4" max="4" width="56.88671875" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="40" customWidth="1"/>
+    <col min="5" max="5" width="5" customWidth="1"/>
     <col min="6" max="6" width="7.21875" customWidth="1"/>
     <col min="7" max="7" width="7.33203125" customWidth="1"/>
   </cols>
@@ -7443,56 +7459,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
       <c r="G4" s="62">
         <f>SUM(G2:G3)</f>
         <v>94980</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="63" t="s">
+      <c r="A5" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
       <c r="G5" s="62">
         <f>G4*9%</f>
         <v>8548.1999999999989</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="63" t="s">
+      <c r="A6" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="63"/>
-      <c r="C6" s="63"/>
-      <c r="D6" s="63"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
       <c r="G6" s="62">
         <f>G4*9%</f>
         <v>8548.1999999999989</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="63" t="s">
+      <c r="A7" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="63"/>
-      <c r="C7" s="63"/>
-      <c r="D7" s="63"/>
-      <c r="E7" s="63"/>
-      <c r="F7" s="63"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
       <c r="G7" s="62">
         <f>SUM(G4:G6)</f>
         <v>112076.4</v>
@@ -7504,6 +7520,279 @@
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="A6:F6"/>
     <mergeCell ref="A7:F7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="21.44140625" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="28" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="21" customHeight="1">
+      <c r="A1" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="63" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="63" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="63" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="63" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="63" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="28.2" customHeight="1">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="47" t="s">
+        <v>136</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="1">
+        <v>20</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1908</v>
+      </c>
+      <c r="G2" s="1">
+        <f t="shared" ref="G2:G8" si="0">E2*F2</f>
+        <v>38160</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="18.600000000000001" customHeight="1">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="1">
+        <v>100</v>
+      </c>
+      <c r="F3" s="1">
+        <v>565</v>
+      </c>
+      <c r="G3" s="1">
+        <f t="shared" si="0"/>
+        <v>56500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="26.4">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C4" s="10">
+        <v>616026</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="1">
+        <v>5</v>
+      </c>
+      <c r="F4" s="1">
+        <v>5614</v>
+      </c>
+      <c r="G4" s="1">
+        <f t="shared" si="0"/>
+        <v>28070</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="26.4">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="C5" s="5">
+        <v>615698</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="1">
+        <v>10</v>
+      </c>
+      <c r="F5" s="1">
+        <v>4831</v>
+      </c>
+      <c r="G5" s="1">
+        <f t="shared" si="0"/>
+        <v>48310</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="26.4">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="C6" s="5">
+        <v>630059</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="1">
+        <v>7</v>
+      </c>
+      <c r="F6" s="1">
+        <v>4048</v>
+      </c>
+      <c r="G6" s="1">
+        <f t="shared" si="0"/>
+        <v>28336</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="26.4">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="1">
+        <v>9</v>
+      </c>
+      <c r="F7" s="1">
+        <v>6521</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="shared" si="0"/>
+        <v>58689</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="26.4">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="C8" s="4">
+        <v>632215</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="1">
+        <v>5</v>
+      </c>
+      <c r="F8" s="1">
+        <v>5738</v>
+      </c>
+      <c r="G8" s="1">
+        <f t="shared" si="0"/>
+        <v>28690</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="64"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="63">
+        <f>SUM(G2:G8)</f>
+        <v>286755</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="64" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="64"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="63">
+        <f>G9*9%</f>
+        <v>25807.95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="64" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="64"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="64"/>
+      <c r="G11" s="63">
+        <f>G9*9%</f>
+        <v>25807.95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="64" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="64"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="64"/>
+      <c r="G12" s="63">
+        <f>SUM(G9:G11)</f>
+        <v>338370.9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A12:F12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7723,56 +8012,56 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="63" t="s">
+      <c r="A9" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="63"/>
-      <c r="C9" s="63"/>
-      <c r="D9" s="63"/>
-      <c r="E9" s="63"/>
-      <c r="F9" s="63"/>
+      <c r="B9" s="64"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
       <c r="G9" s="11">
         <f>SUM(G2:G8)</f>
         <v>249351</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="63" t="s">
+      <c r="A10" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="63"/>
-      <c r="C10" s="63"/>
-      <c r="D10" s="63"/>
-      <c r="E10" s="63"/>
-      <c r="F10" s="63"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="64"/>
       <c r="G10" s="11">
         <f>G9*9%</f>
         <v>22441.59</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="63" t="s">
+      <c r="A11" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="63"/>
-      <c r="C11" s="63"/>
-      <c r="D11" s="63"/>
-      <c r="E11" s="63"/>
-      <c r="F11" s="63"/>
+      <c r="B11" s="64"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="64"/>
       <c r="G11" s="11">
         <f>G9*9%</f>
         <v>22441.59</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="63" t="s">
+      <c r="A12" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="63"/>
-      <c r="C12" s="63"/>
-      <c r="D12" s="63"/>
-      <c r="E12" s="63"/>
-      <c r="F12" s="63"/>
+      <c r="B12" s="64"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="64"/>
       <c r="G12" s="11">
         <f>SUM(G9:G11)</f>
         <v>294234.18000000005</v>
@@ -7878,56 +8167,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
       <c r="G4" s="12">
         <f>SUM(G2:G3)</f>
         <v>132820</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="63" t="s">
+      <c r="A5" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
       <c r="G5" s="12">
         <f>G4*9%</f>
         <v>11953.8</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="63" t="s">
+      <c r="A6" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="63"/>
-      <c r="C6" s="63"/>
-      <c r="D6" s="63"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
       <c r="G6" s="12">
         <f>G4*9%</f>
         <v>11953.8</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="63" t="s">
+      <c r="A7" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="63"/>
-      <c r="C7" s="63"/>
-      <c r="D7" s="63"/>
-      <c r="E7" s="63"/>
-      <c r="F7" s="63"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
       <c r="G7" s="12">
         <f>SUM(G4:G6)</f>
         <v>156727.59999999998</v>
@@ -7999,48 +8288,48 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="65"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
       <c r="E3" s="17">
         <f>SUM(E2)</f>
         <v>18560</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="64" t="s">
+      <c r="A4" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="65"/>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
       <c r="E4" s="17">
         <f>E3*9%</f>
         <v>1670.3999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="64" t="s">
+      <c r="A5" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="65"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
       <c r="E5" s="17">
         <f>E3*9%</f>
         <v>1670.3999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="64" t="s">
+      <c r="A6" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="65"/>
-      <c r="C6" s="65"/>
-      <c r="D6" s="65"/>
+      <c r="B6" s="66"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="66"/>
       <c r="E6" s="17">
         <f>SUM(E3:E5)</f>
         <v>21900.800000000003</v>
@@ -8150,56 +8439,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
       <c r="G4" s="13">
         <f>SUM(G2:G3)</f>
         <v>128790</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="63" t="s">
+      <c r="A5" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
       <c r="G5" s="13">
         <f>G4*9%</f>
         <v>11591.1</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="63" t="s">
+      <c r="A6" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="63"/>
-      <c r="C6" s="63"/>
-      <c r="D6" s="63"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
       <c r="G6" s="13">
         <f>G4*9%</f>
         <v>11591.1</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="63" t="s">
+      <c r="A7" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="63"/>
-      <c r="C7" s="63"/>
-      <c r="D7" s="63"/>
-      <c r="E7" s="63"/>
-      <c r="F7" s="63"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
       <c r="G7" s="13">
         <f>SUM(G4:G6)</f>
         <v>151972.20000000001</v>
@@ -8309,56 +8598,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
       <c r="G4" s="18">
         <f>SUM(G2:G3)</f>
         <v>196927</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="63" t="s">
+      <c r="A5" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
       <c r="G5" s="18">
         <f>G4*9%</f>
         <v>17723.43</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="63" t="s">
+      <c r="A6" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="63"/>
-      <c r="C6" s="63"/>
-      <c r="D6" s="63"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
       <c r="G6" s="18">
         <f>G4*9%</f>
         <v>17723.43</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="63" t="s">
+      <c r="A7" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="63"/>
-      <c r="C7" s="63"/>
-      <c r="D7" s="63"/>
-      <c r="E7" s="63"/>
-      <c r="F7" s="63"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
       <c r="G7" s="18">
         <f>SUM(G4:G6)</f>
         <v>232373.86</v>
@@ -8491,56 +8780,56 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="63" t="s">
+      <c r="A5" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
       <c r="G5" s="19">
         <f>SUM(G2:G4)</f>
         <v>189083</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="63" t="s">
+      <c r="A6" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="63"/>
-      <c r="C6" s="63"/>
-      <c r="D6" s="63"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
       <c r="G6" s="19">
         <f>G5*9%</f>
         <v>17017.47</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="63" t="s">
+      <c r="A7" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="63"/>
-      <c r="C7" s="63"/>
-      <c r="D7" s="63"/>
-      <c r="E7" s="63"/>
-      <c r="F7" s="63"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
       <c r="G7" s="19">
         <f>G5*9%</f>
         <v>17017.47</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="63" t="s">
+      <c r="A8" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="63"/>
-      <c r="C8" s="63"/>
-      <c r="D8" s="63"/>
-      <c r="E8" s="63"/>
-      <c r="F8" s="63"/>
+      <c r="B8" s="64"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
       <c r="G8" s="19">
         <f>SUM(G5:G7)</f>
         <v>223117.94</v>

--- a/Invoices/Invoices.xlsx
+++ b/Invoices/Invoices.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="28" activeTab="36"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="28" activeTab="35"/>
   </bookViews>
   <sheets>
     <sheet name="Putz 101" sheetId="1" r:id="rId1"/>
@@ -462,9 +462,6 @@
     <t>APS 151343138 (14-06-2023)</t>
   </si>
   <si>
-    <t>PC UPS (Serial Number -                                                                                                                                                                                                                                               )</t>
-  </si>
-  <si>
     <t>151390089 (23-10-2023)</t>
   </si>
   <si>
@@ -475,6 +472,9 @@
   </si>
   <si>
     <t>151391303 (26-10-2023)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PC UPS (Serial Number - 242204546116, 242204546115)                                                                                                                                                                                                                </t>
   </si>
 </sst>
 </file>
@@ -7373,8 +7373,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -7445,7 +7445,7 @@
         <v>724214</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E3" s="1">
         <v>2</v>
@@ -7529,15 +7529,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="21.44140625" customWidth="1"/>
     <col min="3" max="3" width="15.6640625" customWidth="1"/>
-    <col min="4" max="4" width="28" customWidth="1"/>
+    <col min="4" max="4" width="39.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21" customHeight="1">
@@ -7568,7 +7568,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="47" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>31</v>
@@ -7592,7 +7592,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>34</v>
@@ -7616,7 +7616,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C4" s="10">
         <v>616026</v>
@@ -7640,7 +7640,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C5" s="5">
         <v>615698</v>
@@ -7664,7 +7664,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C6" s="5">
         <v>630059</v>
@@ -7688,7 +7688,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>23</v>
@@ -7712,7 +7712,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C8" s="4">
         <v>632215</v>

--- a/Invoices/Invoices.xlsx
+++ b/Invoices/Invoices.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="28" activeTab="35"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="30" activeTab="38"/>
   </bookViews>
   <sheets>
     <sheet name="Putz 101" sheetId="1" r:id="rId1"/>
@@ -44,6 +44,8 @@
     <sheet name="Nerul 301" sheetId="35" r:id="rId35"/>
     <sheet name="Putz 302 APS" sheetId="36" r:id="rId36"/>
     <sheet name="Putz 303" sheetId="37" r:id="rId37"/>
+    <sheet name="Putz 304" sheetId="38" r:id="rId38"/>
+    <sheet name="Putz 305 APS" sheetId="39" r:id="rId39"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -55,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="142">
   <si>
     <t>Sr. No</t>
   </si>
@@ -475,6 +477,12 @@
   </si>
   <si>
     <t xml:space="preserve">PC UPS (Serial Number - 242204546116, 242204546115)                                                                                                                                                                                                                </t>
+  </si>
+  <si>
+    <t>151395324 (06-11-2023) (APS)</t>
+  </si>
+  <si>
+    <t>Monochrome laserjet printer CanonLBP6030BJ (Serial Number - NTNA753462, NTNA753450 )</t>
   </si>
 </sst>
 </file>
@@ -652,7 +660,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -836,6 +844,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1293,56 +1304,56 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="64" t="s">
+      <c r="A6" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="64"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
+      <c r="B6" s="65"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
       <c r="G6" s="2">
         <f>SUM(G2:G5)</f>
         <v>91479</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="64" t="s">
+      <c r="A7" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="64"/>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
+      <c r="B7" s="65"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
       <c r="G7" s="2">
         <f>G6*9%</f>
         <v>8233.11</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="64" t="s">
+      <c r="A8" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="64"/>
-      <c r="C8" s="64"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="64"/>
+      <c r="B8" s="65"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="65"/>
       <c r="G8" s="2">
         <f>G6*9%</f>
         <v>8233.11</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="14.4" customHeight="1">
-      <c r="A9" s="64" t="s">
+      <c r="A9" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="64"/>
-      <c r="C9" s="64"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64"/>
+      <c r="B9" s="65"/>
+      <c r="C9" s="65"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="65"/>
       <c r="G9" s="2">
         <f>SUM(G6:G8)</f>
         <v>107945.22</v>
@@ -1477,56 +1488,56 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="64" t="s">
+      <c r="A5" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
       <c r="G5" s="19">
         <f>SUM(G2:G4)</f>
         <v>124900</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="64" t="s">
+      <c r="A6" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="64"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
+      <c r="B6" s="65"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
       <c r="G6" s="19">
         <f>G5*9%</f>
         <v>11241</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="64" t="s">
+      <c r="A7" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="64"/>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
+      <c r="B7" s="65"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
       <c r="G7" s="19">
         <f>G5*9%</f>
         <v>11241</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="64" t="s">
+      <c r="A8" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="64"/>
-      <c r="C8" s="64"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="64"/>
+      <c r="B8" s="65"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="65"/>
       <c r="G8" s="19">
         <f>SUM(G5:G7)</f>
         <v>147382</v>
@@ -1610,56 +1621,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
       <c r="G3" s="20">
         <f>SUM(G2)</f>
         <v>5614</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="64" t="s">
+      <c r="A4" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
       <c r="G4" s="20">
         <f>G3*9%</f>
         <v>505.26</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="64" t="s">
+      <c r="A5" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
       <c r="G5" s="20">
         <f>G3*9%</f>
         <v>505.26</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="64" t="s">
+      <c r="A6" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="64"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
+      <c r="B6" s="65"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
       <c r="G6" s="20">
         <f>SUM(G3:G5)</f>
         <v>6624.52</v>
@@ -1769,56 +1780,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="64" t="s">
+      <c r="A4" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
       <c r="G4" s="21">
         <f>SUM(G2:G3)</f>
         <v>41212</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="64" t="s">
+      <c r="A5" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
       <c r="G5" s="21">
         <f>G4*9%</f>
         <v>3709.08</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="64" t="s">
+      <c r="A6" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="64"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
+      <c r="B6" s="65"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
       <c r="G6" s="21">
         <f>G4*9%</f>
         <v>3709.08</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="64" t="s">
+      <c r="A7" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="64"/>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
+      <c r="B7" s="65"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
       <c r="G7" s="21">
         <f>SUM(G4:G6)</f>
         <v>48630.16</v>
@@ -1903,56 +1914,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
       <c r="G3" s="21">
         <f>SUM(G2)</f>
         <v>24000</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="64" t="s">
+      <c r="A4" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
       <c r="G4" s="21">
         <f>G3*9%</f>
         <v>2160</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="64" t="s">
+      <c r="A5" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
       <c r="G5" s="21">
         <f>G3*9%</f>
         <v>2160</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="64" t="s">
+      <c r="A6" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="64"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
+      <c r="B6" s="65"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
       <c r="G6" s="21">
         <f>SUM(G3:G5)</f>
         <v>28320</v>
@@ -2109,56 +2120,56 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="64" t="s">
+      <c r="A6" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="64"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
+      <c r="B6" s="65"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
       <c r="G6" s="22">
         <f>SUM(G2:G5)</f>
         <v>313513</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="64" t="s">
+      <c r="A7" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="64"/>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
+      <c r="B7" s="65"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
       <c r="G7" s="22">
         <f>G6*9%</f>
         <v>28216.17</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="64" t="s">
+      <c r="A8" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="64"/>
-      <c r="C8" s="64"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="64"/>
+      <c r="B8" s="65"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="65"/>
       <c r="G8" s="22">
         <f>G6*9%</f>
         <v>28216.17</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="64" t="s">
+      <c r="A9" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="64"/>
-      <c r="C9" s="64"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64"/>
+      <c r="B9" s="65"/>
+      <c r="C9" s="65"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="65"/>
       <c r="G9" s="22">
         <f>SUM(G6:G8)</f>
         <v>369945.33999999997</v>
@@ -2243,56 +2254,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
       <c r="G3" s="22">
         <f>SUM(G2)</f>
         <v>73450</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="64" t="s">
+      <c r="A4" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
       <c r="G4" s="22">
         <f>G3*9%</f>
         <v>6610.5</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="64" t="s">
+      <c r="A5" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
       <c r="G5" s="22">
         <f>G3*9%</f>
         <v>6610.5</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="64" t="s">
+      <c r="A6" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="64"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
+      <c r="B6" s="65"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
       <c r="G6" s="22">
         <f>SUM(G3:G5)</f>
         <v>86671</v>
@@ -2400,56 +2411,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="64" t="s">
+      <c r="A4" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
       <c r="G4" s="23">
         <f>SUM(G2:G3)</f>
         <v>729990</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="64" t="s">
+      <c r="A5" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
       <c r="G5" s="23">
         <f>G4*9%</f>
         <v>65699.099999999991</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="64" t="s">
+      <c r="A6" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="64"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
+      <c r="B6" s="65"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
       <c r="G6" s="23">
         <f>G4*9%</f>
         <v>65699.099999999991</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="64" t="s">
+      <c r="A7" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="64"/>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
+      <c r="B7" s="65"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
       <c r="G7" s="23">
         <f>SUM(G4:G6)</f>
         <v>861388.2</v>
@@ -2629,56 +2640,56 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="64" t="s">
+      <c r="A7" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="64"/>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
+      <c r="B7" s="65"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
       <c r="G7" s="23">
         <f>SUM(G2:G6)</f>
         <v>246402</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="64" t="s">
+      <c r="A8" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="64"/>
-      <c r="C8" s="64"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="64"/>
+      <c r="B8" s="65"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="65"/>
       <c r="G8" s="23">
         <f>G7*9%</f>
         <v>22176.18</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="64" t="s">
+      <c r="A9" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="64"/>
-      <c r="C9" s="64"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64"/>
+      <c r="B9" s="65"/>
+      <c r="C9" s="65"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="65"/>
       <c r="G9" s="23">
         <f>G7*9%</f>
         <v>22176.18</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="64" t="s">
+      <c r="A10" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="64"/>
-      <c r="C10" s="64"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="64"/>
+      <c r="B10" s="65"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="65"/>
+      <c r="F10" s="65"/>
       <c r="G10" s="23">
         <f>SUM(G7:G9)</f>
         <v>290754.36</v>
@@ -2934,56 +2945,56 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="64" t="s">
+      <c r="A10" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="64"/>
-      <c r="C10" s="64"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="64"/>
+      <c r="B10" s="65"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="65"/>
+      <c r="F10" s="65"/>
       <c r="G10" s="27">
         <f>SUM(G2:G9)</f>
         <v>734495</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="64" t="s">
+      <c r="A11" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="64"/>
-      <c r="C11" s="64"/>
-      <c r="D11" s="64"/>
-      <c r="E11" s="64"/>
-      <c r="F11" s="64"/>
+      <c r="B11" s="65"/>
+      <c r="C11" s="65"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="65"/>
+      <c r="F11" s="65"/>
       <c r="G11" s="27">
         <f>G10*9%</f>
         <v>66104.55</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="64" t="s">
+      <c r="A12" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="64"/>
-      <c r="C12" s="64"/>
-      <c r="D12" s="64"/>
-      <c r="E12" s="64"/>
-      <c r="F12" s="64"/>
+      <c r="B12" s="65"/>
+      <c r="C12" s="65"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="65"/>
+      <c r="F12" s="65"/>
       <c r="G12" s="27">
         <f>G10*9%</f>
         <v>66104.55</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="64" t="s">
+      <c r="A13" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="64"/>
-      <c r="C13" s="64"/>
-      <c r="D13" s="64"/>
-      <c r="E13" s="64"/>
-      <c r="F13" s="64"/>
+      <c r="B13" s="65"/>
+      <c r="C13" s="65"/>
+      <c r="D13" s="65"/>
+      <c r="E13" s="65"/>
+      <c r="F13" s="65"/>
       <c r="G13" s="27">
         <f>SUM(G10:G12)</f>
         <v>866704.10000000009</v>
@@ -3139,56 +3150,56 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="64" t="s">
+      <c r="A6" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="64"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
+      <c r="B6" s="65"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
       <c r="G6" s="25">
         <f>SUM(G2:G5)</f>
         <v>70904</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="64" t="s">
+      <c r="A7" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="64"/>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
+      <c r="B7" s="65"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
       <c r="G7" s="25">
         <f>G6*9%</f>
         <v>6381.36</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="64" t="s">
+      <c r="A8" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="64"/>
-      <c r="C8" s="64"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="64"/>
+      <c r="B8" s="65"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="65"/>
       <c r="G8" s="25">
         <f>G6*9%</f>
         <v>6381.36</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="64" t="s">
+      <c r="A9" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="64"/>
-      <c r="C9" s="64"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64"/>
+      <c r="B9" s="65"/>
+      <c r="C9" s="65"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="65"/>
       <c r="G9" s="25">
         <f>SUM(G6:G8)</f>
         <v>83666.720000000001</v>
@@ -3391,56 +3402,56 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="64" t="s">
+      <c r="A8" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="64"/>
-      <c r="C8" s="64"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="64"/>
+      <c r="B8" s="65"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="65"/>
       <c r="G8" s="3">
         <f>SUM(G2:G7)</f>
         <v>246185</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="64" t="s">
+      <c r="A9" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="64"/>
-      <c r="C9" s="64"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64"/>
+      <c r="B9" s="65"/>
+      <c r="C9" s="65"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="65"/>
       <c r="G9" s="3">
         <f>G8*9%</f>
         <v>22156.649999999998</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="64" t="s">
+      <c r="A10" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="64"/>
-      <c r="C10" s="64"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="64"/>
+      <c r="B10" s="65"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="65"/>
+      <c r="F10" s="65"/>
       <c r="G10" s="3">
         <f>G8*9%</f>
         <v>22156.649999999998</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="64" t="s">
+      <c r="A11" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="64"/>
-      <c r="C11" s="64"/>
-      <c r="D11" s="64"/>
-      <c r="E11" s="64"/>
-      <c r="F11" s="64"/>
+      <c r="B11" s="65"/>
+      <c r="C11" s="65"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="65"/>
+      <c r="F11" s="65"/>
       <c r="G11" s="3">
         <f>SUM(G8:G10)</f>
         <v>290498.30000000005</v>
@@ -3574,56 +3585,56 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="64" t="s">
+      <c r="A5" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
       <c r="G5" s="28">
         <f>SUM(G2:G4)</f>
         <v>262240</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="64" t="s">
+      <c r="A6" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="64"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
+      <c r="B6" s="65"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
       <c r="G6" s="28">
         <f>G5*9%</f>
         <v>23601.599999999999</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="64" t="s">
+      <c r="A7" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="64"/>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
+      <c r="B7" s="65"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
       <c r="G7" s="28">
         <f>G5*9%</f>
         <v>23601.599999999999</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="64" t="s">
+      <c r="A8" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="64"/>
-      <c r="C8" s="64"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="64"/>
+      <c r="B8" s="65"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="65"/>
       <c r="G8" s="28">
         <f>SUM(G5:G7)</f>
         <v>309443.19999999995</v>
@@ -3853,56 +3864,56 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="64" t="s">
+      <c r="A9" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="64"/>
-      <c r="C9" s="64"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64"/>
+      <c r="B9" s="65"/>
+      <c r="C9" s="65"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="65"/>
       <c r="G9" s="28">
         <f>SUM(G2:G8)</f>
         <v>322872</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="64" t="s">
+      <c r="A10" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="64"/>
-      <c r="C10" s="64"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="64"/>
+      <c r="B10" s="65"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="65"/>
+      <c r="F10" s="65"/>
       <c r="G10" s="28">
         <f>G9*9%</f>
         <v>29058.48</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="64" t="s">
+      <c r="A11" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="64"/>
-      <c r="C11" s="64"/>
-      <c r="D11" s="64"/>
-      <c r="E11" s="64"/>
-      <c r="F11" s="64"/>
+      <c r="B11" s="65"/>
+      <c r="C11" s="65"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="65"/>
+      <c r="F11" s="65"/>
       <c r="G11" s="28">
         <f>G9*9%</f>
         <v>29058.48</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="64" t="s">
+      <c r="A12" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="64"/>
-      <c r="C12" s="64"/>
-      <c r="D12" s="64"/>
-      <c r="E12" s="64"/>
-      <c r="F12" s="64"/>
+      <c r="B12" s="65"/>
+      <c r="C12" s="65"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="65"/>
+      <c r="F12" s="65"/>
       <c r="G12" s="28">
         <f>SUM(G9:G11)</f>
         <v>380988.95999999996</v>
@@ -4059,56 +4070,56 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="64" t="s">
+      <c r="A6" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="64"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
+      <c r="B6" s="65"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
       <c r="G6" s="29">
         <f>SUM(G2:G5)</f>
         <v>161752</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="64" t="s">
+      <c r="A7" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="64"/>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
+      <c r="B7" s="65"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
       <c r="G7" s="29">
         <f>G6*9%</f>
         <v>14557.68</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="64" t="s">
+      <c r="A8" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="64"/>
-      <c r="C8" s="64"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="64"/>
+      <c r="B8" s="65"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="65"/>
       <c r="G8" s="29">
         <f>G6*9%</f>
         <v>14557.68</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="64" t="s">
+      <c r="A9" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="64"/>
-      <c r="C9" s="64"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64"/>
+      <c r="B9" s="65"/>
+      <c r="C9" s="65"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="65"/>
       <c r="G9" s="29">
         <f>SUM(G6:G8)</f>
         <v>190867.36</v>
@@ -4192,56 +4203,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
       <c r="G3" s="30">
         <f>SUM(G2)</f>
         <v>18960</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="64" t="s">
+      <c r="A4" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
       <c r="G4" s="30">
         <f>G3*9%</f>
         <v>1706.3999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="64" t="s">
+      <c r="A5" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
       <c r="G5" s="30">
         <f>G3*9%</f>
         <v>1706.3999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="64" t="s">
+      <c r="A6" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="64"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
+      <c r="B6" s="65"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
       <c r="G6" s="30">
         <f>SUM(G3:G5)</f>
         <v>22372.800000000003</v>
@@ -4326,56 +4337,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
       <c r="G3" s="32">
         <f>SUM(G2)</f>
         <v>86070</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="64" t="s">
+      <c r="A4" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
       <c r="G4" s="32">
         <f>G3*9%</f>
         <v>7746.2999999999993</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="64" t="s">
+      <c r="A5" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
       <c r="G5" s="32">
         <f>G3*9%</f>
         <v>7746.2999999999993</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="64" t="s">
+      <c r="A6" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="64"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
+      <c r="B6" s="65"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
       <c r="G6" s="32">
         <f>SUM(G3:G5)</f>
         <v>101562.6</v>
@@ -4485,56 +4496,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="64" t="s">
+      <c r="A4" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
       <c r="G4" s="33">
         <f>SUM(G2:G3)</f>
         <v>113520</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="64" t="s">
+      <c r="A5" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
       <c r="G5" s="33">
         <f>G4*9%</f>
         <v>10216.799999999999</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="64" t="s">
+      <c r="A6" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="64"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
+      <c r="B6" s="65"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
       <c r="G6" s="33">
         <f>G4*9%</f>
         <v>10216.799999999999</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="64" t="s">
+      <c r="A7" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="64"/>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
+      <c r="B7" s="65"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
       <c r="G7" s="33">
         <f>SUM(G4:G6)</f>
         <v>133953.60000000001</v>
@@ -4620,56 +4631,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
       <c r="G3" s="35">
         <f>SUM(G2)</f>
         <v>19406</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="64" t="s">
+      <c r="A4" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
       <c r="G4" s="35">
         <f>G3*9%</f>
         <v>1746.54</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="64" t="s">
+      <c r="A5" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
       <c r="G5" s="35">
         <f>G3*9%</f>
         <v>1746.54</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="64" t="s">
+      <c r="A6" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="64"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
+      <c r="B6" s="65"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
       <c r="G6" s="35">
         <f>SUM(G3:G5)</f>
         <v>22899.08</v>
@@ -4874,56 +4885,56 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="64" t="s">
+      <c r="A8" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="64"/>
-      <c r="C8" s="64"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="64"/>
+      <c r="B8" s="65"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="65"/>
       <c r="G8" s="36">
         <f>SUM(G2:G7)</f>
         <v>305810</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="64" t="s">
+      <c r="A9" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="64"/>
-      <c r="C9" s="64"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64"/>
+      <c r="B9" s="65"/>
+      <c r="C9" s="65"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="65"/>
       <c r="G9" s="36">
         <f>G8*9%</f>
         <v>27522.899999999998</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="64" t="s">
+      <c r="A10" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="64"/>
-      <c r="C10" s="64"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="64"/>
+      <c r="B10" s="65"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="65"/>
+      <c r="F10" s="65"/>
       <c r="G10" s="36">
         <f>G8*9%</f>
         <v>27522.899999999998</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="64" t="s">
+      <c r="A11" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="64"/>
-      <c r="C11" s="64"/>
-      <c r="D11" s="64"/>
-      <c r="E11" s="64"/>
-      <c r="F11" s="64"/>
+      <c r="B11" s="65"/>
+      <c r="C11" s="65"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="65"/>
+      <c r="F11" s="65"/>
       <c r="G11" s="36">
         <f>SUM(G8:G10)</f>
         <v>360855.80000000005</v>
@@ -5054,56 +5065,56 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="64" t="s">
+      <c r="A5" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
       <c r="G5" s="42">
         <f>SUM(G2:G4)</f>
         <v>155660</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="64" t="s">
+      <c r="A6" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="64"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
+      <c r="B6" s="65"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
       <c r="G6" s="42">
         <f>G5*9%</f>
         <v>14009.4</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="64" t="s">
+      <c r="A7" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="64"/>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
+      <c r="B7" s="65"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
       <c r="G7" s="42">
         <f>G5*9%</f>
         <v>14009.4</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="64" t="s">
+      <c r="A8" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="64"/>
-      <c r="C8" s="64"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="64"/>
+      <c r="B8" s="65"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="65"/>
       <c r="G8" s="42">
         <f>SUM(G5:G7)</f>
         <v>183678.8</v>
@@ -5234,56 +5245,56 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="64" t="s">
+      <c r="A5" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
       <c r="G5" s="43">
         <f>SUM(G2:G4)</f>
         <v>95390</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="64" t="s">
+      <c r="A6" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="64"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
+      <c r="B6" s="65"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
       <c r="G6" s="43">
         <f>G5*9%</f>
         <v>8585.1</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="64" t="s">
+      <c r="A7" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="64"/>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
+      <c r="B7" s="65"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
       <c r="G7" s="43">
         <f>G5*9%</f>
         <v>8585.1</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="64" t="s">
+      <c r="A8" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="64"/>
-      <c r="C8" s="64"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="64"/>
+      <c r="B8" s="65"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="65"/>
       <c r="G8" s="43">
         <f>SUM(G5:G7)</f>
         <v>112560.20000000001</v>
@@ -5367,56 +5378,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
       <c r="G3" s="11">
         <f>SUM(G2)</f>
         <v>4831</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="64" t="s">
+      <c r="A4" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
       <c r="G4" s="11">
         <f>G3*9%</f>
         <v>434.78999999999996</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="64" t="s">
+      <c r="A5" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
       <c r="G5" s="11">
         <f>G3*9%</f>
         <v>434.78999999999996</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="64" t="s">
+      <c r="A6" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="64"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
+      <c r="B6" s="65"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
       <c r="G6" s="11">
         <f>SUM(G3:G5)</f>
         <v>5700.58</v>
@@ -5499,56 +5510,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
       <c r="G3" s="43">
         <f>SUM(G2)</f>
         <v>56140</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="64" t="s">
+      <c r="A4" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
       <c r="G4" s="43">
         <f>G3*9%</f>
         <v>5052.5999999999995</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="64" t="s">
+      <c r="A5" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
       <c r="G5" s="43">
         <f>G3*9%</f>
         <v>5052.5999999999995</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="64" t="s">
+      <c r="A6" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="64"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
+      <c r="B6" s="65"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
       <c r="G6" s="43">
         <f>SUM(G3:G5)</f>
         <v>66245.2</v>
@@ -5632,56 +5643,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
       <c r="G3" s="44">
         <f>SUM(G2)</f>
         <v>48310</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="64" t="s">
+      <c r="A4" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
       <c r="G4" s="44">
         <f>G3*9%</f>
         <v>4347.8999999999996</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="64" t="s">
+      <c r="A5" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
       <c r="G5" s="44">
         <f>G3*9%</f>
         <v>4347.8999999999996</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="64" t="s">
+      <c r="A6" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="64"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
+      <c r="B6" s="65"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
       <c r="G6" s="44">
         <f>SUM(G3:G5)</f>
         <v>57005.8</v>
@@ -5790,56 +5801,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="64" t="s">
+      <c r="A4" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
       <c r="G4" s="46">
         <f>SUM(G2:G3)</f>
         <v>122290</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="64" t="s">
+      <c r="A5" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
       <c r="G5" s="46">
         <f>G4*9%</f>
         <v>11006.1</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="64" t="s">
+      <c r="A6" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="64"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
+      <c r="B6" s="65"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
       <c r="G6" s="46">
         <f>G4*9%</f>
         <v>11006.1</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="64" t="s">
+      <c r="A7" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="64"/>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
+      <c r="B7" s="65"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
       <c r="G7" s="46">
         <f>SUM(G4:G6)</f>
         <v>144302.20000000001</v>
@@ -5880,12 +5891,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="74" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
       <c r="E1" s="48"/>
     </row>
     <row r="2" spans="1:5" ht="15.6">
@@ -6086,12 +6097,12 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.6">
-      <c r="A13" s="67" t="s">
+      <c r="A13" s="68" t="s">
         <v>91</v>
       </c>
-      <c r="B13" s="68"/>
-      <c r="C13" s="68"/>
-      <c r="D13" s="69"/>
+      <c r="B13" s="69"/>
+      <c r="C13" s="69"/>
+      <c r="D13" s="70"/>
       <c r="E13" s="52">
         <f>SUM(E3:E12)</f>
         <v>1083930</v>
@@ -6105,12 +6116,12 @@
       <c r="E14" s="54"/>
     </row>
     <row r="15" spans="1:5" ht="21">
-      <c r="A15" s="70" t="s">
+      <c r="A15" s="71" t="s">
         <v>92</v>
       </c>
-      <c r="B15" s="71"/>
-      <c r="C15" s="71"/>
-      <c r="D15" s="72"/>
+      <c r="B15" s="72"/>
+      <c r="C15" s="72"/>
+      <c r="D15" s="73"/>
       <c r="E15" s="53"/>
     </row>
     <row r="16" spans="1:5" ht="15.6">
@@ -6383,12 +6394,12 @@
       </c>
     </row>
     <row r="31" spans="1:14" ht="31.2">
-      <c r="A31" s="67" t="s">
+      <c r="A31" s="68" t="s">
         <v>94</v>
       </c>
-      <c r="B31" s="68"/>
-      <c r="C31" s="68"/>
-      <c r="D31" s="69"/>
+      <c r="B31" s="69"/>
+      <c r="C31" s="69"/>
+      <c r="D31" s="70"/>
       <c r="E31" s="52">
         <f>SUM(E17:E30)</f>
         <v>778190</v>
@@ -6410,12 +6421,12 @@
       </c>
     </row>
     <row r="32" spans="1:14" ht="15.6">
-      <c r="A32" s="67" t="s">
+      <c r="A32" s="68" t="s">
         <v>125</v>
       </c>
-      <c r="B32" s="68"/>
-      <c r="C32" s="68"/>
-      <c r="D32" s="69"/>
+      <c r="B32" s="69"/>
+      <c r="C32" s="69"/>
+      <c r="D32" s="70"/>
       <c r="E32" s="52">
         <f>E13+E31</f>
         <v>1862120</v>
@@ -6442,36 +6453,36 @@
       <c r="N32" s="60"/>
     </row>
     <row r="33" spans="1:10" ht="15.6">
-      <c r="A33" s="67" t="s">
+      <c r="A33" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="B33" s="68"/>
-      <c r="C33" s="68"/>
-      <c r="D33" s="69"/>
+      <c r="B33" s="69"/>
+      <c r="C33" s="69"/>
+      <c r="D33" s="70"/>
       <c r="E33" s="52">
         <f>E32*9%</f>
         <v>167590.79999999999</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="15.6">
-      <c r="A34" s="67" t="s">
+      <c r="A34" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="B34" s="68"/>
-      <c r="C34" s="68"/>
-      <c r="D34" s="69"/>
+      <c r="B34" s="69"/>
+      <c r="C34" s="69"/>
+      <c r="D34" s="70"/>
       <c r="E34" s="52">
         <f>E32*9%</f>
         <v>167590.79999999999</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="15.6">
-      <c r="A35" s="67" t="s">
+      <c r="A35" s="68" t="s">
         <v>95</v>
       </c>
-      <c r="B35" s="68"/>
-      <c r="C35" s="68"/>
-      <c r="D35" s="69"/>
+      <c r="B35" s="69"/>
+      <c r="C35" s="69"/>
+      <c r="D35" s="70"/>
       <c r="E35" s="52">
         <f>SUM(E32:E34)</f>
         <v>2197301.6</v>
@@ -6607,56 +6618,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
       <c r="G3" s="56">
         <f>SUM(G2)</f>
         <v>33684</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="64" t="s">
+      <c r="A4" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
       <c r="G4" s="56">
         <f>G3*9%</f>
         <v>3031.56</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="64" t="s">
+      <c r="A5" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
       <c r="G5" s="56">
         <f>G3*9%</f>
         <v>3031.56</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="64" t="s">
+      <c r="A6" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="64"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
+      <c r="B6" s="65"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
       <c r="G6" s="56">
         <f>SUM(G3:G5)</f>
         <v>39747.119999999995</v>
@@ -6698,12 +6709,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="74" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
       <c r="E1" s="48"/>
     </row>
     <row r="2" spans="1:5" ht="15.6">
@@ -6904,12 +6915,12 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.6">
-      <c r="A13" s="67" t="s">
+      <c r="A13" s="68" t="s">
         <v>91</v>
       </c>
-      <c r="B13" s="68"/>
-      <c r="C13" s="68"/>
-      <c r="D13" s="69"/>
+      <c r="B13" s="69"/>
+      <c r="C13" s="69"/>
+      <c r="D13" s="70"/>
       <c r="E13" s="52">
         <f>SUM(E3:E12)</f>
         <v>1083930</v>
@@ -6923,12 +6934,12 @@
       <c r="E14" s="54"/>
     </row>
     <row r="15" spans="1:5" ht="21">
-      <c r="A15" s="70" t="s">
+      <c r="A15" s="71" t="s">
         <v>92</v>
       </c>
-      <c r="B15" s="71"/>
-      <c r="C15" s="71"/>
-      <c r="D15" s="72"/>
+      <c r="B15" s="72"/>
+      <c r="C15" s="72"/>
+      <c r="D15" s="73"/>
       <c r="E15" s="53"/>
     </row>
     <row r="16" spans="1:5" ht="15.6">
@@ -7201,24 +7212,24 @@
       </c>
     </row>
     <row r="31" spans="1:14" ht="15.6" customHeight="1">
-      <c r="A31" s="67" t="s">
+      <c r="A31" s="68" t="s">
         <v>94</v>
       </c>
-      <c r="B31" s="68"/>
-      <c r="C31" s="68"/>
-      <c r="D31" s="69"/>
+      <c r="B31" s="69"/>
+      <c r="C31" s="69"/>
+      <c r="D31" s="70"/>
       <c r="E31" s="52">
         <f>SUM(E17:E30)</f>
         <v>778190</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="15.6">
-      <c r="A32" s="67" t="s">
+      <c r="A32" s="68" t="s">
         <v>128</v>
       </c>
-      <c r="B32" s="68"/>
-      <c r="C32" s="68"/>
-      <c r="D32" s="69"/>
+      <c r="B32" s="69"/>
+      <c r="C32" s="69"/>
+      <c r="D32" s="70"/>
       <c r="E32" s="52">
         <f>E13+E31</f>
         <v>1862120</v>
@@ -7373,8 +7384,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -7459,56 +7470,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="64" t="s">
+      <c r="A4" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
       <c r="G4" s="62">
         <f>SUM(G2:G3)</f>
         <v>94980</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="64" t="s">
+      <c r="A5" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
       <c r="G5" s="62">
         <f>G4*9%</f>
         <v>8548.1999999999989</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="64" t="s">
+      <c r="A6" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="64"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
+      <c r="B6" s="65"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
       <c r="G6" s="62">
         <f>G4*9%</f>
         <v>8548.1999999999989</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="64" t="s">
+      <c r="A7" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="64"/>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
+      <c r="B7" s="65"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
       <c r="G7" s="62">
         <f>SUM(G4:G6)</f>
         <v>112076.4</v>
@@ -7530,7 +7541,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection sqref="A1:G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -7732,56 +7743,56 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="64" t="s">
+      <c r="A9" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="64"/>
-      <c r="C9" s="64"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64"/>
+      <c r="B9" s="65"/>
+      <c r="C9" s="65"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="65"/>
       <c r="G9" s="63">
         <f>SUM(G2:G8)</f>
         <v>286755</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="64" t="s">
+      <c r="A10" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="64"/>
-      <c r="C10" s="64"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="64"/>
+      <c r="B10" s="65"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="65"/>
+      <c r="F10" s="65"/>
       <c r="G10" s="63">
         <f>G9*9%</f>
         <v>25807.95</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="64" t="s">
+      <c r="A11" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="64"/>
-      <c r="C11" s="64"/>
-      <c r="D11" s="64"/>
-      <c r="E11" s="64"/>
-      <c r="F11" s="64"/>
+      <c r="B11" s="65"/>
+      <c r="C11" s="65"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="65"/>
+      <c r="F11" s="65"/>
       <c r="G11" s="63">
         <f>G9*9%</f>
         <v>25807.95</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="64" t="s">
+      <c r="A12" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="64"/>
-      <c r="C12" s="64"/>
-      <c r="D12" s="64"/>
-      <c r="E12" s="64"/>
-      <c r="F12" s="64"/>
+      <c r="B12" s="65"/>
+      <c r="C12" s="65"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="65"/>
+      <c r="F12" s="65"/>
       <c r="G12" s="63">
         <f>SUM(G9:G11)</f>
         <v>338370.9</v>
@@ -7793,6 +7804,336 @@
     <mergeCell ref="A10:F10"/>
     <mergeCell ref="A11:F11"/>
     <mergeCell ref="A12:F12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="21.21875" customWidth="1"/>
+    <col min="4" max="4" width="28.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="22.8" customHeight="1">
+      <c r="A1" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="64" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="64" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="64" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="64" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="64" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="44.4" customHeight="1">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="C2" s="10">
+        <v>616026</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="1">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1">
+        <v>5614</v>
+      </c>
+      <c r="G2" s="1">
+        <f t="shared" ref="G2:G4" si="0">E2*F2</f>
+        <v>28070</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="39.6">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C3" s="5">
+        <v>630059</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="1">
+        <v>23</v>
+      </c>
+      <c r="F3" s="1">
+        <v>4048</v>
+      </c>
+      <c r="G3" s="1">
+        <f t="shared" si="0"/>
+        <v>93104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="52.8">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C4" s="5">
+        <v>616039</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="1">
+        <v>21</v>
+      </c>
+      <c r="F4" s="1">
+        <v>6521</v>
+      </c>
+      <c r="G4" s="1">
+        <f t="shared" si="0"/>
+        <v>136941</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="65" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="64">
+        <f>SUM(G2:G4)</f>
+        <v>258115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="65" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="65"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="64">
+        <f>G5*9%</f>
+        <v>23230.35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="65" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="65"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="64">
+        <f>G5*9%</f>
+        <v>23230.35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="65" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="65"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="65"/>
+      <c r="G8" s="64">
+        <f>SUM(G5:G7)</f>
+        <v>304575.69999999995</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="A8:F8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="6.88671875" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" customWidth="1"/>
+    <col min="4" max="4" width="35.44140625" customWidth="1"/>
+    <col min="7" max="7" width="7.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="43.2">
+      <c r="A1" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="64" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="64" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="64" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="64" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="64" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="54" customHeight="1">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C2" s="4">
+        <v>719381</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="E2" s="1">
+        <v>2</v>
+      </c>
+      <c r="F2" s="1">
+        <v>11990</v>
+      </c>
+      <c r="G2" s="1">
+        <f t="shared" ref="G2:G3" si="0">E2*F2</f>
+        <v>23980</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="52.8">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C3" s="10">
+        <v>616026</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="1">
+        <v>16</v>
+      </c>
+      <c r="F3" s="1">
+        <v>5614</v>
+      </c>
+      <c r="G3" s="1">
+        <f t="shared" si="0"/>
+        <v>89824</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="65" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="65"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="64">
+        <f>SUM(G2:G3)</f>
+        <v>113804</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="65" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="64">
+        <f>G4*9%</f>
+        <v>10242.359999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="65" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="65"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="64">
+        <f>G4*9%</f>
+        <v>10242.359999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="65" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="65"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="64">
+        <f>SUM(G4:G6)</f>
+        <v>134288.72</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A7:F7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8012,56 +8353,56 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="64" t="s">
+      <c r="A9" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="64"/>
-      <c r="C9" s="64"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64"/>
+      <c r="B9" s="65"/>
+      <c r="C9" s="65"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="65"/>
       <c r="G9" s="11">
         <f>SUM(G2:G8)</f>
         <v>249351</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="64" t="s">
+      <c r="A10" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="64"/>
-      <c r="C10" s="64"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="64"/>
+      <c r="B10" s="65"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="65"/>
+      <c r="F10" s="65"/>
       <c r="G10" s="11">
         <f>G9*9%</f>
         <v>22441.59</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="64" t="s">
+      <c r="A11" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="64"/>
-      <c r="C11" s="64"/>
-      <c r="D11" s="64"/>
-      <c r="E11" s="64"/>
-      <c r="F11" s="64"/>
+      <c r="B11" s="65"/>
+      <c r="C11" s="65"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="65"/>
+      <c r="F11" s="65"/>
       <c r="G11" s="11">
         <f>G9*9%</f>
         <v>22441.59</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="64" t="s">
+      <c r="A12" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="64"/>
-      <c r="C12" s="64"/>
-      <c r="D12" s="64"/>
-      <c r="E12" s="64"/>
-      <c r="F12" s="64"/>
+      <c r="B12" s="65"/>
+      <c r="C12" s="65"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="65"/>
+      <c r="F12" s="65"/>
       <c r="G12" s="11">
         <f>SUM(G9:G11)</f>
         <v>294234.18000000005</v>
@@ -8167,56 +8508,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="64" t="s">
+      <c r="A4" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
       <c r="G4" s="12">
         <f>SUM(G2:G3)</f>
         <v>132820</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="64" t="s">
+      <c r="A5" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
       <c r="G5" s="12">
         <f>G4*9%</f>
         <v>11953.8</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="64" t="s">
+      <c r="A6" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="64"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
+      <c r="B6" s="65"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
       <c r="G6" s="12">
         <f>G4*9%</f>
         <v>11953.8</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="64" t="s">
+      <c r="A7" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="64"/>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
+      <c r="B7" s="65"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
       <c r="G7" s="12">
         <f>SUM(G4:G6)</f>
         <v>156727.59999999998</v>
@@ -8288,48 +8629,48 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="65" t="s">
+      <c r="A3" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
       <c r="E3" s="17">
         <f>SUM(E2)</f>
         <v>18560</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="65" t="s">
+      <c r="A4" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="66"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
       <c r="E4" s="17">
         <f>E3*9%</f>
         <v>1670.3999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="65" t="s">
+      <c r="A5" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="66"/>
-      <c r="C5" s="66"/>
-      <c r="D5" s="66"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
       <c r="E5" s="17">
         <f>E3*9%</f>
         <v>1670.3999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="65" t="s">
+      <c r="A6" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="66"/>
-      <c r="C6" s="66"/>
-      <c r="D6" s="66"/>
+      <c r="B6" s="67"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
       <c r="E6" s="17">
         <f>SUM(E3:E5)</f>
         <v>21900.800000000003</v>
@@ -8439,56 +8780,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="64" t="s">
+      <c r="A4" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
       <c r="G4" s="13">
         <f>SUM(G2:G3)</f>
         <v>128790</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="64" t="s">
+      <c r="A5" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
       <c r="G5" s="13">
         <f>G4*9%</f>
         <v>11591.1</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="64" t="s">
+      <c r="A6" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="64"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
+      <c r="B6" s="65"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
       <c r="G6" s="13">
         <f>G4*9%</f>
         <v>11591.1</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="64" t="s">
+      <c r="A7" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="64"/>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
+      <c r="B7" s="65"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
       <c r="G7" s="13">
         <f>SUM(G4:G6)</f>
         <v>151972.20000000001</v>
@@ -8598,56 +8939,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="64" t="s">
+      <c r="A4" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
       <c r="G4" s="18">
         <f>SUM(G2:G3)</f>
         <v>196927</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="64" t="s">
+      <c r="A5" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
       <c r="G5" s="18">
         <f>G4*9%</f>
         <v>17723.43</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="64" t="s">
+      <c r="A6" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="64"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
+      <c r="B6" s="65"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
       <c r="G6" s="18">
         <f>G4*9%</f>
         <v>17723.43</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="64" t="s">
+      <c r="A7" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="64"/>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
+      <c r="B7" s="65"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
       <c r="G7" s="18">
         <f>SUM(G4:G6)</f>
         <v>232373.86</v>
@@ -8780,56 +9121,56 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="64" t="s">
+      <c r="A5" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
       <c r="G5" s="19">
         <f>SUM(G2:G4)</f>
         <v>189083</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="64" t="s">
+      <c r="A6" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="64"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
+      <c r="B6" s="65"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
       <c r="G6" s="19">
         <f>G5*9%</f>
         <v>17017.47</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="64" t="s">
+      <c r="A7" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="64"/>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
+      <c r="B7" s="65"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
       <c r="G7" s="19">
         <f>G5*9%</f>
         <v>17017.47</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="64" t="s">
+      <c r="A8" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="64"/>
-      <c r="C8" s="64"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="64"/>
+      <c r="B8" s="65"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="65"/>
       <c r="G8" s="19">
         <f>SUM(G5:G7)</f>
         <v>223117.94</v>

--- a/Invoices/Invoices.xlsx
+++ b/Invoices/Invoices.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="30" activeTab="38"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="32" activeTab="40"/>
   </bookViews>
   <sheets>
     <sheet name="Putz 101" sheetId="1" r:id="rId1"/>
@@ -46,6 +46,8 @@
     <sheet name="Putz 303" sheetId="37" r:id="rId37"/>
     <sheet name="Putz 304" sheetId="38" r:id="rId38"/>
     <sheet name="Putz 305 APS" sheetId="39" r:id="rId39"/>
+    <sheet name="Rama 306" sheetId="40" r:id="rId40"/>
+    <sheet name="Mark 307" sheetId="41" r:id="rId41"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -57,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="144">
   <si>
     <t>Sr. No</t>
   </si>
@@ -483,6 +485,12 @@
   </si>
   <si>
     <t>Monochrome laserjet printer CanonLBP6030BJ (Serial Number - NTNA753462, NTNA753450 )</t>
+  </si>
+  <si>
+    <t>1025VA Microtek UPS with Exide Solar Battery 150 Ah with trolley</t>
+  </si>
+  <si>
+    <t>1825VA Microtek UPS with two Exide Solar Battery 150 Ah with double trolley</t>
   </si>
 </sst>
 </file>
@@ -7870,7 +7878,7 @@
         <v>28070</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="39.6">
+    <row r="3" spans="1:7" ht="26.4">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -7894,7 +7902,7 @@
         <v>93104</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="52.8">
+    <row r="4" spans="1:7" ht="26.4">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -7989,8 +7997,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -8001,7 +8009,7 @@
     <col min="7" max="7" width="7.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="43.2">
+    <row r="1" spans="1:7">
       <c r="A1" s="64" t="s">
         <v>0</v>
       </c>
@@ -8048,7 +8056,7 @@
         <v>23980</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="52.8">
+    <row r="3" spans="1:7" ht="26.4">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -8419,6 +8427,220 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="27.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="27.6">
+      <c r="A2" s="15">
+        <v>1</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="C2" s="16">
+        <v>1</v>
+      </c>
+      <c r="D2" s="16">
+        <v>19560</v>
+      </c>
+      <c r="E2" s="16">
+        <f>C2*D2</f>
+        <v>19560</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="66" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="67"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="17">
+        <f>SUM(E2)</f>
+        <v>19560</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="66" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="17">
+        <f>E3*9%</f>
+        <v>1760.3999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="67"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="17">
+        <f>E3*9%</f>
+        <v>1760.3999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="66" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="67"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="17">
+        <f>SUM(E3:E5)</f>
+        <v>23080.800000000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A6:D6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="30.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="41.4">
+      <c r="A1" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="138">
+      <c r="A2" s="15">
+        <v>1</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="C2" s="16">
+        <v>1</v>
+      </c>
+      <c r="D2" s="16">
+        <v>19560</v>
+      </c>
+      <c r="E2" s="16">
+        <f>C2*D2</f>
+        <v>19560</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="66" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="67"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="17">
+        <f>SUM(E2)</f>
+        <v>19560</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="66" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="17">
+        <f>E3*9%</f>
+        <v>1760.3999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="67"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="17">
+        <f>E3*9%</f>
+        <v>1760.3999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="66" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="67"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="17">
+        <f>SUM(E3:E5)</f>
+        <v>23080.800000000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A6:D6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
@@ -8582,7 +8804,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection sqref="A1:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
